--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7700868430390114</v>
+        <v>0.03665615196558567</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.43017949450193976</v>
+        <v>1.9239186287906016</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7595580160689641</v>
+        <v>-1.2550187552939227</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.220632424064957</v>
+        <v>-1.197064106566883</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.46709789027017934</v>
+        <v>-1.4946442316441564</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.7802274647900449</v>
+        <v>0.7128978157260316</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2.1654693002077465</v>
+        <v>-0.5488985644293759</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.488755147502211</v>
+        <v>0.024437253103697397</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.04620765043527185</v>
+        <v>-0.4300506819917859</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.3479531578042234</v>
+        <v>-0.8950875881348211</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.35004841372158785</v>
+        <v>1.2772379972671921</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7286320680264292</v>
+        <v>-0.08769783225153047</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6180740616588899</v>
+        <v>-2.4555621928922324</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0982480739163245</v>
+        <v>0.896467301277569</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.44627844854834836</v>
+        <v>0.7553263687055355</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.16216810129234516</v>
+        <v>0.2696817293093765</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6440120389020955</v>
+        <v>1.1601717824012854</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.1117228323248214</v>
+        <v>0.23017031858947945</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.4452281652246117</v>
+        <v>2.225420673267554</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8225854474027438</v>
+        <v>-0.8664705658691612</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.239252222397159</v>
+        <v>0.7479523348509158</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.048967106009525425</v>
+        <v>-0.32056203063130617</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.03700436902903286</v>
+        <v>-0.830560575606642</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1562182958572727</v>
+        <v>0.2443424565975309</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.3904099610398073</v>
+        <v>-1.1648629697223587</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28554114121621327</v>
+        <v>-0.026246056795298914</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06599952663301059</v>
+        <v>-1.2947188383651522</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.7885815186266252</v>
+        <v>0.19046628341704328</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.188435755959598</v>
+        <v>0.5028074189449253</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1947214852312516</v>
+        <v>0.815673174482617</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.009569624881198191</v>
+        <v>-1.160457631195735</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.23922530854245866</v>
+        <v>0.43859241176240804</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4870818186642585</v>
+        <v>-0.4752602664059423</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4012932217504922</v>
+        <v>0.04016759459358114</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.10198006651296909</v>
+        <v>0.9153862343652515</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.5328646485796822</v>
+        <v>0.34592933868015185</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.476258861533651</v>
+        <v>-1.647193624792939</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>1.33820299303975</v>
+        <v>-0.08331957729926776</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23709059971954122</v>
+        <v>-0.35360282707396684</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.5107797323327534</v>
+        <v>0.9109343218192679</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.1936489997099886</v>
+        <v>-0.9890946369955731</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.7821893256233879</v>
+        <v>-0.6283491197909172</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.9677079345210711</v>
+        <v>0.7491049261899092</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1.1789506548455244</v>
+        <v>-1.4477074343923948</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.4230638228913949</v>
+        <v>-0.6489354813872703</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1.2920687633422598</v>
+        <v>1.1094956497307755</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.6359579181966182</v>
+        <v>-2.5613878271348685</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.9352714525032206</v>
+        <v>-0.8880515191501964</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.24418530123030988</v>
+        <v>1.1330481649659356</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.1151296665162428</v>
+        <v>0.6304421931232392</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02360773107311445</v>
+        <v>-0.5910595391146048</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.6055727560408839</v>
+        <v>-1.3463384237610294</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.5184185108987258</v>
+        <v>0.5370503208789813</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7938742228280833</v>
+        <v>0.42458638081904065</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.536851245434377</v>
+        <v>-0.4489830345968749</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.6259134550635589</v>
+        <v>-0.2745130117731283</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.1122179671965988</v>
+        <v>0.17993543034762718</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>2.307468303848546</v>
+        <v>0.4520763508043607</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.6269642683007256</v>
+        <v>0.6800156740391947</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7356487675372523</v>
+        <v>-0.6250724459241799</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1.5902616994285868</v>
+        <v>0.7172276066406915</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06301274319939879</v>
+        <v>-0.3066193120877583</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.7098793299702434</v>
+        <v>0.9205450406164922</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7286641255023271</v>
+        <v>-2.3109550319077212</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.3676823232993065</v>
+        <v>0.34549780119792867</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.31090553492375317</v>
+        <v>-0.2558937065193002</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.18263458036867333</v>
+        <v>0.9745321789058079</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1.8453462191486445</v>
+        <v>0.8002720249544485</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7283177165722514</v>
+        <v>-0.47359410646947353</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.5682361193816441</v>
+        <v>-0.9593426425822633</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07617616426444096</v>
+        <v>-0.989347601532771</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1050303844294092</v>
+        <v>-2.07800649980206</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.45870243239749386</v>
+        <v>0.8180462507946193</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3944998124798908</v>
+        <v>0.8163894244974367</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9507513817873234</v>
+        <v>-0.9051581342662864</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6903096749060478</v>
+        <v>0.5922626367586759</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.5840850830842064</v>
+        <v>0.714548546117131</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2.2001254722176316</v>
+        <v>1.3815417920229047</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8188561501039852</v>
+        <v>-0.4862759891308668</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.0756278396268802</v>
+        <v>0.3372121461697911</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.2812115292807948</v>
+        <v>-0.6456253773773979</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.3585075668971005</v>
+        <v>1.4301567324086597</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.7670936318205114</v>
+        <v>0.30853808922325177</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5352215100197474</v>
+        <v>0.2789317048296553</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.486633501118621</v>
+        <v>0.2282921552067484</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.160621741540797</v>
+        <v>-1.993364531811677</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5358517753136787</v>
+        <v>-1.5001781387052533</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4937461481530433</v>
+        <v>-0.6516346580855913</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.6314656538420429</v>
+        <v>-1.7315603423507497</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>1.2930748024034118</v>
+        <v>0.4456407980657965</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>2.392895170927711</v>
+        <v>1.3294432089389703</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.8363375317662617</v>
+        <v>-0.14226320082732152</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2727634761687407</v>
+        <v>-0.13363864687883417</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.2842314531424812</v>
+        <v>-0.08881177032885987</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.1134849283364494</v>
+        <v>1.6133918090739692</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.19957611455672003</v>
+        <v>0.7215309351358685</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.701395415800021</v>
+        <v>1.0472770023422329</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8477244217278237</v>
+        <v>0.6316979088967513</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2288555202550451</v>
+        <v>-0.46283560891560654</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.167842645244595</v>
+        <v>-0.4986430409778586</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.6305805257814076</v>
+        <v>1.824817386233449</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1845081683781115</v>
+        <v>0.5844555638975122</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6023989128428207</v>
+        <v>0.15969320925966762</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8308608394472273</v>
+        <v>-0.5358324906089369</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6471862967634946</v>
+        <v>0.49141418470499754</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1.6037545607428156</v>
+        <v>-1.6644418702186703</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.9000086533623197</v>
+        <v>-1.1093526409739605</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.33038295493157377</v>
+        <v>-0.12981543763322032</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.4288905504533776</v>
+        <v>-0.49213887240361415</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0015137133616774</v>
+        <v>-0.5903975168567877</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.6905207212880934</v>
+        <v>-0.5732094512481847</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.39993413744309475</v>
+        <v>1.5126359146790012</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.42304910827672776</v>
+        <v>-0.504601888538242</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.5260619938952074</v>
+        <v>1.6433805729039732</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9713761928280447</v>
+        <v>0.9695129349630347</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.15390135870088417</v>
+        <v>0.943952740205004</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9032828826695066</v>
+        <v>-0.46718496791002173</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.044616743143278424</v>
+        <v>-2.0497483644846684</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07898784268894646</v>
+        <v>1.7374793716274393</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.22182491612336297</v>
+        <v>0.28033918487374004</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.362461935763903</v>
+        <v>1.3475151875331173</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.48780344390748936</v>
+        <v>0.5005378839953356</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.41002553210169423</v>
+        <v>0.6696028525156115</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3890193784769213</v>
+        <v>-0.415730377359972</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>1.1124020312828353</v>
+        <v>-0.8852322546443624</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.664176565954477</v>
+        <v>-0.32693590435523134</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3221322738803737</v>
+        <v>0.6420386345857159</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.6201928606447251</v>
+        <v>-0.6423317678872986</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.9667101640710953</v>
+        <v>-0.5113996785458155</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>1.2812370362164214</v>
+        <v>-0.6277684296177103</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.702201704490599</v>
+        <v>1.382022522697533</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.0340340643122705</v>
+        <v>0.9013591611170726</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.13394324127514257</v>
+        <v>-0.03585250102382362</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.6521624308188833</v>
+        <v>-1.0111188151987802</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.24748485268168915</v>
+        <v>-0.6058810053661656</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9802034217156785</v>
+        <v>0.05293305468832862</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.276171391074626</v>
+        <v>0.23674882049417567</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>1.1650854214491793</v>
+        <v>-1.1072816369526355</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.7686406192356575</v>
+        <v>-1.189138542786546</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.46230710844953593</v>
+        <v>-0.9887611778570959</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.4531122928794302</v>
+        <v>-0.1904515949328551</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8283914315975786</v>
+        <v>-0.7094768812967157</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6638831879454692</v>
+        <v>-2.3409125058475007</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.5984147923792469</v>
+        <v>0.5698940494956956</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6690824731088456</v>
+        <v>0.027538000773978936</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5452951781021441</v>
+        <v>2.2232335068410984</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.36627914697477976</v>
+        <v>-1.0025900617158263</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3686133216208734</v>
+        <v>0.18264008897418213</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>1.379171392699177</v>
+        <v>0.600458605575438</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.4104437465240802</v>
+        <v>0.6196092465147308</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.05089000269805411</v>
+        <v>1.0639891323196344</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.28321414073145357</v>
+        <v>-1.6897361981850962</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.06629337622002156</v>
+        <v>-0.06032649799541608</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1560189657738962</v>
+        <v>-0.7307777360046648</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2106179964306317</v>
+        <v>0.25279633996778555</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.6267507825871375</v>
+        <v>-0.2578539849732087</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.6577670258636592</v>
+        <v>0.4100610455735778</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.7625287690250007</v>
+        <v>-1.3397393120533978</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.5348396529146929</v>
+        <v>1.3650090237142491</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>1.1646164432311255</v>
+        <v>0.9088331191298582</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5414832583493748</v>
+        <v>0.21345960429901176</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.30336627141363376</v>
+        <v>-0.9109175796511275</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.17357457536736487</v>
+        <v>0.9997692374382218</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.1424626195149175</v>
+        <v>-1.9006093413192056</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.24205649051213668</v>
+        <v>0.49526377526279236</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.28164372346356065</v>
+        <v>-0.5493366899262694</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.33415841265151625</v>
+        <v>-0.6573374696343123</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.09731374315958638</v>
+        <v>0.9440902443203683</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.14082434556664433</v>
+        <v>-0.9165035438665406</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>2.4936180762271807</v>
+        <v>0.13355456075409555</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.1474569480383858</v>
+        <v>-1.1325681959134575</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.44305014278145116</v>
+        <v>-0.3420476238382679</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.7226474360897959</v>
+        <v>-0.9980912107802269</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.0403907226231395</v>
+        <v>0.6180731075231463</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7842179706102334</v>
+        <v>0.2455162014541853</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1.2470601343839782</v>
+        <v>1.0071955769249907</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.32603031966456386</v>
+        <v>-0.06034425460904562</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.20774220069084778</v>
+        <v>1.2239961257560532</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.12906544927229466</v>
+        <v>-0.02303712493696264</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.3945813718042893</v>
+        <v>-2.0396660466303773</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.451823618496431</v>
+        <v>-1.3769531891201388</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.7281982994749037</v>
+        <v>-0.2906066606170949</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.10272820274491955</v>
+        <v>0.7110856755329155</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8698638416628186</v>
+        <v>1.4571047634320358</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.49167765382818734</v>
+        <v>0.5717634753789452</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.16369434616684592</v>
+        <v>0.5413555626142745</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.5601666374061929</v>
+        <v>1.4303151406203956</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>1.813576899489098</v>
+        <v>-1.7732879891017348</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.856580180402175</v>
+        <v>0.8191415135311686</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.9392763407276117</v>
+        <v>-1.174401171279085</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.49376146188621334</v>
+        <v>1.213806912752835</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.13817420180666265</v>
+        <v>-0.9586358111982389</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1.112869429279636</v>
+        <v>0.07034300708339235</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.37268736146082426</v>
+        <v>-1.1570529297303074</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.8369139314457511</v>
+        <v>0.5313915478920945</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.481980038324698</v>
+        <v>-0.3290797357478217</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>1.6689436802761033</v>
+        <v>-0.2297932066642843</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01991299994682571</v>
+        <v>0.007676873407379688</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.2281483228427771</v>
+        <v>-0.2586545974573167</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.2412909017024414</v>
+        <v>0.6563396821058871</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>0.3327065236123546</v>
+        <v>0.08640349553058937</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.7047702579815388</v>
+        <v>0.8145548478941376</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.20589182323651659</v>
+        <v>0.544850476651681</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>1.5742552875818734</v>
+        <v>1.267767673712018</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8121034975228314</v>
+        <v>-0.6501500613987481</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>2.23138547340748</v>
+        <v>1.1293885958477476</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.26065588644822457</v>
+        <v>-1.1117781530013287</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>1.675252332847093</v>
+        <v>-0.852194906755242</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.7334214572138116</v>
+        <v>-0.6950150430455218</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.0507720647956442</v>
+        <v>-0.8659969660908273</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8257362238515878</v>
+        <v>0.8314412525377533</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.125787827625177</v>
+        <v>-1.1341111095153944</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>0.17305755408303153</v>
+        <v>0.5674191972666629</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.3130629572323728</v>
+        <v>-0.46946849182308253</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.07698587539298093</v>
+        <v>0.2753243077671211</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.1624320558645981</v>
+        <v>0.032212944565580506</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.6506042947488543</v>
+        <v>0.7589384670221339</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.5035773367657528</v>
+        <v>0.27907046357848864</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.4076928110593481</v>
+        <v>-0.24249377930384405</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.4572833372903866</v>
+        <v>0.04060320259832841</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>0.4772071403630625</v>
+        <v>-0.6414485766667858</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.07293738688340823</v>
+        <v>-0.960519926700459</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.5446301678945399</v>
+        <v>0.8716547594638764</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.1764077749764439</v>
+        <v>-0.7404684781725251</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.4263094203212812</v>
+        <v>-0.30252782130255934</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>1.0275027566262775</v>
+        <v>-1.2076696773111022</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5653212818270269</v>
+        <v>-1.019860212209895</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.28305261828616207</v>
+        <v>-2.105279867112628</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.2239663860474916</v>
+        <v>1.2424100976659966</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.1316894463371811</v>
+        <v>1.609233563000774</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>1.2162639865959772</v>
+        <v>0.3900332098661815</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.3640731008926989</v>
+        <v>-1.4505867915011987</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.12114889768208427</v>
+        <v>-0.8105216182699085</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>0.013235061159454475</v>
+        <v>1.5604402411784728</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>0.6916944290631762</v>
+        <v>-3.141716022103605</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.3637325120099903</v>
+        <v>0.31347971393976337</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>0.4130609322071269</v>
+        <v>-1.7066951853521775</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>1.2778849916297295</v>
+        <v>-0.5356845295191752</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.3959185698189918</v>
+        <v>0.4348454105636087</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.26657049596116744</v>
+        <v>-0.31845779890692094</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.1305754227693195</v>
+        <v>2.3582335498491585</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.22256574341417734</v>
+        <v>-0.7474679685859968</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>0.4883709544940158</v>
+        <v>0.7645548348505253</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>0.7979866045196209</v>
+        <v>0.14278453649041223</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>0.29357429965134607</v>
+        <v>-0.6269517764825481</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5766526786066887</v>
+        <v>-1.38061567709434</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.5244434284118831</v>
+        <v>-1.7556612671310985</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>0.2861208160622992</v>
+        <v>-1.9355288314570518</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>1.097027752719023</v>
+        <v>-2.118090848453024</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.5771486308642523</v>
+        <v>-0.5174524064587508</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.11930550457478188</v>
+        <v>-0.6957257088634015</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.0754656668330915</v>
+        <v>-0.8751354855878276</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.4104672662798821</v>
+        <v>0.17855534929730055</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>0.2717809164691649</v>
+        <v>2.425862444658345</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.6242610746301045</v>
+        <v>0.439381234401217</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.5616493384820546</v>
+        <v>-0.2660386818403206</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>0.05260996816061137</v>
+        <v>-1.8145381990545055</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.528942345735776</v>
+        <v>0.20241568947588703</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>1.3259637419339654</v>
+        <v>-0.7079041005762631</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.5677381842055579</v>
+        <v>0.9016790031580671</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>1.1382019198363453</v>
+        <v>0.26583474952224856</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.6762636018913126</v>
+        <v>-0.06195689117189915</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.03735571025119374</v>
+        <v>-0.02531849675870322</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.4272173899032816</v>
+        <v>-0.6501900982490597</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.10330584129808779</v>
+        <v>-0.45765861577010875</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.7919926238107974</v>
+        <v>-0.35773042582219977</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.7411670462809622</v>
+        <v>0.48223544279456637</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>1.894152738231257</v>
+        <v>0.08660160181594542</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.1824803459202423</v>
+        <v>-1.0203198595321963</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.3506440031460814</v>
+        <v>-2.113734947348678</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>-2.1909429294897307</v>
+        <v>0.4754048367672391</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.2064149798968329</v>
+        <v>0.8556255742246843</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>-2.0743918175173266</v>
+        <v>0.5013153821973113</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>1.4656544550710824</v>
+        <v>-0.03736466255716632</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>0.8536487183997993</v>
+        <v>7.764854447945851E-4</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.5676184830170954</v>
+        <v>0.14424861704396144</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.046946709780755186</v>
+        <v>-0.4490059657734325</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>1.712967388523456</v>
+        <v>0.5596790194987173</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>0.21195313525066628</v>
+        <v>-2.653539916516305</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.13357554475824018</v>
+        <v>0.048170415308825355</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.1305480473224143</v>
+        <v>1.2844255590795726</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>0.9175807060993401</v>
+        <v>-0.4615609192967117</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8973445836056361</v>
+        <v>0.1003187886139089</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.07271685844719895</v>
+        <v>-1.113493880262243</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.42451670269989605</v>
+        <v>-0.02616376478446822</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>0.21851440204441816</v>
+        <v>-0.7810008593126108</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>0.5182377064522256</v>
+        <v>1.417480278441972</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2.077422640658941</v>
+        <v>-0.4274206247693801</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.15813637728166371</v>
+        <v>0.49859036724044187</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>-1.8353411820746488</v>
+        <v>0.2607091500625812</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>0.4036884512339572</v>
+        <v>-2.3204253036001163</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.6321300425098562</v>
+        <v>0.3186394689738445</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.778524260543124</v>
+        <v>1.5961756094667194</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>0.2911878230775411</v>
+        <v>0.4621322892399943</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.91199645273901</v>
+        <v>0.1273432547323532</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.22534960798492812</v>
+        <v>0.06386907566251618</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.526519894390191</v>
+        <v>0.08015082914909223</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.6424589939235553</v>
+        <v>-0.0368877121332972</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>1.7167260484068336</v>
+        <v>0.13706005524021178</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1.3234542471056097</v>
+        <v>1.609490415183062</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>0.10204861752838787</v>
+        <v>-0.9386812504515555</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-2.0452283116305865</v>
+        <v>-0.0697493657664189</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.10466716943974207</v>
+        <v>9.554433964015162E-4</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>0.5412785319786412</v>
+        <v>-0.659232594178714</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.5252865452344728</v>
+        <v>-1.6121452021107547</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>0.18803547549202462</v>
+        <v>-0.24777628254215828</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.9157018438793637</v>
+        <v>-0.2594800448941138</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.1482837217695014</v>
+        <v>0.9041386707882814</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>0.16517131092683696</v>
+        <v>-0.9540550983938451</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>1.3257480334163299</v>
+        <v>-0.24505514293539965</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.2181760421785362</v>
+        <v>-0.24684331380593552</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>0.0781175904240948</v>
+        <v>0.4619192688405226</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.102737944852775</v>
+        <v>-0.7442304443526977</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>1.5839557588061592</v>
+        <v>-0.5031686684069798</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.4861602677203587</v>
+        <v>0.8506712767328194</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>1.251254222362768</v>
+        <v>-1.6193600265553036</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>0.37209568881516764</v>
+        <v>0.15178814955784317</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.6801275517511891</v>
+        <v>-0.22102128375981706</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.00563791890345103</v>
+        <v>0.5291782381766896</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>1.778203163043614</v>
+        <v>-2.4009122936228655</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>0.9758887423249137</v>
+        <v>0.7091305747169999</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.1782280226664923</v>
+        <v>0.41342943730266885</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>0.14194231497116228</v>
+        <v>0.20874854491843037</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.6889011646043774</v>
+        <v>0.6226150949645489</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>-1.2728306555612054</v>
+        <v>-0.24307663248399872</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.5825117843125023</v>
+        <v>-0.7653262971892363</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>1.2467830865904568</v>
+        <v>0.16795886800406754</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>0.4114506248787276</v>
+        <v>0.6970794616781801</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8068938870022929</v>
+        <v>0.3284956962146659</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.3616490168663985</v>
+        <v>-0.05473960644154931</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.6423940716545379</v>
+        <v>-0.9035113652658404</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.9421649790896053</v>
+        <v>0.553154734452345</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.7177958678342301</v>
+        <v>0.7589898747360245</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>0.5713885889299832</v>
+        <v>-0.6087038873450858</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.5580339719644795</v>
+        <v>-0.3914270036115573</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-1.0186776651416238</v>
+        <v>-0.7601914260303739</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6756301360847579</v>
+        <v>0.5841651401039128</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.2981552327477389</v>
+        <v>0.006646684200549607</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>2.3554254354381423</v>
+        <v>-0.51566141009615</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.552614932173867</v>
+        <v>0.7496202945062358</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.556142977495844</v>
+        <v>0.17273730100200405</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.30535993287890534</v>
+        <v>1.8729673705558216</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>0.34548443813468305</v>
+        <v>0.4655815579940541</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>0.2774558111547192</v>
+        <v>0.5565375206466948</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-1.2054573808591074</v>
+        <v>-0.45884321032061426</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>2.5920036300910136</v>
+        <v>-0.03359471407744785</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>1.0140375579080085</v>
+        <v>0.9282937852405951</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>0.31264220967801143</v>
+        <v>0.2505956226424138</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.907557988474816</v>
+        <v>-0.3315343904971184</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.8525671928380734</v>
+        <v>-0.59188755839019</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.8499209224267652</v>
+        <v>-1.2549299420308924</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>-1.0587050760297885</v>
+        <v>2.597146737834604</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.14789475879358374</v>
+        <v>0.25063907423989906</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.29357139624416595</v>
+        <v>-1.1814649614959336</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>1.197411668013408</v>
+        <v>0.10629797403247239</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.14877415710667036</v>
+        <v>-0.5398393298014252</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.04648196483650394</v>
+        <v>-0.2128945661754059</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9607694454661164</v>
+        <v>-0.05297905476936401</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-1.1791730105572362</v>
+        <v>-0.37686858437110243</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>0.7984828049652595</v>
+        <v>0.2448325733336887</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>0.05882702977411997</v>
+        <v>-0.011839700704770535</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>1.6741282346865183</v>
+        <v>-0.2893964202170806</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>1.4269966782993933</v>
+        <v>1.5925066444959053</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.11598168280031723</v>
+        <v>-0.12137461576076246</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.6017673131002628</v>
+        <v>0.49962763438126045</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1141154147953687</v>
+        <v>0.15912680020269054</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>0.049238927660815994</v>
+        <v>0.4371234236693467</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.444091809768872</v>
+        <v>0.7759152704113116</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>0.9616956594854471</v>
+        <v>0.7401221530395955</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.7937729115556056</v>
+        <v>-1.3536710394228768</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.1289101090302573</v>
+        <v>0.09038969136092646</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.599314280988082</v>
+        <v>-2.0371822519419753</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>0.0314755906079925</v>
+        <v>0.5923184129620792</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.44027100964708166</v>
+        <v>0.3108907372034956</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.7386766662376815</v>
+        <v>1.1968790725424245</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>-1.6383696342459477</v>
+        <v>-1.5866541240656775</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>0.25558472743343097</v>
+        <v>-0.9888463507048176</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.3896545852620794</v>
+        <v>0.9080242155003638</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>1.1619558277649904</v>
+        <v>-0.6494000922017603</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.22814634591354208</v>
+        <v>-0.4832905892368038</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.6541237395678674</v>
+        <v>0.5372700154625408</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.7734199357705944</v>
+        <v>-0.5146645390596506</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.5767995419806433</v>
+        <v>0.5953294900605894</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>0.6996874848656183</v>
+        <v>-1.2371922573675758</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>0.5735923599545869</v>
+        <v>-0.9504817057233804</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>-1.159481506635527</v>
+        <v>1.245591027860375</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.5574257808002084</v>
+        <v>-0.8431545302779107</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.2569909760032933</v>
+        <v>-0.4254334863354421</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>0.3804485463377064</v>
+        <v>-0.848558340035549</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>-1.1879290233289865</v>
+        <v>0.015475028455527598</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>0.6356264086293723</v>
+        <v>-0.07472053065912294</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.253253394206148</v>
+        <v>0.47363581271834687</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.3841530126873351</v>
+        <v>0.6444838692643527</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>0.21592408526797352</v>
+        <v>0.9159134789116318</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.530212577188901</v>
+        <v>-0.8315450992662916</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.32647907666729914</v>
+        <v>-0.18264861922902234</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>0.13536109482748201</v>
+        <v>-1.3919679830606444</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>0.9596153294862438</v>
+        <v>0.7082478120201258</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>1.343197004733929</v>
+        <v>0.18896582357938332</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>0.8142959666968901</v>
+        <v>-0.21736687557696172</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>0.5311642121332657</v>
+        <v>0.07163462646149506</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>0.3782689022132778</v>
+        <v>0.13423355579428073</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.12351615917423359</v>
+        <v>0.15332789228265398</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>2.231386743538083</v>
+        <v>-0.9191769450684634</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>0.2851622366535993</v>
+        <v>-0.4293022796483966</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>-1.0517869384973944</v>
+        <v>1.5455431306103764</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.6731309396635026</v>
+        <v>0.8742316326956726</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>1.7101403513382192</v>
+        <v>0.10929614182562113</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>-2.3335101987186913</v>
+        <v>1.0395281516606663</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.13713955225724211</v>
+        <v>-0.8996189533686377</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>-1.299500789569862</v>
+        <v>-0.18849178558896781</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>1.704116960443342</v>
+        <v>0.6969980471081572</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.5189592813642283</v>
+        <v>-1.1218272917127075</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.9174842029253057</v>
+        <v>1.4941939865682128</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>1.5581502878607414</v>
+        <v>-0.4639133228273057</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.601647082562133</v>
+        <v>0.5903675148089841</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.8794695603863518</v>
+        <v>0.5970020782817226</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>0.010987780085163944</v>
+        <v>2.0682205854830116</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>0.4938723422061473</v>
+        <v>-1.689357359875746</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>0.17419863092200957</v>
+        <v>0.7441698742335733</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>0.5698788705374023</v>
+        <v>-0.24176285603355083</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.7982147850818965</v>
+        <v>-0.17153514059455272</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>1.5494001984778414</v>
+        <v>0.281546977289208</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>-1.832507894563658</v>
+        <v>0.6048968257453821</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-1.0747731385955723</v>
+        <v>-0.18535666236475534</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.7180701013186603</v>
+        <v>0.6036773692077865</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.06614271846667286</v>
+        <v>2.3668594886845145</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>1.9709826483611155</v>
+        <v>-1.5137275103549293</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>2.0048496034473446</v>
+        <v>-1.9452380852293443</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>2.3979209807028012</v>
+        <v>-0.27831932884101956</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>0.19522537636951717</v>
+        <v>1.3642754209902388</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.9311554176831477</v>
+        <v>-0.46240709229275406</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>1.739528975575567</v>
+        <v>-1.1881392330969538</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>0.6043596312571581</v>
+        <v>0.5266175426872842</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>0.022205015756220463</v>
+        <v>0.41065942143507905</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.39275261358745167</v>
+        <v>1.6298411719068977</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>0.28130983323103564</v>
+        <v>-1.2888164560147701</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>-1.4531947055639607</v>
+        <v>0.17941106148031846</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.10539666549656494</v>
+        <v>0.9550582240012839</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.04709086171930395</v>
+        <v>-1.5077063717959862</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>1.8526292802874678</v>
+        <v>1.74203699856276</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.45829119233792753</v>
+        <v>-1.068294177691233</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>-1.1023050174750602</v>
+        <v>0.6193699651677343</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.011519401280920862</v>
+        <v>0.36428082168878106</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.5531084312432408</v>
+        <v>1.1296601014248318</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.29672703305856446</v>
+        <v>-0.22342773493178045</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>-1.9184901080918304</v>
+        <v>-0.17922392923998984</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.21777042464000293</v>
+        <v>1.741470637374632</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.059851737531394875</v>
+        <v>0.31306277359268414</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.9987502458457466</v>
+        <v>0.8635631356536148</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>0.5928231841961575</v>
+        <v>0.24377603776803933</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>2.327109843166346</v>
+        <v>0.5505558016995418</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>1.0239408537900314</v>
+        <v>0.41682231883209636</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>1.174099934525624</v>
+        <v>-0.7995414335952364</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>0.38392659271343527</v>
+        <v>-1.2834114694356644</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>-1.5729009532562979</v>
+        <v>0.6704150712750134</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>0.6648399528728784</v>
+        <v>-0.38842327190222425</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>0.023591689075902592</v>
+        <v>-0.07531227836289141</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>1.3645015254700625</v>
+        <v>-0.3851169810953204</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>0.34946466422432043</v>
+        <v>-1.4330821957114661</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.32592809854217064</v>
+        <v>0.5804849363810288</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.34059449873275777</v>
+        <v>-1.13785100849936</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.09613649310835876</v>
+        <v>-0.26962366863709925</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.8760637574943945</v>
+        <v>-0.46265770069655443</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>-3.357724804956349</v>
+        <v>-0.8391306564041014</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.7120027173479987</v>
+        <v>1.664966063825764</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.7423621501353512</v>
+        <v>0.8293069644408865</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.36001920066896864</v>
+        <v>-0.13986134858169455</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>0.6446317402498595</v>
+        <v>-0.4555948184657351</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>1.3957281616090693</v>
+        <v>0.37307371329173783</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.11867773996922075</v>
+        <v>-0.3785816833756303</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1.018128018793679</v>
+        <v>1.2822944180763147</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>0.8953491794157997</v>
+        <v>0.9195456253337523</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>0.5371877174645231</v>
+        <v>0.9865423337862005</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>1.1984917095053031</v>
+        <v>-0.31593022824139094</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.14606506565717017</v>
+        <v>-0.23554203845811045</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>0.62632707097213</v>
+        <v>-0.7199891184974271</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.8912438457378009</v>
+        <v>-2.4329207983176273</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.6110256303379336</v>
+        <v>-0.43853811643137364</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.5810276430508118</v>
+        <v>0.8315431950194365</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.0298354618630698</v>
+        <v>-0.10116164924629942</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.8075511100042719</v>
+        <v>-0.17994567390859284</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.16270516119412032</v>
+        <v>-0.3603281865738334</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>1.043089900561835</v>
+        <v>-0.6681601527994628</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>0.6366581517353308</v>
+        <v>-0.361833411647274</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.32501489606728723</v>
+        <v>0.23982805931636203</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.6180842579073642</v>
+        <v>-0.6947792650371833</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.22655944508819953</v>
+        <v>0.8141343965111869</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.8275818549448127</v>
+        <v>-0.4273241046806423</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.23015078498283564</v>
+        <v>-0.4124313817923784</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>0.30949751098469785</v>
+        <v>0.05459349779586388</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>0.9251391369473979</v>
+        <v>-0.3685015262947846</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.8095072553016591</v>
+        <v>0.9344922451469797</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>0.027036219170212664</v>
+        <v>-0.933514376577486</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.571742720964832</v>
+        <v>0.4028611576713348</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>-1.6882850627646306</v>
+        <v>-0.9119684801773075</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>-1.0756195610357333</v>
+        <v>0.6037754774172148</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.39613866683059457</v>
+        <v>0.21384700636402662</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>0.006904831000350257</v>
+        <v>-1.3806744607628703</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>0.1298449417188338</v>
+        <v>-0.7994792436751726</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1.6846302963418534</v>
+        <v>0.517075947972194</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.48607806374837714</v>
+        <v>0.035974204920652016</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>1.2277516367538395</v>
+        <v>-0.3792091126927544</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-1.8545171121904476</v>
+        <v>-0.5749568605090585</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>2.4287656943904636</v>
+        <v>0.7409260959773684</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>0.26402332335043094</v>
+        <v>-1.1281708863768263</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>1.8882794927740376</v>
+        <v>-0.7754670932060674</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.7631808438941644</v>
+        <v>0.009074676441810484</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.8996668214125155</v>
+        <v>-1.2345445912644617</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>0.8531403203295105</v>
+        <v>-0.3030295155063958</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.18593579551396822</v>
+        <v>-0.3177804933425736</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>0.21841955182224318</v>
+        <v>-1.6222240350897545</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>1.2332011721389537</v>
+        <v>-1.1374601188002038</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>0.35104303446629903</v>
+        <v>-0.24338062804977692</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.9898300624302087</v>
+        <v>1.544491475809838</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.0848896811888582</v>
+        <v>0.30606625923155406</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.8028359532026188</v>
+        <v>0.3204331045525152</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.1936541217951178</v>
+        <v>-0.7233474519645261</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>0.22339503194173985</v>
+        <v>0.8731456140551397</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>0.20022910539406671</v>
+        <v>0.4244167795750454</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.3855838493498427</v>
+        <v>1.251736671532282</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>0.8206429856333498</v>
+        <v>1.0644839772277843</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.0339428351701423</v>
+        <v>0.8947924920900794</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>-1.7489709964232185</v>
+        <v>-0.7808049805065566</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>-1.815867892350346</v>
+        <v>0.2123475229845536</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>0.7718796218858021</v>
+        <v>0.4773752337254613</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.07738538906971558</v>
+        <v>0.42369179791330674</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.2593286189558168</v>
+        <v>-1.34760619676064</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>0.8339471144163543</v>
+        <v>-0.33374664555507183</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>1.566279419372551</v>
+        <v>1.2976518763096176</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>0.556323200524515</v>
+        <v>-0.20805945994189098</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2191690200437781</v>
+        <v>0.7313458553852452</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.15754797805445722</v>
+        <v>0.0028831605152112054</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.5346992848330288</v>
+        <v>-0.9924132141069508</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>0.20290933188886512</v>
+        <v>0.9632176055962774</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>0.9204851781690271</v>
+        <v>0.7138917837344939</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.3017882476560026</v>
+        <v>0.11695269285324711</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>1.2380872535247527</v>
+        <v>0.21342927244651602</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.03423171975819922</v>
+        <v>1.3847163198548031</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>1.5513347784180938</v>
+        <v>0.06833611908683024</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.014213253488747742</v>
+        <v>0.501806881720152</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>-1.2556263945540884</v>
+        <v>1.5090007261070462</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.6453257193691672</v>
+        <v>0.2078766435466306</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>-1.5500708543222899</v>
+        <v>1.1335470136850316</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>0.07022202036584878</v>
+        <v>-0.5161000432904743</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>-1.2764568223423352</v>
+        <v>-0.6214339506611075</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>-1.37516707894253</v>
+        <v>1.258775723242484</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>2.421940377178967</v>
+        <v>-2.280234348564338</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.09327932684575242</v>
+        <v>0.3039053931984437</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>1.0009070564825149</v>
+        <v>1.196048600933146</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.07414994374601662</v>
+        <v>-0.07410590099085475</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>1.0297318894903011</v>
+        <v>-0.4567696978216727</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>0.12276996126202089</v>
+        <v>-0.010061438239670492</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>1.029458826937182</v>
+        <v>-0.11648070729847497</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>-1.353578957911345</v>
+        <v>-0.5241441778185127</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.17729141282054778</v>
+        <v>2.757055759082502</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>0.08838826053768847</v>
+        <v>1.1366101348318007</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-1.0688801108969834</v>
+        <v>-0.10626298101331669</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>0.44397642122404923</v>
+        <v>2.0199250620859854</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.6213558635283878</v>
+        <v>1.1239227259464006</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>1.3111613399704454</v>
+        <v>-0.8754984648351588</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>0.23789218057075912</v>
+        <v>-1.3235684228870257</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.32915319393099685</v>
+        <v>-0.24691736517423216</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>-1.3228347878734075</v>
+        <v>-1.7833971814988394</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>0.9419340351699046</v>
+        <v>2.1839217140387626</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>0.6232123424543983</v>
+        <v>-0.03330219930730242</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.24158281341170262</v>
+        <v>0.5530649314038102</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>1.6308750700355055</v>
+        <v>-1.220961338723744</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.31569168542337994</v>
+        <v>0.37161488666559156</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>0.7559222081778723</v>
+        <v>1.2870210697098068</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>1.026591335268646</v>
+        <v>-1.2019411079051234</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>2.0930149068051893</v>
+        <v>-1.06041046553149</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.09118781931603732</v>
+        <v>0.22876835615697047</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>0.02270868856050015</v>
+        <v>0.8297363798251673</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.0705338471270609</v>
+        <v>-0.39326391541525113</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-1.0460318127853778</v>
+        <v>-0.587714520814017</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>0.9700051156619727</v>
+        <v>1.4223190517714823</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>0.17784099773414153</v>
+        <v>-0.48523535459616784</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.04141831828446864</v>
+        <v>-1.7743347510715055</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.23569677949438558</v>
+        <v>0.42119266016430457</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>0.9110435677419687</v>
+        <v>1.4485536533124648</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.5283772769832676</v>
+        <v>0.4518258008642835</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>-2.754702441488689</v>
+        <v>0.46117797618197187</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.4770672693373546</v>
+        <v>1.348390069894542</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.16490610396278765</v>
+        <v>0.4496252980079342</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.3566360218850141</v>
+        <v>0.6652766430324252</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.087420405457668</v>
+        <v>2.0857669220407358</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>-1.306998272792156</v>
+        <v>0.4007159488893885</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1.1069422779260214</v>
+        <v>-0.8894124649403086</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>0.8301146480903626</v>
+        <v>0.35254811711990386</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>0.0362348591060638</v>
+        <v>-1.1782821088017468</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.2973882272115922</v>
+        <v>-0.6018103386276444</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>1.4128413904830155</v>
+        <v>0.7003208689356167</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>0.5956389824930394</v>
+        <v>0.01143728751995725</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1.187790356849689</v>
+        <v>1.2419215603716833</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.3153864010622971</v>
+        <v>0.7175320126268203</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.21114633224217544</v>
+        <v>-0.014305379019412479</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>0.4019433598904737</v>
+        <v>-0.14650170823645556</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>0.06096517287672022</v>
+        <v>-0.06295297214843057</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.08613139022154151</v>
+        <v>-0.35249734254736853</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.4171339783505966</v>
+        <v>-0.02792490143400832</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>0.5047685008893937</v>
+        <v>1.2682605361002157</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.2902470880051275</v>
+        <v>-0.22262658559825155</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>0.37871100802072927</v>
+        <v>1.7359391451760844</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>0.22041718321280207</v>
+        <v>-0.34599666988466304</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.2463562197570895</v>
+        <v>-0.37688430517043336</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.3603892816637226</v>
+        <v>1.4278234355937554</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>0.14111766655033192</v>
+        <v>-1.448181534039382</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>1.88221390384908</v>
+        <v>-1.6481426418833973</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1.6189152249088077</v>
+        <v>1.0475451969126583</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>2.136050780452955</v>
+        <v>-0.9700482542751766</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>-1.1165534879390218</v>
+        <v>-0.46249564157745054</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>-2.5884683058527687</v>
+        <v>0.17203920508960419</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.5613874907634752</v>
+        <v>-1.7286071447683622</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>-1.421389815863949</v>
+        <v>-0.08164142626381836</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>0.48606663166222364</v>
+        <v>-0.8498496835709184</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.01694423679824802</v>
+        <v>1.5362757914873035</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.4338184890958666</v>
+        <v>0.715084286827625</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.09601826446991292</v>
+        <v>-1.0838968506209448</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>0.4390851408889881</v>
+        <v>0.2973929215922543</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>0.6491102947487634</v>
+        <v>0.6191002117528702</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>-0.00584178692789696</v>
+        <v>-1.1603365467736948</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.7139029507526068</v>
+        <v>0.8609012646205975</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.10816465621231676</v>
+        <v>-1.6168557253395484</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.22825455628398356</v>
+        <v>-0.7056974539231913</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>0.023919033557610728</v>
+        <v>1.5261912886946871</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>0.18934304984223146</v>
+        <v>-0.07245145839453292</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.822493200683813</v>
+        <v>0.5449061648914445</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>-1.6296820068367632</v>
+        <v>1.3247703323433848</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.1782434644667545</v>
+        <v>-0.687406479900913</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.19510348984902978</v>
+        <v>0.5902283338847489</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>2.077994300144636</v>
+        <v>-0.9345303520902528</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-1.6683510555332481</v>
+        <v>-0.365955798276269</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.10010276018023082</v>
+        <v>-1.5736448818953812</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.8607653785889244</v>
+        <v>0.07913895369125892</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>1.5354101162123828</v>
+        <v>-0.4066452527474769</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.3998732257760034</v>
+        <v>-0.3995821667378692</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.9293910106345928</v>
+        <v>-0.5814283005553386</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.31189765828085814</v>
+        <v>-0.765875018686036</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>-1.1194285340510344</v>
+        <v>-1.074010302122923</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.745695386649882</v>
+        <v>-0.15231618771494415</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.7146672521031983</v>
+        <v>0.9734604273725298</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>-1.0769134362119908</v>
+        <v>-1.2344837573123502</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.7913229001059842</v>
+        <v>0.4879302821303748</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.5885827401562639</v>
+        <v>-0.8101390027973846</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>1.2123253836249315</v>
+        <v>-0.46888971211716424</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>0.6913138425350112</v>
+        <v>0.9281533848509552</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.2829073197793557</v>
+        <v>0.6227004278216002</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.43706299009332034</v>
+        <v>-0.3494514136008246</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>-1.0797159012698245</v>
+        <v>-0.9976568198104613</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>-1.330861025417161</v>
+        <v>-0.964182967764642</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>-1.0580182938664473</v>
+        <v>1.5595856980975307</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>1.0697766702327929</v>
+        <v>-0.7379176366747555</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.2686134988788007</v>
+        <v>0.5635579344475424</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>1.137928820528218</v>
+        <v>1.6352377204045347</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.1757770692984019</v>
+        <v>-1.388809431808404</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>0.33432392877037204</v>
+        <v>1.54859725552439</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>0.0921359443751657</v>
+        <v>0.20672352824764129</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.1679432881171137</v>
+        <v>-0.06111242146889635</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.9101332129587475</v>
+        <v>-2.3358782912270324</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.921194937096118</v>
+        <v>0.10223330505566293</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>1.0535019934205339</v>
+        <v>-0.42636921841691344</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>-1.0827266503506348</v>
+        <v>-0.5637516906969403</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>0.32004146222472707</v>
+        <v>-0.10647263841376149</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.22144207291839244</v>
+        <v>-0.17058855714753504</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>0.12902331054870605</v>
+        <v>0.41490533664136636</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>0.38724299759019576</v>
+        <v>0.48803013148225755</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.8532530965998334</v>
+        <v>-1.1660291509333691</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.9013454370979985</v>
+        <v>-0.5046055777780899</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>1.4251171167343761</v>
+        <v>-1.5408147615106973</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>1.0603638250543332</v>
+        <v>0.07432684179520763</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>-2.186189916866456</v>
+        <v>1.3601785280754584</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.9520602618653898</v>
+        <v>0.4682994451855839</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.5112909200477062</v>
+        <v>0.23882970712814386</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-2.0245381029986107</v>
+        <v>-0.5932465680905493</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>0.889892749117138</v>
+        <v>1.2828726695085466</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>1.140583861611603</v>
+        <v>0.023933633980053815</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.6150784240022185</v>
+        <v>0.5807806720519544</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.2619231214491436</v>
+        <v>0.02198237027041148</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>-2.0536701419448518</v>
+        <v>1.4937055038820515</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>1.6425946001732836</v>
+        <v>-1.6706265270846772</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>0.9001757497040801</v>
+        <v>-0.44027604779099105</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>-1.3103056039276388</v>
+        <v>0.36774146511653577</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>1.6805834010754723</v>
+        <v>-0.21781824429242205</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.92447185042688</v>
+        <v>-0.6163544246440918</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>1.1086456334914307</v>
+        <v>-1.1726613477368122</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>-1.280407218848754</v>
+        <v>-0.887915887068782</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>0.3770824863258485</v>
+        <v>0.2942672711021693</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3737606500546075</v>
+        <v>1.2475161075408556</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>0.33556170803601143</v>
+        <v>0.19259981918736943</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.7664821140959328</v>
+        <v>1.2874929606639347</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.7485920853078968</v>
+        <v>-1.0792891637527913</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.1523558120062139</v>
+        <v>-0.14083287872221611</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>1.2711275358641971</v>
+        <v>1.4482201098815985</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.05137657805090936</v>
+        <v>-0.8619440172641325</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.30755714259424727</v>
+        <v>1.0507628541356389</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>1.2673491230207994</v>
+        <v>-0.07179732689274604</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>1.4424066588550275</v>
+        <v>0.1167366208466671</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.6023509141345115</v>
+        <v>0.9778665082202985</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>0.49112524676704916</v>
+        <v>-1.0315420111450262</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>1.6725775838757864</v>
+        <v>2.1991293253164925</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.7594125428213503</v>
+        <v>-1.4484113267641217</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>-1.345677676755737</v>
+        <v>0.45525579461538374</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.5865664785344882</v>
+        <v>1.0947425133729145</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>0.7213527051670927</v>
+        <v>-0.6159063161505894</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>-0.1716866312169977</v>
+        <v>-0.188314525868149</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>0.4284514453834181</v>
+        <v>0.5945577595754521</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>1.0513822965948623</v>
+        <v>0.1449102582038014</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>-1.236202914043942</v>
+        <v>-0.866716504321091</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.495467656862977</v>
+        <v>0.9001427953487138</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>-1.0753565712109419</v>
+        <v>1.525563392632039</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-1.7494837268746937</v>
+        <v>-0.6885003120657154</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>-1.0219739708171744</v>
+        <v>0.0040675825218756635</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.41185898487281314</v>
+        <v>0.9811701348762509</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.07409479061587558</v>
+        <v>0.5978883559835284</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>0.21814621299225193</v>
+        <v>-0.6338209431504896</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>-1.2147178854388145</v>
+        <v>-0.379427027761042</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.23185988138270494</v>
+        <v>-1.4077330699548345</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>0.7343842684661923</v>
+        <v>1.7226231380022374</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.41154223455375727</v>
+        <v>0.7068146476255212</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.018755714514934584</v>
+        <v>-1.2830454747412576</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>1.2860418876905055</v>
+        <v>0.0824746937830665</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.2129472460946817</v>
+        <v>1.1664307812983419</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>-1.1295738922965175</v>
+        <v>-0.4955595997220479</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>0.09883511326569096</v>
+        <v>-0.571426244212522</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.7045407444113111</v>
+        <v>-1.1608251217024794</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>2.2027881849975692</v>
+        <v>-1.1425599157402715</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>0.8144280049218352</v>
+        <v>-0.5785209386431192</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1.1877456419479355</v>
+        <v>1.0405885500362635</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>1.3863791628842885</v>
+        <v>-0.85821664524264</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>0.6497779330918185</v>
+        <v>1.5195301167936317</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>1.5074127447221215</v>
+        <v>0.49477798498541564</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>-0.16319464297646927</v>
+        <v>-0.4545177161188972</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>0.23700443165583351</v>
+        <v>-0.9356436611257595</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.6748644937870169</v>
+        <v>-0.9106488482980967</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>0.327302104755627</v>
+        <v>-1.0247380118333034</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.31161120765911404</v>
+        <v>0.6685470585839267</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.6498377519743991</v>
+        <v>0.49097936732446507</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.9507683875333457</v>
+        <v>0.419734429895088</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.020775144834278194</v>
+        <v>-0.3004793568518872</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5996587007769435</v>
+        <v>-1.105702378354537</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>0.3852818388579161</v>
+        <v>-1.7239496482336247</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>0.35294164431976716</v>
+        <v>-0.2228708488490351</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>1.02406527111835</v>
+        <v>1.5735154767595316</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>1.3711851488387534</v>
+        <v>0.21709871452489862</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.4254570863136222</v>
+        <v>0.728334974436501</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.30676850739436</v>
+        <v>0.04099185161888599</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>1.0596260539261046</v>
+        <v>0.2706557752124968</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>0.40948995204211536</v>
+        <v>-1.0322795486164593</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>-1.0964140329401633</v>
+        <v>1.2644757449393498</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.1916922048492083</v>
+        <v>-0.13842107652335742</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.0015180633349311874</v>
+        <v>-0.9662350828284293</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>1.1735643603785144</v>
+        <v>0.1736350762688463</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>0.7358425437410924</v>
+        <v>-0.04458199746171094</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>0.15814106816755708</v>
+        <v>-0.7910594941579667</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>0.5936524518428821</v>
+        <v>-0.7827797954619711</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>-1.0071760792025752</v>
+        <v>-0.40127542286801954</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>0.5125537752912362</v>
+        <v>-1.987545733645883</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>1.7491549676121423</v>
+        <v>0.4559039641087076</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>0.1744858052342645</v>
+        <v>-0.03434293249397076</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.4719705516871982</v>
+        <v>1.665030889027905</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>2.1259588791849664</v>
+        <v>-1.2345170008302366</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.832750029794285</v>
+        <v>0.011919487668219063</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>1.1492535559425194</v>
+        <v>1.625154328540094</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>-1.2468463451624483</v>
+        <v>-1.6361705668162603</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>0.949345219072905</v>
+        <v>-0.38007670063028054</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.9381404786992806</v>
+        <v>-0.06550317819143628</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>-1.00797376556754</v>
+        <v>0.20463040679009764</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>-0.9942090471292627</v>
+        <v>0.525876645519499</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>-2.038664461864013</v>
+        <v>0.7492478366346269</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.7215762577631085</v>
+        <v>0.6392182773156092</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1.035035887420587</v>
+        <v>-1.702590715988203</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>0.3986541834812003</v>
+        <v>0.8979339626146328</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>0.9713091126099871</v>
+        <v>1.2693099671923536</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>0.18362822927422934</v>
+        <v>0.5142982286732757</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>1.6613972590503177</v>
+        <v>-0.3390081746143631</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.6087794034798816</v>
+        <v>0.7329515045808659</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.5517313821937402</v>
+        <v>-0.4921756200869503</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>-1.1976177989142036</v>
+        <v>-0.18916728434028912</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.56123838009713</v>
+        <v>0.5441565466459006</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.10757660231225984</v>
+        <v>-0.7014392051690984</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.41259725091561983</v>
+        <v>0.28192327533530115</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.9122905534525478</v>
+        <v>0.3755609114852302</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>0.23400010657810308</v>
+        <v>-1.1456205640561457</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.8425209926116494</v>
+        <v>1.3897605467119232</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>0.8437903544921962</v>
+        <v>-0.47847413745433615</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>1.1192689964551368</v>
+        <v>-0.5439140245630532</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>1.480001398557428</v>
+        <v>0.24603881526290733</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>0.28280814171498575</v>
+        <v>0.014734447228672705</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>0.4563229104320908</v>
+        <v>0.32653613251279345</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>-0.08802503242649624</v>
+        <v>0.3916530138577157</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1.3571000063260612</v>
+        <v>1.0153152376060572</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.16134018087928095</v>
+        <v>-0.455490550415652</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>0.20965351389674777</v>
+        <v>1.620639520075134</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>0.2439005788737392</v>
+        <v>-1.5450876238899949</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-1.0426909520999426</v>
+        <v>0.891131450390672</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.18394839862000809</v>
+        <v>0.9123215064117218</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>0.17926674616058796</v>
+        <v>-0.07131368646431406</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>-0.6686467649946316</v>
+        <v>1.13969595021845</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>-1.0043865008631307</v>
+        <v>-0.5118016696823493</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>0.13678094720086395</v>
+        <v>-1.0375933984652284</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>0.8336045087280871</v>
+        <v>1.2583105729070954</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.9519341677845194</v>
+        <v>-0.08318269464216288</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>1.2303712236348447</v>
+        <v>-0.033928471376302186</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>0.5661497440395233</v>
+        <v>1.734172316897016</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>-0.343402111994137</v>
+        <v>-0.8353847026892521</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.4316383393745056</v>
+        <v>0.2605853088554345</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-0.2258293249261352</v>
+        <v>-0.7081430952668955</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>-0.5096592912528052</v>
+        <v>0.5318550284845529</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>-0.5086879127398585</v>
+        <v>-0.8485061175625953</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>0.7704585415678059</v>
+        <v>-0.2730029389157727</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>-1.1900348171793658</v>
+        <v>0.8957244415240605</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>-0.957731560270025</v>
+        <v>0.2548545578032595</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>-1.3659999004599885</v>
+        <v>1.0580101308700312</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>-2.775157825895789</v>
+        <v>-0.08786345003444224</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>-2.1968263646302724</v>
+        <v>-0.6183959176827939</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.44616024836766005</v>
+        <v>0.3745469740259351</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>-0.9457367361499196</v>
+        <v>0.17635587337752134</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.4428910981133174</v>
+        <v>-2.070718572224308</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>1.8273322043689717</v>
+        <v>2.101199207996761</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>1.0142254153836914</v>
+        <v>0.8230361957520534</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>0.04159094607638972</v>
+        <v>-0.46623589038974184</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>-1.4362630563879928</v>
+        <v>0.3761283534063201</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>-2.4491503820424168</v>
+        <v>0.7465390008765396</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.8433539302697936</v>
+        <v>1.679390779185156</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>0.48350883859446175</v>
+        <v>-0.030553478820620594</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>-1.0216858829641395</v>
+        <v>-0.17922914153643138</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.3011707670947489</v>
+        <v>-1.186037902213008</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>0.0703512960289909</v>
+        <v>-0.7654558530875295</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>0.0706625677171148</v>
+        <v>-1.4596392894513497</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.03161435862247385</v>
+        <v>-0.6640660271949256</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.2592230498053609</v>
+        <v>-0.284670380268534</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>-1.103773355097237</v>
+        <v>0.41521001563287346</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>-2.136692670587596</v>
+        <v>-1.0427475158891237</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>-0.4040568483660936</v>
+        <v>0.02431361825970454</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>-2.214144307344768</v>
+        <v>-0.5746265369013717</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>0.5291434184164031</v>
+        <v>0.14152529108975262</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.17188026221589692</v>
+        <v>-1.8130166308304398</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>1.671519056280292</v>
+        <v>0.40977729952630326</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>1.727651021188825</v>
+        <v>-0.7436978357425915</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>-0.2641452808892502</v>
+        <v>-0.543880089021181</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>1.4460161602018848</v>
+        <v>-0.7797355371255646</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>-2.5648210487724827</v>
+        <v>0.7006341759760668</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>1.543057513754502</v>
+        <v>-0.023072479673272816</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.504795475928999</v>
+        <v>-2.0479991270964284</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>0.009565909080407574</v>
+        <v>1.63856257847595</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.8818925969254722</v>
+        <v>0.8356927347443096</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>1.1756574670371767</v>
+        <v>-0.16271513796937692</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>1.5186774356023387</v>
+        <v>0.6379236051408858</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.8663550611996124</v>
+        <v>1.1400701115561163</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>0.6952455340069765</v>
+        <v>-1.4086838454473007</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>-0.6026635685311011</v>
+        <v>0.12323597745553602</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>-1.3073012979571619</v>
+        <v>-1.6051092551227746</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>1.1329987973739586</v>
+        <v>0.004528592635097423</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>1.014961681798489</v>
+        <v>-0.36469005060515053</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>0.6835500788221386</v>
+        <v>0.278487740406494</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>0.008499993765083593</v>
+        <v>-1.3734089750562668</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>0.4855585670332915</v>
+        <v>-1.945036926485528</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>1.314587988706991</v>
+        <v>1.6511506765229103</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>-0.09460080972665014</v>
+        <v>1.2129607313041268</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>0.06577817626369102</v>
+        <v>-1.1913204549131196</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>0.0863668470558841</v>
+        <v>-0.28197979745994445</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.2886349089151252</v>
+        <v>0.14213123551650791</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>1.148744994289193</v>
+        <v>-0.17732134932139706</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>0.9743731304046425</v>
+        <v>0.9710354668051614</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.3285016347304386</v>
+        <v>0.5246986391169519</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>1.9116489679633228</v>
+        <v>-1.3277856195308038</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>1.7746462522193764</v>
+        <v>-0.5016215335544435</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.0283189319204602</v>
+        <v>-0.6010949183701155</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>0.5520705332148889</v>
+        <v>2.224720919275085</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>-0.04219683468441722</v>
+        <v>0.020420989224966796</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.7059349718701765</v>
+        <v>0.449181870312489</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>1.6485440458361436</v>
+        <v>0.4503261877019184</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>-0.7946975115441427</v>
+        <v>-1.1718226591606242</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>-0.6452750068005129</v>
+        <v>-0.36217487709648816</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>1.621012976945311</v>
+        <v>0.29869068548520156</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>1.1019976132303113</v>
+        <v>-0.7943253652502198</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>-1.4146694461035592</v>
+        <v>1.8875074250096338</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.8108338650053601</v>
+        <v>0.588187897638789</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>-0.12520299665557713</v>
+        <v>1.1556792789997101</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.6522537160579837</v>
+        <v>-0.8743877763512481</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>0.9161250001658802</v>
+        <v>0.25865681394402523</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>0.7006273407535913</v>
+        <v>0.058444491381180054</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>0.37859653381735137</v>
+        <v>0.822544348231614</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>0.5622471307719574</v>
+        <v>0.45670859382078277</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>-1.170437666295038</v>
+        <v>1.0966304161960427</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>0.22692123300264533</v>
+        <v>0.16220368670788587</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-0.15021516658796613</v>
+        <v>-0.17829286698017976</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>0.29435122103139283</v>
+        <v>1.9987357378780288</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>1.479251775271632</v>
+        <v>1.1834639324616232</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.20546063423018876</v>
+        <v>2.7021261452067975</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>1.86012295969942</v>
+        <v>-0.5450966257505445</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.9616158272141855</v>
+        <v>0.10662026403324329</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>0.029273625904003196</v>
+        <v>-0.37506702153349364</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.23444425078442402</v>
+        <v>-0.229612630177627</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>-1.2346407781817363</v>
+        <v>-1.1963710178214282</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>0.6331304926194911</v>
+        <v>0.19880168438254275</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>1.0203876060070993</v>
+        <v>-0.2142074341529713</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>-0.3306416675360969</v>
+        <v>0.11548087361780211</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>0.37514727293447714</v>
+        <v>1.4809528422087366</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.34701706431001283</v>
+        <v>-1.7794439117655685</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>-2.20749462143065</v>
+        <v>-1.3201147046337425</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>1.1879250052267996</v>
+        <v>1.7846284756718116</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>0.1915296437549909</v>
+        <v>-0.667800691390652</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>0.6751465848505707</v>
+        <v>-0.8747209956690876</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>0.9800036731627048</v>
+        <v>0.27390215803084056</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>1.343579082662813</v>
+        <v>1.0938186525607498</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-0.5989693228757599</v>
+        <v>-0.13588883395838897</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.2172619608974576</v>
+        <v>0.8968258087424946</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>1.269259248950577</v>
+        <v>-0.6257816949267025</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>-1.2329912255365736</v>
+        <v>1.782811818075929</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.5477256665415138</v>
+        <v>-0.4462895410631397</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>-0.013664069197218543</v>
+        <v>0.56506835640516</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>-1.3680587123957215</v>
+        <v>-1.3438349862971728</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>1.688805153134234</v>
+        <v>-1.0119526522020523</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-0.8627748619311911</v>
+        <v>-0.13847692018926075</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>0.1049654003221601</v>
+        <v>1.3730125784771332</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>1.164718674595794</v>
+        <v>-0.10122969626799162</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>0.771845858475219</v>
+        <v>1.2706017543226387</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>-0.7507767125087458</v>
+        <v>-2.040489138882864</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-0.6006269854085315</v>
+        <v>0.6701416910497792</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>-0.40002294433542723</v>
+        <v>-0.030897653616878084</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>0.11402686607256661</v>
+        <v>0.1668046893235781</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>-1.2150264605907306</v>
+        <v>0.6630304321855716</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.06947964526067764</v>
+        <v>-1.2702601030282767</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-1.9282943221821887</v>
+        <v>0.46748859201245613</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>0.21976744153653902</v>
+        <v>-2.2524317219279215</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>-1.223136879344776</v>
+        <v>-1.0803726943193483</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.6703819894835898</v>
+        <v>-1.0892328121206964</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.2547560838834108</v>
+        <v>0.08844382720529097</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>-0.20766516256115716</v>
+        <v>1.0448202669598698</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>0.29649287116569073</v>
+        <v>-1.1057339841232392</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>0.37869146091288286</v>
+        <v>-0.8354283000518669</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.05615052880003541</v>
+        <v>0.474259782415276</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-1.3973055419169842</v>
+        <v>-0.7164365628929137</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>-1.7013850320416204</v>
+        <v>-0.34433128188011297</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>-1.3840030324797115</v>
+        <v>1.096392654077412</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>0.5516790050176419</v>
+        <v>1.5017484436469484</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.4194322151608029</v>
+        <v>0.9842923654861863</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>-0.27925514094715176</v>
+        <v>0.08680853106876536</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>-1.1129372184161044</v>
+        <v>-1.9433036097469307</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.1129887431447511</v>
+        <v>-0.3732133831566958</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>-1.0899724831703481</v>
+        <v>1.6049394977822375</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.8044628758580413</v>
+        <v>0.013037744729521761</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>0.09901111253673414</v>
+        <v>0.5700636186593494</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.4732182278281433</v>
+        <v>-0.016378707037796238</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>-0.34059412038342834</v>
+        <v>0.7720476626194499</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>0.504529171672181</v>
+        <v>1.343978978559239</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>0.9751026812004315</v>
+        <v>-0.8436712209750032</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>0.6749364375690691</v>
+        <v>-0.2553893859167595</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-0.37643179540813715</v>
+        <v>-0.4641808670413425</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-1.2305159298013086</v>
+        <v>-1.119659666759836</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>0.07271933023241388</v>
+        <v>-1.1052419763116572</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>-0.08916463618117705</v>
+        <v>-0.8550441837193735</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>0.6801304936255866</v>
+        <v>0.03349790122967306</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>1.073899253423428</v>
+        <v>0.19469159816969778</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>-0.3333134924932753</v>
+        <v>2.3297710887851903</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.2417494882526491</v>
+        <v>-1.2725267101012725</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>1.7634887858580337</v>
+        <v>0.4267531141292594</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>0.33302895969795826</v>
+        <v>-0.13540173119337404</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>1.6702342225475404</v>
+        <v>-0.7487813890966545</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>-1.3669080080812868</v>
+        <v>-0.8837312134890359</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>-1.314559870175955</v>
+        <v>-0.08363375785087374</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>1.3070438462524243</v>
+        <v>-0.5457095004376421</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>-1.3025465651618326</v>
+        <v>0.4368013761230104</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>-0.8486231292378644</v>
+        <v>0.06170211751469434</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>-2.1197321659119</v>
+        <v>-0.18829956766654432</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.15490032744290821</v>
+        <v>0.4799028786742501</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>0.5540355682988377</v>
+        <v>0.7713441569904755</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>2.3697211432467578</v>
+        <v>-0.967731459168919</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>-0.4097415883678607</v>
+        <v>-0.673070021503705</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>0.8756401600914081</v>
+        <v>0.24257747887425463</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-0.5253680275359206</v>
+        <v>-0.6110072790465539</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>-0.2599166326176775</v>
+        <v>0.23961894888749366</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>-0.03017960538635166</v>
+        <v>1.3528957964446144</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>0.14825840451887298</v>
+        <v>-0.5907249723870079</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>2.2078431696816394</v>
+        <v>-1.0014728317493578</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>-0.5805096763523234</v>
+        <v>-1.3344589514432954</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>-1.069673696239364</v>
+        <v>-0.7536270159759536</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>0.2535743297883971</v>
+        <v>-1.035515010937528</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>0.1286482644998031</v>
+        <v>-0.22565576405319898</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>0.3481373129859719</v>
+        <v>-0.7942568395313553</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>-2.3871921223529884</v>
+        <v>0.6888363098484708</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>-1.018488040847021</v>
+        <v>-0.7880639525389428</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.42787768968478035</v>
+        <v>1.838035778974053</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>-0.9665413276642281</v>
+        <v>-2.5624199194122212</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>-0.5151719963642695</v>
+        <v>0.9632686891342078</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>0.6919807734044285</v>
+        <v>-1.5594664237611753</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>0.17172973994009127</v>
+        <v>1.3980834669251547</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>-0.9481329763952687</v>
+        <v>-0.7296250581447496</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>0.42196569887776936</v>
+        <v>-0.7689429529139675</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>-0.5751342170067449</v>
+        <v>-0.4251570408410889</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>-0.39820495884040674</v>
+        <v>0.39178435824083857</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>-0.5776799545590208</v>
+        <v>0.07249041136490675</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>-0.7827763038794064</v>
+        <v>-1.2899071311257457</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.49186904627002653</v>
+        <v>0.5098921158285186</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>-0.050419468898867274</v>
+        <v>-0.7153642668908278</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>1.2422050554916262</v>
+        <v>-0.4055215357460772</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>-0.011649096197957641</v>
+        <v>-0.012521187106817669</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>-1.5060946385341252</v>
+        <v>1.100881037590189</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03665615196558567</v>
+        <v>-1.154942167452559</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.9239186287906016</v>
+        <v>0.15401270746136325</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.2550187552939227</v>
+        <v>0.7954910070928303</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.197064106566883</v>
+        <v>-0.7350707000523571</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.4946442316441564</v>
+        <v>2.1473382766402973</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7128978157260316</v>
+        <v>1.5730873031599661</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5488985644293759</v>
+        <v>-0.0541977998051758</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.024437253103697397</v>
+        <v>0.5155136934614174</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4300506819917859</v>
+        <v>1.5423973902826593</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8950875881348211</v>
+        <v>0.5166850488488665</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.2772379972671921</v>
+        <v>0.39610787155842403</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.08769783225153047</v>
+        <v>-1.0330805765318347</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.4555621928922324</v>
+        <v>-0.3143569877579503</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.896467301277569</v>
+        <v>-0.08807521411082765</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7553263687055355</v>
+        <v>-0.07345772124207518</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2696817293093765</v>
+        <v>-0.25130796375237835</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.1601717824012854</v>
+        <v>-0.6573860730765679</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23017031858947945</v>
+        <v>-3.8833755747990617</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.225420673267554</v>
+        <v>-0.006020456986102449</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8664705658691612</v>
+        <v>0.9077969130934062</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7479523348509158</v>
+        <v>-0.31340618370285195</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.32056203063130617</v>
+        <v>-0.8380904986402121</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.830560575606642</v>
+        <v>1.1962666422219492</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2443424565975309</v>
+        <v>-1.3055327782528594</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.1648629697223587</v>
+        <v>1.1704938998575332</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.026246056795298914</v>
+        <v>1.1976960601992745</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.2947188383651522</v>
+        <v>-0.3659656922079685</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.19046628341704328</v>
+        <v>-0.23886058215812356</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5028074189449253</v>
+        <v>0.26024807243004966</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.815673174482617</v>
+        <v>-0.08137894931918654</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.160457631195735</v>
+        <v>-0.41229772154638655</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.43859241176240804</v>
+        <v>0.5178537779449246</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4752602664059423</v>
+        <v>-0.1981570987944056</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04016759459358114</v>
+        <v>-0.570268137258923</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9153862343652515</v>
+        <v>-0.3058189616428773</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.34592933868015185</v>
+        <v>-1.4270869919948577</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.647193624792939</v>
+        <v>0.9342927047220139</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.08331957729926776</v>
+        <v>0.9888862027399971</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.35360282707396684</v>
+        <v>0.8670149056025491</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9109343218192679</v>
+        <v>-0.15347621387400076</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.9890946369955731</v>
+        <v>-0.8102085087496821</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.6283491197909172</v>
+        <v>-0.4078814953070471</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7491049261899092</v>
+        <v>0.19491721333912296</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.4477074343923948</v>
+        <v>1.2647987556859501</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.6489354813872703</v>
+        <v>1.8338867209109149</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1.1094956497307755</v>
+        <v>-0.4654223303685878</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.5613878271348685</v>
+        <v>-0.09716924471784424</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.8880515191501964</v>
+        <v>0.07598152783443235</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1.1330481649659356</v>
+        <v>-1.169860048624457</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6304421931232392</v>
+        <v>1.750892884368669</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.5910595391146048</v>
+        <v>0.596116150389571</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.3463384237610294</v>
+        <v>-0.630422929677095</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5370503208789813</v>
+        <v>0.22974729638350028</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.42458638081904065</v>
+        <v>-0.473060032093301</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.4489830345968749</v>
+        <v>1.4101291150186763</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.2745130117731283</v>
+        <v>-0.26719048527894795</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.17993543034762718</v>
+        <v>-0.5547020593228968</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4520763508043607</v>
+        <v>-2.049881002022412</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6800156740391947</v>
+        <v>0.7572699431052039</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.6250724459241799</v>
+        <v>-0.6259403546537164</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7172276066406915</v>
+        <v>0.5579202652134099</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3066193120877583</v>
+        <v>0.8194492111268463</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9205450406164922</v>
+        <v>-1.1601928930375873</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.3109550319077212</v>
+        <v>-0.662403288819456</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.34549780119792867</v>
+        <v>-0.9765127285645625</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2558937065193002</v>
+        <v>-0.02704767969833897</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9745321789058079</v>
+        <v>0.6109057613072296</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8002720249544485</v>
+        <v>-0.14717050824240932</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.47359410646947353</v>
+        <v>-1.3130679440677047</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9593426425822633</v>
+        <v>0.016704730747457746</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.989347601532771</v>
+        <v>0.5024452899489512</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.07800649980206</v>
+        <v>1.2538651426567078</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8180462507946193</v>
+        <v>0.950327739572164</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8163894244974367</v>
+        <v>0.5338778550426914</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9051581342662864</v>
+        <v>-1.9941242963584553</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5922626367586759</v>
+        <v>0.4987795295705986</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.714548546117131</v>
+        <v>0.0044875547285847155</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1.3815417920229047</v>
+        <v>0.6489749806783929</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.4862759891308668</v>
+        <v>0.2969648219345689</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3372121461697911</v>
+        <v>0.01169420093545011</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.6456253773773979</v>
+        <v>0.024701124016303762</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1.4301567324086597</v>
+        <v>0.8614425754668776</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.30853808922325177</v>
+        <v>-1.1118329056959972</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2789317048296553</v>
+        <v>-1.3453879094343897</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2282921552067484</v>
+        <v>1.0224669327046332</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.993364531811677</v>
+        <v>-1.6136009771832613</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.5001781387052533</v>
+        <v>1.2303469984601987</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.6516346580855913</v>
+        <v>-1.1591060486536922</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.7315603423507497</v>
+        <v>0.7210825077171578</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4456407980657965</v>
+        <v>-1.500819669896579</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1.3294432089389703</v>
+        <v>1.407992061984313</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.14226320082732152</v>
+        <v>0.4673665260978004</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.13363864687883417</v>
+        <v>0.37857495963251886</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.08881177032885987</v>
+        <v>0.38057793800938194</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1.6133918090739692</v>
+        <v>0.38905330825196976</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7215309351358685</v>
+        <v>1.8029124204995484</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0472770023422329</v>
+        <v>0.8501425294367556</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6316979088967513</v>
+        <v>1.0905739023346377</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.46283560891560654</v>
+        <v>0.9581727399837128</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.4986430409778586</v>
+        <v>-0.05432105578089654</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1.824817386233449</v>
+        <v>-0.07710935792334817</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5844555638975122</v>
+        <v>-0.7005078808978886</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.15969320925966762</v>
+        <v>-0.6428267859944243</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.5358324906089369</v>
+        <v>-1.3798900076246483</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.49141418470499754</v>
+        <v>0.1932031105694571</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.6644418702186703</v>
+        <v>1.4331590790019797</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.1093526409739605</v>
+        <v>0.9669082063800828</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.12981543763322032</v>
+        <v>0.29409153338978505</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.49213887240361415</v>
+        <v>-0.5771020544877382</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.5903975168567877</v>
+        <v>0.2708817490101033</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5732094512481847</v>
+        <v>-1.3385379687493233</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>1.5126359146790012</v>
+        <v>-0.907798687248089</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.504601888538242</v>
+        <v>0.4941094018039188</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>1.6433805729039732</v>
+        <v>-0.40205607533287463</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9695129349630347</v>
+        <v>0.09660600478196049</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.943952740205004</v>
+        <v>0.9511198278992211</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.46718496791002173</v>
+        <v>1.1350181170643405</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-2.0497483644846684</v>
+        <v>-0.41775330040616987</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1.7374793716274393</v>
+        <v>-0.2968794576003884</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.28033918487374004</v>
+        <v>0.5929878389867627</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>1.3475151875331173</v>
+        <v>0.06107894895633444</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5005378839953356</v>
+        <v>-0.2554707945212697</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6696028525156115</v>
+        <v>-0.5410058192463116</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.415730377359972</v>
+        <v>0.38439917617220704</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.8852322546443624</v>
+        <v>-1.8753811519375947</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.32693590435523134</v>
+        <v>2.1585299779043194</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6420386345857159</v>
+        <v>0.7226122703625414</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.6423317678872986</v>
+        <v>0.17945309306918505</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.5113996785458155</v>
+        <v>0.8858763248740927</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.6277684296177103</v>
+        <v>-1.2298759142121116</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>1.382022522697533</v>
+        <v>0.0037007551178371264</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9013591611170726</v>
+        <v>-0.49392954527850114</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.03585250102382362</v>
+        <v>-2.1887619309592123</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.0111188151987802</v>
+        <v>0.597813737832798</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.6058810053661656</v>
+        <v>0.2149715842844946</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.05293305468832862</v>
+        <v>-0.059387840515057494</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.23674882049417567</v>
+        <v>0.41569808937836217</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.1072816369526355</v>
+        <v>-0.3761247631468838</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.189138542786546</v>
+        <v>-0.39240888727557743</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.9887611778570959</v>
+        <v>0.15737038508619997</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1904515949328551</v>
+        <v>0.3259098651041517</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.7094768812967157</v>
+        <v>1.0249062688566826</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>-2.3409125058475007</v>
+        <v>0.5363952687887195</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5698940494956956</v>
+        <v>-0.38420244952204274</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.027538000773978936</v>
+        <v>2.82186666781204</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2.2232335068410984</v>
+        <v>0.18189930557365042</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.0025900617158263</v>
+        <v>1.1845776345157142</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.18264008897418213</v>
+        <v>0.21107527585872216</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.600458605575438</v>
+        <v>-1.9429368654975532</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6196092465147308</v>
+        <v>1.2688469982982191</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1.0639891323196344</v>
+        <v>-1.0644250504598245</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.6897361981850962</v>
+        <v>0.7779115207605611</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.06032649799541608</v>
+        <v>0.9877075320565709</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.7307777360046648</v>
+        <v>-0.746492135202006</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.25279633996778555</v>
+        <v>0.5794797907356612</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.2578539849732087</v>
+        <v>0.9762225294411425</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4100610455735778</v>
+        <v>-0.614848395049287</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.3397393120533978</v>
+        <v>1.194563270889729</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>1.3650090237142491</v>
+        <v>-0.6002987741002234</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9088331191298582</v>
+        <v>-0.3255868857434801</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.21345960429901176</v>
+        <v>1.1755281603574197</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.9109175796511275</v>
+        <v>-0.19736278003975277</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9997692374382218</v>
+        <v>-2.060632375511314</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.9006093413192056</v>
+        <v>-0.8498545359431277</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.49526377526279236</v>
+        <v>0.7663084806430334</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.5493366899262694</v>
+        <v>-0.11746674238051932</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.6573374696343123</v>
+        <v>1.522314771062535</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9440902443203683</v>
+        <v>1.7417595785150577</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.9165035438665406</v>
+        <v>0.22545418488972938</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.13355456075409555</v>
+        <v>1.4713889175906472</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.1325681959134575</v>
+        <v>-1.2593466633788222</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.3420476238382679</v>
+        <v>0.2584741664519495</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.9980912107802269</v>
+        <v>-1.276861116465589</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6180731075231463</v>
+        <v>-0.19866435554806816</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2455162014541853</v>
+        <v>-2.005402904463833</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1.0071955769249907</v>
+        <v>0.3729340631184369</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.06034425460904562</v>
+        <v>-2.5274806751437002</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>1.2239961257560532</v>
+        <v>-1.332002435593121</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.02303712493696264</v>
+        <v>0.815751130130849</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>-2.0396660466303773</v>
+        <v>1.3299914129859325</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.3769531891201388</v>
+        <v>-0.22901027231127105</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.2906066606170949</v>
+        <v>1.5807438733378647</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.7110856755329155</v>
+        <v>0.4233996075941216</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>1.4571047634320358</v>
+        <v>0.6235441976483839</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5717634753789452</v>
+        <v>1.0559801403268114</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5413555626142745</v>
+        <v>2.0803914517470385</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1.4303151406203956</v>
+        <v>0.05109424616469022</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>-1.7732879891017348</v>
+        <v>0.8259285689334991</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8191415135311686</v>
+        <v>1.4243522588475264</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.174401171279085</v>
+        <v>-0.4298028134087321</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1.213806912752835</v>
+        <v>1.692298412553036</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.9586358111982389</v>
+        <v>-0.7904666020151898</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.07034300708339235</v>
+        <v>2.8766236448479447</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.1570529297303074</v>
+        <v>-0.41301257909718886</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.5313915478920945</v>
+        <v>1.0271483109428245</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.3290797357478217</v>
+        <v>-0.8908603513869944</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.2297932066642843</v>
+        <v>-0.1113176158541102</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.007676873407379688</v>
+        <v>0.6609507396145888</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.2586545974573167</v>
+        <v>0.12121160095560551</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.6563396821058871</v>
+        <v>-0.335310050406232</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08640349553058937</v>
+        <v>-1.4849474356215384</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8145548478941376</v>
+        <v>-0.06847578653673575</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.544850476651681</v>
+        <v>-0.9708612628543443</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>1.267767673712018</v>
+        <v>0.6185368989284366</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.6501500613987481</v>
+        <v>0.09068176090339912</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>1.1293885958477476</v>
+        <v>-0.4141503418937795</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.1117781530013287</v>
+        <v>-1.1279715561010857</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.852194906755242</v>
+        <v>-1.3691018458968696</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.6950150430455218</v>
+        <v>-0.43410475326509185</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.8659969660908273</v>
+        <v>-1.2140285857776152</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.8314412525377533</v>
+        <v>0.15460560420630126</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.1341111095153944</v>
+        <v>1.2195423776088397</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5674191972666629</v>
+        <v>1.6821043428385898</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.46946849182308253</v>
+        <v>0.8754262571287746</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>0.2753243077671211</v>
+        <v>-2.2617225030777375</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>0.032212944565580506</v>
+        <v>1.0572857990253612</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7589384670221339</v>
+        <v>-0.9333414220121736</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>0.27907046357848864</v>
+        <v>0.6308190656844552</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.24249377930384405</v>
+        <v>-0.33287213834085777</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>0.04060320259832841</v>
+        <v>-0.2896293978327063</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.6414485766667858</v>
+        <v>0.5311988366967005</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.960519926700459</v>
+        <v>-0.8624547949757122</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8716547594638764</v>
+        <v>-0.7676721411893979</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.7404684781725251</v>
+        <v>-0.33007321135421713</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.30252782130255934</v>
+        <v>0.9499840255252633</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.2076696773111022</v>
+        <v>-0.15788978735385886</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.019860212209895</v>
+        <v>0.6148996314354864</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>-2.105279867112628</v>
+        <v>1.5188668863832673</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>1.2424100976659966</v>
+        <v>0.18568776203943152</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>1.609233563000774</v>
+        <v>0.3745608334256361</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3900332098661815</v>
+        <v>0.2259617206268456</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.4505867915011987</v>
+        <v>0.7625265877870574</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.8105216182699085</v>
+        <v>1.6796790827599353</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>1.5604402411784728</v>
+        <v>1.4618450035821084</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>-3.141716022103605</v>
+        <v>0.14496727062522707</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>0.31347971393976337</v>
+        <v>0.6637416281497845</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>-1.7066951853521775</v>
+        <v>0.888898315020298</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.5356845295191752</v>
+        <v>-0.11092795814491387</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>0.4348454105636087</v>
+        <v>0.8401805784209826</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.31845779890692094</v>
+        <v>0.9155688159730355</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>2.3582335498491585</v>
+        <v>-0.5615880831933135</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.7474679685859968</v>
+        <v>-1.3225789440038427</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>0.7645548348505253</v>
+        <v>2.7646053697425925</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>0.14278453649041223</v>
+        <v>-0.20552761642218698</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.6269517764825481</v>
+        <v>-0.6570758164039088</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.38061567709434</v>
+        <v>0.15684893668539868</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.7556612671310985</v>
+        <v>0.3896608289875715</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.9355288314570518</v>
+        <v>0.7689196223247619</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>-2.118090848453024</v>
+        <v>1.60603899512322</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.5174524064587508</v>
+        <v>2.1973906868158353</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.6957257088634015</v>
+        <v>0.05672985453640151</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.8751354855878276</v>
+        <v>1.446366535564235</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.17855534929730055</v>
+        <v>0.25523022670386725</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>2.425862444658345</v>
+        <v>-0.0190203413032747</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>0.439381234401217</v>
+        <v>-0.5675316473350033</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.2660386818403206</v>
+        <v>-1.5446895884768377</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.8145381990545055</v>
+        <v>0.06341767872385072</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.20241568947588703</v>
+        <v>2.338616712949837</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.7079041005762631</v>
+        <v>0.33962977026396396</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>0.9016790031580671</v>
+        <v>-1.2125304801453631</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>0.26583474952224856</v>
+        <v>-2.2331197392192332</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.06195689117189915</v>
+        <v>0.7627375714617294</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.02531849675870322</v>
+        <v>-1.2132993683066962</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.6501900982490597</v>
+        <v>-0.3585063926396126</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.45765861577010875</v>
+        <v>0.7499425233213726</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.35773042582219977</v>
+        <v>-0.29159156962345834</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>0.48223544279456637</v>
+        <v>-0.22460727067671538</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>0.08660160181594542</v>
+        <v>0.11300803061263257</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.0203198595321963</v>
+        <v>-0.794667323014643</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>-2.113734947348678</v>
+        <v>-1.3883364539036096</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>0.4754048367672391</v>
+        <v>1.0561685299867702</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>0.8556255742246843</v>
+        <v>0.06426012383828603</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5013153821973113</v>
+        <v>0.43007792752507257</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.03736466255716632</v>
+        <v>0.1273208571589577</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>7.764854447945851E-4</v>
+        <v>-0.23624414943341623</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.14424861704396144</v>
+        <v>-0.8606926427475176</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.4490059657734325</v>
+        <v>0.4268891635067475</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>0.5596790194987173</v>
+        <v>1.1039594825590369</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>-2.653539916516305</v>
+        <v>-0.07130081936781835</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.048170415308825355</v>
+        <v>0.7449838079183686</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>1.2844255590795726</v>
+        <v>-0.5792170969451232</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.4615609192967117</v>
+        <v>1.2192719695752263</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1003187886139089</v>
+        <v>0.0722139408501001</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.113493880262243</v>
+        <v>-1.4035413809385162</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.02616376478446822</v>
+        <v>0.03748494116296149</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.7810008593126108</v>
+        <v>-0.06248104106991737</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1.417480278441972</v>
+        <v>0.3193545257234922</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.4274206247693801</v>
+        <v>0.07440651050348006</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.49859036724044187</v>
+        <v>1.0933725093107531</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>0.2607091500625812</v>
+        <v>1.2620548969824146</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>-2.3204253036001163</v>
+        <v>2.1299246051708436</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3186394689738445</v>
+        <v>0.4188587338331736</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>1.5961756094667194</v>
+        <v>0.6234332658646472</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>0.4621322892399943</v>
+        <v>-0.9907301375668152</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1273432547323532</v>
+        <v>0.5030730108678021</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>0.06386907566251618</v>
+        <v>2.2355143258615655</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>0.08015082914909223</v>
+        <v>0.5828979681548256</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.0368877121332972</v>
+        <v>-1.0754781251750178</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>0.13706005524021178</v>
+        <v>-0.8714434690722017</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1.609490415183062</v>
+        <v>1.216540966340604</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.9386812504515555</v>
+        <v>0.9137165742024768</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.0697493657664189</v>
+        <v>0.4178043698769401</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>9.554433964015162E-4</v>
+        <v>0.05478065695716931</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.659232594178714</v>
+        <v>1.9824123923643857</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-1.6121452021107547</v>
+        <v>-0.41824658375827345</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.24777628254215828</v>
+        <v>-1.006664345161335</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.2594800448941138</v>
+        <v>-1.6323217061326993</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>0.9041386707882814</v>
+        <v>1.156726009404039</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.9540550983938451</v>
+        <v>-0.063301183450808</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.24505514293539965</v>
+        <v>-1.8348921882551212</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.24684331380593552</v>
+        <v>-0.8475494226862043</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>0.4619192688405226</v>
+        <v>-1.1717254405192863</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.7442304443526977</v>
+        <v>-1.127045663680568</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.5031686684069798</v>
+        <v>-0.12558174011376896</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>0.8506712767328194</v>
+        <v>-0.9009723833514861</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>-1.6193600265553036</v>
+        <v>-0.16524917385429713</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>0.15178814955784317</v>
+        <v>1.2303023280969538</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.22102128375981706</v>
+        <v>-1.10730027824087</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>0.5291782381766896</v>
+        <v>-2.1545666457568795</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.4009122936228655</v>
+        <v>-1.2775388423680205</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7091305747169999</v>
+        <v>-0.26119380854504076</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>0.41342943730266885</v>
+        <v>-2.2133317588526844</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>0.20874854491843037</v>
+        <v>-0.26555045265888594</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.6226150949645489</v>
+        <v>-1.0034098307106387</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.24307663248399872</v>
+        <v>0.18821764942533123</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.7653262971892363</v>
+        <v>0.6099885607794282</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>0.16795886800406754</v>
+        <v>0.5735470064887042</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>0.6970794616781801</v>
+        <v>-0.002711248115311852</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.3284956962146659</v>
+        <v>-0.9524482295504055</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.05473960644154931</v>
+        <v>-0.16000012317708792</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9035113652658404</v>
+        <v>0.8563600845408443</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>0.553154734452345</v>
+        <v>1.4008509203857205</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>0.7589898747360245</v>
+        <v>-0.618816166598853</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.6087038873450858</v>
+        <v>-0.41928365673369616</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.3914270036115573</v>
+        <v>-0.6181800062998932</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.7601914260303739</v>
+        <v>0.02640339789644437</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>0.5841651401039128</v>
+        <v>1.2361273275218325</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.006646684200549607</v>
+        <v>0.28845430191023036</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.51566141009615</v>
+        <v>-2.2109204717063333</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>0.7496202945062358</v>
+        <v>0.9106774341714815</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>0.17273730100200405</v>
+        <v>-0.9885181522527722</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>1.8729673705558216</v>
+        <v>-1.3160032304347296</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4655815579940541</v>
+        <v>-0.12847082896103948</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>0.5565375206466948</v>
+        <v>-1.7713787613002063</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.45884321032061426</v>
+        <v>-0.47757128681799527</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.03359471407744785</v>
+        <v>0.7012968096305761</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>0.9282937852405951</v>
+        <v>-1.3723217100634049</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>0.2505956226424138</v>
+        <v>-1.2548375208327918</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.3315343904971184</v>
+        <v>-1.3713615303325186</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.59188755839019</v>
+        <v>-1.748313390134168</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>-1.2549299420308924</v>
+        <v>0.6459679711195659</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>2.597146737834604</v>
+        <v>-0.1188439798754786</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>0.25063907423989906</v>
+        <v>-1.159907226025448</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>-1.1814649614959336</v>
+        <v>-0.10786067476848525</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>0.10629797403247239</v>
+        <v>0.12480317856524034</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.5398393298014252</v>
+        <v>1.8307202966300755</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.2128945661754059</v>
+        <v>-0.6198868119646211</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.05297905476936401</v>
+        <v>0.642934060770726</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.37686858437110243</v>
+        <v>-0.390378731562518</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>0.2448325733336887</v>
+        <v>-0.006454769012290186</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.011839700704770535</v>
+        <v>1.5915501724833785</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.2893964202170806</v>
+        <v>1.5925980548989587</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>1.5925066444959053</v>
+        <v>0.6937015714623002</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.12137461576076246</v>
+        <v>-1.5025290017613375</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>0.49962763438126045</v>
+        <v>-0.9476981333872976</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>0.15912680020269054</v>
+        <v>0.5816919571768098</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>0.4371234236693467</v>
+        <v>-0.02979344414177676</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>0.7759152704113116</v>
+        <v>0.06107756261951182</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>0.7401221530395955</v>
+        <v>-0.4703585602577479</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>-1.3536710394228768</v>
+        <v>0.944997607977422</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>0.09038969136092646</v>
+        <v>-1.5841564479108765</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-2.0371822519419753</v>
+        <v>2.723945649798595</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>0.5923184129620792</v>
+        <v>1.619814010160853</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.3108907372034956</v>
+        <v>-0.6362440275030079</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>1.1968790725424245</v>
+        <v>0.6188307383676243</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>-1.5866541240656775</v>
+        <v>0.34389833098940686</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.9888463507048176</v>
+        <v>2.6516069094121586</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>0.9080242155003638</v>
+        <v>-0.19073777432593822</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.6494000922017603</v>
+        <v>2.5692475582158516</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.4832905892368038</v>
+        <v>-0.3786280731787448</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>0.5372700154625408</v>
+        <v>0.42635486548405954</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.5146645390596506</v>
+        <v>0.4815175286152851</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.5953294900605894</v>
+        <v>0.7930767204670623</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.2371922573675758</v>
+        <v>2.2229472572478133</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.9504817057233804</v>
+        <v>-0.9896425844780985</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>1.245591027860375</v>
+        <v>-2.304567296812055</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.8431545302779107</v>
+        <v>0.08915382305550498</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.4254334863354421</v>
+        <v>-0.25382239169719745</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.848558340035549</v>
+        <v>-0.6745419094487198</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>0.015475028455527598</v>
+        <v>0.524997962147526</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.07472053065912294</v>
+        <v>-1.3893824665650734</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.47363581271834687</v>
+        <v>0.5092121681525703</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>0.6444838692643527</v>
+        <v>-1.9636512376001898</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>0.9159134789116318</v>
+        <v>1.1798617418670894</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.8315450992662916</v>
+        <v>0.11645605422876373</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.18264861922902234</v>
+        <v>1.1933985898204003</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>-1.3919679830606444</v>
+        <v>-1.163725690466058</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>0.7082478120201258</v>
+        <v>-0.7729280948829875</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>0.18896582357938332</v>
+        <v>0.5878677880636005</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.21736687557696172</v>
+        <v>1.000445428095703</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>0.07163462646149506</v>
+        <v>0.09753177639917605</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>0.13423355579428073</v>
+        <v>-0.11239260338014137</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>0.15332789228265398</v>
+        <v>-0.1821156873708238</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.9191769450684634</v>
+        <v>0.5902859843137768</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4293022796483966</v>
+        <v>-0.5668239539754816</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>1.5455431306103764</v>
+        <v>-0.21760243894318335</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.8742316326956726</v>
+        <v>0.719668285950451</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>0.10929614182562113</v>
+        <v>-1.5179385926053004</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>1.0395281516606663</v>
+        <v>-0.8048118221359103</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.8996189533686377</v>
+        <v>0.15222760338750346</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.18849178558896781</v>
+        <v>-0.030388628360066245</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>0.6969980471081572</v>
+        <v>1.0682999897955563</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>-1.1218272917127075</v>
+        <v>0.37401297353210405</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>1.4941939865682128</v>
+        <v>-1.599252156065281</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.4639133228273057</v>
+        <v>0.20654080556962914</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>0.5903675148089841</v>
+        <v>0.012516168704565777</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>0.5970020782817226</v>
+        <v>-1.0310320404996898</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>2.0682205854830116</v>
+        <v>1.5676856759816467</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>-1.689357359875746</v>
+        <v>-0.06206559902683058</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>0.7441698742335733</v>
+        <v>-0.002022900599197525</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.24176285603355083</v>
+        <v>0.5657441210569374</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.17153514059455272</v>
+        <v>0.13722519452803722</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>0.281546977289208</v>
+        <v>2.0486047471476354</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>0.6048968257453821</v>
+        <v>-0.692463877470765</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.18535666236475534</v>
+        <v>0.1095261859376127</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.6036773692077865</v>
+        <v>0.21005005505131344</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>2.3668594886845145</v>
+        <v>0.5551183177499054</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>-1.5137275103549293</v>
+        <v>-2.031171605424093</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>-1.9452380852293443</v>
+        <v>0.4735827469165996</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.27831932884101956</v>
+        <v>0.13432010917239282</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>1.3642754209902388</v>
+        <v>-0.17125289362438276</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.46240709229275406</v>
+        <v>-0.9602107737139517</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>-1.1881392330969538</v>
+        <v>-1.3193172557820065</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>0.5266175426872842</v>
+        <v>-0.6719478238450155</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>0.41065942143507905</v>
+        <v>-0.28126272941565705</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>1.6298411719068977</v>
+        <v>-0.6048879599447431</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>-1.2888164560147701</v>
+        <v>-0.5789107534880645</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>0.17941106148031846</v>
+        <v>3.0963976228445</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.9550582240012839</v>
+        <v>0.47503196114676316</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-1.5077063717959862</v>
+        <v>-2.992625967602737</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>1.74203699856276</v>
+        <v>-1.3291989758958285</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>-1.068294177691233</v>
+        <v>0.7293208277878148</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>0.6193699651677343</v>
+        <v>3.0786282589151446</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>0.36428082168878106</v>
+        <v>-0.08383417671159316</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1.1296601014248318</v>
+        <v>0.13763604020586725</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.22342773493178045</v>
+        <v>-0.3639564935131025</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.17922392923998984</v>
+        <v>0.06852507559117509</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1.741470637374632</v>
+        <v>-0.4031968333861985</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.31306277359268414</v>
+        <v>1.250841744269008</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.8635631356536148</v>
+        <v>0.9913650762489882</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>0.24377603776803933</v>
+        <v>-0.19576664118970208</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>0.5505558016995418</v>
+        <v>0.18161827976170847</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>0.41682231883209636</v>
+        <v>0.8733055698657393</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.7995414335952364</v>
+        <v>-1.233568942034028</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.2834114694356644</v>
+        <v>-0.3966094780468102</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>0.6704150712750134</v>
+        <v>0.9723321179614348</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.38842327190222425</v>
+        <v>-1.050060471450449</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.07531227836289141</v>
+        <v>-1.6210739011509863</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.3851169810953204</v>
+        <v>0.3791445917360053</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>-1.4330821957114661</v>
+        <v>-0.22046203138228063</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>0.5804849363810288</v>
+        <v>0.1593814531470512</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>-1.13785100849936</v>
+        <v>0.15296450168959136</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.26962366863709925</v>
+        <v>0.6031642818173838</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.46265770069655443</v>
+        <v>1.1338163019916117</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.8391306564041014</v>
+        <v>0.424876173558215</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>1.664966063825764</v>
+        <v>-0.5789842758793956</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>0.8293069644408865</v>
+        <v>0.9831333712423848</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.13986134858169455</v>
+        <v>-1.1917318774126966</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.4555948184657351</v>
+        <v>0.5861439556605114</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>0.37307371329173783</v>
+        <v>-0.45554756763807014</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.3785816833756303</v>
+        <v>0.7978384757444862</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1.2822944180763147</v>
+        <v>-0.6637059956629489</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>0.9195456253337523</v>
+        <v>2.838175274504669</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>0.9865423337862005</v>
+        <v>-0.3682470224748118</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.31593022824139094</v>
+        <v>0.37426487641830297</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.23554203845811045</v>
+        <v>-0.39063146876478627</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.7199891184974271</v>
+        <v>0.6322260612462154</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>-2.4329207983176273</v>
+        <v>-1.1840840236904557</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.43853811643137364</v>
+        <v>-1.1356040902403022</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>0.8315431950194365</v>
+        <v>-0.2493092290391571</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.10116164924629942</v>
+        <v>-0.49655758992399956</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.17994567390859284</v>
+        <v>0.24028187579209725</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.3603281865738334</v>
+        <v>-1.5070385530880432</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.6681601527994628</v>
+        <v>2.0150284756857864</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.361833411647274</v>
+        <v>0.7417422637388286</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.23982805931636203</v>
+        <v>0.11600521734529867</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.6947792650371833</v>
+        <v>-0.6943151794826502</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.8141343965111869</v>
+        <v>-0.4287421834149757</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.4273241046806423</v>
+        <v>0.4580293915292069</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.4124313817923784</v>
+        <v>-0.050894068500262735</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>0.05459349779586388</v>
+        <v>-1.0697191269231154</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.3685015262947846</v>
+        <v>-0.5260674792123138</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.9344922451469797</v>
+        <v>2.22871104443687</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.933514376577486</v>
+        <v>0.41044693814396516</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>0.4028611576713348</v>
+        <v>0.89328094289776</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.9119684801773075</v>
+        <v>0.2957058646918352</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>0.6037754774172148</v>
+        <v>0.391470256034617</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>0.21384700636402662</v>
+        <v>-2.803244324727944</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.3806744607628703</v>
+        <v>-1.4310460611460187</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.7994792436751726</v>
+        <v>-1.6423299705534373</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>0.517075947972194</v>
+        <v>1.1707627047310063</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>0.035974204920652016</v>
+        <v>-0.12751635663818353</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.3792091126927544</v>
+        <v>0.39537118238676766</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.5749568605090585</v>
+        <v>-0.19345158320111158</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.7409260959773684</v>
+        <v>0.8607765268828531</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.1281708863768263</v>
+        <v>-0.9882600304082773</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.7754670932060674</v>
+        <v>0.4465677195723518</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.009074676441810484</v>
+        <v>-0.4701215575895949</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>-1.2345445912644617</v>
+        <v>0.49480315493143373</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.3030295155063958</v>
+        <v>-0.7603788455492902</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.3177804933425736</v>
+        <v>1.2568748471552362</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-1.6222240350897545</v>
+        <v>-0.050821115525269654</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>-1.1374601188002038</v>
+        <v>-0.46499941130073563</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.24338062804977692</v>
+        <v>-0.24063928392367687</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>1.544491475809838</v>
+        <v>-1.698424092301588</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.30606625923155406</v>
+        <v>-0.14478822870952296</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>0.3204331045525152</v>
+        <v>0.6870711078012484</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.7233474519645261</v>
+        <v>0.05178036071259394</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>0.8731456140551397</v>
+        <v>-1.4674302334432319</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>0.4244167795750454</v>
+        <v>1.4986160069891505</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>1.251736671532282</v>
+        <v>0.009798985014227997</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>1.0644839772277843</v>
+        <v>-0.3930032541853011</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>0.8947924920900794</v>
+        <v>0.6406637357428376</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.7808049805065566</v>
+        <v>-1.4742601521074419</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>0.2123475229845536</v>
+        <v>-0.9685098771718571</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>0.4773752337254613</v>
+        <v>0.24778764087775165</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>0.42369179791330674</v>
+        <v>-0.3081462471560015</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.34760619676064</v>
+        <v>-0.7003309059951961</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.33374664555507183</v>
+        <v>1.8765046893134487</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>1.2976518763096176</v>
+        <v>-0.9392189113909641</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.20805945994189098</v>
+        <v>0.7626064916219906</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>0.7313458553852452</v>
+        <v>-0.03825871037306871</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>0.0028831605152112054</v>
+        <v>2.3653554452023817</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.9924132141069508</v>
+        <v>-0.6337895745306708</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>0.9632176055962774</v>
+        <v>-0.6678886268119392</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>0.7138917837344939</v>
+        <v>-0.12852340326998904</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>0.11695269285324711</v>
+        <v>0.5245870208715313</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>0.21342927244651602</v>
+        <v>0.38976097484167016</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1.3847163198548031</v>
+        <v>0.8675121933916421</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>0.06833611908683024</v>
+        <v>1.1319931463830841</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>0.501806881720152</v>
+        <v>-1.0791497968679817</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>1.5090007261070462</v>
+        <v>0.3028733830137589</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.2078766435466306</v>
+        <v>0.009085134568903547</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>1.1335470136850316</v>
+        <v>-0.9971852961204748</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.5161000432904743</v>
+        <v>1.3720031758691738</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.6214339506611075</v>
+        <v>-0.24226323979383446</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>1.258775723242484</v>
+        <v>1.8797103127211021</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>-2.280234348564338</v>
+        <v>1.0402158702335995</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>0.3039053931984437</v>
+        <v>-0.15279580932014608</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>1.196048600933146</v>
+        <v>0.7574297198124462</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.07410590099085475</v>
+        <v>-1.5826238413368452</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.4567696978216727</v>
+        <v>-1.5119478523239802</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.010061438239670492</v>
+        <v>-0.8116441902800509</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.11648070729847497</v>
+        <v>0.14449778934471585</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.5241441778185127</v>
+        <v>-0.1751466725684046</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>2.757055759082502</v>
+        <v>-1.829366634783356</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>1.1366101348318007</v>
+        <v>-0.8562360126014078</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.10626298101331669</v>
+        <v>-0.9210710496181497</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>2.0199250620859854</v>
+        <v>-1.3300799278733726</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>1.1239227259464006</v>
+        <v>-1.1586272759345588</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.8754984648351588</v>
+        <v>-0.9197950670312397</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>-1.3235684228870257</v>
+        <v>-0.24077014520712003</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.24691736517423216</v>
+        <v>-0.2157806263046515</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>-1.7833971814988394</v>
+        <v>0.5986429576524721</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>2.1839217140387626</v>
+        <v>-0.6368493081866805</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.03330219930730242</v>
+        <v>0.509518410994028</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>0.5530649314038102</v>
+        <v>1.5509184821443527</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>-1.220961338723744</v>
+        <v>0.8414738648111029</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>0.37161488666559156</v>
+        <v>-0.9818509473818301</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>1.2870210697098068</v>
+        <v>-1.5134501510349676</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.2019411079051234</v>
+        <v>0.45851429361638335</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>-1.06041046553149</v>
+        <v>0.32007959441521544</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.22876835615697047</v>
+        <v>0.44642917215677885</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>0.8297363798251673</v>
+        <v>0.30041606331329185</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.39326391541525113</v>
+        <v>0.9466292252110821</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.587714520814017</v>
+        <v>-0.8675461593564332</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>1.4223190517714823</v>
+        <v>-2.028136468774993</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.48523535459616784</v>
+        <v>1.3697774855199811</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>-1.7743347510715055</v>
+        <v>0.38409545091938335</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>0.42119266016430457</v>
+        <v>-0.24663324922500823</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>1.4485536533124648</v>
+        <v>-0.8264963042978433</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4518258008642835</v>
+        <v>-0.9311410422982351</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>0.46117797618197187</v>
+        <v>0.38721899817614164</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>1.348390069894542</v>
+        <v>0.665643235067302</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>0.4496252980079342</v>
+        <v>-0.8767306106434933</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.6652766430324252</v>
+        <v>-1.682271278510351</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>2.0857669220407358</v>
+        <v>1.066441605680671</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.4007159488893885</v>
+        <v>-0.16163831122001046</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.8894124649403086</v>
+        <v>1.6268577520168175</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>0.35254811711990386</v>
+        <v>-0.15879554573568577</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>-1.1782821088017468</v>
+        <v>1.4711164659932985</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.6018103386276444</v>
+        <v>-0.7353293462652452</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>0.7003208689356167</v>
+        <v>1.61999891360741</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>0.01143728751995725</v>
+        <v>1.5774285692347159</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1.2419215603716833</v>
+        <v>-0.7086743071584469</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.7175320126268203</v>
+        <v>2.1530616316911284</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.014305379019412479</v>
+        <v>-0.6581377738841553</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.14650170823645556</v>
+        <v>1.3929943627305055</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.06295297214843057</v>
+        <v>-2.250976288561317</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.35249734254736853</v>
+        <v>0.21687059391136526</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.02792490143400832</v>
+        <v>-0.6246106869027372</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>1.2682605361002157</v>
+        <v>-0.7191369098262647</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.22262658559825155</v>
+        <v>1.6393043904615774</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>1.7359391451760844</v>
+        <v>0.8655477015729404</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.34599666988466304</v>
+        <v>-1.365029988770896</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.37688430517043336</v>
+        <v>-0.04322347011974845</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>1.4278234355937554</v>
+        <v>0.021246440801248906</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>-1.448181534039382</v>
+        <v>-1.0827546795882792</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>-1.6481426418833973</v>
+        <v>-0.2662736134599579</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1.0475451969126583</v>
+        <v>0.10203217004896357</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.9700482542751766</v>
+        <v>0.7082674927254636</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.46249564157745054</v>
+        <v>0.5105611413053477</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>0.17203920508960419</v>
+        <v>0.12168191205952704</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>-1.7286071447683622</v>
+        <v>-0.1435866592482779</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.08164142626381836</v>
+        <v>-0.8681608663437621</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.8498496835709184</v>
+        <v>0.16691760490332375</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>1.5362757914873035</v>
+        <v>-0.7983893184509072</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>0.715084286827625</v>
+        <v>-0.9674551825602219</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-1.0838968506209448</v>
+        <v>1.0048242907555842</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>0.2973929215922543</v>
+        <v>0.6889302409937857</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>0.6191002117528702</v>
+        <v>1.1469640824547234</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>-1.1603365467736948</v>
+        <v>-0.3664261196402315</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>0.8609012646205975</v>
+        <v>0.0019773304380019214</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-1.6168557253395484</v>
+        <v>-1.041891987359436</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.7056974539231913</v>
+        <v>-0.3522399816188508</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1.5261912886946871</v>
+        <v>-0.0781042746993133</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.07245145839453292</v>
+        <v>-0.3900781374368981</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>0.5449061648914445</v>
+        <v>-0.3837077725682824</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>1.3247703323433848</v>
+        <v>-0.3901476445303554</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.687406479900913</v>
+        <v>0.25961849579095403</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>0.5902283338847489</v>
+        <v>-1.0434909452104961</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.9345303520902528</v>
+        <v>-1.0731981199201928</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.365955798276269</v>
+        <v>0.36516324476260786</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>-1.5736448818953812</v>
+        <v>0.23627054854918178</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>0.07913895369125892</v>
+        <v>0.8837392804841395</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.4066452527474769</v>
+        <v>2.595360827118134</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.3995821667378692</v>
+        <v>2.0650986628175865</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.5814283005553386</v>
+        <v>1.130995891514316</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.765875018686036</v>
+        <v>-0.24495513619374756</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>-1.074010302122923</v>
+        <v>0.3967437821639192</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.15231618771494415</v>
+        <v>1.5036651850488978</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>0.9734604273725298</v>
+        <v>1.579552159390719</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>-1.2344837573123502</v>
+        <v>0.5562525171425738</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.4879302821303748</v>
+        <v>0.5481223166246465</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.8101390027973846</v>
+        <v>0.7002825756336403</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.46888971211716424</v>
+        <v>-0.1921775231572578</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>0.9281533848509552</v>
+        <v>-0.6623875661483162</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6227004278216002</v>
+        <v>0.28628473423885326</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.3494514136008246</v>
+        <v>-2.3244643672621623</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.9976568198104613</v>
+        <v>0.2761519387115977</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.964182967764642</v>
+        <v>0.4666532695169953</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>1.5595856980975307</v>
+        <v>2.817833290834253</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.7379176366747555</v>
+        <v>-1.7254347675088069</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>0.5635579344475424</v>
+        <v>-1.204816205097701</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>1.6352377204045347</v>
+        <v>-1.5403324409378172</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-1.388809431808404</v>
+        <v>-0.9849001309355097</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1.54859725552439</v>
+        <v>1.5187951841316711</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>0.20672352824764129</v>
+        <v>0.4077989205557574</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.06111242146889635</v>
+        <v>-1.6312129632405596</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-2.3358782912270324</v>
+        <v>-0.20418576398625854</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>0.10223330505566293</v>
+        <v>0.2726370547146896</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.42636921841691344</v>
+        <v>1.691310743048653</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.5637516906969403</v>
+        <v>-1.029137508372677</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.10647263841376149</v>
+        <v>-0.1664856045701918</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.17058855714753504</v>
+        <v>0.1673102083082638</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>0.41490533664136636</v>
+        <v>-1.1594257192490935</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>0.48803013148225755</v>
+        <v>1.1449101932934092</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>-1.1660291509333691</v>
+        <v>0.5372995352980422</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.5046055777780899</v>
+        <v>0.3619199696763232</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>-1.5408147615106973</v>
+        <v>0.8070208884621746</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.07432684179520763</v>
+        <v>0.4002799506157456</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>1.3601785280754584</v>
+        <v>-0.7114488816354338</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>0.4682994451855839</v>
+        <v>1.0469607863877162</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>0.23882970712814386</v>
+        <v>0.9135502205730788</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.5932465680905493</v>
+        <v>-0.13614534624871222</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>1.2828726695085466</v>
+        <v>0.8466234742229491</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.023933633980053815</v>
+        <v>0.5201992184701208</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>0.5807806720519544</v>
+        <v>-0.3307368587197334</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>0.02198237027041148</v>
+        <v>1.1654558764253216</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1.4937055038820515</v>
+        <v>1.1005041903150294</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>-1.6706265270846772</v>
+        <v>1.9423571383002536</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.44027604779099105</v>
+        <v>-0.37657399268798347</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>0.36774146511653577</v>
+        <v>1.8744794160627358</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.21781824429242205</v>
+        <v>1.464779713291897</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.6163544246440918</v>
+        <v>-0.5071483651328025</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>-1.1726613477368122</v>
+        <v>-1.1443785746214594</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.887915887068782</v>
+        <v>0.9504880002544461</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>0.2942672711021693</v>
+        <v>-0.08904010258011053</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>1.2475161075408556</v>
+        <v>-1.7753844835922408</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>0.19259981918736943</v>
+        <v>-1.986994658989631</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>1.2874929606639347</v>
+        <v>-0.7920958896770183</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-1.0792891637527913</v>
+        <v>0.4099702282185232</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.14083287872221611</v>
+        <v>-1.009771443109769</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>1.4482201098815985</v>
+        <v>-0.2670975837627297</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.8619440172641325</v>
+        <v>-1.382583018589137</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>1.0507628541356389</v>
+        <v>0.15771646331024955</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.07179732689274604</v>
+        <v>-0.70354428300567</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>0.1167366208466671</v>
+        <v>1.4654038349740182</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.9778665082202985</v>
+        <v>0.6487540966078815</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>-1.0315420111450262</v>
+        <v>1.3634170426381549</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>2.1991293253164925</v>
+        <v>-0.6016524531674216</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>-1.4484113267641217</v>
+        <v>0.07043691282676316</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>0.45525579461538374</v>
+        <v>2.5819862267818126</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>1.0947425133729145</v>
+        <v>-0.26302184911510784</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.6159063161505894</v>
+        <v>-1.3170394381489556</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>-0.188314525868149</v>
+        <v>0.1828150043378748</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>0.5945577595754521</v>
+        <v>-0.23229896656941382</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.1449102582038014</v>
+        <v>-0.24103245310690008</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.866716504321091</v>
+        <v>0.05841547999584236</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>0.9001427953487138</v>
+        <v>-1.5469152963893764</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>1.525563392632039</v>
+        <v>-0.5133371106302907</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.6885003120657154</v>
+        <v>-0.7771167153517005</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.0040675825218756635</v>
+        <v>-1.1331332960064813</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>0.9811701348762509</v>
+        <v>-0.7923142535532883</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>0.5978883559835284</v>
+        <v>-2.299623527489978</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.6338209431504896</v>
+        <v>-0.1755209373432113</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.379427027761042</v>
+        <v>-0.07754279722603168</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>-1.4077330699548345</v>
+        <v>-0.9113031210571525</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>1.7226231380022374</v>
+        <v>-0.36029095351420093</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>0.7068146476255212</v>
+        <v>2.9490751586182924</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.2830454747412576</v>
+        <v>-0.6960830754454106</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>0.0824746937830665</v>
+        <v>-0.48737500086376045</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>1.1664307812983419</v>
+        <v>-0.044233013105302664</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.4955595997220479</v>
+        <v>-1.303893293901552</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.571426244212522</v>
+        <v>-0.12049940379442645</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>-1.1608251217024794</v>
+        <v>-1.520768477053045</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>-1.1425599157402715</v>
+        <v>0.4309793041107156</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.5785209386431192</v>
+        <v>0.3863411147417926</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1.0405885500362635</v>
+        <v>0.009732298139329052</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.85821664524264</v>
+        <v>-0.46292797375923644</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>1.5195301167936317</v>
+        <v>0.03334402906172722</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>0.49477798498541564</v>
+        <v>0.7290750608732517</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>-0.4545177161188972</v>
+        <v>-0.8791930068538489</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.9356436611257595</v>
+        <v>0.8500549080601252</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.9106488482980967</v>
+        <v>-0.501635780252188</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-1.0247380118333034</v>
+        <v>-1.923264532222752</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>0.6685470585839267</v>
+        <v>1.1059548432255857</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.49097936732446507</v>
+        <v>0.27870055230043356</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>0.419734429895088</v>
+        <v>0.5852438891419887</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.3004793568518872</v>
+        <v>-0.3602413114723314</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>-1.105702378354537</v>
+        <v>-0.44852290486661917</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>-1.7239496482336247</v>
+        <v>-1.297669010372821</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.2228708488490351</v>
+        <v>0.2651425102603503</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>1.5735154767595316</v>
+        <v>0.19016605736676284</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>0.21709871452489862</v>
+        <v>-0.2640544169858157</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>0.728334974436501</v>
+        <v>1.2685940593625928</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>0.04099185161888599</v>
+        <v>-1.5732098036182813</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>0.2706557752124968</v>
+        <v>-0.9866755169736334</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>-1.0322795486164593</v>
+        <v>-1.0674526459810851</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>1.2644757449393498</v>
+        <v>0.04815242688415338</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.13842107652335742</v>
+        <v>-0.3703651915567986</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.9662350828284293</v>
+        <v>3.087343990710131</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>0.1736350762688463</v>
+        <v>-0.7676496186149138</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.04458199746171094</v>
+        <v>0.004987937063533568</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.7910594941579667</v>
+        <v>0.6443199043548973</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.7827797954619711</v>
+        <v>-0.35523823810812455</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.40127542286801954</v>
+        <v>1.9300984377833346</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>-1.987545733645883</v>
+        <v>2.0759130384895483</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.4559039641087076</v>
+        <v>-2.169130155393975</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.03434293249397076</v>
+        <v>0.2795935199116921</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>1.665030889027905</v>
+        <v>2.447573914806309</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>-1.2345170008302366</v>
+        <v>0.5719701999822392</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>0.011919487668219063</v>
+        <v>-0.16645284250393205</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>1.625154328540094</v>
+        <v>-1.7082957466399706</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>-1.6361705668162603</v>
+        <v>-2.5587346525456827</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.38007670063028054</v>
+        <v>1.9931905718152514</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.06550317819143628</v>
+        <v>-1.2884006672358737</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>0.20463040679009764</v>
+        <v>0.15510698639410345</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>0.525876645519499</v>
+        <v>0.7012068360046937</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>0.7492478366346269</v>
+        <v>0.23769926802483013</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.6392182773156092</v>
+        <v>-0.0710138838248564</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>-1.702590715988203</v>
+        <v>0.030997260351507575</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8979339626146328</v>
+        <v>1.5177381275438357</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>1.2693099671923536</v>
+        <v>1.0535740018259625</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>0.5142982286732757</v>
+        <v>0.7558396002495483</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.3390081746143631</v>
+        <v>-1.0734428005484489</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.7329515045808659</v>
+        <v>0.6130099742214759</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.4921756200869503</v>
+        <v>-2.614136826755473</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.18916728434028912</v>
+        <v>0.34405677514093175</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>0.5441565466459006</v>
+        <v>0.6631429293654043</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.7014392051690984</v>
+        <v>-0.5971196408729987</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.28192327533530115</v>
+        <v>0.8198266857066319</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.3755609114852302</v>
+        <v>-0.59482104033919</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>-1.1456205640561457</v>
+        <v>-0.4211373057542887</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>1.3897605467119232</v>
+        <v>-0.14638959051572847</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.47847413745433615</v>
+        <v>1.0375112150834838</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>-0.5439140245630532</v>
+        <v>-0.7322080659306774</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>0.24603881526290733</v>
+        <v>-0.047287796523276686</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>0.014734447228672705</v>
+        <v>-0.13660675113417844</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>0.32653613251279345</v>
+        <v>-0.7477232371750288</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>0.3916530138577157</v>
+        <v>-0.024798837031045542</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1.0153152376060572</v>
+        <v>1.813280418901174</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.455490550415652</v>
+        <v>0.8582441140243399</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>1.620639520075134</v>
+        <v>0.20387326787904322</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-1.5450876238899949</v>
+        <v>-2.9152314801956756</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>0.891131450390672</v>
+        <v>-2.494020100496921</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>0.9123215064117218</v>
+        <v>-1.2427819066750585</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>-0.07131368646431406</v>
+        <v>0.0028745800887398044</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>1.13969595021845</v>
+        <v>0.05351044601295943</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.5118016696823493</v>
+        <v>0.2709201824576613</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>-1.0375933984652284</v>
+        <v>-1.085253392764143</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>1.2583105729070954</v>
+        <v>0.449705240575985</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.08318269464216288</v>
+        <v>0.10275681728914648</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>-0.033928471376302186</v>
+        <v>1.5545116394942313</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1.734172316897016</v>
+        <v>-0.9606969334580382</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>-0.8353847026892521</v>
+        <v>0.3412785479929424</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>0.2605853088554345</v>
+        <v>-0.9077138396426585</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-0.7081430952668955</v>
+        <v>-0.19880892405373413</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.5318550284845529</v>
+        <v>-0.23396718222845686</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>-0.8485061175625953</v>
+        <v>-0.1500037562026148</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>-0.2730029389157727</v>
+        <v>-0.7869243059762168</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.8957244415240605</v>
+        <v>0.28630445128800175</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.2548545578032595</v>
+        <v>-0.7458096124496555</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>1.0580101308700312</v>
+        <v>-0.46174308784315166</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>-0.08786345003444224</v>
+        <v>-0.24877655408666582</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>-0.6183959176827939</v>
+        <v>-0.28987971498187165</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.3745469740259351</v>
+        <v>-0.359090126691721</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.17635587337752134</v>
+        <v>2.3357861743339425</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>-2.070718572224308</v>
+        <v>1.1627427455176438</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>2.101199207996761</v>
+        <v>-0.15256127050568236</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>0.8230361957520534</v>
+        <v>-0.573797984957993</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>-0.46623589038974184</v>
+        <v>-0.31989384274939914</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>0.3761283534063201</v>
+        <v>0.4734252713298539</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>0.7465390008765396</v>
+        <v>0.776926585964673</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>1.679390779185156</v>
+        <v>0.11875849604342724</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.030553478820620594</v>
+        <v>-1.72314558172623</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.17922914153643138</v>
+        <v>0.033538417820126225</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>-1.186037902213008</v>
+        <v>-2.2914243207739764</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.7654558530875295</v>
+        <v>-0.46321772625415003</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>-1.4596392894513497</v>
+        <v>-0.14416406413810792</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.6640660271949256</v>
+        <v>1.3715995913988521</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.284670380268534</v>
+        <v>-0.42179327405366696</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>0.41521001563287346</v>
+        <v>-0.07280989868235557</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>-1.0427475158891237</v>
+        <v>1.1632796952676139</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>0.02431361825970454</v>
+        <v>-0.8849568458400869</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.5746265369013717</v>
+        <v>0.18359627862809738</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>0.14152529108975262</v>
+        <v>0.8396589366326983</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-1.8130166308304398</v>
+        <v>-0.819066622561459</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>0.40977729952630326</v>
+        <v>0.3219634026579595</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>-0.7436978357425915</v>
+        <v>0.7839766741870148</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>-0.543880089021181</v>
+        <v>-0.49962176421469523</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>-0.7797355371255646</v>
+        <v>0.758239737674803</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>0.7006341759760668</v>
+        <v>0.36852673101878153</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.023072479673272816</v>
+        <v>-0.15877468057694866</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>-2.0479991270964284</v>
+        <v>0.8744144644009594</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>1.63856257847595</v>
+        <v>0.6501664734416138</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>0.8356927347443096</v>
+        <v>1.589894249110603</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>-0.16271513796937692</v>
+        <v>0.019667287756438168</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>0.6379236051408858</v>
+        <v>-0.6967105086149</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>1.1400701115561163</v>
+        <v>-0.26199053272314227</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>-1.4086838454473007</v>
+        <v>-0.9353723717838036</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>0.12323597745553602</v>
+        <v>-0.40210458327079157</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>-1.6051092551227746</v>
+        <v>0.38041768425789674</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.004528592635097423</v>
+        <v>0.2536179889701434</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>-0.36469005060515053</v>
+        <v>0.4317278087837842</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>0.278487740406494</v>
+        <v>-1.0464125240334963</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>-1.3734089750562668</v>
+        <v>0.12428502297003645</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>-1.945036926485528</v>
+        <v>-0.3715868692095498</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>1.6511506765229103</v>
+        <v>-1.6865776307240188</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>1.2129607313041268</v>
+        <v>0.03768791186425396</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>-1.1913204549131196</v>
+        <v>-0.5163844606654584</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.28197979745994445</v>
+        <v>-0.2790962772840962</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>0.14213123551650791</v>
+        <v>-0.13924168271975793</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.17732134932139706</v>
+        <v>0.2578629018881159</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>0.9710354668051614</v>
+        <v>0.546393247572042</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.5246986391169519</v>
+        <v>0.8279568613823716</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>-1.3277856195308038</v>
+        <v>0.5335115586133033</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.5016215335544435</v>
+        <v>-0.9949336829677858</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-0.6010949183701155</v>
+        <v>1.2657469935300463</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>2.224720919275085</v>
+        <v>-0.9233731662116967</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>0.020420989224966796</v>
+        <v>0.4527256381446943</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>0.449181870312489</v>
+        <v>-1.8389635082559104</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.4503261877019184</v>
+        <v>-0.13775713416279348</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>-1.1718226591606242</v>
+        <v>0.7208858422590501</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>-0.36217487709648816</v>
+        <v>-0.7336341790016009</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.29869068548520156</v>
+        <v>-0.1416679919455967</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>-0.7943253652502198</v>
+        <v>1.7157486633771295</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>1.8875074250096338</v>
+        <v>-1.1421957088481889</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.588187897638789</v>
+        <v>0.7931923831749109</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>1.1556792789997101</v>
+        <v>0.3430289629979308</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.8743877763512481</v>
+        <v>0.4478355623464295</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>0.25865681394402523</v>
+        <v>-0.04783499760374196</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>0.058444491381180054</v>
+        <v>1.6795189759801588</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>0.822544348231614</v>
+        <v>-0.2551062736746885</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>0.45670859382078277</v>
+        <v>-1.130043002879703</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>1.0966304161960427</v>
+        <v>2.5237197769327664</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>0.16220368670788587</v>
+        <v>-1.5993126995332463</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-0.17829286698017976</v>
+        <v>0.5728336508581447</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>1.9987357378780288</v>
+        <v>-1.2374380440503527</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>1.1834639324616232</v>
+        <v>-1.4575748536449766</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>2.7021261452067975</v>
+        <v>-0.5193647459982575</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>-0.5450966257505445</v>
+        <v>-0.9287745489256107</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>0.10662026403324329</v>
+        <v>1.4996751767911476</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.37506702153349364</v>
+        <v>0.36436495264805513</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.229612630177627</v>
+        <v>-1.321958330332574</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>-1.1963710178214282</v>
+        <v>-0.2805350004426884</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>0.19880168438254275</v>
+        <v>0.49942567907569185</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.2142074341529713</v>
+        <v>-0.984559754757638</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>0.11548087361780211</v>
+        <v>-0.9362537515638151</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>1.4809528422087366</v>
+        <v>-0.0786458443578027</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>-1.7794439117655685</v>
+        <v>-1.346519809340887</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>-1.3201147046337425</v>
+        <v>-2.1558420004475156</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>1.7846284756718116</v>
+        <v>-1.183868115656791</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>-0.667800691390652</v>
+        <v>-0.9525051640826772</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>-0.8747209956690876</v>
+        <v>0.15928013182308084</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>0.27390215803084056</v>
+        <v>-0.45401530732002093</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>1.0938186525607498</v>
+        <v>0.9481970685337249</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-0.13588883395838897</v>
+        <v>0.20020367838926406</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.8968258087424946</v>
+        <v>0.10160521781801325</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.6257816949267025</v>
+        <v>-0.8428567651354556</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>1.782811818075929</v>
+        <v>0.23019506749224117</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.4462895410631397</v>
+        <v>-0.7961194095059594</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>0.56506835640516</v>
+        <v>-0.1777428825104775</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>-1.3438349862971728</v>
+        <v>-0.20021880654685176</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>-1.0119526522020523</v>
+        <v>-0.5273656072717994</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-0.13847692018926075</v>
+        <v>-0.08749548260349345</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>1.3730125784771332</v>
+        <v>-0.4633374180286628</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>-0.10122969626799162</v>
+        <v>0.6410335723788392</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>1.2706017543226387</v>
+        <v>1.8283642602257468</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>-2.040489138882864</v>
+        <v>-0.4149631075683854</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>0.6701416910497792</v>
+        <v>1.6121777914186721</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>-0.030897653616878084</v>
+        <v>0.14958742709573458</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>0.1668046893235781</v>
+        <v>0.9621008436496081</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>0.6630304321855716</v>
+        <v>1.5743467893745944</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>-1.2702601030282767</v>
+        <v>-0.8802937964901996</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>0.46748859201245613</v>
+        <v>-0.6073775807996142</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>-2.2524317219279215</v>
+        <v>-0.6067729899820048</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>-1.0803726943193483</v>
+        <v>1.2396898114603159</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>-1.0892328121206964</v>
+        <v>0.3772773397427331</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>0.08844382720529097</v>
+        <v>0.4902349447486116</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>1.0448202669598698</v>
+        <v>0.00865189440401405</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>-1.1057339841232392</v>
+        <v>-0.634777382753251</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>-0.8354283000518669</v>
+        <v>0.1451760367650653</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.474259782415276</v>
+        <v>0.005971720802133124</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-0.7164365628929137</v>
+        <v>-0.6177946926949377</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>-0.34433128188011297</v>
+        <v>0.074012556389019</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>1.096392654077412</v>
+        <v>-0.6613359769057284</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>1.5017484436469484</v>
+        <v>0.3642377489518699</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.9842923654861863</v>
+        <v>0.34615591940381957</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.08680853106876536</v>
+        <v>1.1112520928178602</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>-1.9433036097469307</v>
+        <v>0.3289060957847694</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>-0.3732133831566958</v>
+        <v>0.31640246970885744</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>1.6049394977822375</v>
+        <v>0.5285321234302758</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.013037744729521761</v>
+        <v>-0.3954242051922824</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>0.5700636186593494</v>
+        <v>-1.3019279281058131</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>-0.016378707037796238</v>
+        <v>-0.14266469250405367</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.7720476626194499</v>
+        <v>0.6507765326607214</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>1.343978978559239</v>
+        <v>0.3478584427274974</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>-0.8436712209750032</v>
+        <v>-1.106586363715719</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>-0.2553893859167595</v>
+        <v>-1.1439326229233195</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-0.4641808670413425</v>
+        <v>1.9402102532626004</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-1.119659666759836</v>
+        <v>-0.4430896451488482</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>-1.1052419763116572</v>
+        <v>-0.1528877881175828</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>-0.8550441837193735</v>
+        <v>-0.8127028988278666</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>0.03349790122967306</v>
+        <v>-0.8665174811600949</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>0.19469159816969778</v>
+        <v>1.228827534467373</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>2.3297710887851903</v>
+        <v>-1.69063982849151</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>-1.2725267101012725</v>
+        <v>-1.3868388668333809</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.4267531141292594</v>
+        <v>0.4937540880808445</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.13540173119337404</v>
+        <v>-0.1855790126877169</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>-0.7487813890966545</v>
+        <v>0.6801147660773693</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>-0.8837312134890359</v>
+        <v>-1.1013069473140136</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>-0.08363375785087374</v>
+        <v>-0.8693634987206263</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>-0.5457095004376421</v>
+        <v>-0.33516582867272493</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>0.4368013761230104</v>
+        <v>0.9787592205502337</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>0.06170211751469434</v>
+        <v>0.11641015909875958</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>-0.18829956766654432</v>
+        <v>-0.09189778323201381</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.4799028786742501</v>
+        <v>0.4652985298283194</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>0.7713441569904755</v>
+        <v>0.01338820750758803</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>-0.967731459168919</v>
+        <v>-0.16829907106027078</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>-0.673070021503705</v>
+        <v>0.3423526409422299</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>0.24257747887425463</v>
+        <v>-0.5361015073381086</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-0.6110072790465539</v>
+        <v>-0.5617413813972548</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>0.23961894888749366</v>
+        <v>0.7073012840400211</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>1.3528957964446144</v>
+        <v>0.1330160657532397</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>-0.5907249723870079</v>
+        <v>-1.2165254085704578</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>-1.0014728317493578</v>
+        <v>0.3098680706822742</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>-1.3344589514432954</v>
+        <v>-0.9849507553918181</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>-0.7536270159759536</v>
+        <v>0.26397769090177825</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>-1.035515010937528</v>
+        <v>1.566151257493757</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>-0.22565576405319898</v>
+        <v>0.8516632809754384</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>-0.7942568395313553</v>
+        <v>0.8824771332352307</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>0.6888363098484708</v>
+        <v>-1.0013254766437694</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>-0.7880639525389428</v>
+        <v>0.9880345552542358</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>1.838035778974053</v>
+        <v>-0.8774886351316813</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>-2.5624199194122212</v>
+        <v>0.8381904745534584</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.9632686891342078</v>
+        <v>0.48510157993367536</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-1.5594664237611753</v>
+        <v>-0.8965411384351087</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>1.3980834669251547</v>
+        <v>1.2312651181924026</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>-0.7296250581447496</v>
+        <v>-1.2240878082574504</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>-0.7689429529139675</v>
+        <v>-0.5749690968282843</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>-0.4251570408410889</v>
+        <v>0.15487542367381626</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>0.39178435824083857</v>
+        <v>-1.2079409268460861</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>0.07249041136490675</v>
+        <v>0.98963754897234</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>-1.2899071311257457</v>
+        <v>0.36721694491893003</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.5098921158285186</v>
+        <v>-0.3438537414473811</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>-0.7153642668908278</v>
+        <v>0.08493771746575879</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>-0.4055215357460772</v>
+        <v>-0.7906475830807063</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>-0.012521187106817669</v>
+        <v>-0.4697082752737323</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>1.100881037590189</v>
+        <v>-1.082661278713479</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.154942167452559</v>
+        <v>0.7667680825187118</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15401270746136325</v>
+        <v>-1.0936591957373432</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7954910070928303</v>
+        <v>-0.25948862611704154</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7350707000523571</v>
+        <v>0.7969668981671836</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2.1473382766402973</v>
+        <v>0.6408672503553533</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.5730873031599661</v>
+        <v>0.5580140656641549</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0541977998051758</v>
+        <v>-1.5070616094731346</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5155136934614174</v>
+        <v>0.46160951711361703</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.5423973902826593</v>
+        <v>-0.31568560983016425</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5166850488488665</v>
+        <v>0.418033069710753</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.39610787155842403</v>
+        <v>-0.41254560736186163</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.0330805765318347</v>
+        <v>0.30908331927314375</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3143569877579503</v>
+        <v>1.1334399221225224</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.08807521411082765</v>
+        <v>0.6396667951141848</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.07345772124207518</v>
+        <v>0.20517937326167177</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.25130796375237835</v>
+        <v>-0.7239065961610235</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6573860730765679</v>
+        <v>0.21087645296502774</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.8833755747990617</v>
+        <v>0.6966535303579794</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.006020456986102449</v>
+        <v>-0.3320191530038015</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9077969130934062</v>
+        <v>0.6577615676290012</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.31340618370285195</v>
+        <v>0.13712119829566302</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.8380904986402121</v>
+        <v>0.3823999050196027</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.1962666422219492</v>
+        <v>-0.5398663375847267</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.3055327782528594</v>
+        <v>0.13598950737059418</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.1704938998575332</v>
+        <v>0.2054600328349092</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.1976960601992745</v>
+        <v>0.8097829509220257</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3659656922079685</v>
+        <v>-0.10242660858564756</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.23886058215812356</v>
+        <v>2.4433639316719193</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.26024807243004966</v>
+        <v>0.1557006423651959</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.08137894931918654</v>
+        <v>-0.43347740468790785</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.41229772154638655</v>
+        <v>2.6413629932732756</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5178537779449246</v>
+        <v>2.1792598066932394</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1981570987944056</v>
+        <v>-2.0971585751788435</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.570268137258923</v>
+        <v>-0.5825607714195103</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3058189616428773</v>
+        <v>-0.9269478873093366</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.4270869919948577</v>
+        <v>-0.7698589041151769</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9342927047220139</v>
+        <v>1.0427653656666585</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9888862027399971</v>
+        <v>0.8185035389917842</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8670149056025491</v>
+        <v>1.881553364327923</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.15347621387400076</v>
+        <v>-0.43294081783428373</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.8102085087496821</v>
+        <v>-0.5490047082208134</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4078814953070471</v>
+        <v>1.0545203755796486</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19491721333912296</v>
+        <v>2.0757412765156884</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1.2647987556859501</v>
+        <v>-0.5571181845391635</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1.8338867209109149</v>
+        <v>1.919911412367771</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.4654223303685878</v>
+        <v>0.5727792114799732</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.09716924471784424</v>
+        <v>0.7166002875794916</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07598152783443235</v>
+        <v>-1.3713210366381956</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.169860048624457</v>
+        <v>-0.7907308273311976</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1.750892884368669</v>
+        <v>-1.1834293257258734</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.596116150389571</v>
+        <v>1.4882623882280772</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.630422929677095</v>
+        <v>0.5450886030983307</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.22974729638350028</v>
+        <v>-1.7192640772980197</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.473060032093301</v>
+        <v>0.794819943972758</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1.4101291150186763</v>
+        <v>0.7625327124362472</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.26719048527894795</v>
+        <v>1.0348161362557717</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5547020593228968</v>
+        <v>-0.11614704765287583</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>-2.049881002022412</v>
+        <v>0.291709816023384</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7572699431052039</v>
+        <v>0.03196997710758648</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.6259403546537164</v>
+        <v>-0.007253911107729574</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5579202652134099</v>
+        <v>-0.3005577867093691</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8194492111268463</v>
+        <v>-0.04340601301534424</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.1601928930375873</v>
+        <v>-1.8607383469912724</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.662403288819456</v>
+        <v>1.8891768928886112</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.9765127285645625</v>
+        <v>0.1553113361052057</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.02704767969833897</v>
+        <v>-1.6356256520354806</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6109057613072296</v>
+        <v>-0.46038081898319083</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.14717050824240932</v>
+        <v>-0.11932371469703171</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.3130679440677047</v>
+        <v>-2.0297911135460525</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.016704730747457746</v>
+        <v>0.913620718520827</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5024452899489512</v>
+        <v>-0.7697954249693167</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1.2538651426567078</v>
+        <v>0.711789967878585</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.950327739572164</v>
+        <v>-0.7138532579457771</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5338778550426914</v>
+        <v>-0.9631423035674295</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.9941242963584553</v>
+        <v>-0.4307602749863432</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4987795295705986</v>
+        <v>1.104379532534905</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0044875547285847155</v>
+        <v>0.2479879558018174</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6489749806783929</v>
+        <v>0.23607085194540203</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2969648219345689</v>
+        <v>-1.2313215569265261</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01169420093545011</v>
+        <v>0.10547555408850445</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.024701124016303762</v>
+        <v>-0.7976297596842589</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8614425754668776</v>
+        <v>-0.5211639686800694</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.1118329056959972</v>
+        <v>0.31502655860120615</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.3453879094343897</v>
+        <v>0.46140456826157855</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>1.0224669327046332</v>
+        <v>0.25796595964752</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.6136009771832613</v>
+        <v>-1.4063825382256567</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1.2303469984601987</v>
+        <v>0.1231080759858598</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.1591060486536922</v>
+        <v>0.30447791782014616</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7210825077171578</v>
+        <v>-0.801290687588847</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.500819669896579</v>
+        <v>-2.624379758988718</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1.407992061984313</v>
+        <v>0.9469120667406226</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4673665260978004</v>
+        <v>0.2529583936664579</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.37857495963251886</v>
+        <v>-0.9214140107066288</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.38057793800938194</v>
+        <v>0.1488657738893668</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.38905330825196976</v>
+        <v>-1.4158711642760768</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1.8029124204995484</v>
+        <v>0.8498766403050769</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8501425294367556</v>
+        <v>-0.2089695742057275</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1.0905739023346377</v>
+        <v>-0.7981088808365826</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9581727399837128</v>
+        <v>1.5166839160977341</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.05432105578089654</v>
+        <v>-0.2556756917366024</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.07710935792334817</v>
+        <v>1.764021317651133</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.7005078808978886</v>
+        <v>-0.47373374136295665</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.6428267859944243</v>
+        <v>-1.5024598436394752</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.3798900076246483</v>
+        <v>0.11358783489640142</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1932031105694571</v>
+        <v>0.836092348321049</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4331590790019797</v>
+        <v>-0.2898456038361325</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9669082063800828</v>
+        <v>-0.3224361446322484</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.29409153338978505</v>
+        <v>-0.27087051445785987</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.5771020544877382</v>
+        <v>0.6530802664402721</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2708817490101033</v>
+        <v>-1.010659308751918</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.3385379687493233</v>
+        <v>-0.9467415374656323</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.907798687248089</v>
+        <v>-0.45790205291977387</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4941094018039188</v>
+        <v>-0.13814688443680237</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.40205607533287463</v>
+        <v>-0.04865963445434477</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.09660600478196049</v>
+        <v>-0.32582565456138374</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9511198278992211</v>
+        <v>0.733197632087781</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1.1350181170643405</v>
+        <v>-0.5958593269868478</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.41775330040616987</v>
+        <v>-0.35261629944148265</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2968794576003884</v>
+        <v>-0.4516545445760261</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5929878389867627</v>
+        <v>-0.8682986586676695</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.06107894895633444</v>
+        <v>0.055684222879582655</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2554707945212697</v>
+        <v>0.47782089184634735</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.5410058192463116</v>
+        <v>-0.48234903989586503</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.38439917617220704</v>
+        <v>-0.7506298386841856</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.8753811519375947</v>
+        <v>0.6764468311386331</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>2.1585299779043194</v>
+        <v>0.7884575828542402</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7226122703625414</v>
+        <v>0.23265156112948002</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.17945309306918505</v>
+        <v>-0.25813659399166544</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8858763248740927</v>
+        <v>0.5419457883208948</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.2298759142121116</v>
+        <v>0.8872473114985174</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0037007551178371264</v>
+        <v>0.09820805337961151</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.49392954527850114</v>
+        <v>0.8971135056327779</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-2.1887619309592123</v>
+        <v>-1.1491719808354464</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.597813737832798</v>
+        <v>0.04249342578102516</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2149715842844946</v>
+        <v>-0.7271688556941543</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.059387840515057494</v>
+        <v>-1.3615574844637297</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.41569808937836217</v>
+        <v>0.04690264885626951</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.3761247631468838</v>
+        <v>1.467226178104078</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.39240888727557743</v>
+        <v>-1.905693120180579</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15737038508619997</v>
+        <v>-0.7015947882706333</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3259098651041517</v>
+        <v>1.8273074224995798</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>1.0249062688566826</v>
+        <v>0.5515536236315627</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5363952687887195</v>
+        <v>-1.2459884357561706</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.38420244952204274</v>
+        <v>0.3039602953848004</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>2.82186666781204</v>
+        <v>-0.20326904050615718</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.18189930557365042</v>
+        <v>0.28732141571056585</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>1.1845776345157142</v>
+        <v>0.7345435313263833</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.21107527585872216</v>
+        <v>0.8547912053407924</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.9429368654975532</v>
+        <v>-0.9026816024238926</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>1.2688469982982191</v>
+        <v>0.4879900867811548</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.0644250504598245</v>
+        <v>-0.26622126557135456</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7779115207605611</v>
+        <v>-0.9594963382015087</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9877075320565709</v>
+        <v>-0.7377281926983774</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.746492135202006</v>
+        <v>-0.6658863149794548</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5794797907356612</v>
+        <v>-0.5556278002593532</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9762225294411425</v>
+        <v>-0.4817659314216223</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.614848395049287</v>
+        <v>-0.004943040887719461</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>1.194563270889729</v>
+        <v>-0.3000761732970927</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6002987741002234</v>
+        <v>-1.9588585160222485</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.3255868857434801</v>
+        <v>-0.022400579190780263</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>1.1755281603574197</v>
+        <v>-0.354982128189582</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.19736278003975277</v>
+        <v>-0.024405744571280072</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>-2.060632375511314</v>
+        <v>0.6450998452947374</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.8498545359431277</v>
+        <v>-1.0497719499345188</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.7663084806430334</v>
+        <v>0.9303438840281715</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.11746674238051932</v>
+        <v>0.1658601230638549</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>1.522314771062535</v>
+        <v>-0.9353948663580565</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>1.7417595785150577</v>
+        <v>-0.3262036260826331</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.22545418488972938</v>
+        <v>-0.5599043951993343</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>1.4713889175906472</v>
+        <v>-1.1645853803525283</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.2593466633788222</v>
+        <v>0.5638414948285203</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2584741664519495</v>
+        <v>0.09097137683090932</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.276861116465589</v>
+        <v>0.4168641263455299</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.19866435554806816</v>
+        <v>0.12142969507140983</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>-2.005402904463833</v>
+        <v>0.6751233323000577</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3729340631184369</v>
+        <v>2.1441504117492034</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.5274806751437002</v>
+        <v>-1.3908279076073986</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.332002435593121</v>
+        <v>1.6987710149064608</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.815751130130849</v>
+        <v>0.5133908186117213</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>1.3299914129859325</v>
+        <v>-1.2365854932633842</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.22901027231127105</v>
+        <v>-1.3990616167409644</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>1.5807438733378647</v>
+        <v>0.14503559863639282</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4233996075941216</v>
+        <v>0.6348959951653141</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.6235441976483839</v>
+        <v>-0.7384805961070253</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>1.0559801403268114</v>
+        <v>1.4418327800583548</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>2.0803914517470385</v>
+        <v>-0.10091900953691556</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.05109424616469022</v>
+        <v>1.1647276845963157</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8259285689334991</v>
+        <v>0.14318677663667917</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>1.4243522588475264</v>
+        <v>1.5580029079941846</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.4298028134087321</v>
+        <v>1.5775673983992995</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1.692298412553036</v>
+        <v>-0.7657301493260985</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.7904666020151898</v>
+        <v>1.914165237324471</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>2.8766236448479447</v>
+        <v>1.4674406461718592</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.41301257909718886</v>
+        <v>-0.5573781041183352</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>1.0271483109428245</v>
+        <v>-2.2136959451986873</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.8908603513869944</v>
+        <v>0.09943526898200797</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1113176158541102</v>
+        <v>0.3261222990581224</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.6609507396145888</v>
+        <v>-0.3281816873749911</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.12121160095560551</v>
+        <v>-0.12215329300233774</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.335310050406232</v>
+        <v>-2.471998976466111</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.4849474356215384</v>
+        <v>-0.11823741637636444</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.06847578653673575</v>
+        <v>0.2745824176358693</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.9708612628543443</v>
+        <v>-0.5309731907566748</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6185368989284366</v>
+        <v>1.7113109566066222</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.09068176090339912</v>
+        <v>-0.67456599783507</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.4141503418937795</v>
+        <v>-1.5144482484405706</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.1279715561010857</v>
+        <v>0.6548230064715201</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.3691018458968696</v>
+        <v>0.8001796887386763</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.43410475326509185</v>
+        <v>-0.07278399528449102</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.2140285857776152</v>
+        <v>-1.4019147268806362</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.15460560420630126</v>
+        <v>0.5189448372205233</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>1.2195423776088397</v>
+        <v>-1.1228389444868</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>1.6821043428385898</v>
+        <v>1.878717634579106</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8754262571287746</v>
+        <v>2.1706455933588455</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>-2.2617225030777375</v>
+        <v>-0.21374865593588996</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>1.0572857990253612</v>
+        <v>-1.1850693328040667</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.9333414220121736</v>
+        <v>-1.781391525338696</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>0.6308190656844552</v>
+        <v>0.07533558513154255</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.33287213834085777</v>
+        <v>-0.0517919695521222</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.2896293978327063</v>
+        <v>-0.9440169454214464</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5311988366967005</v>
+        <v>-0.6041200322921025</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.8624547949757122</v>
+        <v>-1.4323665359393467</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.7676721411893979</v>
+        <v>-0.8653128479082894</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.33007321135421713</v>
+        <v>1.024619997627136</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>0.9499840255252633</v>
+        <v>-0.6803838004517336</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.15788978735385886</v>
+        <v>-0.05839432449918234</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>0.6148996314354864</v>
+        <v>0.08947422158834793</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>1.5188668863832673</v>
+        <v>-0.5823034930486913</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>0.18568776203943152</v>
+        <v>-0.7210621650713346</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3745608334256361</v>
+        <v>-1.066222171007461</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>0.2259617206268456</v>
+        <v>-0.19048518414714496</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>0.7625265877870574</v>
+        <v>0.13131466178909193</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>1.6796790827599353</v>
+        <v>-0.3450647137423804</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>1.4618450035821084</v>
+        <v>0.43030340009295687</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>0.14496727062522707</v>
+        <v>-1.34790910869807</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>0.6637416281497845</v>
+        <v>-0.22259756480928317</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>0.888898315020298</v>
+        <v>-0.23347446752129952</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.11092795814491387</v>
+        <v>-0.14390231632300143</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>0.8401805784209826</v>
+        <v>-1.965125302641311</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>0.9155688159730355</v>
+        <v>2.1328791649243923</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.5615880831933135</v>
+        <v>0.15106263265619008</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.3225789440038427</v>
+        <v>0.4120153743549329</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>2.7646053697425925</v>
+        <v>-0.537357929726188</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.20552761642218698</v>
+        <v>-0.13609019303244455</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.6570758164039088</v>
+        <v>-0.3399098622429832</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>0.15684893668539868</v>
+        <v>1.6915008577978448</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3896608289875715</v>
+        <v>-0.1277373901795347</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>0.7689196223247619</v>
+        <v>-0.01741699478682476</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>1.60603899512322</v>
+        <v>0.4597953683192586</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>2.1973906868158353</v>
+        <v>1.0304401086963468</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>0.05672985453640151</v>
+        <v>-0.6200193602388208</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>1.446366535564235</v>
+        <v>-0.22571047090705576</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.25523022670386725</v>
+        <v>-1.1419504961065103</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.0190203413032747</v>
+        <v>0.3616953435952155</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.5675316473350033</v>
+        <v>-1.5851575072541948</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.5446895884768377</v>
+        <v>-0.06983271972283107</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>0.06341767872385072</v>
+        <v>1.417494122114903</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>2.338616712949837</v>
+        <v>0.3062157069486763</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.33962977026396396</v>
+        <v>0.112046453044862</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-1.2125304801453631</v>
+        <v>-2.002982298100618</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-2.2331197392192332</v>
+        <v>-0.678315528249213</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>0.7627375714617294</v>
+        <v>-0.13656642707600067</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>-1.2132993683066962</v>
+        <v>0.08165259487219183</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.3585063926396126</v>
+        <v>-1.80926580982592</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>0.7499425233213726</v>
+        <v>-0.30572029642441634</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.29159156962345834</v>
+        <v>0.20725815203547313</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.22460727067671538</v>
+        <v>0.3859982235235016</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>0.11300803061263257</v>
+        <v>-0.7396040642106001</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.794667323014643</v>
+        <v>-3.1034458446207887</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>-1.3883364539036096</v>
+        <v>0.014411678656343142</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>1.0561685299867702</v>
+        <v>0.532051628556264</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>0.06426012383828603</v>
+        <v>0.18587038801637956</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.43007792752507257</v>
+        <v>-0.02794363089959809</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1273208571589577</v>
+        <v>0.8983629473417084</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.23624414943341623</v>
+        <v>-0.09956783035399014</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.8606926427475176</v>
+        <v>0.5012619981084038</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.4268891635067475</v>
+        <v>-1.237128485314833</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>1.1039594825590369</v>
+        <v>0.8852697210824402</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.07130081936781835</v>
+        <v>0.033042069075472094</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.7449838079183686</v>
+        <v>-0.4219472937292075</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.5792170969451232</v>
+        <v>-1.1274837192046567</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>1.2192719695752263</v>
+        <v>-0.6556876162630585</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>0.0722139408501001</v>
+        <v>-1.2292182024228704</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.4035413809385162</v>
+        <v>-1.495175522905609</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>0.03748494116296149</v>
+        <v>0.405824615364605</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.06248104106991737</v>
+        <v>-0.7662889101292593</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3193545257234922</v>
+        <v>0.13346553525321309</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>0.07440651050348006</v>
+        <v>0.22060110143925435</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>1.0933725093107531</v>
+        <v>0.27856542336775764</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>1.2620548969824146</v>
+        <v>-1.4661780512159235</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>2.1299246051708436</v>
+        <v>-0.23461948506358787</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.4188587338331736</v>
+        <v>-1.0309531769264801</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>0.6234332658646472</v>
+        <v>0.8145100180052618</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.9907301375668152</v>
+        <v>-2.8900477441193564</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>0.5030730108678021</v>
+        <v>-0.44321773047540935</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>2.2355143258615655</v>
+        <v>0.3956888876708382</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>0.5828979681548256</v>
+        <v>-0.20917909506399093</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-1.0754781251750178</v>
+        <v>-0.4207186323200857</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.8714434690722017</v>
+        <v>-0.9453137479973992</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1.216540966340604</v>
+        <v>1.5907921489606909</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>0.9137165742024768</v>
+        <v>2.157638201807612</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>0.4178043698769401</v>
+        <v>0.7390695178469079</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.05478065695716931</v>
+        <v>-1.9499985655858871</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>1.9824123923643857</v>
+        <v>-2.475937513151781</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.41824658375827345</v>
+        <v>-0.23267038239110419</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>-1.006664345161335</v>
+        <v>-3.002289368097699</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>-1.6323217061326993</v>
+        <v>0.20048976958350767</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>1.156726009404039</v>
+        <v>-0.846452768645885</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.063301183450808</v>
+        <v>-0.7004195676854081</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.8348921882551212</v>
+        <v>-0.004471361659491048</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.8475494226862043</v>
+        <v>-1.8261773104244872</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.1717254405192863</v>
+        <v>-1.4334970135691403</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.127045663680568</v>
+        <v>-0.05069252296837957</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.12558174011376896</v>
+        <v>1.3338473388355465</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.9009723833514861</v>
+        <v>0.45808358936393273</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.16524917385429713</v>
+        <v>0.4282573457059014</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>1.2303023280969538</v>
+        <v>0.07428747944705619</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-1.10730027824087</v>
+        <v>-1.2605856172841396</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>-2.1545666457568795</v>
+        <v>-0.752443190419613</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.2775388423680205</v>
+        <v>-2.6882072996546036</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.26119380854504076</v>
+        <v>-0.19585291860815673</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>-2.2133317588526844</v>
+        <v>-0.8424205298053971</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.26555045265888594</v>
+        <v>-0.023682666588340066</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.0034098307106387</v>
+        <v>0.5198997134679831</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>0.18821764942533123</v>
+        <v>1.4332478919902565</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.6099885607794282</v>
+        <v>-0.023541886299847367</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>0.5735470064887042</v>
+        <v>0.8579006397921705</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.002711248115311852</v>
+        <v>0.3106701908671978</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.9524482295504055</v>
+        <v>0.28168723612056146</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.16000012317708792</v>
+        <v>1.1269923076730426</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>0.8563600845408443</v>
+        <v>-0.1320259274530051</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>1.4008509203857205</v>
+        <v>-2.1528305452173724</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.618816166598853</v>
+        <v>-0.7400252048833998</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.41928365673369616</v>
+        <v>-0.9231389723629337</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.6181800062998932</v>
+        <v>0.4859811368111621</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02640339789644437</v>
+        <v>-0.9259395789833106</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1.2361273275218325</v>
+        <v>0.8678182229748046</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.28845430191023036</v>
+        <v>0.344603583686529</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>-2.2109204717063333</v>
+        <v>0.6487368506437919</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>0.9106774341714815</v>
+        <v>-0.8510795980912311</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.9885181522527722</v>
+        <v>-0.688810295116461</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>-1.3160032304347296</v>
+        <v>1.1649120324044588</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.12847082896103948</v>
+        <v>-1.1927337580896598</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>-1.7713787613002063</v>
+        <v>-0.862431782154152</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.47757128681799527</v>
+        <v>-0.5817633871410856</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>0.7012968096305761</v>
+        <v>-0.233364986614958</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.3723217100634049</v>
+        <v>-1.8888112254715346</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.2548375208327918</v>
+        <v>-1.0590054875332546</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.3713615303325186</v>
+        <v>0.030187440333942533</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>-1.748313390134168</v>
+        <v>-0.10115969664607238</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.6459679711195659</v>
+        <v>-0.1713552872422656</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.1188439798754786</v>
+        <v>0.9588146560107897</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>-1.159907226025448</v>
+        <v>-0.11907520608356019</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.10786067476848525</v>
+        <v>-0.4821178884302794</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>0.12480317856524034</v>
+        <v>-0.5063086043502063</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>1.8307202966300755</v>
+        <v>-1.3925412069600627</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.6198868119646211</v>
+        <v>-0.26757783286371234</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.642934060770726</v>
+        <v>-1.384504765704792</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.390378731562518</v>
+        <v>-0.8393247097076026</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.006454769012290186</v>
+        <v>0.40103518039598185</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>1.5915501724833785</v>
+        <v>-1.3301552254747064</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>1.5925980548989587</v>
+        <v>1.7859964822162315</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>0.6937015714623002</v>
+        <v>0.569291204694607</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>-1.5025290017613375</v>
+        <v>0.2738045116023156</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.9476981333872976</v>
+        <v>0.9414388928838111</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>0.5816919571768098</v>
+        <v>1.8239816368677177</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.02979344414177676</v>
+        <v>-0.6534776919821947</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>0.06107756261951182</v>
+        <v>-0.0694872280804567</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.4703585602577479</v>
+        <v>1.653443213499189</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>0.944997607977422</v>
+        <v>0.6453180010434174</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.5841564479108765</v>
+        <v>-0.08372950581332317</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>2.723945649798595</v>
+        <v>-0.2195683568864915</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>1.619814010160853</v>
+        <v>0.8076316946804009</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.6362440275030079</v>
+        <v>-0.09199454124553491</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>0.6188307383676243</v>
+        <v>0.36354469816318546</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>0.34389833098940686</v>
+        <v>1.3093526090008603</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>2.6516069094121586</v>
+        <v>-1.0030375554738626</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.19073777432593822</v>
+        <v>-1.1675032118990227</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>2.5692475582158516</v>
+        <v>-0.716010948442562</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.3786280731787448</v>
+        <v>-1.0470580583846893</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>0.42635486548405954</v>
+        <v>-1.987198198544107</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4815175286152851</v>
+        <v>0.4422218055637925</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.7930767204670623</v>
+        <v>1.5024977868320906</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>2.2229472572478133</v>
+        <v>0.43081720668261014</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.9896425844780985</v>
+        <v>-0.061771982986680095</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>-2.304567296812055</v>
+        <v>0.40621007639345186</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>0.08915382305550498</v>
+        <v>0.2319606568251285</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.25382239169719745</v>
+        <v>-0.060204872310176474</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.6745419094487198</v>
+        <v>-2.0312681465456053</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>0.524997962147526</v>
+        <v>0.213100478707391</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-1.3893824665650734</v>
+        <v>0.6198652525393409</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.5092121681525703</v>
+        <v>0.7967324415419472</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>-1.9636512376001898</v>
+        <v>-0.12768404766763777</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>1.1798617418670894</v>
+        <v>-0.5822720916025795</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.11645605422876373</v>
+        <v>0.23085170909858402</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>1.1933985898204003</v>
+        <v>-0.1406363434295524</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>-1.163725690466058</v>
+        <v>0.7223127272293406</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.7729280948829875</v>
+        <v>-1.1855891040740485</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>0.5878677880636005</v>
+        <v>-0.20432012618864762</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>1.000445428095703</v>
+        <v>-0.21104567933589508</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>0.09753177639917605</v>
+        <v>-0.5896515020111857</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.11239260338014137</v>
+        <v>1.5223200670103636</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.1821156873708238</v>
+        <v>-0.7776486442442982</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>0.5902859843137768</v>
+        <v>-1.3280274258261635</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.5668239539754816</v>
+        <v>1.6048544402676643</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.21760243894318335</v>
+        <v>-0.24977813029811843</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.719668285950451</v>
+        <v>-2.299077419092484</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.5179385926053004</v>
+        <v>0.07534291311246816</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.8048118221359103</v>
+        <v>-0.639773849998095</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.15222760338750346</v>
+        <v>0.7557596542423264</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.030388628360066245</v>
+        <v>-0.7614613713476474</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>1.0682999897955563</v>
+        <v>-0.32961943268625815</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>0.37401297353210405</v>
+        <v>0.03427669930561379</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>-1.599252156065281</v>
+        <v>0.10886626121865955</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.20654080556962914</v>
+        <v>0.16423080300027157</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>0.012516168704565777</v>
+        <v>0.20543362639197715</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.0310320404996898</v>
+        <v>-0.49762848843367485</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>1.5676856759816467</v>
+        <v>0.259485755829947</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.06206559902683058</v>
+        <v>-1.9691429865280128</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.002022900599197525</v>
+        <v>0.18777908525781223</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>0.5657441210569374</v>
+        <v>0.48337592293519704</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>0.13722519452803722</v>
+        <v>-0.015997936741202215</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>2.0486047471476354</v>
+        <v>0.47293864786369133</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.692463877470765</v>
+        <v>-0.9672448793236459</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1095261859376127</v>
+        <v>-0.006496107371744472</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.21005005505131344</v>
+        <v>0.6533241388756722</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>0.5551183177499054</v>
+        <v>2.0986221793035784</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>-2.031171605424093</v>
+        <v>-0.3225949731864686</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>0.4735827469165996</v>
+        <v>-1.767121445365024</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>0.13432010917239282</v>
+        <v>-0.40941191849539593</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.17125289362438276</v>
+        <v>0.3302046062451997</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.9602107737139517</v>
+        <v>0.9446178574874626</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>-1.3193172557820065</v>
+        <v>-1.1354561572694457</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.6719478238450155</v>
+        <v>-1.6848741613245752</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.28126272941565705</v>
+        <v>-0.8558737133092513</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.6048879599447431</v>
+        <v>-0.8582618912925082</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.5789107534880645</v>
+        <v>0.11990840480035991</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>3.0963976228445</v>
+        <v>0.46485709530547464</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.47503196114676316</v>
+        <v>0.8393734820977575</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-2.992625967602737</v>
+        <v>-0.30268727137569956</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>-1.3291989758958285</v>
+        <v>0.9012488356294489</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>0.7293208277878148</v>
+        <v>-0.488114784575653</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>3.0786282589151446</v>
+        <v>0.5170781925479084</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.08383417671159316</v>
+        <v>0.252597710484901</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>0.13763604020586725</v>
+        <v>1.5977854010595909</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.3639564935131025</v>
+        <v>-1.3233650831242059</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.06852507559117509</v>
+        <v>0.2320215660680807</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.4031968333861985</v>
+        <v>1.2622737779949864</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>1.250841744269008</v>
+        <v>0.46533022581943356</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.9913650762489882</v>
+        <v>0.022737280680348214</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.19576664118970208</v>
+        <v>-0.18853223926936405</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>0.18161827976170847</v>
+        <v>1.0254450458802982</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>0.8733055698657393</v>
+        <v>-0.570039197965055</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-1.233568942034028</v>
+        <v>-0.06725742407537802</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.3966094780468102</v>
+        <v>0.4205002846698706</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>0.9723321179614348</v>
+        <v>-0.06633295779109441</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>-1.050060471450449</v>
+        <v>1.859901309353541</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.6210739011509863</v>
+        <v>-1.0144294241623133</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>0.3791445917360053</v>
+        <v>-0.3942514464582523</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.22046203138228063</v>
+        <v>-1.0824849286966816</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>0.1593814531470512</v>
+        <v>1.2661397825051148</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>0.15296450168959136</v>
+        <v>-0.47875162137386207</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>0.6031642818173838</v>
+        <v>0.16895668047211643</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>1.1338163019916117</v>
+        <v>-1.5848544858049356</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>0.424876173558215</v>
+        <v>-1.1287204004739728</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.5789842758793956</v>
+        <v>0.761992505309103</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9831333712423848</v>
+        <v>1.502817536285928</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>-1.1917318774126966</v>
+        <v>-0.7491390229506277</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5861439556605114</v>
+        <v>-2.221319122808254</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.45554756763807014</v>
+        <v>-1.2761990205452416</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>0.7978384757444862</v>
+        <v>1.3794871981061283</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.6637059956629489</v>
+        <v>1.145499467331234</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>2.838175274504669</v>
+        <v>0.08354759245597379</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.3682470224748118</v>
+        <v>1.1823874098280416</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>0.37426487641830297</v>
+        <v>-0.8981558487662538</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.39063146876478627</v>
+        <v>-1.9900345718312047</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>0.6322260612462154</v>
+        <v>1.898212622294908</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>-1.1840840236904557</v>
+        <v>-0.7168057997518369</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.1356040902403022</v>
+        <v>-1.1754678625975306</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.2493092290391571</v>
+        <v>-0.03507446163163436</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.49655758992399956</v>
+        <v>-0.4892778976020451</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>0.24028187579209725</v>
+        <v>0.35895669296811034</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-1.5070385530880432</v>
+        <v>-1.3183784640260792</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>2.0150284756857864</v>
+        <v>-1.5627368467300509</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>0.7417422637388286</v>
+        <v>-1.7275815133492192</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.11600521734529867</v>
+        <v>1.6387248053076953</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.6943151794826502</v>
+        <v>0.951727633180351</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.4287421834149757</v>
+        <v>0.9127736462870252</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>0.4580293915292069</v>
+        <v>-0.5369639467189882</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.050894068500262735</v>
+        <v>-0.31674709677051466</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>-1.0697191269231154</v>
+        <v>-0.2791488368348126</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.5260674792123138</v>
+        <v>1.3350179185336064</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>2.22871104443687</v>
+        <v>-0.41624126558851354</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>0.41044693814396516</v>
+        <v>-0.26348903609324437</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>0.89328094289776</v>
+        <v>-0.345745532585741</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>0.2957058646918352</v>
+        <v>-0.5545346964919592</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>0.391470256034617</v>
+        <v>0.4244157885125762</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-2.803244324727944</v>
+        <v>-0.23071249543125302</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.4310460611460187</v>
+        <v>-1.594920283986045</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>-1.6423299705534373</v>
+        <v>-1.2444374076606297</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1.1707627047310063</v>
+        <v>1.1453746727803427</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.12751635663818353</v>
+        <v>0.725163133299162</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>0.39537118238676766</v>
+        <v>1.1326410842170154</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.19345158320111158</v>
+        <v>0.061154519086514446</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.8607765268828531</v>
+        <v>-0.3753953225328326</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.9882600304082773</v>
+        <v>1.041011359793632</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.4465677195723518</v>
+        <v>0.03635547653362587</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.4701215575895949</v>
+        <v>0.06032692825479202</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.49480315493143373</v>
+        <v>0.3172892860547952</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.7603788455492902</v>
+        <v>-0.3949317809475422</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>1.2568748471552362</v>
+        <v>0.4034607461558531</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.050821115525269654</v>
+        <v>-0.0013400012098454055</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.46499941130073563</v>
+        <v>-0.4698066335317502</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.24063928392367687</v>
+        <v>-0.26211713451167906</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-1.698424092301588</v>
+        <v>-0.3748021553672143</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.14478822870952296</v>
+        <v>2.4252067284598113</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6870711078012484</v>
+        <v>-0.6244193042062185</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.05178036071259394</v>
+        <v>1.9343096275529152</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-1.4674302334432319</v>
+        <v>-0.19265812201016017</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>1.4986160069891505</v>
+        <v>-0.10929395149221166</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.009798985014227997</v>
+        <v>0.41885182090442696</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3930032541853011</v>
+        <v>-1.1992321546594351</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>0.6406637357428376</v>
+        <v>0.3785243692937671</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>-1.4742601521074419</v>
+        <v>-1.3023061861835117</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.9685098771718571</v>
+        <v>1.293144062830747</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>0.24778764087775165</v>
+        <v>-0.7004429773162905</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.3081462471560015</v>
+        <v>-1.0242473522104072</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.7003309059951961</v>
+        <v>1.1634759218549462</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>1.8765046893134487</v>
+        <v>-1.04262149809624</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.9392189113909641</v>
+        <v>-0.9059878595887046</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>0.7626064916219906</v>
+        <v>1.6099460265497556</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.03825871037306871</v>
+        <v>1.771516582104969</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>2.3653554452023817</v>
+        <v>1.6157752653271733</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.6337895745306708</v>
+        <v>0.316868787589777</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.6678886268119392</v>
+        <v>1.062548423602934</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.12852340326998904</v>
+        <v>-1.720325344142617</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>0.5245870208715313</v>
+        <v>1.6586227310572659</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>0.38976097484167016</v>
+        <v>-0.6193097788962806</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.8675121933916421</v>
+        <v>-0.45853908316887326</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>1.1319931463830841</v>
+        <v>-0.41858973042073216</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.0791497968679817</v>
+        <v>0.3185314329283902</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3028733830137589</v>
+        <v>0.8408412726621136</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.009085134568903547</v>
+        <v>-0.07669166524095943</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.9971852961204748</v>
+        <v>-0.7951427653928651</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>1.3720031758691738</v>
+        <v>0.4713814848068253</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.24226323979383446</v>
+        <v>-2.404346787388673</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>1.8797103127211021</v>
+        <v>0.7845163014525967</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1.0402158702335995</v>
+        <v>1.9606579133466098</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.15279580932014608</v>
+        <v>-0.9063651393053592</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>0.7574297198124462</v>
+        <v>-1.443417872803728</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-1.5826238413368452</v>
+        <v>-2.995788096306855</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>-1.5119478523239802</v>
+        <v>-0.47366532744596956</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.8116441902800509</v>
+        <v>1.3413494626538986</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>0.14449778934471585</v>
+        <v>-0.3956519596753473</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.1751466725684046</v>
+        <v>-0.07670766923096894</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>-1.829366634783356</v>
+        <v>1.7538219722338</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.8562360126014078</v>
+        <v>0.039802333005916096</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.9210710496181497</v>
+        <v>-0.7695842922681643</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>-1.3300799278733726</v>
+        <v>0.6120615173938111</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.1586272759345588</v>
+        <v>1.6422936593340047</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.9197950670312397</v>
+        <v>-0.42947820684184396</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.24077014520712003</v>
+        <v>1.0983194709593942</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.2157806263046515</v>
+        <v>-0.054243456077356145</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>0.5986429576524721</v>
+        <v>-0.6966812281402526</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.6368493081866805</v>
+        <v>0.03740056467889399</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>0.509518410994028</v>
+        <v>-0.9373725243726295</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>1.5509184821443527</v>
+        <v>0.9410360480655741</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>0.8414738648111029</v>
+        <v>-0.7965101401751833</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.9818509473818301</v>
+        <v>1.0225870464977387</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>-1.5134501510349676</v>
+        <v>-1.8949807298050474</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>0.45851429361638335</v>
+        <v>-0.1544954451605715</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.32007959441521544</v>
+        <v>2.361223180162746</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.44642917215677885</v>
+        <v>0.4685593782854813</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>0.30041606331329185</v>
+        <v>-0.5374640281363904</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>0.9466292252110821</v>
+        <v>-1.2243279746456148</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.8675461593564332</v>
+        <v>0.10700164375899827</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>-2.028136468774993</v>
+        <v>0.904907669887457</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>1.3697774855199811</v>
+        <v>-0.1527004464254546</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.38409545091938335</v>
+        <v>0.6112080301734488</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.24663324922500823</v>
+        <v>0.1834101885352236</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.8264963042978433</v>
+        <v>2.9262487560573076</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.9311410422982351</v>
+        <v>-0.05700764483413801</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>0.38721899817614164</v>
+        <v>1.7839954242972988</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.665643235067302</v>
+        <v>0.3544550210628217</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.8767306106434933</v>
+        <v>-2.034389169682854</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>-1.682271278510351</v>
+        <v>1.7988566492220983</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>1.066441605680671</v>
+        <v>-0.5022531397508759</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.16163831122001046</v>
+        <v>0.03564726711323029</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1.6268577520168175</v>
+        <v>0.7887729165255195</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.15879554573568577</v>
+        <v>-0.10888634893685484</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>1.4711164659932985</v>
+        <v>-0.6667299896190935</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.7353293462652452</v>
+        <v>-0.37852276899595527</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>1.61999891360741</v>
+        <v>-0.01711584491886383</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>1.5774285692347159</v>
+        <v>0.9133123111787033</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.7086743071584469</v>
+        <v>1.5527477154437683</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>2.1530616316911284</v>
+        <v>-0.5210642822092744</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.6581377738841553</v>
+        <v>-1.390262302619912</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>1.3929943627305055</v>
+        <v>1.299055419850958</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>-2.250976288561317</v>
+        <v>-0.03957205320009986</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>0.21687059391136526</v>
+        <v>0.8584505002351648</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.6246106869027372</v>
+        <v>-1.3412364609719427</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.7191369098262647</v>
+        <v>-0.6607846813147012</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>1.6393043904615774</v>
+        <v>0.1663799130897941</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>0.8655477015729404</v>
+        <v>-0.20279934397940338</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>-1.365029988770896</v>
+        <v>-1.256454370916644</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.04322347011974845</v>
+        <v>0.4176300830679266</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>0.021246440801248906</v>
+        <v>2.819071713418809</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>-1.0827546795882792</v>
+        <v>1.9029391456766667</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.2662736134599579</v>
+        <v>-0.9371037611040228</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>0.10203217004896357</v>
+        <v>-1.3772358047223727</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>0.7082674927254636</v>
+        <v>0.3417011244503907</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>0.5105611413053477</v>
+        <v>-1.80840555987369</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>0.12168191205952704</v>
+        <v>1.2790434455006023</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.1435866592482779</v>
+        <v>-0.5888934256263143</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.8681608663437621</v>
+        <v>-0.057605797823943074</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>0.16691760490332375</v>
+        <v>0.9528954282001513</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.7983893184509072</v>
+        <v>-0.3176363109234683</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.9674551825602219</v>
+        <v>0.9700143828088575</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>1.0048242907555842</v>
+        <v>-1.5434656544575935</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>0.6889302409937857</v>
+        <v>0.8317166206254037</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1.1469640824547234</v>
+        <v>1.3935662528572332</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>-0.3664261196402315</v>
+        <v>0.14696667492298587</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>0.0019773304380019214</v>
+        <v>1.0200918924078113</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-1.041891987359436</v>
+        <v>-0.08140660478500093</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.3522399816188508</v>
+        <v>0.7156288565195664</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.0781042746993133</v>
+        <v>-0.2544991585766965</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.3900781374368981</v>
+        <v>0.31345447807140836</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.3837077725682824</v>
+        <v>-2.117650904518041</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.3901476445303554</v>
+        <v>-0.8251636333418169</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.25961849579095403</v>
+        <v>0.4612994336307465</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>-1.0434909452104961</v>
+        <v>-0.5936578687944908</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>-1.0731981199201928</v>
+        <v>-0.29030577043032146</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>0.36516324476260786</v>
+        <v>-0.1254163962890798</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>0.23627054854918178</v>
+        <v>0.20377722166849932</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>0.8837392804841395</v>
+        <v>2.7963391829324586</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>2.595360827118134</v>
+        <v>-1.1938015296504727</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>2.0650986628175865</v>
+        <v>-1.6278127881274465</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>1.130995891514316</v>
+        <v>0.3176513730139433</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.24495513619374756</v>
+        <v>0.7014286174318082</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>0.3967437821639192</v>
+        <v>0.469911120267882</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>1.5036651850488978</v>
+        <v>0.26436317151694894</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>1.579552159390719</v>
+        <v>-0.8782964468563783</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>0.5562525171425738</v>
+        <v>1.0924295486665698</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.5481223166246465</v>
+        <v>-0.15479659351983818</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>0.7002825756336403</v>
+        <v>1.915138646696743</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.1921775231572578</v>
+        <v>2.129004406725067</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.6623875661483162</v>
+        <v>2.894077467033838</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.28628473423885326</v>
+        <v>1.7657116150721224</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-2.3244643672621623</v>
+        <v>-0.15428276616283793</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>0.2761519387115977</v>
+        <v>0.0953181937836292</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>0.4666532695169953</v>
+        <v>1.2675065958466292</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>2.817833290834253</v>
+        <v>1.616600619100664</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.7254347675088069</v>
+        <v>0.2973699121665506</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>-1.204816205097701</v>
+        <v>0.42877413192614866</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>-1.5403324409378172</v>
+        <v>-0.4253811286299465</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.9849001309355097</v>
+        <v>-0.2985022806195708</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1.5187951841316711</v>
+        <v>1.3509416701384853</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>0.4077989205557574</v>
+        <v>-0.5058445662578781</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>-1.6312129632405596</v>
+        <v>1.3685707632829607</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.20418576398625854</v>
+        <v>2.280735375333312</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>0.2726370547146896</v>
+        <v>-1.0666800897710265</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>1.691310743048653</v>
+        <v>1.0959441109761552</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>-1.029137508372677</v>
+        <v>-0.8844741747441911</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.1664856045701918</v>
+        <v>-0.7378773866059216</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>0.1673102083082638</v>
+        <v>1.571351245767593</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>-1.1594257192490935</v>
+        <v>-0.5185191879438918</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>1.1449101932934092</v>
+        <v>0.6481161001733233</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>0.5372995352980422</v>
+        <v>-0.5886420679353106</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.3619199696763232</v>
+        <v>-0.2280220546854149</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>0.8070208884621746</v>
+        <v>-0.838951062588931</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.4002799506157456</v>
+        <v>-0.1606114487870557</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.7114488816354338</v>
+        <v>1.1719005465439667</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>1.0469607863877162</v>
+        <v>-0.26729230695470124</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>0.9135502205730788</v>
+        <v>1.6486397170071947</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.13614534624871222</v>
+        <v>0.15293420499779772</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8466234742229491</v>
+        <v>1.8451621267426146</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.5201992184701208</v>
+        <v>-0.6674946824904959</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.3307368587197334</v>
+        <v>-0.8092089494054908</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>1.1654558764253216</v>
+        <v>0.5622757642533656</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1.1005041903150294</v>
+        <v>1.2051779512282332</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>1.9423571383002536</v>
+        <v>1.694419118432642</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.37657399268798347</v>
+        <v>-0.1260099460130916</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>1.8744794160627358</v>
+        <v>-1.2322509868235958</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>1.464779713291897</v>
+        <v>-1.0614783792944085</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.5071483651328025</v>
+        <v>0.7429243251167823</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>-1.1443785746214594</v>
+        <v>-0.6157140087039757</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>0.9504880002544461</v>
+        <v>-0.19095225111676203</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.08904010258011053</v>
+        <v>-0.2133051932052009</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>-1.7753844835922408</v>
+        <v>-1.69247093803224</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>-1.986994658989631</v>
+        <v>2.2464359324691188</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.7920958896770183</v>
+        <v>0.6001281687440235</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>0.4099702282185232</v>
+        <v>0.05181798665432722</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>-1.009771443109769</v>
+        <v>-1.629635014101936</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.2670975837627297</v>
+        <v>0.8573655127475802</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>-1.382583018589137</v>
+        <v>-0.2725262430991029</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.15771646331024955</v>
+        <v>-0.3191421991726931</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.70354428300567</v>
+        <v>-0.08243495063096845</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>1.4654038349740182</v>
+        <v>-0.16317863949358877</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.6487540966078815</v>
+        <v>-0.43636060765177254</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>1.3634170426381549</v>
+        <v>-0.2576485571709837</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.6016524531674216</v>
+        <v>1.5400436905622519</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>0.07043691282676316</v>
+        <v>0.24060951057771057</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>2.5819862267818126</v>
+        <v>-0.6988347571080604</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.26302184911510784</v>
+        <v>-0.8534367666462194</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>-1.3170394381489556</v>
+        <v>-0.6182291568183144</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>0.1828150043378748</v>
+        <v>-0.06634796214122535</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.23229896656941382</v>
+        <v>0.6209070369996937</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>-0.24103245310690008</v>
+        <v>1.0492821013312934</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>0.05841547999584236</v>
+        <v>0.3628625817635096</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>-1.5469152963893764</v>
+        <v>-0.8674984929314717</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.5133371106302907</v>
+        <v>0.8193996755725587</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.7771167153517005</v>
+        <v>-0.8526004051608943</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>-1.1331332960064813</v>
+        <v>0.0225692381876549</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.7923142535532883</v>
+        <v>-0.2998618828124889</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-2.299623527489978</v>
+        <v>-0.9126845393966441</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.1755209373432113</v>
+        <v>0.32295651968911826</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.07754279722603168</v>
+        <v>-0.0941072130319874</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.9113031210571525</v>
+        <v>0.25287552920737444</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.36029095351420093</v>
+        <v>-0.7603683359589506</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>2.9490751586182924</v>
+        <v>0.08628014267257705</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.6960830754454106</v>
+        <v>0.0485481532142537</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.48737500086376045</v>
+        <v>0.1345026290756911</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.044233013105302664</v>
+        <v>0.5238149960481596</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>-1.303893293901552</v>
+        <v>1.4808352924763524</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.12049940379442645</v>
+        <v>-0.13012198621334925</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>-1.520768477053045</v>
+        <v>0.9385676596784553</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>0.4309793041107156</v>
+        <v>1.2320665282138983</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>0.3863411147417926</v>
+        <v>-0.6620753617271105</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>0.009732298139329052</v>
+        <v>-0.1643129602274971</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.46292797375923644</v>
+        <v>0.14924205944927832</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>0.03334402906172722</v>
+        <v>-1.3589023258560187</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>0.7290750608732517</v>
+        <v>-1.0638869558874817</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>-0.8791930068538489</v>
+        <v>-0.19796551377054616</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>0.8500549080601252</v>
+        <v>-0.17238189421894015</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.501635780252188</v>
+        <v>-1.0156850674732227</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-1.923264532222752</v>
+        <v>-0.49380857459032335</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>1.1059548432255857</v>
+        <v>-0.281619206691016</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.27870055230043356</v>
+        <v>0.7894054103244371</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>0.5852438891419887</v>
+        <v>-0.6258668744646703</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.3602413114723314</v>
+        <v>-1.4417659959877025</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.44852290486661917</v>
+        <v>0.2763382456504257</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>-1.297669010372821</v>
+        <v>1.0505805526131877</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>0.2651425102603503</v>
+        <v>0.44728922489992123</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.19016605736676284</v>
+        <v>-2.3333050692975568</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.2640544169858157</v>
+        <v>0.4714686937900786</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>1.2685940593625928</v>
+        <v>0.3205516019472557</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>-1.5732098036182813</v>
+        <v>1.0114684431591854</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>-0.9866755169736334</v>
+        <v>1.0807004353012473</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>-1.0674526459810851</v>
+        <v>0.19368307605119048</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>0.04815242688415338</v>
+        <v>0.4283701880669352</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.3703651915567986</v>
+        <v>-2.19267571383353</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>3.087343990710131</v>
+        <v>1.1132060963478192</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.7676496186149138</v>
+        <v>-0.8786339152168878</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>0.004987937063533568</v>
+        <v>-1.44014832008018</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>0.6443199043548973</v>
+        <v>1.8296958491327469</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.35523823810812455</v>
+        <v>-0.5526122542095486</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>1.9300984377833346</v>
+        <v>0.7844194173817534</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>2.0759130384895483</v>
+        <v>-0.3741778091927049</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>-2.169130155393975</v>
+        <v>0.09943380684148989</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2795935199116921</v>
+        <v>-0.3903381170507269</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>2.447573914806309</v>
+        <v>0.7786886409218261</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>0.5719701999822392</v>
+        <v>-0.3084795381485495</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.16645284250393205</v>
+        <v>1.1580556824049297</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>-1.7082957466399706</v>
+        <v>1.5001188027358807</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>-2.5587346525456827</v>
+        <v>1.3868562501799264</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>1.9931905718152514</v>
+        <v>0.8474399248658939</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>-1.2884006672358737</v>
+        <v>-0.17924581709171689</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>0.15510698639410345</v>
+        <v>1.0327137398139141</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>0.7012068360046937</v>
+        <v>-0.7943910061605843</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>0.23769926802483013</v>
+        <v>-0.24737478567194127</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>-0.0710138838248564</v>
+        <v>0.9516542659580166</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>0.030997260351507575</v>
+        <v>-1.8292771818269546</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>1.5177381275438357</v>
+        <v>-0.8264377223969301</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>1.0535740018259625</v>
+        <v>-0.46051768206468385</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>0.7558396002495483</v>
+        <v>0.3598121610663427</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>-1.0734428005484489</v>
+        <v>-0.5467294019254451</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.6130099742214759</v>
+        <v>0.4976160164092894</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>-2.614136826755473</v>
+        <v>1.8158457730649826</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.34405677514093175</v>
+        <v>0.015431874626822512</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>0.6631429293654043</v>
+        <v>1.6693023757640508</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.5971196408729987</v>
+        <v>0.6447086248240351</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.8198266857066319</v>
+        <v>0.6159705944751678</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>-0.59482104033919</v>
+        <v>0.2348585417102733</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.4211373057542887</v>
+        <v>-2.4010170809216707</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.14638959051572847</v>
+        <v>-1.1058336794161001</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>1.0375112150834838</v>
+        <v>1.102772722189694</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>-0.7322080659306774</v>
+        <v>0.4264847156276085</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.047287796523276686</v>
+        <v>0.4428992210889216</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.13660675113417844</v>
+        <v>0.5162614239287324</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.7477232371750288</v>
+        <v>1.466425729365826</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>-0.024798837031045542</v>
+        <v>0.7389439730895715</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1.813280418901174</v>
+        <v>1.1205349962389852</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>0.8582441140243399</v>
+        <v>0.4111449440922397</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>0.20387326787904322</v>
+        <v>1.0318639692053453</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-2.9152314801956756</v>
+        <v>-0.5302257357435277</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-2.494020100496921</v>
+        <v>-0.03722552890348764</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-1.2427819066750585</v>
+        <v>-0.9645412738824939</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>0.0028745800887398044</v>
+        <v>0.48916560278600263</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.05351044601295943</v>
+        <v>-2.071988715106359</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>0.2709201824576613</v>
+        <v>0.9332246919522189</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>-1.085253392764143</v>
+        <v>-2.178426934476235</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>0.449705240575985</v>
+        <v>0.13696769894472247</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>0.10275681728914648</v>
+        <v>0.4426089513104806</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>1.5545116394942313</v>
+        <v>-1.7254639106153675</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>-0.9606969334580382</v>
+        <v>1.7962453987953182</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>0.3412785479929424</v>
+        <v>1.156902942241995</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.9077138396426585</v>
+        <v>-0.3364922496539242</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-0.19880892405373413</v>
+        <v>0.391739380132494</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>-0.23396718222845686</v>
+        <v>0.9210957847107333</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>-0.1500037562026148</v>
+        <v>-1.4101393118977237</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>-0.7869243059762168</v>
+        <v>-1.1783515850056971</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.28630445128800175</v>
+        <v>0.41684792009761473</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>-0.7458096124496555</v>
+        <v>0.5049918357875727</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>-0.46174308784315166</v>
+        <v>-1.5066454387300954</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>-0.24877655408666582</v>
+        <v>-1.6843096700924463</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>-0.28987971498187165</v>
+        <v>1.3872210067192061</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>-0.359090126691721</v>
+        <v>0.5338067590183971</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>2.3357861743339425</v>
+        <v>0.9205728036950548</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>1.1627427455176438</v>
+        <v>0.6186571390265295</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>-0.15256127050568236</v>
+        <v>0.1381619090148069</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.573797984957993</v>
+        <v>0.6269948907627036</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>-0.31989384274939914</v>
+        <v>1.785428663760426</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>0.4734252713298539</v>
+        <v>-0.8161799166100994</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>0.776926585964673</v>
+        <v>0.13917871744013802</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.11875849604342724</v>
+        <v>-0.4153427714994767</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>-1.72314558172623</v>
+        <v>-1.3597216895316773</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>0.033538417820126225</v>
+        <v>-1.1369366197354904</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>-2.2914243207739764</v>
+        <v>-1.026689169474099</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.46321772625415003</v>
+        <v>-1.2315089007412485</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.14416406413810792</v>
+        <v>-0.5202159690217965</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>1.3715995913988521</v>
+        <v>0.4862595942019441</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.42179327405366696</v>
+        <v>0.3965115288520988</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>-0.07280989868235557</v>
+        <v>0.09173297860378915</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1.1632796952676139</v>
+        <v>0.9966615415029316</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>-0.8849568458400869</v>
+        <v>0.5713110052629354</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>0.18359627862809738</v>
+        <v>-0.6883846123458012</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>0.8396589366326983</v>
+        <v>-0.2688613869053165</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.819066622561459</v>
+        <v>-0.5250858729013406</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>0.3219634026579595</v>
+        <v>-1.201494532065062</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>0.7839766741870148</v>
+        <v>1.566967961016544</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>-0.49962176421469523</v>
+        <v>-0.5523822790364488</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.758239737674803</v>
+        <v>0.29455916242998065</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>0.36852673101878153</v>
+        <v>0.5447029785092036</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.15877468057694866</v>
+        <v>0.28706050507486564</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>0.8744144644009594</v>
+        <v>-0.400381903476427</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>0.6501664734416138</v>
+        <v>-2.1721242897095707</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>1.589894249110603</v>
+        <v>-0.9004336295424946</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>0.019667287756438168</v>
+        <v>0.6907160571434742</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>-0.6967105086149</v>
+        <v>0.8593677298714999</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.26199053272314227</v>
+        <v>-0.8249947882591989</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>-0.9353723717838036</v>
+        <v>-0.92746764045574</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>-0.40210458327079157</v>
+        <v>1.2483058722424087</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>0.38041768425789674</v>
+        <v>1.0754245773917945</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.2536179889701434</v>
+        <v>1.367582499760258</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>0.4317278087837842</v>
+        <v>0.2950910519940792</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-1.0464125240334963</v>
+        <v>-0.19351274726721582</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>0.12428502297003645</v>
+        <v>-1.3108583200519055</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>-0.3715868692095498</v>
+        <v>1.3692553066460964</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>-1.6865776307240188</v>
+        <v>0.06846770818970514</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>0.03768791186425396</v>
+        <v>-0.8012377235366006</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>-0.5163844606654584</v>
+        <v>-0.5986838231368165</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.2790962772840962</v>
+        <v>-0.46213160580453483</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.13924168271975793</v>
+        <v>0.7618160671408932</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>0.2578629018881159</v>
+        <v>-0.3438982763554481</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>0.546393247572042</v>
+        <v>-0.9572666312697987</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.8279568613823716</v>
+        <v>0.721798165783212</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>0.5335115586133033</v>
+        <v>-1.2305661686798421</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.9949336829677858</v>
+        <v>0.39169276221851984</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>1.2657469935300463</v>
+        <v>-1.9603784216251792</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>-0.9233731662116967</v>
+        <v>-0.07413159507044426</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>0.4527256381446943</v>
+        <v>0.8732287237349395</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-1.8389635082559104</v>
+        <v>-0.8542073694277444</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.13775713416279348</v>
+        <v>-0.5165594956176222</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.7208858422590501</v>
+        <v>-1.8145521610118247</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>-0.7336341790016009</v>
+        <v>1.1193765963098754</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>-0.1416679919455967</v>
+        <v>0.08870498330035642</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>1.7157486633771295</v>
+        <v>-0.2743263277747229</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>-1.1421957088481889</v>
+        <v>-0.6742513002848665</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.7931923831749109</v>
+        <v>-0.527122732610464</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>0.3430289629979308</v>
+        <v>-0.521078321775722</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>0.4478355623464295</v>
+        <v>-0.02350248616932798</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>-0.04783499760374196</v>
+        <v>-0.921440623544953</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>1.6795189759801588</v>
+        <v>0.05717277264225558</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>-0.2551062736746885</v>
+        <v>-1.4171670419810467</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>-1.130043002879703</v>
+        <v>-0.376621150779394</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>2.5237197769327664</v>
+        <v>-0.7438488596482504</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>-1.5993126995332463</v>
+        <v>0.39436282176963766</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>0.5728336508581447</v>
+        <v>-2.5678693968429966</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>-1.2374380440503527</v>
+        <v>-1.3209973124779852</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>-1.4575748536449766</v>
+        <v>0.708418655363605</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.5193647459982575</v>
+        <v>-0.45907630295533997</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>-0.9287745489256107</v>
+        <v>0.7374631617211541</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>1.4996751767911476</v>
+        <v>-0.13074349519434034</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>0.36436495264805513</v>
+        <v>-0.4118777871097643</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-1.321958330332574</v>
+        <v>-0.2620819710146984</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>-0.2805350004426884</v>
+        <v>-0.48027535036156005</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>0.49942567907569185</v>
+        <v>-0.43143246265810686</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.984559754757638</v>
+        <v>0.6164803187106678</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>-0.9362537515638151</v>
+        <v>0.8664876479218393</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>-0.0786458443578027</v>
+        <v>-0.2967239227127722</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>-1.346519809340887</v>
+        <v>-1.5130749873606946</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>-2.1558420004475156</v>
+        <v>0.8224552251455639</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>-1.183868115656791</v>
+        <v>-0.22746366511358798</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>-0.9525051640826772</v>
+        <v>0.9961912160228319</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>0.15928013182308084</v>
+        <v>1.7194627489316092</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>-0.45401530732002093</v>
+        <v>2.0213415115718574</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>0.9481970685337249</v>
+        <v>-1.4768383892237829</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>0.20020367838926406</v>
+        <v>0.5696858771372296</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.10160521781801325</v>
+        <v>0.341697899302246</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.8428567651354556</v>
+        <v>-0.23299499758773368</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>0.23019506749224117</v>
+        <v>-0.6480065635085616</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.7961194095059594</v>
+        <v>-0.5535112132811398</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>-0.1777428825104775</v>
+        <v>-1.3641049506840335</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>-0.20021880654685176</v>
+        <v>0.3234173754062811</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>-0.5273656072717994</v>
+        <v>2.6404717212889905</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-0.08749548260349345</v>
+        <v>-1.281195593770325</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>-0.4633374180286628</v>
+        <v>-0.8799074969403825</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>0.6410335723788392</v>
+        <v>0.5067316719219495</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>1.8283642602257468</v>
+        <v>-1.2472431306401708</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>-0.4149631075683854</v>
+        <v>-1.0054436870732428</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>1.6121777914186721</v>
+        <v>-0.3137786642388062</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>0.14958742709573458</v>
+        <v>1.2443498722685233</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>0.9621008436496081</v>
+        <v>-0.7641566168716212</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>1.5743467893745944</v>
+        <v>1.3228766775480774</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>-0.8802937964901996</v>
+        <v>-0.38890886566743643</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-0.6073775807996142</v>
+        <v>-0.16997085189269084</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>-0.6067729899820048</v>
+        <v>0.9535663967225342</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>1.2396898114603159</v>
+        <v>-1.289166142314183</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.3772773397427331</v>
+        <v>0.3333275211041662</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>0.4902349447486116</v>
+        <v>-0.5517961123816126</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>0.00865189440401405</v>
+        <v>-0.6678034755497615</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>-0.634777382753251</v>
+        <v>1.2611234203341903</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>0.1451760367650653</v>
+        <v>1.1930050088743533</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.005971720802133124</v>
+        <v>0.24062282286441877</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-0.6177946926949377</v>
+        <v>-0.08036762695886018</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>0.074012556389019</v>
+        <v>-0.353390012830717</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>-0.6613359769057284</v>
+        <v>-0.08041125518391916</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>0.3642377489518699</v>
+        <v>0.5656680097088588</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.34615591940381957</v>
+        <v>-1.293863657436272</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>1.1112520928178602</v>
+        <v>0.47757081328621326</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>0.3289060957847694</v>
+        <v>-0.30989135855479144</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.31640246970885744</v>
+        <v>0.2821759147999464</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>0.5285321234302758</v>
+        <v>0.7960866922347248</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>-0.3954242051922824</v>
+        <v>0.25769702826980234</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>-1.3019279281058131</v>
+        <v>1.4505602351104805</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>-0.14266469250405367</v>
+        <v>0.3702751796325713</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.6507765326607214</v>
+        <v>0.7673504565833471</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>0.3478584427274974</v>
+        <v>1.9772766336587326</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>-1.106586363715719</v>
+        <v>0.13879417416668305</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>-1.1439326229233195</v>
+        <v>0.17605501823659148</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>1.9402102532626004</v>
+        <v>-2.0981404220618454</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-0.4430896451488482</v>
+        <v>1.255578345990944</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>-0.1528877881175828</v>
+        <v>0.24031704343466737</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>-0.8127028988278666</v>
+        <v>2.573986815609724</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>-0.8665174811600949</v>
+        <v>0.2822292558915615</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>1.228827534467373</v>
+        <v>-0.894428723948339</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>-1.69063982849151</v>
+        <v>-0.17640673663725742</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>-1.3868388668333809</v>
+        <v>0.22693171883063726</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.4937540880808445</v>
+        <v>0.7739702804560733</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.1855790126877169</v>
+        <v>-0.741397065866056</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>0.6801147660773693</v>
+        <v>1.727901088210374</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>-1.1013069473140136</v>
+        <v>0.12200316710506072</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>-0.8693634987206263</v>
+        <v>3.5153957649443117</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>-0.33516582867272493</v>
+        <v>-1.0682191107742687</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>0.9787592205502337</v>
+        <v>1.1711441699043346</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>0.11641015909875958</v>
+        <v>-0.6950796223468543</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>-0.09189778323201381</v>
+        <v>2.2493712151780656</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.4652985298283194</v>
+        <v>-0.13979599170561446</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>0.01338820750758803</v>
+        <v>0.4028136930577384</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>-0.16829907106027078</v>
+        <v>-0.07009235096916373</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>0.3423526409422299</v>
+        <v>-0.5775995939264076</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>-0.5361015073381086</v>
+        <v>1.1539550571821913</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-0.5617413813972548</v>
+        <v>0.29965939654803875</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>0.7073012840400211</v>
+        <v>1.5657191110891555</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>0.1330160657532397</v>
+        <v>-0.5827503123816858</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>-1.2165254085704578</v>
+        <v>-1.2237699624885976</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>0.3098680706822742</v>
+        <v>1.7527197010579068</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>-0.9849507553918181</v>
+        <v>0.32665175767383675</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>0.26397769090177825</v>
+        <v>0.10053844530566286</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>1.566151257493757</v>
+        <v>0.5449206669137748</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>0.8516632809754384</v>
+        <v>0.9918282694152059</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>0.8824771332352307</v>
+        <v>0.6353546123054757</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>-1.0013254766437694</v>
+        <v>0.6078822000489827</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>0.9880345552542358</v>
+        <v>0.9900855021994486</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>-0.8774886351316813</v>
+        <v>-0.3917988669723708</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>0.8381904745534584</v>
+        <v>0.9745425872891109</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.48510157993367536</v>
+        <v>1.7578233833954735</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-0.8965411384351087</v>
+        <v>-0.30359359217403936</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>1.2312651181924026</v>
+        <v>-1.1704627491556499</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>-1.2240878082574504</v>
+        <v>1.1076300635444833</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>-0.5749690968282843</v>
+        <v>-0.07161665589331075</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.15487542367381626</v>
+        <v>-0.18785204905544212</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>-1.2079409268460861</v>
+        <v>1.6590806397115219</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>0.98963754897234</v>
+        <v>1.4006766546616667</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>0.36721694491893003</v>
+        <v>0.8285378105204884</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>-0.3438537414473811</v>
+        <v>0.15727476357123726</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>0.08493771746575879</v>
+        <v>0.03853888290206388</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>-0.7906475830807063</v>
+        <v>1.0241565598443123</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>-0.4697082752737323</v>
+        <v>-0.37394266294842626</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>-1.082661278713479</v>
+        <v>0.15919201924730123</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7667680825187118</v>
+        <v>-0.1602711760687118</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.0936591957373432</v>
+        <v>0.5992130432234207</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.25948862611704154</v>
+        <v>-0.11159789371338712</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7969668981671836</v>
+        <v>-1.0699165505755561</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6408672503553533</v>
+        <v>0.21908113780882285</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5580140656641549</v>
+        <v>1.2157971639508751</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.5070616094731346</v>
+        <v>-0.028836599291297574</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.46160951711361703</v>
+        <v>-0.7139668902441173</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.31568560983016425</v>
+        <v>-0.2055592076676496</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.418033069710753</v>
+        <v>1.1526352468933712</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.41254560736186163</v>
+        <v>0.7718982391580598</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.30908331927314375</v>
+        <v>0.6766690923344509</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.1334399221225224</v>
+        <v>-1.4679773686621496</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6396667951141848</v>
+        <v>-1.11726841995828</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20517937326167177</v>
+        <v>-2.0437220359561135</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7239065961610235</v>
+        <v>1.0493169267067133</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.21087645296502774</v>
+        <v>-1.4721272245893187</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6966535303579794</v>
+        <v>0.7992207467637762</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3320191530038015</v>
+        <v>-0.5287732733075429</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6577615676290012</v>
+        <v>0.39172765245163277</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13712119829566302</v>
+        <v>-1.465219950206908</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3823999050196027</v>
+        <v>-0.8127199160662857</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.5398663375847267</v>
+        <v>0.5107094607333065</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13598950737059418</v>
+        <v>0.3852378791276862</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2054600328349092</v>
+        <v>-0.18744174627022783</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8097829509220257</v>
+        <v>1.1611753933359574</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.10242660858564756</v>
+        <v>0.34630970739823863</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>2.4433639316719193</v>
+        <v>-0.4565535654422437</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1557006423651959</v>
+        <v>-0.6516672880042124</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.43347740468790785</v>
+        <v>-0.2994019367051344</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>2.6413629932732756</v>
+        <v>0.4121401178105204</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>2.1792598066932394</v>
+        <v>-0.3232823966192637</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.0971585751788435</v>
+        <v>-0.9400386169403522</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5825607714195103</v>
+        <v>0.1910591192460808</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9269478873093366</v>
+        <v>0.9536941473227343</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.7698589041151769</v>
+        <v>1.0895322333313222</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0427653656666585</v>
+        <v>-0.03031374069620964</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8185035389917842</v>
+        <v>1.1955731962005285</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1.881553364327923</v>
+        <v>-0.8621701291047438</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.43294081783428373</v>
+        <v>-0.7270812498506337</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.5490047082208134</v>
+        <v>-0.6854194208239063</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0545203755796486</v>
+        <v>0.4211201665485483</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2.0757412765156884</v>
+        <v>-0.4437924379526502</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.5571181845391635</v>
+        <v>0.6641436163096563</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1.919911412367771</v>
+        <v>0.7718238204489922</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5727792114799732</v>
+        <v>0.5155534864887236</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7166002875794916</v>
+        <v>0.8515596130026003</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.3713210366381956</v>
+        <v>0.7953615132661518</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.7907308273311976</v>
+        <v>1.3973036198273099</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.1834293257258734</v>
+        <v>-1.1395654879835009</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1.4882623882280772</v>
+        <v>-0.503183836286638</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5450886030983307</v>
+        <v>-0.10062732390773468</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.7192640772980197</v>
+        <v>0.5903656047007171</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.794819943972758</v>
+        <v>-0.3685662207239573</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7625327124362472</v>
+        <v>2.0285240012528623</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>1.0348161362557717</v>
+        <v>-0.7872283787092893</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.11614704765287583</v>
+        <v>0.8689307925293654</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.291709816023384</v>
+        <v>-0.2486519087696534</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03196997710758648</v>
+        <v>0.905327110905699</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.007253911107729574</v>
+        <v>0.0946896254475798</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.3005577867093691</v>
+        <v>0.971441820331451</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.04340601301534424</v>
+        <v>0.34978292964113444</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.8607383469912724</v>
+        <v>1.359775712493653</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1.8891768928886112</v>
+        <v>-0.14594686824439035</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1553113361052057</v>
+        <v>-0.7804495754375302</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.6356256520354806</v>
+        <v>-0.6821265869837473</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.46038081898319083</v>
+        <v>-0.24730838736367514</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.11932371469703171</v>
+        <v>-1.0100448180907815</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.0297911135460525</v>
+        <v>-0.5830389231458868</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.913620718520827</v>
+        <v>1.1431145965474558</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.7697954249693167</v>
+        <v>0.8378379394904002</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.711789967878585</v>
+        <v>-1.5716543079265715</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7138532579457771</v>
+        <v>0.6496334604082621</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9631423035674295</v>
+        <v>1.055666901059458</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.4307602749863432</v>
+        <v>0.41851324119397715</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1.104379532534905</v>
+        <v>0.6971451529988357</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2479879558018174</v>
+        <v>0.5154456632192512</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.23607085194540203</v>
+        <v>-1.245759148464795</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.2313215569265261</v>
+        <v>-0.8822215118291071</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.10547555408850445</v>
+        <v>-0.9355214973251573</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7976297596842589</v>
+        <v>-0.7121063623769944</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5211639686800694</v>
+        <v>-0.23884543035629457</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.31502655860120615</v>
+        <v>-1.812865658771272</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.46140456826157855</v>
+        <v>-0.437582395596886</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.25796595964752</v>
+        <v>-0.7616623475757403</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.4063825382256567</v>
+        <v>0.5234219391051795</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1231080759858598</v>
+        <v>0.14733777075737947</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.30447791782014616</v>
+        <v>0.24942173387635969</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.801290687588847</v>
+        <v>1.596079817805377</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.624379758988718</v>
+        <v>0.4681461944102628</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9469120667406226</v>
+        <v>-0.12965089994776682</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2529583936664579</v>
+        <v>0.7158995414698022</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.9214140107066288</v>
+        <v>0.6526117870745514</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1488657738893668</v>
+        <v>-1.8855099257409393</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.4158711642760768</v>
+        <v>-1.9500461197912136</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8498766403050769</v>
+        <v>0.4829403902579374</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.2089695742057275</v>
+        <v>1.010578790912216</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.7981088808365826</v>
+        <v>-1.4504919263991936</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>1.5166839160977341</v>
+        <v>0.7441941496338472</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2556756917366024</v>
+        <v>-0.13786146211218786</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1.764021317651133</v>
+        <v>-0.5069744719369016</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.47373374136295665</v>
+        <v>-0.12328740801977942</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.5024598436394752</v>
+        <v>0.0494088265537458</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11358783489640142</v>
+        <v>0.34207675792993847</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.836092348321049</v>
+        <v>-0.46669863359286</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2898456038361325</v>
+        <v>0.45607505555059547</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.3224361446322484</v>
+        <v>0.050992943723482995</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.27087051445785987</v>
+        <v>-0.8081147111031746</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6530802664402721</v>
+        <v>0.24409974240266077</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.010659308751918</v>
+        <v>0.1625108434652037</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.9467415374656323</v>
+        <v>-2.562381924386245</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.45790205291977387</v>
+        <v>0.23719861961868194</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.13814688443680237</v>
+        <v>-0.32403386229979214</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.04865963445434477</v>
+        <v>-2.03325732113858</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.32582565456138374</v>
+        <v>0.3429717183917709</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.733197632087781</v>
+        <v>0.5560888789642326</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.5958593269868478</v>
+        <v>-0.18214838604164046</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.35261629944148265</v>
+        <v>-2.1629740129091877</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.4516545445760261</v>
+        <v>1.2273915236979966</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.8682986586676695</v>
+        <v>-1.9544546673654832</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.055684222879582655</v>
+        <v>-1.6194352050587657</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.47782089184634735</v>
+        <v>-0.4259451327752409</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.48234903989586503</v>
+        <v>-0.0057057737552277344</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.7506298386841856</v>
+        <v>-0.2616744241984104</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6764468311386331</v>
+        <v>0.38022668306803714</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7884575828542402</v>
+        <v>-0.19709368549010953</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.23265156112948002</v>
+        <v>-0.8674210885118697</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.25813659399166544</v>
+        <v>0.3993862565445858</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5419457883208948</v>
+        <v>1.7456039773717482</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8872473114985174</v>
+        <v>1.5475082559309896</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.09820805337961151</v>
+        <v>-0.2841087221755313</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8971135056327779</v>
+        <v>1.4383545518889882</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.1491719808354464</v>
+        <v>-0.5583864426570071</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.04249342578102516</v>
+        <v>-0.5511822885367589</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.7271688556941543</v>
+        <v>1.7438007796244832</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.3615574844637297</v>
+        <v>1.0280513631494441</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.04690264885626951</v>
+        <v>-0.01919069175698775</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>1.467226178104078</v>
+        <v>-0.009824922809372137</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.905693120180579</v>
+        <v>0.2983561435305351</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.7015947882706333</v>
+        <v>0.8042864804690588</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>1.8273074224995798</v>
+        <v>-0.21349260089803848</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5515536236315627</v>
+        <v>-0.8438032888474475</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.2459884357561706</v>
+        <v>-0.43015225231383614</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3039602953848004</v>
+        <v>1.8180926375584532</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.20326904050615718</v>
+        <v>1.5314175792380809</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.28732141571056585</v>
+        <v>-0.77833593562727</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7345435313263833</v>
+        <v>1.8253543235567238</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8547912053407924</v>
+        <v>-1.559741040058875</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.9026816024238926</v>
+        <v>0.20363738445826765</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4879900867811548</v>
+        <v>0.6896890716509709</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.26622126557135456</v>
+        <v>0.04618974438913651</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.9594963382015087</v>
+        <v>1.2014884776445982</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.7377281926983774</v>
+        <v>-0.6382201307663563</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.6658863149794548</v>
+        <v>-0.4629939276693546</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.5556278002593532</v>
+        <v>-0.9200831997646566</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.4817659314216223</v>
+        <v>0.5394419201057087</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.004943040887719461</v>
+        <v>1.7020521182207475</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.3000761732970927</v>
+        <v>-2.725088640762123</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.9588585160222485</v>
+        <v>-0.6419629110716879</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.022400579190780263</v>
+        <v>1.0798373872536495</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.354982128189582</v>
+        <v>0.24833083464537825</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.024405744571280072</v>
+        <v>0.109494741558426</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6450998452947374</v>
+        <v>0.11459323038658138</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.0497719499345188</v>
+        <v>0.875431078096358</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9303438840281715</v>
+        <v>0.8009480861320105</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1658601230638549</v>
+        <v>0.9342673967798394</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9353948663580565</v>
+        <v>-0.8003066150584076</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.3262036260826331</v>
+        <v>-2.6896523162198145</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.5599043951993343</v>
+        <v>-1.5401419503969909</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.1645853803525283</v>
+        <v>0.15486727851894344</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5638414948285203</v>
+        <v>0.6183698280093499</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.09097137683090932</v>
+        <v>0.5089978582217385</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4168641263455299</v>
+        <v>-1.0283081427477514</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.12142969507140983</v>
+        <v>0.2211741621540439</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6751233323000577</v>
+        <v>-1.0028289553821903</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>2.1441504117492034</v>
+        <v>-0.5257400863251849</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.3908279076073986</v>
+        <v>-1.304233981966267</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>1.6987710149064608</v>
+        <v>0.14774099167829335</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5133908186117213</v>
+        <v>0.322717966748069</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.2365854932633842</v>
+        <v>-0.2526892846794975</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.3990616167409644</v>
+        <v>-0.5694410859952904</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.14503559863639282</v>
+        <v>0.7947454753874948</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6348959951653141</v>
+        <v>0.9265949578388896</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.7384805961070253</v>
+        <v>0.720058745664598</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>1.4418327800583548</v>
+        <v>0.6493471198429929</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.10091900953691556</v>
+        <v>2.392326307091429</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1.1647276845963157</v>
+        <v>0.29029577893235664</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.14318677663667917</v>
+        <v>-0.9546920855108146</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>1.5580029079941846</v>
+        <v>-0.44529667576981524</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>1.5775673983992995</v>
+        <v>-0.22325926043122968</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.7657301493260985</v>
+        <v>-1.5014753616961058</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>1.914165237324471</v>
+        <v>-0.634396468910684</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1.4674406461718592</v>
+        <v>-1.2615082926676984</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.5573781041183352</v>
+        <v>-0.8448741852867263</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-2.2136959451986873</v>
+        <v>-0.5380324098254518</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.09943526898200797</v>
+        <v>2.6316903724562106</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3261222990581224</v>
+        <v>-0.7333332445863656</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.3281816873749911</v>
+        <v>0.2913773716055779</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.12215329300233774</v>
+        <v>1.6978095515868759</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>-2.471998976466111</v>
+        <v>-0.6407184297099466</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.11823741637636444</v>
+        <v>-0.0638298645867091</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.2745824176358693</v>
+        <v>-1.0202588065305456</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.5309731907566748</v>
+        <v>0.6463891685538032</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>1.7113109566066222</v>
+        <v>-0.33767391868006374</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.67456599783507</v>
+        <v>0.12239822143836013</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.5144482484405706</v>
+        <v>0.9283460852846418</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>0.6548230064715201</v>
+        <v>-0.008206576042803556</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>0.8001796887386763</v>
+        <v>0.6563395580218118</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.07278399528449102</v>
+        <v>0.15892808621364024</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.4019147268806362</v>
+        <v>-1.2819110881340685</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5189448372205233</v>
+        <v>-0.9299723859201628</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.1228389444868</v>
+        <v>0.1427009743510278</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>1.878717634579106</v>
+        <v>0.8048866244936401</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>2.1706455933588455</v>
+        <v>0.9225262852101945</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.21374865593588996</v>
+        <v>1.1565099045941427</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.1850693328040667</v>
+        <v>0.541611707383163</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.781391525338696</v>
+        <v>0.7947293928131677</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>0.07533558513154255</v>
+        <v>-0.6348987989967416</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.0517919695521222</v>
+        <v>0.37278743306994644</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.9440169454214464</v>
+        <v>0.16772024059668547</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.6041200322921025</v>
+        <v>-1.0839046376400194</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.4323665359393467</v>
+        <v>-0.9710878130786318</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.8653128479082894</v>
+        <v>-0.0076411901862989485</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>1.024619997627136</v>
+        <v>-0.5577636746149227</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.6803838004517336</v>
+        <v>-0.8221382210305705</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.05839432449918234</v>
+        <v>0.3761207659351469</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>0.08947422158834793</v>
+        <v>0.9091003055270007</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.5823034930486913</v>
+        <v>1.3569269398291626</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.7210621650713346</v>
+        <v>0.20072634745358708</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.066222171007461</v>
+        <v>0.13218142008653996</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.19048518414714496</v>
+        <v>1.539709584452031</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>0.13131466178909193</v>
+        <v>-2.1273998003817063</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.3450647137423804</v>
+        <v>-0.6381211734252891</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>0.43030340009295687</v>
+        <v>1.0967700734321728</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.34790910869807</v>
+        <v>-0.9462146152379075</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.22259756480928317</v>
+        <v>1.2685156554519348</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.23347446752129952</v>
+        <v>1.864248998706414</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.14390231632300143</v>
+        <v>-0.20607566303367783</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.965125302641311</v>
+        <v>0.532033763795113</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>2.1328791649243923</v>
+        <v>-2.109187597942082</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>0.15106263265619008</v>
+        <v>-0.02306116311233826</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>0.4120153743549329</v>
+        <v>-0.6240223693595139</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.537357929726188</v>
+        <v>-0.19848398595008368</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.13609019303244455</v>
+        <v>1.1675316440992551</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.3399098622429832</v>
+        <v>0.09459901636053097</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>1.6915008577978448</v>
+        <v>0.746387412900093</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.1277373901795347</v>
+        <v>-1.5911429904669403</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.01741699478682476</v>
+        <v>-0.8541781408756114</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>0.4597953683192586</v>
+        <v>0.7976262984238104</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>1.0304401086963468</v>
+        <v>1.0840407366133813</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.6200193602388208</v>
+        <v>-0.9750044701771942</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.22571047090705576</v>
+        <v>-0.9676424733480424</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.1419504961065103</v>
+        <v>1.697970074593442</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3616953435952155</v>
+        <v>0.774771755468761</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.5851575072541948</v>
+        <v>0.8566686405481454</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.06983271972283107</v>
+        <v>-1.5066791427715396</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>1.417494122114903</v>
+        <v>1.8314186976296623</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3062157069486763</v>
+        <v>-1.8816374361528043</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.112046453044862</v>
+        <v>0.32226475511653463</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-2.002982298100618</v>
+        <v>-1.2879266224131065</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.678315528249213</v>
+        <v>-0.017485611388510052</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.13656642707600067</v>
+        <v>-0.9930621185737758</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>0.08165259487219183</v>
+        <v>-0.2687230679101935</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.80926580982592</v>
+        <v>2.0364512679431197</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.30572029642441634</v>
+        <v>-0.10200997363914105</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>0.20725815203547313</v>
+        <v>-0.021861311470469404</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3859982235235016</v>
+        <v>-0.007775537335517865</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.7396040642106001</v>
+        <v>0.49410242000923443</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-3.1034458446207887</v>
+        <v>-0.7753689431467259</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.014411678656343142</v>
+        <v>0.5011628176734964</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>0.532051628556264</v>
+        <v>-0.7984887689993527</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>0.18587038801637956</v>
+        <v>0.7969116619291563</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.02794363089959809</v>
+        <v>-1.1551989426501774</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8983629473417084</v>
+        <v>-0.1284602048833872</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.09956783035399014</v>
+        <v>-0.38491580740546666</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.5012619981084038</v>
+        <v>0.025863324491692808</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.237128485314833</v>
+        <v>1.2570231120293311</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>0.8852697210824402</v>
+        <v>1.6088165658551712</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>0.033042069075472094</v>
+        <v>0.42575077729119043</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.4219472937292075</v>
+        <v>0.14996554822932717</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.1274837192046567</v>
+        <v>-0.9102250830650193</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.6556876162630585</v>
+        <v>2.0313710544758568</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.2292182024228704</v>
+        <v>0.018928079541038905</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.495175522905609</v>
+        <v>0.3246258039899485</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>0.405824615364605</v>
+        <v>0.9663489685708244</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.7662889101292593</v>
+        <v>0.17329455590090395</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>0.13346553525321309</v>
+        <v>1.0328120606548816</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>0.22060110143925435</v>
+        <v>-0.4088447721522018</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.27856542336775764</v>
+        <v>0.9101378184785416</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>-1.4661780512159235</v>
+        <v>-0.6728699947591181</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.23461948506358787</v>
+        <v>0.42621028883833095</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.0309531769264801</v>
+        <v>-0.9456214497074888</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>0.8145100180052618</v>
+        <v>-0.1558049772017869</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>-2.8900477441193564</v>
+        <v>0.09249811242413687</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.44321773047540935</v>
+        <v>1.6312858379482111</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3956888876708382</v>
+        <v>-0.5560611096949297</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.20917909506399093</v>
+        <v>1.5399454038515963</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.4207186323200857</v>
+        <v>-1.037195544793107</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.9453137479973992</v>
+        <v>1.9507384706639752</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>1.5907921489606909</v>
+        <v>-1.1942122498421521</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>2.157638201807612</v>
+        <v>-0.8366547013245798</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>0.7390695178469079</v>
+        <v>-0.3211322994855668</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.9499985655858871</v>
+        <v>0.515196701400963</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>-2.475937513151781</v>
+        <v>-0.9258360935976677</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.23267038239110419</v>
+        <v>-0.7923421548296545</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>-3.002289368097699</v>
+        <v>0.7539040502363926</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>0.20048976958350767</v>
+        <v>0.8780134886170202</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.846452768645885</v>
+        <v>-0.33235130347320296</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.7004195676854081</v>
+        <v>-0.16386787074982226</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.004471361659491048</v>
+        <v>-0.24423561270128638</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-1.8261773104244872</v>
+        <v>0.06818126255827427</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.4334970135691403</v>
+        <v>0.07306828490268422</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.05069252296837957</v>
+        <v>1.6586968664139856</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>1.3338473388355465</v>
+        <v>0.9156659238413156</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>0.45808358936393273</v>
+        <v>-0.4694062508774585</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>0.4282573457059014</v>
+        <v>-0.27870529780268494</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>0.07428747944705619</v>
+        <v>1.435167919766511</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-1.2605856172841396</v>
+        <v>0.955370315027971</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.752443190419613</v>
+        <v>0.5737841445349726</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.6882072996546036</v>
+        <v>-1.3131501705932411</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.19585291860815673</v>
+        <v>0.25413597559040124</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.8424205298053971</v>
+        <v>-1.6634436185270254</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.023682666588340066</v>
+        <v>0.09081248882277264</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.5198997134679831</v>
+        <v>0.1431737977677221</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>1.4332478919902565</v>
+        <v>0.4490884231259763</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.023541886299847367</v>
+        <v>-0.5312374204918743</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>0.8579006397921705</v>
+        <v>-0.09187752105292055</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>0.3106701908671978</v>
+        <v>0.9069691786908212</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.28168723612056146</v>
+        <v>-0.382966338953807</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>1.1269923076730426</v>
+        <v>-0.9413667040438154</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.1320259274530051</v>
+        <v>0.08595326210589264</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>-2.1528305452173724</v>
+        <v>0.2383367128735141</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.7400252048833998</v>
+        <v>0.9573756947472833</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.9231389723629337</v>
+        <v>0.6813671373943921</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>0.4859811368111621</v>
+        <v>1.7631646680547557</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.9259395789833106</v>
+        <v>-0.3085325198881973</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>0.8678182229748046</v>
+        <v>-0.6029998796635303</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.344603583686529</v>
+        <v>-1.076824449847084</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>0.6487368506437919</v>
+        <v>0.041140779580227</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.8510795980912311</v>
+        <v>-1.913492006712532</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.688810295116461</v>
+        <v>-0.2178821631020498</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>1.1649120324044588</v>
+        <v>-0.31299600150122164</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.1927337580896598</v>
+        <v>-0.35543343766186275</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.862431782154152</v>
+        <v>0.22268609501553518</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.5817633871410856</v>
+        <v>0.08190877023750077</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.233364986614958</v>
+        <v>1.4492466027053044</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.8888112254715346</v>
+        <v>-0.38636231479169053</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.0590054875332546</v>
+        <v>-0.5818840022290014</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.030187440333942533</v>
+        <v>0.8052061569528954</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.10115969664607238</v>
+        <v>0.0751848283339474</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1713552872422656</v>
+        <v>-0.5255859881272033</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>0.9588146560107897</v>
+        <v>1.2834025328573315</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.11907520608356019</v>
+        <v>0.5930883571968799</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.4821178884302794</v>
+        <v>1.2003311584723193</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.5063086043502063</v>
+        <v>1.0463651287214684</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>-1.3925412069600627</v>
+        <v>0.7227754102193071</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.26757783286371234</v>
+        <v>1.3258250468797586</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>-1.384504765704792</v>
+        <v>-1.1797985584930546</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.8393247097076026</v>
+        <v>-0.13656366959232571</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>0.40103518039598185</v>
+        <v>-0.7434352575379691</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.3301552254747064</v>
+        <v>1.238402352307812</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>1.7859964822162315</v>
+        <v>-1.5959479372212753</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>0.569291204694607</v>
+        <v>-0.14805257625949692</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.2738045116023156</v>
+        <v>0.01750981380806507</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>0.9414388928838111</v>
+        <v>1.9685100977705148</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>1.8239816368677177</v>
+        <v>-0.20726528292551186</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.6534776919821947</v>
+        <v>-1.6549587077910253</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.0694872280804567</v>
+        <v>-0.7125661832658785</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>1.653443213499189</v>
+        <v>-1.2409708876260828</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>0.6453180010434174</v>
+        <v>-0.3022079574749975</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.08372950581332317</v>
+        <v>-0.7804336587726103</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.2195683568864915</v>
+        <v>2.1743736956796273</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>0.8076316946804009</v>
+        <v>1.6672523430499544</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.09199454124553491</v>
+        <v>0.17641421520958364</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>0.36354469816318546</v>
+        <v>0.7942342093984001</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>1.3093526090008603</v>
+        <v>-0.001305837409726498</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.0030375554738626</v>
+        <v>1.2885598099927504</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.1675032118990227</v>
+        <v>0.02023803751944612</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.716010948442562</v>
+        <v>-1.343819877186491</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>-1.0470580583846893</v>
+        <v>0.10459201766440204</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>-1.987198198544107</v>
+        <v>-0.21858349443426262</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4422218055637925</v>
+        <v>-0.6055113708296765</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>1.5024977868320906</v>
+        <v>0.28095480066624223</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>0.43081720668261014</v>
+        <v>0.2307348442568335</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.061771982986680095</v>
+        <v>0.04801417098730912</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>0.40621007639345186</v>
+        <v>-0.24699122823850334</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>0.2319606568251285</v>
+        <v>0.8670109193143107</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.060204872310176474</v>
+        <v>-0.35505797019491653</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>-2.0312681465456053</v>
+        <v>0.4114887963452877</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>0.213100478707391</v>
+        <v>-0.45789798661013126</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>0.6198652525393409</v>
+        <v>-0.7263421960423672</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.7967324415419472</v>
+        <v>2.0035934588315807</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.12768404766763777</v>
+        <v>1.614234216502512</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.5822720916025795</v>
+        <v>0.6920411307312064</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.23085170909858402</v>
+        <v>1.3966496512143538</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.1406363434295524</v>
+        <v>-0.22052964186388238</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7223127272293406</v>
+        <v>3.010860399864251</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>-1.1855891040740485</v>
+        <v>0.9062091831125524</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.20432012618864762</v>
+        <v>-2.4588805380543977</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.21104567933589508</v>
+        <v>-0.4817642418558497</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.5896515020111857</v>
+        <v>-1.1328978160142558</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>1.5223200670103636</v>
+        <v>0.7446460474894896</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.7776486442442982</v>
+        <v>0.1251764449747951</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.3280274258261635</v>
+        <v>-1.2979991266391298</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>1.6048544402676643</v>
+        <v>0.8534179503742142</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.24977813029811843</v>
+        <v>0.2342342037683417</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>-2.299077419092484</v>
+        <v>-0.5366071726298665</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>0.07534291311246816</v>
+        <v>-0.6455506407330305</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.639773849998095</v>
+        <v>-0.2108414267478192</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.7557596542423264</v>
+        <v>-1.1655676567324735</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.7614613713476474</v>
+        <v>-0.9537787981874034</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.32961943268625815</v>
+        <v>0.8674761401566917</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>0.03427669930561379</v>
+        <v>-1.8419819561028397</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.10886626121865955</v>
+        <v>0.27373263894533595</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.16423080300027157</v>
+        <v>0.8937690905334802</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>0.20543362639197715</v>
+        <v>-0.6106066332463148</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.49762848843367485</v>
+        <v>-1.6650391925356907</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>0.259485755829947</v>
+        <v>0.668358308819324</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>-1.9691429865280128</v>
+        <v>-0.23511777121961486</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>0.18777908525781223</v>
+        <v>0.01707223537968795</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>0.48337592293519704</v>
+        <v>-0.09947211147319271</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.015997936741202215</v>
+        <v>0.5527796824663259</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>0.47293864786369133</v>
+        <v>-0.17300965044480465</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.9672448793236459</v>
+        <v>1.4292954185341262</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.006496107371744472</v>
+        <v>-1.6832051273267252</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.6533241388756722</v>
+        <v>-0.3553766968114042</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>2.0986221793035784</v>
+        <v>-0.9912541583642707</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.3225949731864686</v>
+        <v>-0.5032025285015668</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>-1.767121445365024</v>
+        <v>0.1626991829199216</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.40941191849539593</v>
+        <v>-0.8815180337923846</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>0.3302046062451997</v>
+        <v>-1.5605458762466773</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>0.9446178574874626</v>
+        <v>-0.25121376019201747</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>-1.1354561572694457</v>
+        <v>0.235257470195783</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>-1.6848741613245752</v>
+        <v>0.6400237686730722</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.8558737133092513</v>
+        <v>1.0504622180427436</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.8582618912925082</v>
+        <v>-0.2575434831408105</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>0.11990840480035991</v>
+        <v>1.3329564998651626</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>0.46485709530547464</v>
+        <v>2.145228397796317</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.8393734820977575</v>
+        <v>-0.4333220855598312</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.30268727137569956</v>
+        <v>0.20250780001248764</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>0.9012488356294489</v>
+        <v>1.069513568795637</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.488114784575653</v>
+        <v>-0.7322220739053699</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>0.5170781925479084</v>
+        <v>-2.4938205117098153</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>0.252597710484901</v>
+        <v>2.4611586583326175</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1.5977854010595909</v>
+        <v>0.9117137979309536</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-1.3233650831242059</v>
+        <v>-0.7771652596222242</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.2320215660680807</v>
+        <v>0.9061563196193724</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1.2622737779949864</v>
+        <v>0.28904901695672747</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.46533022581943356</v>
+        <v>0.5189051342187099</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.022737280680348214</v>
+        <v>-0.4513149746225731</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.18853223926936405</v>
+        <v>-3.013280983168663</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>1.0254450458802982</v>
+        <v>-0.36335380515264315</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.570039197965055</v>
+        <v>-1.2726485644658003</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.06725742407537802</v>
+        <v>-0.37226361744879405</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>0.4205002846698706</v>
+        <v>-1.2918610424470338</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.06633295779109441</v>
+        <v>1.0127768155429155</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>1.859901309353541</v>
+        <v>1.1613782193094777</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.0144294241623133</v>
+        <v>-0.4976845415934169</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.3942514464582523</v>
+        <v>-0.5089584461700767</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>-1.0824849286966816</v>
+        <v>-0.7860159656240038</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>1.2661397825051148</v>
+        <v>0.6724941712336334</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.47875162137386207</v>
+        <v>0.6521262883742018</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>0.16895668047211643</v>
+        <v>-0.2472665531878145</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-1.5848544858049356</v>
+        <v>-0.36569422263297635</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>-1.1287204004739728</v>
+        <v>0.9133381817205432</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>0.761992505309103</v>
+        <v>-0.20782151564702145</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>1.502817536285928</v>
+        <v>0.9540723047867564</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.7491390229506277</v>
+        <v>-0.6013952636556285</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>-2.221319122808254</v>
+        <v>-0.8151855286341096</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>-1.2761990205452416</v>
+        <v>-0.07099707633753022</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>1.3794871981061283</v>
+        <v>1.1217717925201856</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1.145499467331234</v>
+        <v>-0.11991537846556878</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>0.08354759245597379</v>
+        <v>1.2182738380694973</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>1.1823874098280416</v>
+        <v>-0.5600436153672528</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8981558487662538</v>
+        <v>0.5833785492577367</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>-1.9900345718312047</v>
+        <v>0.43947951014785214</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>1.898212622294908</v>
+        <v>0.33129661353798995</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.7168057997518369</v>
+        <v>-0.15566342592007565</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.1754678625975306</v>
+        <v>-0.44574565377895453</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.03507446163163436</v>
+        <v>0.41535208549175456</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.4892778976020451</v>
+        <v>-1.0423278119808062</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>0.35895669296811034</v>
+        <v>-1.0288319615232582</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-1.3183784640260792</v>
+        <v>0.41956387976458187</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>-1.5627368467300509</v>
+        <v>1.0110660031614693</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.7275815133492192</v>
+        <v>0.8981259921600863</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>1.6387248053076953</v>
+        <v>0.243689336996853</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>0.951727633180351</v>
+        <v>-2.1423125117936217</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.9127736462870252</v>
+        <v>0.4040548754437847</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.5369639467189882</v>
+        <v>-0.2912544388908971</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.31674709677051466</v>
+        <v>1.1344388870059992</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.2791488368348126</v>
+        <v>1.132838842632898</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>1.3350179185336064</v>
+        <v>-1.4964140694592258</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.41624126558851354</v>
+        <v>0.7043671997170398</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.26348903609324437</v>
+        <v>-1.542492822298727</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.345745532585741</v>
+        <v>0.6609305465879068</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.5545346964919592</v>
+        <v>1.0876418148064908</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>0.4244157885125762</v>
+        <v>-1.2155549245209831</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.23071249543125302</v>
+        <v>-1.0012287191687343</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.594920283986045</v>
+        <v>-0.4570257553196319</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>-1.2444374076606297</v>
+        <v>-0.0980942048135541</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1.1453746727803427</v>
+        <v>0.7130123201250491</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>0.725163133299162</v>
+        <v>0.8894059249627487</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>1.1326410842170154</v>
+        <v>1.0161052450173682</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>0.061154519086514446</v>
+        <v>-0.47437290672881915</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.3753953225328326</v>
+        <v>0.019017574057646452</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>1.041011359793632</v>
+        <v>0.4597956026804771</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.03635547653362587</v>
+        <v>0.1105176074621529</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.06032692825479202</v>
+        <v>-0.24149440678940767</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.3172892860547952</v>
+        <v>1.0051006656917632</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.3949317809475422</v>
+        <v>0.8873580022160289</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>0.4034607461558531</v>
+        <v>-1.535995299599514</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.0013400012098454055</v>
+        <v>-1.609357036104684</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.4698066335317502</v>
+        <v>0.7235266831630977</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.26211713451167906</v>
+        <v>0.43245787904986877</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.3748021553672143</v>
+        <v>-2.630181615208042</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>2.4252067284598113</v>
+        <v>1.0039511613363972</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.6244193042062185</v>
+        <v>2.284794047260316</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>1.9343096275529152</v>
+        <v>0.25229264383653127</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.19265812201016017</v>
+        <v>-0.43631737062201353</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.10929395149221166</v>
+        <v>0.7894259468816206</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.41885182090442696</v>
+        <v>0.29963169144890356</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>-1.1992321546594351</v>
+        <v>0.14350793077361004</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>0.3785243692937671</v>
+        <v>-0.33025026248421935</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>-1.3023061861835117</v>
+        <v>0.3329835764129762</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>1.293144062830747</v>
+        <v>0.5582801723944337</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.7004429773162905</v>
+        <v>0.6248576647235741</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>-1.0242473522104072</v>
+        <v>0.009791435638937716</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>1.1634759218549462</v>
+        <v>-2.127538145888935</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>-1.04262149809624</v>
+        <v>-0.9852700142661082</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.9059878595887046</v>
+        <v>1.2441524031809232</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>1.6099460265497556</v>
+        <v>0.09636730263491593</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>1.771516582104969</v>
+        <v>-0.07192209665870872</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>1.6157752653271733</v>
+        <v>0.5517426409286917</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>0.316868787589777</v>
+        <v>-1.4974132125239639</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>1.062548423602934</v>
+        <v>-1.0237666686674771</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>-1.720325344142617</v>
+        <v>-2.10556741293382</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>1.6586227310572659</v>
+        <v>0.5039657402505119</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.6193097788962806</v>
+        <v>1.5237059776558923</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.45853908316887326</v>
+        <v>1.1492358226877721</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.41858973042073216</v>
+        <v>-0.7618344837979917</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>0.3185314329283902</v>
+        <v>-0.904818325365362</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>0.8408412726621136</v>
+        <v>1.3304407180928377</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.07669166524095943</v>
+        <v>-0.9419937454453532</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.7951427653928651</v>
+        <v>-0.9619947937394547</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>0.4713814848068253</v>
+        <v>0.41889409009816136</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>-2.404346787388673</v>
+        <v>0.23518546334053564</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>0.7845163014525967</v>
+        <v>0.4613196222017018</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1.9606579133466098</v>
+        <v>-2.4348065761119204</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.9063651393053592</v>
+        <v>1.8360168631970646</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>-1.443417872803728</v>
+        <v>-0.3417454871980157</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-2.995788096306855</v>
+        <v>0.2542643583199856</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.47366532744596956</v>
+        <v>-0.40344426181913035</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>1.3413494626538986</v>
+        <v>-2.124271232138814</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.3956519596753473</v>
+        <v>-1.2594423960449408</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.07670766923096894</v>
+        <v>-1.343588382968145</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>1.7538219722338</v>
+        <v>1.0348533131379059</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>0.039802333005916096</v>
+        <v>-0.3815483954581282</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.7695842922681643</v>
+        <v>1.6534617530737354</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>0.6120615173938111</v>
+        <v>0.9129062710068289</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>1.6422936593340047</v>
+        <v>-1.196387071411302</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.42947820684184396</v>
+        <v>0.3504012467757285</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>1.0983194709593942</v>
+        <v>0.23730926547440295</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.054243456077356145</v>
+        <v>0.9423437133774257</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.6966812281402526</v>
+        <v>-0.5331460107834586</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>0.03740056467889399</v>
+        <v>-0.285326817296503</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.9373725243726295</v>
+        <v>0.11450118888503703</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>0.9410360480655741</v>
+        <v>0.6218573690032658</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.7965101401751833</v>
+        <v>-0.029008713848164055</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>1.0225870464977387</v>
+        <v>-0.18844855878653738</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>-1.8949807298050474</v>
+        <v>0.10138458931689114</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.1544954451605715</v>
+        <v>-1.4904499928590724</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>2.361223180162746</v>
+        <v>0.5787292592869873</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.4685593782854813</v>
+        <v>-0.7414289876726308</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.5374640281363904</v>
+        <v>-0.8858528623879602</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>-1.2243279746456148</v>
+        <v>0.8168948226409863</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>0.10700164375899827</v>
+        <v>-0.6160089914214173</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>0.904907669887457</v>
+        <v>-0.4492292644017102</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.1527004464254546</v>
+        <v>-0.1736727328426826</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.6112080301734488</v>
+        <v>0.7918635403929265</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>0.1834101885352236</v>
+        <v>-0.22708704726415754</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>2.9262487560573076</v>
+        <v>-0.9193223375636695</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.05700764483413801</v>
+        <v>-0.21051715450951008</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>1.7839954242972988</v>
+        <v>-1.3031600422863123</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.3544550210628217</v>
+        <v>-1.1259890768260457</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-2.034389169682854</v>
+        <v>0.7680614248278677</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>1.7988566492220983</v>
+        <v>0.43930063956748655</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.5022531397508759</v>
+        <v>0.8368841988626899</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.03564726711323029</v>
+        <v>-0.20250150741741085</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>0.7887729165255195</v>
+        <v>1.2075395137893048</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.10888634893685484</v>
+        <v>-0.8418200832541368</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.6667299896190935</v>
+        <v>-0.06371618630131463</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.37852276899595527</v>
+        <v>0.030831819148781518</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.01711584491886383</v>
+        <v>-0.3437152460245284</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>0.9133123111787033</v>
+        <v>1.5271444507225207</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1.5527477154437683</v>
+        <v>0.6431745788516684</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.5210642822092744</v>
+        <v>0.8323201881188188</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>-1.390262302619912</v>
+        <v>0.8159225591923888</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>1.299055419850958</v>
+        <v>-0.8089813301811655</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.03957205320009986</v>
+        <v>-0.6826900516497215</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>0.8584505002351648</v>
+        <v>0.19421328022118736</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.3412364609719427</v>
+        <v>-0.5322087006817529</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>-0.6607846813147012</v>
+        <v>0.7980952829863759</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>0.1663799130897941</v>
+        <v>0.6801359382536337</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.20279934397940338</v>
+        <v>1.1856755514383113</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>-1.256454370916644</v>
+        <v>-0.5291001938201668</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>0.4176300830679266</v>
+        <v>1.2380836660719716</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>2.819071713418809</v>
+        <v>-0.6714223388576648</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>1.9029391456766667</v>
+        <v>0.33021468161384315</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.9371037611040228</v>
+        <v>0.5856413885762137</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>-1.3772358047223727</v>
+        <v>0.3259380851018851</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>0.3417011244503907</v>
+        <v>-2.024506820106357</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>-1.80840555987369</v>
+        <v>0.5360192485068769</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>1.2790434455006023</v>
+        <v>-0.10272272430301953</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.5888934256263143</v>
+        <v>-1.2987822294121363</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.057605797823943074</v>
+        <v>0.16038276213955363</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>0.9528954282001513</v>
+        <v>-1.4215951563031155</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.3176363109234683</v>
+        <v>0.37918615304251857</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>0.9700143828088575</v>
+        <v>-0.4143021417360455</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-1.5434656544575935</v>
+        <v>0.7530997710987016</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>0.8317166206254037</v>
+        <v>1.1277722964335923</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1.3935662528572332</v>
+        <v>0.9299406887777829</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>0.14696667492298587</v>
+        <v>1.4229759172165692</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>1.0200918924078113</v>
+        <v>-0.03663455437271311</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.08140660478500093</v>
+        <v>1.5668907159755512</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7156288565195664</v>
+        <v>-0.4399569955958163</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.2544991585766965</v>
+        <v>-0.9911134647142833</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>0.31345447807140836</v>
+        <v>-1.1930442898758757</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>-2.117650904518041</v>
+        <v>0.8545470760916081</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.8251636333418169</v>
+        <v>1.4072463489716998</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.4612994336307465</v>
+        <v>0.0878245296178264</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.5936578687944908</v>
+        <v>0.5631678722717661</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.29030577043032146</v>
+        <v>0.8097978451952506</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.1254163962890798</v>
+        <v>-0.0652842079237996</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>0.20377722166849932</v>
+        <v>-0.7443096877324716</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>2.7963391829324586</v>
+        <v>1.6376857278229078</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>-1.1938015296504727</v>
+        <v>0.16085852120114089</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>-1.6278127881274465</v>
+        <v>0.05851103615907135</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>0.3176513730139433</v>
+        <v>-0.9017022994025939</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>0.7014286174318082</v>
+        <v>0.6883080343068538</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>0.469911120267882</v>
+        <v>1.909518876072831</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>0.26436317151694894</v>
+        <v>0.24437683736773047</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.8782964468563783</v>
+        <v>-0.05091637376352432</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>1.0924295486665698</v>
+        <v>0.5670795439465768</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.15479659351983818</v>
+        <v>0.09199897187081339</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>1.915138646696743</v>
+        <v>1.5632999572457007</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>2.129004406725067</v>
+        <v>-1.258093942793081</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>2.894077467033838</v>
+        <v>0.5296044035567936</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>1.7657116150721224</v>
+        <v>0.7797004567384286</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.15428276616283793</v>
+        <v>-0.920447262508739</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>0.0953181937836292</v>
+        <v>-0.9513431819881317</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>1.2675065958466292</v>
+        <v>0.07441309459624298</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>1.616600619100664</v>
+        <v>-1.4946327723418815</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>0.2973699121665506</v>
+        <v>-0.5589114347293596</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>0.42877413192614866</v>
+        <v>1.0001189952306124</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.4253811286299465</v>
+        <v>0.6405878198583235</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.2985022806195708</v>
+        <v>1.334152422165078</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1.3509416701384853</v>
+        <v>1.647046541670491</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.5058445662578781</v>
+        <v>0.41208500425387595</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>1.3685707632829607</v>
+        <v>0.3884646058130564</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>2.280735375333312</v>
+        <v>2.3825905411352633</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-1.0666800897710265</v>
+        <v>-0.5334502767189583</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>1.0959441109761552</v>
+        <v>0.25557106043647027</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.8844741747441911</v>
+        <v>-0.24541532512259373</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.7378773866059216</v>
+        <v>1.703132820571884</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>1.571351245767593</v>
+        <v>2.139237472583036</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.5185191879438918</v>
+        <v>-0.7478373982597236</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>0.6481161001733233</v>
+        <v>-0.6112955521744946</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.5886420679353106</v>
+        <v>1.205558397442193</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.2280220546854149</v>
+        <v>-0.5577827725803782</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.838951062588931</v>
+        <v>-1.5835386925114152</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.1606114487870557</v>
+        <v>-1.4064483155354779</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>1.1719005465439667</v>
+        <v>1.1111128320845678</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.26729230695470124</v>
+        <v>0.3969856891257267</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>1.6486397170071947</v>
+        <v>0.7558289983575995</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>0.15293420499779772</v>
+        <v>-0.45382910751121347</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>1.8451621267426146</v>
+        <v>-0.6286085288381471</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>-0.6674946824904959</v>
+        <v>0.404258254140703</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.8092089494054908</v>
+        <v>-0.5637668916856856</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>0.5622757642533656</v>
+        <v>0.535541091959668</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1.2051779512282332</v>
+        <v>-0.8820272917320299</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>1.694419118432642</v>
+        <v>-1.5376508189263107</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.1260099460130916</v>
+        <v>-0.839518665985639</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>-1.2322509868235958</v>
+        <v>-0.1121138333611324</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-1.0614783792944085</v>
+        <v>-0.6178422592825822</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.7429243251167823</v>
+        <v>0.9929109223431537</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>-0.6157140087039757</v>
+        <v>2.2291063908314315</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.19095225111676203</v>
+        <v>1.2208234891060046</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.2133051932052009</v>
+        <v>-0.30234197517563194</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>-1.69247093803224</v>
+        <v>0.6287671554049834</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>2.2464359324691188</v>
+        <v>-0.32579072589868124</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>0.6001281687440235</v>
+        <v>-1.6944496350370137</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>0.05181798665432722</v>
+        <v>-0.27634920022998466</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>-1.629635014101936</v>
+        <v>-0.27555471264911047</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>0.8573655127475802</v>
+        <v>-1.0357939260847466</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.2725262430991029</v>
+        <v>0.598111792748336</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.3191421991726931</v>
+        <v>-1.3315977923545135</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.08243495063096845</v>
+        <v>-0.9910048059718659</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.16317863949358877</v>
+        <v>-0.4965029210435357</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.43636060765177254</v>
+        <v>-0.10038488695327509</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.2576485571709837</v>
+        <v>0.9169189350040033</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>1.5400436905622519</v>
+        <v>1.8731946366687007</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>0.24060951057771057</v>
+        <v>0.5133645419159206</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.6988347571080604</v>
+        <v>-0.8657371123345653</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.8534367666462194</v>
+        <v>1.325925903683529</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.6182291568183144</v>
+        <v>-0.893781982002926</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>-0.06634796214122535</v>
+        <v>0.358324536053955</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>0.6209070369996937</v>
+        <v>-0.3879227926637268</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>1.0492821013312934</v>
+        <v>0.6685586885856355</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>0.3628625817635096</v>
+        <v>0.6783151421039056</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.8674984929314717</v>
+        <v>0.40513484902332686</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>0.8193996755725587</v>
+        <v>-0.6559091731566382</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.8526004051608943</v>
+        <v>-0.9390107554938335</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.0225692381876549</v>
+        <v>0.11015591603915378</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.2998618828124889</v>
+        <v>-0.9964091404871137</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.9126845393966441</v>
+        <v>-0.6202852176681439</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>0.32295651968911826</v>
+        <v>-0.19436338132039133</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.0941072130319874</v>
+        <v>0.8748761936817416</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>0.25287552920737444</v>
+        <v>0.6482205745830005</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.7603683359589506</v>
+        <v>1.3155716160306907</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>0.08628014267257705</v>
+        <v>-0.3851803347852711</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>0.0485481532142537</v>
+        <v>-1.0280902724713574</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>0.1345026290756911</v>
+        <v>1.0917853937148094</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>0.5238149960481596</v>
+        <v>-1.3862176955207544</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>1.4808352924763524</v>
+        <v>0.39570954032263805</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.13012198621334925</v>
+        <v>0.05801203738440182</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.9385676596784553</v>
+        <v>1.2655949181080195</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>1.2320665282138983</v>
+        <v>-0.03449089979150939</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.6620753617271105</v>
+        <v>-0.7274445496786319</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.1643129602274971</v>
+        <v>-0.3353959982611861</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>0.14924205944927832</v>
+        <v>-0.09908290532791288</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>-1.3589023258560187</v>
+        <v>-2.121594752363707</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>-1.0638869558874817</v>
+        <v>0.7730594626623866</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>-0.19796551377054616</v>
+        <v>0.18107305147181993</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.17238189421894015</v>
+        <v>-0.6655124225647487</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>-1.0156850674732227</v>
+        <v>0.05823262865347035</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.49380857459032335</v>
+        <v>-0.32234569987765244</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.281619206691016</v>
+        <v>-0.4541682352400559</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.7894054103244371</v>
+        <v>-0.4147578549128686</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.6258668744646703</v>
+        <v>0.3077301139642352</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-1.4417659959877025</v>
+        <v>-1.3173734108247097</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>0.2763382456504257</v>
+        <v>-1.9602020121786237</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>1.0505805526131877</v>
+        <v>-0.4828772591652468</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>0.44728922489992123</v>
+        <v>-0.7844237428447548</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>-2.3333050692975568</v>
+        <v>1.448874398370689</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>0.4714686937900786</v>
+        <v>-0.5097892649929217</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>0.3205516019472557</v>
+        <v>-0.5803544496282756</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>1.0114684431591854</v>
+        <v>0.3819722082265737</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>1.0807004353012473</v>
+        <v>0.015158207815245803</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>0.19368307605119048</v>
+        <v>0.4900352331074028</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>0.4283701880669352</v>
+        <v>-1.3063590632959874</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>-2.19267571383353</v>
+        <v>1.582517564207756</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>1.1132060963478192</v>
+        <v>0.43940741288448737</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.8786339152168878</v>
+        <v>-0.9372830098842304</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.44014832008018</v>
+        <v>-1.1327588825669073</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>1.8296958491327469</v>
+        <v>-1.8467047113878998</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.5526122542095486</v>
+        <v>0.39688685372896343</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>0.7844194173817534</v>
+        <v>-0.14201467091332895</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.3741778091927049</v>
+        <v>2.7576245099028482</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.09943380684148989</v>
+        <v>-0.42361585778915084</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.3903381170507269</v>
+        <v>0.11014576140452247</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>0.7786886409218261</v>
+        <v>-0.7125934325375427</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.3084795381485495</v>
+        <v>-0.029621515089945278</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>1.1580556824049297</v>
+        <v>-0.3042149793641364</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>1.5001188027358807</v>
+        <v>0.6449068969527716</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>1.3868562501799264</v>
+        <v>0.8349833439235428</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>0.8474399248658939</v>
+        <v>0.545098098809575</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.17924581709171689</v>
+        <v>-1.6844954518530406</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>1.0327137398139141</v>
+        <v>-0.0063246442942991865</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>-0.7943910061605843</v>
+        <v>-0.8455446048789178</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.24737478567194127</v>
+        <v>-0.7301005153863614</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.9516542659580166</v>
+        <v>-1.231434693967392</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>-1.8292771818269546</v>
+        <v>-1.271632413128631</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>-0.8264377223969301</v>
+        <v>1.1031773244192808</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.46051768206468385</v>
+        <v>1.2983292735958278</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>0.3598121610663427</v>
+        <v>0.18212499398488474</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.5467294019254451</v>
+        <v>0.18591380348769956</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.4976160164092894</v>
+        <v>-0.38609261682117185</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>1.8158457730649826</v>
+        <v>1.0521116058496223</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.015431874626822512</v>
+        <v>0.8176011017636436</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>1.6693023757640508</v>
+        <v>-0.5370453264605484</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>0.6447086248240351</v>
+        <v>-0.08559287588231136</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.6159705944751678</v>
+        <v>-0.5846352576931062</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.2348585417102733</v>
+        <v>-0.23305871022711577</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>-2.4010170809216707</v>
+        <v>0.2673480617796457</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>-1.1058336794161001</v>
+        <v>-1.0705687862099649</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>1.102772722189694</v>
+        <v>-0.14437066909392116</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>0.4264847156276085</v>
+        <v>-2.5556689269357404</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>0.4428992210889216</v>
+        <v>0.6163959676718495</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>0.5162614239287324</v>
+        <v>1.1089263189214835</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>1.466425729365826</v>
+        <v>-0.5849194454897034</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>0.7389439730895715</v>
+        <v>1.090741061724891</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>1.1205349962389852</v>
+        <v>2.464863378533431</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>0.4111449440922397</v>
+        <v>-0.6595109015006286</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>1.0318639692053453</v>
+        <v>0.05198218626693825</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.5302257357435277</v>
+        <v>0.6063517323877228</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.03722552890348764</v>
+        <v>-0.05751537819100945</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.9645412738824939</v>
+        <v>0.032136741179947755</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>0.48916560278600263</v>
+        <v>-1.720398263344671</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>-2.071988715106359</v>
+        <v>0.2058046612304175</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>0.9332246919522189</v>
+        <v>-2.5936101326183527</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>-2.178426934476235</v>
+        <v>-1.0166078563296592</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>0.13696769894472247</v>
+        <v>0.21113747686483644</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4426089513104806</v>
+        <v>0.7535102492758972</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>-1.7254639106153675</v>
+        <v>-1.2780388384118746</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1.7962453987953182</v>
+        <v>1.0897980750953613</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>1.156902942241995</v>
+        <v>0.3862088563624091</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.3364922496539242</v>
+        <v>1.5864148043941568</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>0.391739380132494</v>
+        <v>-0.2777126862374779</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.9210957847107333</v>
+        <v>0.7405480480610795</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>-1.4101393118977237</v>
+        <v>-0.7528348749886903</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>-1.1783515850056971</v>
+        <v>-0.37421342711538685</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.41684792009761473</v>
+        <v>-0.7937490235867226</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.5049918357875727</v>
+        <v>0.10705668082408279</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>-1.5066454387300954</v>
+        <v>1.571478940292668</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>-1.6843096700924463</v>
+        <v>0.355265832643864</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>1.3872210067192061</v>
+        <v>0.5396163940714945</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.5338067590183971</v>
+        <v>-1.794485213484002</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.9205728036950548</v>
+        <v>1.8312010533207745</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.6186571390265295</v>
+        <v>0.23880908908442072</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>0.1381619090148069</v>
+        <v>1.0370659220166565</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>0.6269948907627036</v>
+        <v>1.1210344827864813</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>1.785428663760426</v>
+        <v>0.7171201925496746</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.8161799166100994</v>
+        <v>-0.22915006755014702</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>0.13917871744013802</v>
+        <v>-1.0940596852733901</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>-0.4153427714994767</v>
+        <v>1.1948679366759536</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>-1.3597216895316773</v>
+        <v>-0.440171558653482</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>-1.1369366197354904</v>
+        <v>-0.49365176111844533</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>-1.026689169474099</v>
+        <v>-0.09631401901083522</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>-1.2315089007412485</v>
+        <v>-0.17967640123907044</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.5202159690217965</v>
+        <v>1.5546165748537513</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>0.4862595942019441</v>
+        <v>-0.7310067464235801</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>0.3965115288520988</v>
+        <v>-0.9953864027037295</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>0.09173297860378915</v>
+        <v>-0.04448364501715412</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>0.9966615415029316</v>
+        <v>-0.692096157060909</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>0.5713110052629354</v>
+        <v>1.4417138088559116</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.6883846123458012</v>
+        <v>0.661174386431584</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>-0.2688613869053165</v>
+        <v>0.5130912688063839</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.5250858729013406</v>
+        <v>-1.4767613567077407</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>-1.201494532065062</v>
+        <v>-0.7153508719252218</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>1.566967961016544</v>
+        <v>0.30653042829275373</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>-0.5523822790364488</v>
+        <v>1.1605368538344452</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.29455916242998065</v>
+        <v>-0.38855524022868676</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>0.5447029785092036</v>
+        <v>2.3400911789589802</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>0.28706050507486564</v>
+        <v>0.347565457393252</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.400381903476427</v>
+        <v>0.5070826399588231</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>-2.1721242897095707</v>
+        <v>0.8872319418081249</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.9004336295424946</v>
+        <v>-2.19663228176277</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>0.6907160571434742</v>
+        <v>0.7205934016767165</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>0.8593677298714999</v>
+        <v>0.20273794239936715</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.8249947882591989</v>
+        <v>0.5894336273894463</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>-0.92746764045574</v>
+        <v>2.1090560404953824</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>1.2483058722424087</v>
+        <v>-1.043672811015478</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>1.0754245773917945</v>
+        <v>0.1418378565617156</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>1.367582499760258</v>
+        <v>0.6481817455273398</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>0.2950910519940792</v>
+        <v>-1.119626346219775</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.19351274726721582</v>
+        <v>-0.056386158903332685</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>-1.3108583200519055</v>
+        <v>-0.11736663105569244</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>1.3692553066460964</v>
+        <v>0.5994915478820793</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>0.06846770818970514</v>
+        <v>0.19077390517814397</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>-0.8012377235366006</v>
+        <v>0.376925693322642</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>-0.5986838231368165</v>
+        <v>0.27267143187057535</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.46213160580453483</v>
+        <v>0.5656161668168627</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>0.7618160671408932</v>
+        <v>0.091242722210233</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.3438982763554481</v>
+        <v>2.7502860403805274</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>-0.9572666312697987</v>
+        <v>-1.6644366495873124</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.721798165783212</v>
+        <v>0.8563399888762646</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>-1.2305661686798421</v>
+        <v>1.781037840917344</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>0.39169276221851984</v>
+        <v>-0.9588483434879407</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.9603784216251792</v>
+        <v>-0.17550599900867267</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>-0.07413159507044426</v>
+        <v>0.5345142636746567</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>0.8732287237349395</v>
+        <v>-2.204896316248508</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.8542073694277444</v>
+        <v>-1.365793039845697</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.5165594956176222</v>
+        <v>-0.12075872822301906</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>-1.8145521610118247</v>
+        <v>0.8644682832920786</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>1.1193765963098754</v>
+        <v>-0.1845782107724959</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.08870498330035642</v>
+        <v>0.9775792476282579</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>-0.2743263277747229</v>
+        <v>0.5126692995775296</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>-0.6742513002848665</v>
+        <v>1.9061190279860458</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.527122732610464</v>
+        <v>-0.7749760415958623</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>-0.521078321775722</v>
+        <v>0.7606244887822559</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.02350248616932798</v>
+        <v>0.5803925679238551</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>-0.921440623544953</v>
+        <v>-0.08578837640422914</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>0.05717277264225558</v>
+        <v>0.23434535194259198</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>-1.4171670419810467</v>
+        <v>1.2029319248056076</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>-0.376621150779394</v>
+        <v>-0.06890869430952051</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.7438488596482504</v>
+        <v>0.17148508514536762</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>0.39436282176963766</v>
+        <v>-0.23349439877216063</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-2.5678693968429966</v>
+        <v>-0.20418376104233027</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>-1.3209973124779852</v>
+        <v>0.5912578460901377</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>0.708418655363605</v>
+        <v>1.3672487145741088</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.45907630295533997</v>
+        <v>0.6880612179208839</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>0.7374631617211541</v>
+        <v>1.11092691059696</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.13074349519434034</v>
+        <v>0.4790878178974712</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.4118777871097643</v>
+        <v>-0.6796883642706251</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.2620819710146984</v>
+        <v>-0.29574491980845447</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>-0.48027535036156005</v>
+        <v>1.4914177196255458</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>-0.43143246265810686</v>
+        <v>-1.1384835739588994</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>0.6164803187106678</v>
+        <v>-0.23005104660678205</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>0.8664876479218393</v>
+        <v>2.2212837271820796</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>-0.2967239227127722</v>
+        <v>1.4080446936179067</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>-1.5130749873606946</v>
+        <v>-0.156297964127509</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>0.8224552251455639</v>
+        <v>0.02368826988599883</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>-0.22746366511358798</v>
+        <v>-1.0970409716522926</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>0.9961912160228319</v>
+        <v>0.8466940278369055</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>1.7194627489316092</v>
+        <v>0.07867855658657616</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>2.0213415115718574</v>
+        <v>0.21427393838546782</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>-1.4768383892237829</v>
+        <v>-0.3203345059625413</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>0.5696858771372296</v>
+        <v>-0.058374686389503515</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.341697899302246</v>
+        <v>1.8987450924873481</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.23299499758773368</v>
+        <v>0.7322690472621325</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>-0.6480065635085616</v>
+        <v>1.3963655957634127</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.5535112132811398</v>
+        <v>-0.454865793721118</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>-1.3641049506840335</v>
+        <v>1.1975358979005502</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>0.3234173754062811</v>
+        <v>1.1036735966823616</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>2.6404717212889905</v>
+        <v>-1.2491117837191315</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-1.281195593770325</v>
+        <v>-0.6208114573552698</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>-0.8799074969403825</v>
+        <v>0.9479927616121705</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>0.5067316719219495</v>
+        <v>1.5841763450658914</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>-1.2472431306401708</v>
+        <v>-1.0992876177487838</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>-1.0054436870732428</v>
+        <v>-2.3673118695434088E-4</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-0.3137786642388062</v>
+        <v>0.5181900489285554</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>1.2443498722685233</v>
+        <v>0.5170420811108498</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>-0.7641566168716212</v>
+        <v>0.19224354503165728</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>1.3228766775480774</v>
+        <v>0.9648526057516197</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>-0.38890886566743643</v>
+        <v>0.10696104797388782</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-0.16997085189269084</v>
+        <v>-0.07558424521023246</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>0.9535663967225342</v>
+        <v>1.6123702351716618</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>-1.289166142314183</v>
+        <v>-0.006367999431531193</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.3333275211041662</v>
+        <v>0.9816980157102746</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.5517961123816126</v>
+        <v>-0.17174342401026874</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>-0.6678034755497615</v>
+        <v>-0.039363695164096595</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>1.2611234203341903</v>
+        <v>0.5651786377227066</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>1.1930050088743533</v>
+        <v>0.5362779872142226</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.24062282286441877</v>
+        <v>-0.17477522161717032</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-0.08036762695886018</v>
+        <v>-1.333959331358866</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>-0.353390012830717</v>
+        <v>-1.2718367256236467</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>-0.08041125518391916</v>
+        <v>0.7189928144502278</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>0.5656680097088588</v>
+        <v>1.70685002538373</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>-1.293863657436272</v>
+        <v>-0.43555729886859434</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.47757081328621326</v>
+        <v>0.3193815059567829</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>-0.30989135855479144</v>
+        <v>-0.40860239322828545</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.2821759147999464</v>
+        <v>-0.34327383438201425</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>0.7960866922347248</v>
+        <v>0.279541888503445</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.25769702826980234</v>
+        <v>0.5275882420617142</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>1.4505602351104805</v>
+        <v>0.4665266031327857</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.3702751796325713</v>
+        <v>0.5620723337489528</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.7673504565833471</v>
+        <v>0.576568394615702</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>1.9772766336587326</v>
+        <v>-1.3029921715099833</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>0.13879417416668305</v>
+        <v>-0.15015854694753708</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>0.17605501823659148</v>
+        <v>1.3591779140326192</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-2.0981404220618454</v>
+        <v>-1.0818120235821769</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>1.255578345990944</v>
+        <v>-1.7797025995476634</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>0.24031704343466737</v>
+        <v>0.17702553910212857</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>2.573986815609724</v>
+        <v>-0.014831530546546784</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>0.2822292558915615</v>
+        <v>0.8186747498607478</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>-0.894428723948339</v>
+        <v>-0.5186668871480482</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>-0.17640673663725742</v>
+        <v>-0.8024464694193816</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.22693171883063726</v>
+        <v>2.14850312706546</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.7739702804560733</v>
+        <v>-1.8662354666943408</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.741397065866056</v>
+        <v>0.7297833305833882</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>1.727901088210374</v>
+        <v>-1.1673909918418455</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>0.12200316710506072</v>
+        <v>0.6448168963891758</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>3.5153957649443117</v>
+        <v>1.3511374848609983</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>-1.0682191107742687</v>
+        <v>2.237734134198604</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>1.1711441699043346</v>
+        <v>1.1285356677542502</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>-0.6950796223468543</v>
+        <v>0.35119462637019777</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>2.2493712151780656</v>
+        <v>0.08635910634630195</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>-0.13979599170561446</v>
+        <v>0.7058190903672844</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>0.4028136930577384</v>
+        <v>-0.26909193483535226</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>-0.07009235096916373</v>
+        <v>-2.3292879964183433</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>-0.5775995939264076</v>
+        <v>0.6220528152700818</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>1.1539550571821913</v>
+        <v>-0.03710807149935001</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>0.29965939654803875</v>
+        <v>-1.423032494573256</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>1.5657191110891555</v>
+        <v>-0.32058731499971815</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>-0.5827503123816858</v>
+        <v>1.0800252105670807</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>-1.2237699624885976</v>
+        <v>0.6335119419120357</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>1.7527197010579068</v>
+        <v>-0.7395392705124301</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>0.32665175767383675</v>
+        <v>0.021446593033358417</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>0.10053844530566286</v>
+        <v>-0.0989561958512542</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>0.5449206669137748</v>
+        <v>-0.27828625528385537</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>0.9918282694152059</v>
+        <v>-1.2987718299733553</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>0.6353546123054757</v>
+        <v>0.3785382035315664</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>0.6078822000489827</v>
+        <v>-0.20227918801275493</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>0.9900855021994486</v>
+        <v>-0.7914293667525345</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>-0.3917988669723708</v>
+        <v>0.6426270444008565</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>0.9745425872891109</v>
+        <v>0.797831424108485</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>1.7578233833954735</v>
+        <v>0.3082273918955902</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-0.30359359217403936</v>
+        <v>-1.7903201856596584</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>-1.1704627491556499</v>
+        <v>1.3795501643229302</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>1.1076300635444833</v>
+        <v>-0.6290660906673792</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>-0.07161665589331075</v>
+        <v>-2.0275229690541314</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>-0.18785204905544212</v>
+        <v>-1.243772643899993</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>1.6590806397115219</v>
+        <v>-0.15034323638493938</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>1.4006766546616667</v>
+        <v>-0.7520623930938763</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>0.8285378105204884</v>
+        <v>0.10598124578314809</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.15727476357123726</v>
+        <v>0.2317615168440765</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>0.03853888290206388</v>
+        <v>-0.7577239289006197</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>1.0241565598443123</v>
+        <v>-0.49980170840033744</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>-0.37394266294842626</v>
+        <v>1.5437398881053044</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.15919201924730123</v>
+        <v>-0.17963736904142047</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1602711760687118</v>
+        <v>-0.6853282917263074</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5992130432234207</v>
+        <v>1.077014645712955</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.11159789371338712</v>
+        <v>0.8504613680952642</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.0699165505755561</v>
+        <v>0.7788548840893024</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.21908113780882285</v>
+        <v>1.2728904389079545</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.2157971639508751</v>
+        <v>0.5374645589151811</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.028836599291297574</v>
+        <v>-0.9119345321046971</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7139668902441173</v>
+        <v>-1.3820866368709879</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2055592076676496</v>
+        <v>-0.12820538554072222</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.1526352468933712</v>
+        <v>-1.5281402899411691</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7718982391580598</v>
+        <v>0.23847193504737849</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6766690923344509</v>
+        <v>-0.04306031827041499</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.4679773686621496</v>
+        <v>1.1534650242834426</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.11726841995828</v>
+        <v>-0.5487303664769261</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.0437220359561135</v>
+        <v>0.44653866403631876</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.0493169267067133</v>
+        <v>-0.0566246576121651</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.4721272245893187</v>
+        <v>0.33057235857172734</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7992207467637762</v>
+        <v>-1.1163476914941501</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.5287732733075429</v>
+        <v>1.0462248902376585</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.39172765245163277</v>
+        <v>0.8230780973567434</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.465219950206908</v>
+        <v>-0.08859562476821667</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.8127199160662857</v>
+        <v>-1.8106715781523215</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5107094607333065</v>
+        <v>-0.41153431462663126</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3852378791276862</v>
+        <v>-0.5961225670161694</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.18744174627022783</v>
+        <v>-0.3173943408781497</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.1611753933359574</v>
+        <v>0.13209973982101375</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.34630970739823863</v>
+        <v>0.6083800042870646</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4565535654422437</v>
+        <v>-0.532888473954484</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.6516672880042124</v>
+        <v>-1.6366505303322352</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2994019367051344</v>
+        <v>3.0250828838912804</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4121401178105204</v>
+        <v>1.8394912345390275</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.3232823966192637</v>
+        <v>0.3893696358419211</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.9400386169403522</v>
+        <v>-2.07366340807825</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1910591192460808</v>
+        <v>-0.16873464082244927</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9536941473227343</v>
+        <v>0.39088036577751856</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0895322333313222</v>
+        <v>0.11614032475318699</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.03031374069620964</v>
+        <v>-2.1379719361182614</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>1.1955731962005285</v>
+        <v>-0.29123280384806827</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.8621701291047438</v>
+        <v>-0.607759840050862</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.7270812498506337</v>
+        <v>-1.9804487515306253</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.6854194208239063</v>
+        <v>-0.9716554265944907</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4211201665485483</v>
+        <v>-0.022056757953228107</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.4437924379526502</v>
+        <v>0.30141328961164354</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6641436163096563</v>
+        <v>-0.3982495841595662</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7718238204489922</v>
+        <v>0.6817648354640545</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5155534864887236</v>
+        <v>0.551008955346233</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8515596130026003</v>
+        <v>0.8546453121045703</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7953615132661518</v>
+        <v>0.43514869162831094</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1.3973036198273099</v>
+        <v>-0.13783145169955602</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.1395654879835009</v>
+        <v>0.11516942032921224</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.503183836286638</v>
+        <v>1.5116092040077185</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.10062732390773468</v>
+        <v>-0.19358130559770403</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5903656047007171</v>
+        <v>-0.9842529716172032</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.3685662207239573</v>
+        <v>0.20304942861303013</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>2.0285240012528623</v>
+        <v>-0.11599486821791542</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.7872283787092893</v>
+        <v>0.2678450039718024</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8689307925293654</v>
+        <v>-1.7864404610927795</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2486519087696534</v>
+        <v>0.0010364769188830826</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.905327110905699</v>
+        <v>-1.472370646333783</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0946896254475798</v>
+        <v>1.5653489779160503</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.971441820331451</v>
+        <v>1.0787823258374334</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.34978292964113444</v>
+        <v>-1.7612780782689648</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1.359775712493653</v>
+        <v>-1.0468262825382573</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.14594686824439035</v>
+        <v>-1.143218020092781</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7804495754375302</v>
+        <v>-0.1277480555367915</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.6821265869837473</v>
+        <v>0.3055215855935833</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.24730838736367514</v>
+        <v>0.3715122491544328</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.0100448180907815</v>
+        <v>-0.7979004564702378</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.5830389231458868</v>
+        <v>-2.8172308879867938</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1.1431145965474558</v>
+        <v>1.5315502799837257</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8378379394904002</v>
+        <v>-1.238899194553492</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.5716543079265715</v>
+        <v>1.2704516363911087</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6496334604082621</v>
+        <v>-0.6312987329048614</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1.055666901059458</v>
+        <v>1.5006469976834547</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.41851324119397715</v>
+        <v>0.040527673964774566</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6971451529988357</v>
+        <v>1.4812951294099135</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5154456632192512</v>
+        <v>0.32966904897465726</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.245759148464795</v>
+        <v>2.1655579429376726</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8822215118291071</v>
+        <v>-1.397964318783086</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9355214973251573</v>
+        <v>-1.4018644806549416</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.7121063623769944</v>
+        <v>0.26721079048609725</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.23884543035629457</v>
+        <v>0.029552479057021755</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.812865658771272</v>
+        <v>-0.5034060674140629</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.437582395596886</v>
+        <v>0.34630356476784185</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.7616623475757403</v>
+        <v>-1.1808113956080477</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5234219391051795</v>
+        <v>0.9296394125784441</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.14733777075737947</v>
+        <v>0.9921368331452137</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.24942173387635969</v>
+        <v>-1.8257124423058948</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1.596079817805377</v>
+        <v>-0.025433312058425077</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4681461944102628</v>
+        <v>0.16667307741880433</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.12965089994776682</v>
+        <v>1.1848676990045248</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7158995414698022</v>
+        <v>-0.24274629729436886</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6526117870745514</v>
+        <v>1.031955718685882</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.8855099257409393</v>
+        <v>-0.43612812655171973</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.9500461197912136</v>
+        <v>0.17282710771396315</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4829403902579374</v>
+        <v>-1.2076869721641823</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1.010578790912216</v>
+        <v>0.46216553339932015</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.4504919263991936</v>
+        <v>-0.528716142944092</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7441941496338472</v>
+        <v>1.587251794535343</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.13786146211218786</v>
+        <v>-1.9082796733044083</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.5069744719369016</v>
+        <v>1.1671941006118933</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.12328740801977942</v>
+        <v>-0.2813794936625358</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0494088265537458</v>
+        <v>-1.653466902284165</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.34207675792993847</v>
+        <v>0.059609547082929606</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.46669863359286</v>
+        <v>-0.0931987976895808</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.45607505555059547</v>
+        <v>-0.7012801105881574</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.050992943723482995</v>
+        <v>-0.3576298030079524</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.8081147111031746</v>
+        <v>0.6660169562265749</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.24409974240266077</v>
+        <v>-1.5597842982330896</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1625108434652037</v>
+        <v>1.3791962710296672</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-2.562381924386245</v>
+        <v>0.21990437579919128</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.23719861961868194</v>
+        <v>1.7368419712898566</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.32403386229979214</v>
+        <v>1.1671927712183934</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-2.03325732113858</v>
+        <v>1.6513191936003744</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3429717183917709</v>
+        <v>-1.0017708785496457</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5560888789642326</v>
+        <v>0.7804249779559831</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.18214838604164046</v>
+        <v>-0.7575531194050762</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-2.1629740129091877</v>
+        <v>0.9136271814294401</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2273915236979966</v>
+        <v>1.5318585785787584</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.9544546673654832</v>
+        <v>-1.2293857667779051</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.6194352050587657</v>
+        <v>-1.6851678321935302</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.4259451327752409</v>
+        <v>0.3589915323295079</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.0057057737552277344</v>
+        <v>0.21801598372161918</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.2616744241984104</v>
+        <v>-0.8673126066002554</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.38022668306803714</v>
+        <v>-0.286743505061481</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.19709368549010953</v>
+        <v>-0.16290031774829974</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.8674210885118697</v>
+        <v>-1.1421893615136252</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3993862565445858</v>
+        <v>-1.7420765636060436</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1.7456039773717482</v>
+        <v>-0.08741915087542897</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>1.5475082559309896</v>
+        <v>0.12555599885408605</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.2841087221755313</v>
+        <v>0.5033314538511163</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>1.4383545518889882</v>
+        <v>-0.6061685319399628</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.5583864426570071</v>
+        <v>-1.5149778670489622</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5511822885367589</v>
+        <v>1.4010966533789275</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>1.7438007796244832</v>
+        <v>1.2670850504608948</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0280513631494441</v>
+        <v>1.100459931935534</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.01919069175698775</v>
+        <v>-1.655784763100706</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.009824922809372137</v>
+        <v>-1.7276613584070557</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2983561435305351</v>
+        <v>-1.5503840205079846</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8042864804690588</v>
+        <v>1.3477031935139239</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.21349260089803848</v>
+        <v>-0.4175275157056575</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8438032888474475</v>
+        <v>0.5581599495617701</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.43015225231383614</v>
+        <v>-0.36746890332280996</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1.8180926375584532</v>
+        <v>-0.8247209691888224</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1.5314175792380809</v>
+        <v>-0.04216790934927815</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.77833593562727</v>
+        <v>-0.7109611253272039</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>1.8253543235567238</v>
+        <v>-0.2847734112156305</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.559741040058875</v>
+        <v>-0.08674615416998287</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.20363738445826765</v>
+        <v>-0.7101338963276804</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6896890716509709</v>
+        <v>0.2205406422228149</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.04618974438913651</v>
+        <v>-0.05698912860127087</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>1.2014884776445982</v>
+        <v>1.7135532548253112</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.6382201307663563</v>
+        <v>-0.8575496159771206</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.4629939276693546</v>
+        <v>-0.21039278222792632</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.9200831997646566</v>
+        <v>1.2244009575261436</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5394419201057087</v>
+        <v>-0.4704144281497963</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1.7020521182207475</v>
+        <v>1.4800925488914853</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-2.725088640762123</v>
+        <v>-0.8738692888072578</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6419629110716879</v>
+        <v>-1.5342828787319358</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>1.0798373872536495</v>
+        <v>-0.18917585457733366</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.24833083464537825</v>
+        <v>0.010580430075282702</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.109494741558426</v>
+        <v>0.72053392252673</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.11459323038658138</v>
+        <v>-0.5342494498318847</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.875431078096358</v>
+        <v>1.3638297324487534</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.8009480861320105</v>
+        <v>-1.853603962573325</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9342673967798394</v>
+        <v>1.6081396531812318</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.8003066150584076</v>
+        <v>-2.1158288467546496</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>-2.6896523162198145</v>
+        <v>-0.7303681320693046</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.5401419503969909</v>
+        <v>-1.0272591241976343</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.15486727851894344</v>
+        <v>-0.44310716837352127</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6183698280093499</v>
+        <v>-0.6407526130392927</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5089978582217385</v>
+        <v>0.13050831467160393</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.0283081427477514</v>
+        <v>-0.08997475021031644</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2211741621540439</v>
+        <v>0.2778759841901962</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.0028289553821903</v>
+        <v>-0.022567154512962612</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.5257400863251849</v>
+        <v>-0.10822990519875825</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.304233981966267</v>
+        <v>0.8309806754843075</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.14774099167829335</v>
+        <v>-0.36800666152895584</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.322717966748069</v>
+        <v>0.8829721810117362</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.2526892846794975</v>
+        <v>-0.693074742038501</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.5694410859952904</v>
+        <v>0.9508304758324134</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.7947454753874948</v>
+        <v>-0.7457766615554913</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.9265949578388896</v>
+        <v>-0.8751329074756465</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.720058745664598</v>
+        <v>1.4954480108758914</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.6493471198429929</v>
+        <v>-0.5454995046361963</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>2.392326307091429</v>
+        <v>-1.5848145673486933</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.29029577893235664</v>
+        <v>0.5257241349802362</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.9546920855108146</v>
+        <v>0.5008672696087669</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.44529667576981524</v>
+        <v>-1.5323233903461806</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.22325926043122968</v>
+        <v>-1.8564547553790514</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.5014753616961058</v>
+        <v>-0.09032754988582484</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.634396468910684</v>
+        <v>0.988246920090231</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.2615082926676984</v>
+        <v>1.1752289276613543</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.8448741852867263</v>
+        <v>-0.1135329559348901</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.5380324098254518</v>
+        <v>-0.5852702247782623</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>2.6316903724562106</v>
+        <v>-2.029418556241806</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.7333332445863656</v>
+        <v>1.6012092048451514</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2913773716055779</v>
+        <v>-0.45671832778933036</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>1.6978095515868759</v>
+        <v>-1.0840951185522456</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.6407184297099466</v>
+        <v>0.362800136424704</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.0638298645867091</v>
+        <v>0.9435791772471189</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.0202588065305456</v>
+        <v>0.14768070940947248</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6463891685538032</v>
+        <v>0.5903724565332324</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.33767391868006374</v>
+        <v>1.2015423214057752</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.12239822143836013</v>
+        <v>0.6240952833791543</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>0.9283460852846418</v>
+        <v>0.7679011618061631</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.008206576042803556</v>
+        <v>1.14423224485459</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>0.6563395580218118</v>
+        <v>1.3494025860976449</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>0.15892808621364024</v>
+        <v>-0.5416734771264978</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.2819110881340685</v>
+        <v>-0.44299375572592975</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.9299723859201628</v>
+        <v>-1.9251569929615218</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1427009743510278</v>
+        <v>-0.22941562792252812</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>0.8048866244936401</v>
+        <v>-0.3223539903906499</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>0.9225262852101945</v>
+        <v>-0.8780180948128644</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>1.1565099045941427</v>
+        <v>0.33153615382701396</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>0.541611707383163</v>
+        <v>1.3979879688178056</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7947293928131677</v>
+        <v>1.2762167133654645</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.6348987989967416</v>
+        <v>0.5567013668951293</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>0.37278743306994644</v>
+        <v>0.18827599714433696</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>0.16772024059668547</v>
+        <v>-0.9875382861984032</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.0839046376400194</v>
+        <v>-0.23430170679631365</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.9710878130786318</v>
+        <v>0.11819331126563298</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.0076411901862989485</v>
+        <v>-1.5127660742389293</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.5577636746149227</v>
+        <v>0.9387617118480397</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.8221382210305705</v>
+        <v>0.16850554659174413</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3761207659351469</v>
+        <v>-0.03434441533174356</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>0.9091003055270007</v>
+        <v>-0.610199266424492</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>1.3569269398291626</v>
+        <v>0.3179729110893604</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>0.20072634745358708</v>
+        <v>1.7591179092309985</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>0.13218142008653996</v>
+        <v>-0.17099585189400215</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>1.539709584452031</v>
+        <v>-0.42904436107318195</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>-2.1273998003817063</v>
+        <v>1.6881896735508926</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.6381211734252891</v>
+        <v>-1.1019488060849898</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>1.0967700734321728</v>
+        <v>-0.9883419867981358</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.9462146152379075</v>
+        <v>-1.9375407048905866</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>1.2685156554519348</v>
+        <v>0.6964303395739829</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>1.864248998706414</v>
+        <v>-1.6633670819276587</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.20607566303367783</v>
+        <v>-1.9606982538494557</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>0.532033763795113</v>
+        <v>-1.6353422238599868</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>-2.109187597942082</v>
+        <v>-0.42428676940172677</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.02306116311233826</v>
+        <v>0.19973400724336907</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.6240223693595139</v>
+        <v>-2.0186940488873115</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.19848398595008368</v>
+        <v>-0.9463935381673877</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>1.1675316440992551</v>
+        <v>0.9856400657855067</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>0.09459901636053097</v>
+        <v>-0.32553536961518403</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>0.746387412900093</v>
+        <v>-0.9018110939549644</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.5911429904669403</v>
+        <v>-1.3884218490709488</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.8541781408756114</v>
+        <v>-0.7819329210685948</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>0.7976262984238104</v>
+        <v>-0.4448546062590121</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>1.0840407366133813</v>
+        <v>0.8838052228640538</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.9750044701771942</v>
+        <v>0.4272187090435858</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.9676424733480424</v>
+        <v>0.2067783433439155</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>1.697970074593442</v>
+        <v>-1.148667064474944</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>0.774771755468761</v>
+        <v>0.9325150838123231</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>0.8566686405481454</v>
+        <v>-0.1478289758830516</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.5066791427715396</v>
+        <v>-1.1174299383119541</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>1.8314186976296623</v>
+        <v>0.42776360313679385</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.8816374361528043</v>
+        <v>0.2820362251298517</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.32226475511653463</v>
+        <v>0.0694805360973828</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-1.2879266224131065</v>
+        <v>1.2270529801306664</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.017485611388510052</v>
+        <v>-0.3294447263352558</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.9930621185737758</v>
+        <v>-1.5982324445676008</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.2687230679101935</v>
+        <v>1.963918647462526</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>2.0364512679431197</v>
+        <v>-1.37976414321926</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.10200997363914105</v>
+        <v>1.7222558692484118</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.021861311470469404</v>
+        <v>0.39829488352798725</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.007775537335517865</v>
+        <v>-0.8448661637879643</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>0.49410242000923443</v>
+        <v>-0.8355704121633416</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.7753689431467259</v>
+        <v>0.689723198938029</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.5011628176734964</v>
+        <v>1.5346442297964178</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.7984887689993527</v>
+        <v>-1.0089811674812423</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>0.7969116619291563</v>
+        <v>-0.19170418925437846</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>-1.1551989426501774</v>
+        <v>0.6089290878873861</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.1284602048833872</v>
+        <v>-0.8838911729736684</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.38491580740546666</v>
+        <v>0.5731067266440466</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.025863324491692808</v>
+        <v>0.16627761158277218</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>1.2570231120293311</v>
+        <v>0.35697581855530686</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>1.6088165658551712</v>
+        <v>-0.0733069693699573</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>0.42575077729119043</v>
+        <v>1.970397322806908</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.14996554822932717</v>
+        <v>-1.6119725981480293</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.9102250830650193</v>
+        <v>-0.4012834888014507</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>2.0313710544758568</v>
+        <v>-0.4787039587916949</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>0.018928079541038905</v>
+        <v>-1.042874780392806</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>0.3246258039899485</v>
+        <v>0.9284280769225244</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>0.9663489685708244</v>
+        <v>-0.29039595055179307</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>0.17329455590090395</v>
+        <v>-0.257193754157362</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1.0328120606548816</v>
+        <v>1.138529881867266</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.4088447721522018</v>
+        <v>1.83199523984294</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.9101378184785416</v>
+        <v>0.30901677787060194</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.6728699947591181</v>
+        <v>0.7091921777468129</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>0.42621028883833095</v>
+        <v>0.5325146674073493</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.9456214497074888</v>
+        <v>-0.15662897166121945</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.1558049772017869</v>
+        <v>-0.20282652928038672</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>0.09249811242413687</v>
+        <v>-0.9587658999747456</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>1.6312858379482111</v>
+        <v>1.1225414881557298</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.5560611096949297</v>
+        <v>-0.2067735269145269</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>1.5399454038515963</v>
+        <v>1.4609888483889935</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-1.037195544793107</v>
+        <v>1.2142766505630531</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>1.9507384706639752</v>
+        <v>-1.8306151934921373</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>-1.1942122498421521</v>
+        <v>-0.4619385085497222</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.8366547013245798</v>
+        <v>1.1941704231769827</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.3211322994855668</v>
+        <v>-2.617100156483074</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.515196701400963</v>
+        <v>-0.17133838413332655</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.9258360935976677</v>
+        <v>-1.2930907169139458</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.7923421548296545</v>
+        <v>1.1459275298144604</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>0.7539040502363926</v>
+        <v>0.14174947506943816</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>0.8780134886170202</v>
+        <v>-0.9814088296186267</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.33235130347320296</v>
+        <v>-0.47382763225266766</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.16386787074982226</v>
+        <v>0.9387295039832676</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.24423561270128638</v>
+        <v>-1.1089536657893364</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>0.06818126255827427</v>
+        <v>-0.6634040540076007</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>0.07306828490268422</v>
+        <v>0.15739498550012224</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>1.6586968664139856</v>
+        <v>-1.7658607418316614</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>0.9156659238413156</v>
+        <v>-0.23603808644779267</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.4694062508774585</v>
+        <v>1.6757812291607175</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.27870529780268494</v>
+        <v>0.49477792477525845</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>1.435167919766511</v>
+        <v>0.4887095769760009</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>0.955370315027971</v>
+        <v>0.757916690092089</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>0.5737841445349726</v>
+        <v>0.21499369457318937</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.3131501705932411</v>
+        <v>0.04741452269776783</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>0.25413597559040124</v>
+        <v>0.23842845599888196</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>-1.6634436185270254</v>
+        <v>-0.3803410208174343</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>0.09081248882277264</v>
+        <v>1.3423635291198799</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1431737977677221</v>
+        <v>0.2637026951773344</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>0.4490884231259763</v>
+        <v>0.7675241339740777</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.5312374204918743</v>
+        <v>0.05275156940684146</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.09187752105292055</v>
+        <v>1.3105833170844274</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>0.9069691786908212</v>
+        <v>-0.7587905919970843</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.382966338953807</v>
+        <v>0.015124642135515237</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.9413667040438154</v>
+        <v>0.7471327112865397</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>0.08595326210589264</v>
+        <v>1.0549496318337328</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>0.2383367128735141</v>
+        <v>0.9526984647955877</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>0.9573756947472833</v>
+        <v>0.9906051017765345</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>0.6813671373943921</v>
+        <v>-1.2245976147983186</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>1.7631646680547557</v>
+        <v>0.16260093980889953</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.3085325198881973</v>
+        <v>-1.7585115365726305</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6029998796635303</v>
+        <v>0.5184370261482858</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>-1.076824449847084</v>
+        <v>1.4322536258930794</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>0.041140779580227</v>
+        <v>-0.3902797598321512</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>-1.913492006712532</v>
+        <v>0.016537944028806435</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.2178821631020498</v>
+        <v>0.4264810234398404</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.31299600150122164</v>
+        <v>-0.31789511725106134</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.35543343766186275</v>
+        <v>-0.3301938720381446</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>0.22268609501553518</v>
+        <v>-1.1644572228862113</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>0.08190877023750077</v>
+        <v>-1.2553396875852596</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>1.4492466027053044</v>
+        <v>0.486338073296085</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.38636231479169053</v>
+        <v>0.32162871275362526</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.5818840022290014</v>
+        <v>0.03584845871240609</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.8052061569528954</v>
+        <v>-2.2383344625707036</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>0.0751848283339474</v>
+        <v>0.7707217656534384</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.5255859881272033</v>
+        <v>0.9418535828064248</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>1.2834025328573315</v>
+        <v>-0.9133008247409857</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>0.5930883571968799</v>
+        <v>-0.6198037568520257</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>1.2003311584723193</v>
+        <v>-1.2029029314791126</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>1.0463651287214684</v>
+        <v>0.14842005391392202</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>0.7227754102193071</v>
+        <v>-0.33169318308417706</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>1.3258250468797586</v>
+        <v>-0.13215012024700643</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>-1.1797985584930546</v>
+        <v>0.7539841977067444</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.13656366959232571</v>
+        <v>-0.6066268312031661</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.7434352575379691</v>
+        <v>-0.11825265092065412</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>1.238402352307812</v>
+        <v>-0.120885734691207</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>-1.5959479372212753</v>
+        <v>-0.24981550776591882</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.14805257625949692</v>
+        <v>-0.843367996430231</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.01750981380806507</v>
+        <v>0.4739255041606063</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>1.9685100977705148</v>
+        <v>-1.3656676445243658</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.20726528292551186</v>
+        <v>-1.1314832523716063</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.6549587077910253</v>
+        <v>0.5382150362422399</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.7125661832658785</v>
+        <v>0.717951875442232</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>-1.2409708876260828</v>
+        <v>0.009930627670273447</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.3022079574749975</v>
+        <v>-0.1734090853053893</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.7804336587726103</v>
+        <v>-1.5896826725102262</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>2.1743736956796273</v>
+        <v>0.3158812904898595</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>1.6672523430499544</v>
+        <v>-0.3476856673118316</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.17641421520958364</v>
+        <v>0.37686078659442346</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>0.7942342093984001</v>
+        <v>1.5082323686020958</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.001305837409726498</v>
+        <v>0.6751162355118617</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>1.2885598099927504</v>
+        <v>-1.9885247524775862</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>0.02023803751944612</v>
+        <v>-1.2555397941908881</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>-1.343819877186491</v>
+        <v>0.2923981248438047</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>0.10459201766440204</v>
+        <v>1.051752671888169</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.21858349443426262</v>
+        <v>-0.9508921373389475</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.6055113708296765</v>
+        <v>-0.0012604957790044793</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.28095480066624223</v>
+        <v>0.32290786350775774</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>0.2307348442568335</v>
+        <v>-1.7021766009709378</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>0.04801417098730912</v>
+        <v>-1.053000733881911</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.24699122823850334</v>
+        <v>0.990946886407824</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>0.8670109193143107</v>
+        <v>-0.5537242499517788</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.35505797019491653</v>
+        <v>0.13076990910772965</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4114887963452877</v>
+        <v>0.8816790292811226</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.45789798661013126</v>
+        <v>-0.742815757153737</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7263421960423672</v>
+        <v>-1.2421588128088692</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>2.0035934588315807</v>
+        <v>-0.8078311441487909</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>1.614234216502512</v>
+        <v>-1.6105699349491207</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>0.6920411307312064</v>
+        <v>0.2952488796680224</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>1.3966496512143538</v>
+        <v>0.7669890764195052</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.22052964186388238</v>
+        <v>0.5131099350439962</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>3.010860399864251</v>
+        <v>-0.5925579456201386</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>0.9062091831125524</v>
+        <v>1.8075167308876574</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>-2.4588805380543977</v>
+        <v>-0.41049960500125865</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.4817642418558497</v>
+        <v>1.0909535508045198</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>-1.1328978160142558</v>
+        <v>-0.8104184114616924</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>0.7446460474894896</v>
+        <v>-0.7995488275333114</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>0.1251764449747951</v>
+        <v>-0.5240409880936362</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.2979991266391298</v>
+        <v>-0.18510585240580685</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>0.8534179503742142</v>
+        <v>0.8173745986921098</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>0.2342342037683417</v>
+        <v>0.168021776444923</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.5366071726298665</v>
+        <v>1.8618914737049579</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.6455506407330305</v>
+        <v>0.14866312193961456</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.2108414267478192</v>
+        <v>1.194120630063877</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>-1.1655676567324735</v>
+        <v>0.9594781565570372</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.9537787981874034</v>
+        <v>-0.03106383542340493</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>0.8674761401566917</v>
+        <v>0.9834222127430623</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>-1.8419819561028397</v>
+        <v>-0.6234631867728129</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.27373263894533595</v>
+        <v>1.2654612866485924</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.8937690905334802</v>
+        <v>0.6273137063804681</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.6106066332463148</v>
+        <v>0.7215118384212607</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.6650391925356907</v>
+        <v>0.16644198250447384</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>0.668358308819324</v>
+        <v>-1.63244276213138</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.23511777121961486</v>
+        <v>0.7326076113603781</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>0.01707223537968795</v>
+        <v>1.1201521231990372</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.09947211147319271</v>
+        <v>0.8901945096751726</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>0.5527796824663259</v>
+        <v>0.3533292989936529</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.17300965044480465</v>
+        <v>1.0810075312390848</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>1.4292954185341262</v>
+        <v>-1.3451823126409606</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-1.6832051273267252</v>
+        <v>2.050452135714507</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.3553766968114042</v>
+        <v>-2.2536906094965716</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.9912541583642707</v>
+        <v>-0.00609085002233925</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.5032025285015668</v>
+        <v>1.9539413256102272</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>0.1626991829199216</v>
+        <v>-0.7581589446983957</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.8815180337923846</v>
+        <v>0.7828378884044993</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.5605458762466773</v>
+        <v>-0.36577766137220513</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.25121376019201747</v>
+        <v>-0.29004031087492504</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>0.235257470195783</v>
+        <v>2.2056868303422656</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>0.6400237686730722</v>
+        <v>-1.8533167287287085</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>1.0504622180427436</v>
+        <v>-0.26830383007806363</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.2575434831408105</v>
+        <v>1.1124466372268078</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>1.3329564998651626</v>
+        <v>0.5553900196299651</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>2.145228397796317</v>
+        <v>-1.1802914155571071</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.4333220855598312</v>
+        <v>-1.0265691045047112</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>0.20250780001248764</v>
+        <v>-1.6365439705470275</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>1.069513568795637</v>
+        <v>0.4944681785876184</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.7322220739053699</v>
+        <v>0.09949235677211175</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>-2.4938205117098153</v>
+        <v>0.8990695335031467</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>2.4611586583326175</v>
+        <v>-0.19946697307379377</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>0.9117137979309536</v>
+        <v>-0.6694705060540664</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.7771652596222242</v>
+        <v>-0.23579765181750292</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.9061563196193724</v>
+        <v>0.775018090099684</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>0.28904901695672747</v>
+        <v>-0.49646116299039234</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.5189051342187099</v>
+        <v>-0.17996242004171012</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.4513149746225731</v>
+        <v>-2.0127670133024713</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>-3.013280983168663</v>
+        <v>1.0599055081454514</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.36335380515264315</v>
+        <v>-0.5176361899179948</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.2726485644658003</v>
+        <v>-1.6581907303669057</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.37226361744879405</v>
+        <v>-0.45291118166208566</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.2918610424470338</v>
+        <v>1.696977007514862</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>1.0127768155429155</v>
+        <v>1.6462143429896043</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>1.1613782193094777</v>
+        <v>0.7157050795782781</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.4976845415934169</v>
+        <v>-0.20880116171509908</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.5089584461700767</v>
+        <v>-0.3463659996438155</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.7860159656240038</v>
+        <v>0.340410784741362</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>0.6724941712336334</v>
+        <v>1.101206572423009</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>0.6521262883742018</v>
+        <v>1.3645735620284887</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.2472665531878145</v>
+        <v>-3.4250088674048658</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.36569422263297635</v>
+        <v>-0.8574906083923028</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>0.9133381817205432</v>
+        <v>0.05515244510893151</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.20782151564702145</v>
+        <v>-1.141141201066452</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>0.9540723047867564</v>
+        <v>-1.4580230417476672</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.6013952636556285</v>
+        <v>0.04592067481186379</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.8151855286341096</v>
+        <v>-0.7832332238910725</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.07099707633753022</v>
+        <v>-0.759298259931641</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>1.1217717925201856</v>
+        <v>0.3703559752161206</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.11991537846556878</v>
+        <v>0.35459428169897095</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>1.2182738380694973</v>
+        <v>-1.806628284916088</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.5600436153672528</v>
+        <v>0.9472187763318536</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>0.5833785492577367</v>
+        <v>-1.406886594842366</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>0.43947951014785214</v>
+        <v>0.5735720764663036</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>0.33129661353798995</v>
+        <v>1.4581869915005135</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.15566342592007565</v>
+        <v>-0.06569319808081253</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.44574565377895453</v>
+        <v>-1.5816548051336548</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>0.41535208549175456</v>
+        <v>-1.6023081951083684</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.0423278119808062</v>
+        <v>-1.5752313642914575</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>-1.0288319615232582</v>
+        <v>1.1463374737310645</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>0.41956387976458187</v>
+        <v>0.597800945620125</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>1.0110660031614693</v>
+        <v>1.2075256273903878</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>0.8981259921600863</v>
+        <v>-1.153734899088294</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.243689336996853</v>
+        <v>-0.7182227836229865</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>-2.1423125117936217</v>
+        <v>0.09138452341645258</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.4040548754437847</v>
+        <v>1.8783709352087388</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2912544388908971</v>
+        <v>-1.6067965071409482</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>1.1344388870059992</v>
+        <v>-0.5117841463674102</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>1.132838842632898</v>
+        <v>1.7005450209989366</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>-1.4964140694592258</v>
+        <v>-0.6500253612622008</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.7043671997170398</v>
+        <v>-1.1880169265845193</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>-1.542492822298727</v>
+        <v>-0.3442807573306486</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>0.6609305465879068</v>
+        <v>-1.2988146542107495</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>1.0876418148064908</v>
+        <v>0.4712640476830086</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>-1.2155549245209831</v>
+        <v>0.6590662723028776</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-1.0012287191687343</v>
+        <v>-1.2165158429927472</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.4570257553196319</v>
+        <v>-0.5981553325421949</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.0980942048135541</v>
+        <v>1.7911468159408475</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>0.7130123201250491</v>
+        <v>-0.5024208313976728</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>0.8894059249627487</v>
+        <v>-0.21883178254233301</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>1.0161052450173682</v>
+        <v>0.9157740497908089</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.47437290672881915</v>
+        <v>-0.3585607922181404</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.019017574057646452</v>
+        <v>0.2863508854222513</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>0.4597956026804771</v>
+        <v>-0.011183972912013245</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.1105176074621529</v>
+        <v>1.20604459096187</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.24149440678940767</v>
+        <v>0.15880216525058125</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>1.0051006656917632</v>
+        <v>0.46437994147352984</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>0.8873580022160289</v>
+        <v>0.5172456411021237</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>-1.535995299599514</v>
+        <v>2.0806734829774785</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-1.609357036104684</v>
+        <v>-0.24514603177336114</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>0.7235266831630977</v>
+        <v>0.4613158114226718</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>0.43245787904986877</v>
+        <v>0.5893734391770784</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-2.630181615208042</v>
+        <v>-0.5923105809673986</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>1.0039511613363972</v>
+        <v>0.4597081870911315</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>2.284794047260316</v>
+        <v>-1.0109924123644165</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.25229264383653127</v>
+        <v>-0.268559829187112</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.43631737062201353</v>
+        <v>-0.5310885954197717</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>0.7894259468816206</v>
+        <v>-0.6017836019847322</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.29963169144890356</v>
+        <v>0.16801754866012109</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>0.14350793077361004</v>
+        <v>-1.101188818384189</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.33025026248421935</v>
+        <v>0.923599280436425</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>0.3329835764129762</v>
+        <v>0.9965904500258108</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>0.5582801723944337</v>
+        <v>2.429892143100235</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>0.6248576647235741</v>
+        <v>-0.8083292244750628</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>0.009791435638937716</v>
+        <v>-0.4173020223169208</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>-2.127538145888935</v>
+        <v>1.9062911425436735</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.9852700142661082</v>
+        <v>0.3246963230900927</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>1.2441524031809232</v>
+        <v>0.2582511621046328</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>0.09636730263491593</v>
+        <v>1.0909237425358322</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.07192209665870872</v>
+        <v>-0.23006802401563606</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>0.5517426409286917</v>
+        <v>0.6180670553266644</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.4974132125239639</v>
+        <v>1.8674215246366612</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>-1.0237666686674771</v>
+        <v>1.1627341143235124</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>-2.10556741293382</v>
+        <v>3.330084904995686</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>0.5039657402505119</v>
+        <v>-1.1482494416579958</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>1.5237059776558923</v>
+        <v>0.6090938366325797</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1.1492358226877721</v>
+        <v>0.42831453247272616</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.7618344837979917</v>
+        <v>-0.29865563519990146</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.904818325365362</v>
+        <v>-1.002153691582815</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>1.3304407180928377</v>
+        <v>1.8037794467716537</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.9419937454453532</v>
+        <v>-0.43531511277997686</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.9619947937394547</v>
+        <v>0.8149736452002266</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>0.41889409009816136</v>
+        <v>-0.5342471622845103</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>0.23518546334053564</v>
+        <v>-1.6659692894594065</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>0.4613196222017018</v>
+        <v>-0.8406035103949455</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>-2.4348065761119204</v>
+        <v>0.1328680669445467</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>1.8360168631970646</v>
+        <v>0.5503616057342589</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.3417454871980157</v>
+        <v>-0.26995826470938855</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>0.2542643583199856</v>
+        <v>0.9112705483591841</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.40344426181913035</v>
+        <v>-1.3128612966717836</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>-2.124271232138814</v>
+        <v>-0.1708140291200145</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>-1.2594423960449408</v>
+        <v>-0.5065097596067191</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>-1.343588382968145</v>
+        <v>0.79434514661804</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>1.0348533131379059</v>
+        <v>0.839500293028667</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.3815483954581282</v>
+        <v>-0.2693678503834208</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>1.6534617530737354</v>
+        <v>0.4083445687107848</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>0.9129062710068289</v>
+        <v>-0.3178996116835601</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.196387071411302</v>
+        <v>-0.2176462432519713</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>0.3504012467757285</v>
+        <v>0.3409609490979359</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>0.23730926547440295</v>
+        <v>-1.3043772827937163</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.9423437133774257</v>
+        <v>0.2878932527363571</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.5331460107834586</v>
+        <v>0.053022084109739194</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.285326817296503</v>
+        <v>-0.7180781760567762</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>0.11450118888503703</v>
+        <v>2.2953150976235195</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>0.6218573690032658</v>
+        <v>0.5037965738028433</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.029008713848164055</v>
+        <v>-0.3383019988112451</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.18844855878653738</v>
+        <v>-0.24355848629730617</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>0.10138458931689114</v>
+        <v>-2.7645511845780244</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.4904499928590724</v>
+        <v>0.6853478920003948</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.5787292592869873</v>
+        <v>0.07957344130457873</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.7414289876726308</v>
+        <v>0.6647047703229363</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.8858528623879602</v>
+        <v>-0.1614257879177744</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>0.8168948226409863</v>
+        <v>-0.5347252337980598</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.6160089914214173</v>
+        <v>-0.3580123099112916</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.4492292644017102</v>
+        <v>1.5519850070858747</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.1736727328426826</v>
+        <v>2.4381450601664603</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.7918635403929265</v>
+        <v>-1.1139076110290207</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.22708704726415754</v>
+        <v>-0.5198823582080909</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.9193223375636695</v>
+        <v>-0.1079314742728728</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.21051715450951008</v>
+        <v>-0.4903413536941728</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>-1.3031600422863123</v>
+        <v>1.1342913356739635</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>-1.1259890768260457</v>
+        <v>0.9203085669738197</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>0.7680614248278677</v>
+        <v>-0.6132925811275237</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.43930063956748655</v>
+        <v>-0.766761625739839</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>0.8368841988626899</v>
+        <v>-1.2561471204514973</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.20250150741741085</v>
+        <v>0.2591121915147753</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1.2075395137893048</v>
+        <v>0.5190998368795066</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.8418200832541368</v>
+        <v>0.36823020062649786</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.06371618630131463</v>
+        <v>0.6522906835336529</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>0.030831819148781518</v>
+        <v>0.9226247640937552</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.3437152460245284</v>
+        <v>0.11640214627753867</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>1.5271444507225207</v>
+        <v>-1.9944216969832456</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>0.6431745788516684</v>
+        <v>-0.19251277461352945</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.8323201881188188</v>
+        <v>0.2631942986963599</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>0.8159225591923888</v>
+        <v>-1.6360802775532235</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.8089813301811655</v>
+        <v>-0.0010236938978766003</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.6826900516497215</v>
+        <v>0.4111023497578676</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>0.19421328022118736</v>
+        <v>0.30486668117971044</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.5322087006817529</v>
+        <v>0.8785234080920789</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>0.7980952829863759</v>
+        <v>0.15106162587506933</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>0.6801359382536337</v>
+        <v>1.7463529532661102</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>1.1856755514383113</v>
+        <v>0.606100114297995</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.5291001938201668</v>
+        <v>-0.6467152995309726</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>1.2380836660719716</v>
+        <v>-1.3003121360545997</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.6714223388576648</v>
+        <v>-0.5028249802492493</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>0.33021468161384315</v>
+        <v>0.45765428804437275</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>0.5856413885762137</v>
+        <v>0.29113840656867396</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>0.3259380851018851</v>
+        <v>0.24418746758608081</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>-2.024506820106357</v>
+        <v>0.36392032601547464</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>0.5360192485068769</v>
+        <v>0.42099952933145995</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>-0.10272272430301953</v>
+        <v>-1.860641737890176</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>-1.2987822294121363</v>
+        <v>0.3018020515677196</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>0.16038276213955363</v>
+        <v>0.8433936988747862</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>-1.4215951563031155</v>
+        <v>0.7600638249295832</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>0.37918615304251857</v>
+        <v>0.6568591819622884</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.4143021417360455</v>
+        <v>0.7625228051167459</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>0.7530997710987016</v>
+        <v>-0.3280169266502639</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>1.1277722964335923</v>
+        <v>-0.9539955237277015</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>0.9299406887777829</v>
+        <v>-0.557910006715746</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>1.4229759172165692</v>
+        <v>1.7837539813673946</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>-0.03663455437271311</v>
+        <v>1.1900861447558917</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>1.5668907159755512</v>
+        <v>-1.9532974252628135</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.4399569955958163</v>
+        <v>-0.5673944467098502</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>-0.9911134647142833</v>
+        <v>0.7547106259665836</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-1.1930442898758757</v>
+        <v>1.4604717594575891</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>0.8545470760916081</v>
+        <v>-0.6709208037877328</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>1.4072463489716998</v>
+        <v>-0.04013253173320157</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.0878245296178264</v>
+        <v>-1.361328348766467</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>0.5631678722717661</v>
+        <v>-0.7722841995049798</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>0.8097978451952506</v>
+        <v>-1.1682676511808594</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.0652842079237996</v>
+        <v>-1.7542922251344035</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.7443096877324716</v>
+        <v>-0.4415748626110731</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>1.6376857278229078</v>
+        <v>0.6750501632007319</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>0.16085852120114089</v>
+        <v>-0.016199840166673213</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.05851103615907135</v>
+        <v>0.35224317294727514</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.9017022994025939</v>
+        <v>0.5759744970154786</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>0.6883080343068538</v>
+        <v>1.145240286359108</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>1.909518876072831</v>
+        <v>-1.1239463713628495</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>0.24437683736773047</v>
+        <v>-0.11929523642091697</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.05091637376352432</v>
+        <v>-0.19637024099261158</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>0.5670795439465768</v>
+        <v>2.1292216489065696</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.09199897187081339</v>
+        <v>0.059713633459500925</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>1.5632999572457007</v>
+        <v>0.28328717262842096</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>-1.258093942793081</v>
+        <v>-2.1902394453001532</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>0.5296044035567936</v>
+        <v>0.3966812183890432</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.7797004567384286</v>
+        <v>0.7459828432648049</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.920447262508739</v>
+        <v>-2.0286502326748193</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.9513431819881317</v>
+        <v>1.2533719094869271</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>0.07441309459624298</v>
+        <v>-1.0517540879605645</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>-1.4946327723418815</v>
+        <v>0.8130448656764622</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.5589114347293596</v>
+        <v>1.3554551947968088</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>1.0001189952306124</v>
+        <v>1.1131321036611306</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>0.6405878198583235</v>
+        <v>-0.8891211539067627</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>1.334152422165078</v>
+        <v>0.21822999717348415</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>1.647046541670491</v>
+        <v>0.4548528079102437</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>0.41208500425387595</v>
+        <v>-0.9032568646405914</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3884646058130564</v>
+        <v>-0.3797932664068203</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>2.3825905411352633</v>
+        <v>-0.7872253267071316</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.5334502767189583</v>
+        <v>-0.6725347308137934</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>0.25557106043647027</v>
+        <v>2.6540019069605574</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.24541532512259373</v>
+        <v>0.1320708822862079</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>1.703132820571884</v>
+        <v>-0.3843992950554619</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>2.139237472583036</v>
+        <v>-0.10198798903071354</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.7478373982597236</v>
+        <v>0.150255427253406</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.6112955521744946</v>
+        <v>-1.5875279432186387</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>1.205558397442193</v>
+        <v>0.24851275733778372</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.5577827725803782</v>
+        <v>0.44097222984464485</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>-1.5835386925114152</v>
+        <v>1.6222744316819468</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>-1.4064483155354779</v>
+        <v>1.1606834251077822</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>1.1111128320845678</v>
+        <v>-0.3836640740321703</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>0.3969856891257267</v>
+        <v>0.901500558607269</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>0.7558289983575995</v>
+        <v>-0.5583487974817896</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.45382910751121347</v>
+        <v>-1.4993251301028419</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.6286085288381471</v>
+        <v>-0.3315152539217161</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.404258254140703</v>
+        <v>0.19355902299997516</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.5637668916856856</v>
+        <v>-0.6489541366047238</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>0.535541091959668</v>
+        <v>1.553755588576341</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.8820272917320299</v>
+        <v>0.5651522867105496</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>-1.5376508189263107</v>
+        <v>-0.3066356869942092</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.839518665985639</v>
+        <v>-1.3126840474669375</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.1121138333611324</v>
+        <v>1.6760965670906394</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.6178422592825822</v>
+        <v>-0.34734258447910515</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.9929109223431537</v>
+        <v>-0.18249146957229265</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>2.2291063908314315</v>
+        <v>-0.10315224112182994</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>1.2208234891060046</v>
+        <v>1.6281254945970425</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.30234197517563194</v>
+        <v>1.436027353948654</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>0.6287671554049834</v>
+        <v>-0.9194515863739264</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.32579072589868124</v>
+        <v>0.9799079922025454</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>-1.6944496350370137</v>
+        <v>1.9279991470551776</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.27634920022998466</v>
+        <v>-0.7125593076146474</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.27555471264911047</v>
+        <v>-0.6183723147587207</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>-1.0357939260847466</v>
+        <v>2.6036250457961576</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>0.598111792748336</v>
+        <v>0.5099245995737632</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.3315977923545135</v>
+        <v>0.5484694749091765</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.9910048059718659</v>
+        <v>2.2442705506125664</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.4965029210435357</v>
+        <v>-2.1300072713708817</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.10038488695327509</v>
+        <v>-0.8545270314835545</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>0.9169189350040033</v>
+        <v>-0.004616811911230147</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>1.8731946366687007</v>
+        <v>0.47922490399683687</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>0.5133645419159206</v>
+        <v>-0.4694976428241032</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.8657371123345653</v>
+        <v>-1.5054311276461152</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>1.325925903683529</v>
+        <v>-1.7742169971492663</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.893781982002926</v>
+        <v>1.075987973777049</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>0.358324536053955</v>
+        <v>-1.9387502986505343</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.3879227926637268</v>
+        <v>-0.6595304329986946</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.6685586885856355</v>
+        <v>0.5335244704806741</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>0.6783151421039056</v>
+        <v>-0.9105104782090421</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>0.40513484902332686</v>
+        <v>-0.9631310882897902</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.6559091731566382</v>
+        <v>-1.3997174476010037</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.9390107554938335</v>
+        <v>-0.01293197298231718</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.11015591603915378</v>
+        <v>0.3344352257353072</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.9964091404871137</v>
+        <v>1.8773212386559202</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.6202852176681439</v>
+        <v>-0.07364918335867099</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.19436338132039133</v>
+        <v>-0.3699015309613444</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>0.8748761936817416</v>
+        <v>-0.7350701511681181</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>0.6482205745830005</v>
+        <v>0.45900033258198303</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>1.3155716160306907</v>
+        <v>-1.7234754948988535</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.3851803347852711</v>
+        <v>-0.06493792611702022</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.0280902724713574</v>
+        <v>-1.7608821282723746</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>1.0917853937148094</v>
+        <v>0.5079958973708336</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>-1.3862176955207544</v>
+        <v>0.9234366919717253</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>0.39570954032263805</v>
+        <v>0.1044240764645771</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>0.05801203738440182</v>
+        <v>1.5856215959578144</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>1.2655949181080195</v>
+        <v>0.4022735514722334</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.03449089979150939</v>
+        <v>-0.8728589679966564</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.7274445496786319</v>
+        <v>0.31846652114737106</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.3353959982611861</v>
+        <v>1.3141494996549086</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.09908290532791288</v>
+        <v>0.4209219316247245</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>-2.121594752363707</v>
+        <v>0.797656079919323</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>0.7730594626623866</v>
+        <v>-1.0946083424398805</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>0.18107305147181993</v>
+        <v>0.2782638246588209</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.6655124225647487</v>
+        <v>-0.9732781751414421</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>0.05823262865347035</v>
+        <v>0.4587399673774198</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.32234569987765244</v>
+        <v>-0.7443865724266447</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.4541682352400559</v>
+        <v>-0.1817046672272441</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.4147578549128686</v>
+        <v>-0.7663951005289343</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>0.3077301139642352</v>
+        <v>-0.8997736816322216</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-1.3173734108247097</v>
+        <v>0.6720924795984956</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>-1.9602020121786237</v>
+        <v>-0.7479808425763453</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.4828772591652468</v>
+        <v>-0.6747820276587904</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.7844237428447548</v>
+        <v>-0.4873604734312264</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>1.448874398370689</v>
+        <v>-1.7533221341111016</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.5097892649929217</v>
+        <v>-0.2744150105287423</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.5803544496282756</v>
+        <v>1.4686758294570423</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>0.3819722082265737</v>
+        <v>-0.10321747509593232</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>0.015158207815245803</v>
+        <v>-0.4489091123590108</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>0.4900352331074028</v>
+        <v>2.1695305414942325</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>-1.3063590632959874</v>
+        <v>-0.023607263150213317</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>1.582517564207756</v>
+        <v>0.47310400607159014</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>0.43940741288448737</v>
+        <v>0.26911537142651354</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.9372830098842304</v>
+        <v>-0.5511603787629776</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.1327588825669073</v>
+        <v>-0.14854850223211868</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>-1.8467047113878998</v>
+        <v>0.25378104110302496</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>0.39688685372896343</v>
+        <v>-0.14659289264741887</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.14201467091332895</v>
+        <v>-0.1620241914965719</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>2.7576245099028482</v>
+        <v>0.6983438824943506</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>-0.42361585778915084</v>
+        <v>0.43123347502411424</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>0.11014576140452247</v>
+        <v>-1.5767219653864673</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.7125934325375427</v>
+        <v>-0.7941806673410258</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.029621515089945278</v>
+        <v>-0.3425380071426806</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3042149793641364</v>
+        <v>-1.3871811673787076</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>0.6449068969527716</v>
+        <v>1.0074962201624011</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>0.8349833439235428</v>
+        <v>-1.4381789177162503</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>0.545098098809575</v>
+        <v>-0.07508108645475327</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>-1.6844954518530406</v>
+        <v>1.1078516170151858</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>-0.0063246442942991865</v>
+        <v>-0.005596956956719063</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>-0.8455446048789178</v>
+        <v>1.4324945903500164</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.7301005153863614</v>
+        <v>-1.4024763123839672</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>-1.231434693967392</v>
+        <v>-0.8187717851281356</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>-1.271632413128631</v>
+        <v>3.1821163685099196</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>1.1031773244192808</v>
+        <v>0.8117176657333823</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>1.2983292735958278</v>
+        <v>-0.14795198923875294</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>0.18212499398488474</v>
+        <v>1.5439083159742657</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>0.18591380348769956</v>
+        <v>-1.2003177630463482</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.38609261682117185</v>
+        <v>-0.20578929058810744</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>1.0521116058496223</v>
+        <v>1.3789860131543938</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.8176011017636436</v>
+        <v>0.9398992482000884</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.5370453264605484</v>
+        <v>0.13212938004465943</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.08559287588231136</v>
+        <v>-2.6554938064899236</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.5846352576931062</v>
+        <v>0.5607789207907925</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>-0.23305871022711577</v>
+        <v>-0.11595229518618962</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>0.2673480617796457</v>
+        <v>-0.6222460221904064</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>-1.0705687862099649</v>
+        <v>-0.3577187135789346</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.14437066909392116</v>
+        <v>0.1392402802957578</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>-2.5556689269357404</v>
+        <v>1.796950437200526</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>0.6163959676718495</v>
+        <v>0.012793858382081701</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>1.1089263189214835</v>
+        <v>0.7969610362075378</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.5849194454897034</v>
+        <v>-0.37164857312431865</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>1.090741061724891</v>
+        <v>1.2970286731347829</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>2.464863378533431</v>
+        <v>0.04419243859947464</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.6595109015006286</v>
+        <v>-0.5396253819124192</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>0.05198218626693825</v>
+        <v>1.029536283121813</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>0.6063517323877228</v>
+        <v>-1.4914063510064046</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.05751537819100945</v>
+        <v>0.4418828352497795</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>0.032136741179947755</v>
+        <v>-1.7273117525997195</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>-1.720398263344671</v>
+        <v>0.31622733191569213</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.2058046612304175</v>
+        <v>0.23285584618252123</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>-2.5936101326183527</v>
+        <v>-1.1748562164796725</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>-1.0166078563296592</v>
+        <v>-1.335455242331512</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>0.21113747686483644</v>
+        <v>-0.0071533812219374444</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>0.7535102492758972</v>
+        <v>1.0802904125491861</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>-1.2780388384118746</v>
+        <v>-0.8796234706265864</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>1.0897980750953613</v>
+        <v>0.9974726726507891</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>0.3862088563624091</v>
+        <v>0.3411474186208329</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>1.5864148043941568</v>
+        <v>-0.22811864531920792</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-0.2777126862374779</v>
+        <v>-1.6608330355970709</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.7405480480610795</v>
+        <v>-0.3551797563516898</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>-0.7528348749886903</v>
+        <v>0.44579463969021527</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>-0.37421342711538685</v>
+        <v>0.7335675704243063</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>-0.7937490235867226</v>
+        <v>-1.116561824341559</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.10705668082408279</v>
+        <v>-0.32661646957542806</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>1.571478940292668</v>
+        <v>0.08054193932038471</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>0.355265832643864</v>
+        <v>-1.2752453420209107</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>0.5396163940714945</v>
+        <v>-0.29902627771253093</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>-1.794485213484002</v>
+        <v>-0.11345338462405248</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>1.8312010533207745</v>
+        <v>-0.43759689808491875</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.23880908908442072</v>
+        <v>2.703025148609016</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>1.0370659220166565</v>
+        <v>-0.7898305404651548</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>1.1210344827864813</v>
+        <v>-1.2953163766878455</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>0.7171201925496746</v>
+        <v>0.931377175782119</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.22915006755014702</v>
+        <v>0.15043288363676552</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>-1.0940596852733901</v>
+        <v>-0.05852390569848031</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>1.1948679366759536</v>
+        <v>0.08505160650634706</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.440171558653482</v>
+        <v>0.1742845742728605</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.49365176111844533</v>
+        <v>1.6027333158302735</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.09631401901083522</v>
+        <v>0.46806865116564256</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.17967640123907044</v>
+        <v>1.2571582812126056</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>1.5546165748537513</v>
+        <v>-0.3329963589985462</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.7310067464235801</v>
+        <v>-0.536680165182716</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.9953864027037295</v>
+        <v>0.8063181528604745</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>-0.04448364501715412</v>
+        <v>-0.6461849657922576</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>-0.692096157060909</v>
+        <v>0.5610460929900714</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>1.4417138088559116</v>
+        <v>-1.0174930416001866</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>0.661174386431584</v>
+        <v>1.4266111640929529</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>0.5130912688063839</v>
+        <v>0.021451802608485702</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-1.4767613567077407</v>
+        <v>-0.9980173999441891</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.7153508719252218</v>
+        <v>-0.3120696886049956</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>0.30653042829275373</v>
+        <v>0.9506956220632933</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>1.1605368538344452</v>
+        <v>0.16054954406831956</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>-0.38855524022868676</v>
+        <v>0.5717740608282309</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>2.3400911789589802</v>
+        <v>-0.3194075826020919</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>0.347565457393252</v>
+        <v>-0.9721778416980154</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>0.5070826399588231</v>
+        <v>-0.05741613738960179</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>0.8872319418081249</v>
+        <v>0.06782256771062235</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-2.19663228176277</v>
+        <v>-2.087494238148564</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>0.7205934016767165</v>
+        <v>0.4932456694836161</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>0.20273794239936715</v>
+        <v>-0.630426802046531</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>0.5894336273894463</v>
+        <v>0.3579731500444982</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>2.1090560404953824</v>
+        <v>0.5831238020319663</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>-1.043672811015478</v>
+        <v>0.553924410172298</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>0.1418378565617156</v>
+        <v>-0.33727366211922943</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.6481817455273398</v>
+        <v>0.7900646099706287</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>-1.119626346219775</v>
+        <v>-0.44287803498187667</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.056386158903332685</v>
+        <v>-0.8758443843293765</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>-0.11736663105569244</v>
+        <v>0.3515163529740586</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>0.5994915478820793</v>
+        <v>-1.410423718468058</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>0.19077390517814397</v>
+        <v>-0.263678981684615</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>0.376925693322642</v>
+        <v>0.4143434771365556</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>0.27267143187057535</v>
+        <v>0.28444353497685276</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>0.5656161668168627</v>
+        <v>-0.2993342300948317</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>0.091242722210233</v>
+        <v>-1.0152001668401243</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>2.7502860403805274</v>
+        <v>-0.9033236067240382</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>-1.6644366495873124</v>
+        <v>0.10357421420507361</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.8563399888762646</v>
+        <v>-0.37571409262085737</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>1.781037840917344</v>
+        <v>0.5903921627350556</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.9588483434879407</v>
+        <v>-0.44708808703737185</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-0.17550599900867267</v>
+        <v>0.6534994546087542</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>0.5345142636746567</v>
+        <v>-0.6967073475471516</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>-2.204896316248508</v>
+        <v>1.2954833576051203</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-1.365793039845697</v>
+        <v>-1.2663880022495173</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.12075872822301906</v>
+        <v>-0.43527240455617716</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.8644682832920786</v>
+        <v>-0.42865230608261773</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>-0.1845782107724959</v>
+        <v>0.13340869108421058</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.9775792476282579</v>
+        <v>2.244673870263212</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>0.5126692995775296</v>
+        <v>-0.7303644240440814</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>1.9061190279860458</v>
+        <v>-0.2697527020089381</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.7749760415958623</v>
+        <v>0.3110875066355379</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>0.7606244887822559</v>
+        <v>-1.3169135297478753</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>0.5803925679238551</v>
+        <v>1.140281590645936</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>-0.08578837640422914</v>
+        <v>1.0682048099337706</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>0.23434535194259198</v>
+        <v>2.1867234002028715</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>1.2029319248056076</v>
+        <v>-0.9692000469589621</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>-0.06890869430952051</v>
+        <v>1.5704742453366707</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>0.17148508514536762</v>
+        <v>-2.048216563114551</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>-0.23349439877216063</v>
+        <v>1.1284048244782348</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-0.20418376104233027</v>
+        <v>0.027694626524855253</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>0.5912578460901377</v>
+        <v>-0.31737161017703597</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>1.3672487145741088</v>
+        <v>-0.8244561824005981</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>0.6880612179208839</v>
+        <v>-0.061349456766652266</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>1.11092691059696</v>
+        <v>0.7463288625470336</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>0.4790878178974712</v>
+        <v>0.7993716334427498</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.6796883642706251</v>
+        <v>0.6558512895492242</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.29574491980845447</v>
+        <v>-0.2005946310601182</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1.4914177196255458</v>
+        <v>1.4931949359981591</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>-1.1384835739588994</v>
+        <v>-0.5088106581384624</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.23005104660678205</v>
+        <v>-0.5317082078204926</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>2.2212837271820796</v>
+        <v>-0.3197539999918652</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>1.4080446936179067</v>
+        <v>-0.8909775490144427</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>-0.156297964127509</v>
+        <v>0.9395922590501933</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>0.02368826988599883</v>
+        <v>1.3995871805537787</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>-1.0970409716522926</v>
+        <v>-2.2407180864675156</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>0.8466940278369055</v>
+        <v>-0.2646616561112656</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>0.07867855658657616</v>
+        <v>-0.44380806185025673</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>0.21427393838546782</v>
+        <v>-0.4259575177426277</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>-0.3203345059625413</v>
+        <v>0.47064725970302795</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-0.058374686389503515</v>
+        <v>0.2005456768009298</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>1.8987450924873481</v>
+        <v>-0.2767769280315663</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>0.7322690472621325</v>
+        <v>-0.8490972709862958</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>1.3963655957634127</v>
+        <v>-0.6477406755270709</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.454865793721118</v>
+        <v>0.716793539724903</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>1.1975358979005502</v>
+        <v>0.8554287017330113</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>1.1036735966823616</v>
+        <v>-1.3300181477534727</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>-1.2491117837191315</v>
+        <v>-0.9488852519794426</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-0.6208114573552698</v>
+        <v>1.652066085117741</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>0.9479927616121705</v>
+        <v>0.4483605406384823</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>1.5841763450658914</v>
+        <v>2.3343099931447764</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>-1.0992876177487838</v>
+        <v>-0.3535794746625102</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>-2.3673118695434088E-4</v>
+        <v>-0.24152850124827638</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>0.5181900489285554</v>
+        <v>-0.5575031364386128</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>0.5170420811108498</v>
+        <v>0.4367279657531856</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>0.19224354503165728</v>
+        <v>-0.8189758018727942</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>0.9648526057516197</v>
+        <v>-1.3427113295772746</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.10696104797388782</v>
+        <v>0.4956577140470808</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-0.07558424521023246</v>
+        <v>-1.1089842274226718</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>1.6123702351716618</v>
+        <v>0.030023659899309624</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>-0.006367999431531193</v>
+        <v>-0.6912573312225618</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.9816980157102746</v>
+        <v>0.15751389764107857</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.17174342401026874</v>
+        <v>-0.3296092723778627</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>-0.039363695164096595</v>
+        <v>-0.3368076241561896</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>0.5651786377227066</v>
+        <v>-0.9145192513337216</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>0.5362779872142226</v>
+        <v>0.247150043948218</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>-0.17477522161717032</v>
+        <v>-1.5367981319498316</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-1.333959331358866</v>
+        <v>-0.7409136265090202</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>-1.2718367256236467</v>
+        <v>0.43322471579462085</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>0.7189928144502278</v>
+        <v>-0.01559038197562193</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>1.70685002538373</v>
+        <v>-0.1316640513537673</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>-0.43555729886859434</v>
+        <v>1.2303568211298308</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.3193815059567829</v>
+        <v>0.38879902439366903</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>-0.40860239322828545</v>
+        <v>0.23420669491182095</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>-0.34327383438201425</v>
+        <v>0.4235670004091628</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>0.279541888503445</v>
+        <v>1.0450745538625166</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.5275882420617142</v>
+        <v>-0.4964605396530655</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>0.4665266031327857</v>
+        <v>-1.005194995364145</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.5620723337489528</v>
+        <v>2.1234806626148535</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.576568394615702</v>
+        <v>-0.571060183116277</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>-1.3029921715099833</v>
+        <v>-0.9182992803283677</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>-0.15015854694753708</v>
+        <v>-0.6133536700904343</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>1.3591779140326192</v>
+        <v>-0.24332794372536662</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-1.0818120235821769</v>
+        <v>1.5091284642813783</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-1.7797025995476634</v>
+        <v>-1.9589501244152447</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>0.17702553910212857</v>
+        <v>-1.7159349426433084</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>-0.014831530546546784</v>
+        <v>0.15377926540664946</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>0.8186747498607478</v>
+        <v>-0.32673175219955114</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>-0.5186668871480482</v>
+        <v>-0.7421261459534214</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>-0.8024464694193816</v>
+        <v>-0.19531350016539187</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>2.14850312706546</v>
+        <v>-1.7936903587880706</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>-1.8662354666943408</v>
+        <v>-0.669594854309791</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>0.7297833305833882</v>
+        <v>-0.1226703794322382</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>-1.1673909918418455</v>
+        <v>-0.33986319333948284</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>0.6448168963891758</v>
+        <v>-0.9176520279620051</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>1.3511374848609983</v>
+        <v>0.9670337606728757</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>2.237734134198604</v>
+        <v>2.5781040151994303</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>1.1285356677542502</v>
+        <v>-0.2174806550171455</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>0.35119462637019777</v>
+        <v>-1.5195159392878437</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.08635910634630195</v>
+        <v>0.39367322483956496</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.7058190903672844</v>
+        <v>-0.6011671093954323</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>-0.26909193483535226</v>
+        <v>1.0104689522581123</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>-2.3292879964183433</v>
+        <v>-1.2219661108439228</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>0.6220528152700818</v>
+        <v>-0.2931129523389012</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>-0.03710807149935001</v>
+        <v>-0.12538848805788044</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-1.423032494573256</v>
+        <v>-0.10027043356585233</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>-0.32058731499971815</v>
+        <v>1.0649008092344008</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>1.0800252105670807</v>
+        <v>0.5207278293237869</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>0.6335119419120357</v>
+        <v>-3.098222088984694</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>-0.7395392705124301</v>
+        <v>0.6482596960520265</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>0.021446593033358417</v>
+        <v>-0.3553049093569458</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>-0.0989561958512542</v>
+        <v>-1.6795787346239779</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>-0.27828625528385537</v>
+        <v>0.3292419811002295</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>-1.2987718299733553</v>
+        <v>-1.2520176881192884</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>0.3785382035315664</v>
+        <v>-0.9563962721420276</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>-0.20227918801275493</v>
+        <v>-0.42710481847604537</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>-0.7914293667525345</v>
+        <v>-1.1407619268662599</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.6426270444008565</v>
+        <v>0.3114042224283748</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>0.797831424108485</v>
+        <v>0.01927377013955798</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.3082273918955902</v>
+        <v>0.2655705629599402</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-1.7903201856596584</v>
+        <v>-0.5889526152335668</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>1.3795501643229302</v>
+        <v>-0.26406381901488807</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>-0.6290660906673792</v>
+        <v>0.44514587440619136</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>-2.0275229690541314</v>
+        <v>0.5775781572683862</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>-1.243772643899993</v>
+        <v>0.004477482239952253</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>-0.15034323638493938</v>
+        <v>-0.5761384957676441</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>-0.7520623930938763</v>
+        <v>-1.5770331260701083</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>0.10598124578314809</v>
+        <v>-0.9082802196514079</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.2317615168440765</v>
+        <v>-0.3439035996547943</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>-0.7577239289006197</v>
+        <v>0.6303236868995319</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>-0.49980170840033744</v>
+        <v>1.0949962911986084</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.5437398881053044</v>
+        <v>0.6680367234421665</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>-0.17963736904142047</v>
+        <v>0.37914241227815193</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6853282917263074</v>
+        <v>-0.7487344232644447</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.077014645712955</v>
+        <v>1.4463868902273262</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8504613680952642</v>
+        <v>0.06745263462196122</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7788548840893024</v>
+        <v>-0.001970183251081687</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.2728904389079545</v>
+        <v>-0.5135191023693386</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5374645589151811</v>
+        <v>-1.1780206395197867</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9119345321046971</v>
+        <v>0.4277507838788065</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.3820866368709879</v>
+        <v>1.3724491483419152</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.12820538554072222</v>
+        <v>0.45432851970453464</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.5281402899411691</v>
+        <v>-0.4130592161849039</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.23847193504737849</v>
+        <v>-0.04686716559924471</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.04306031827041499</v>
+        <v>-0.7226920833500486</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.1534650242834426</v>
+        <v>-0.012756045471737514</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5487303664769261</v>
+        <v>-0.5546599099096398</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.44653866403631876</v>
+        <v>-0.08812885120054659</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0566246576121651</v>
+        <v>-0.23219446013001602</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.33057235857172734</v>
+        <v>-1.6640920262327226</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.1163476914941501</v>
+        <v>-0.44622010164964343</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0462248902376585</v>
+        <v>-1.373364550234627</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8230780973567434</v>
+        <v>0.05643547377066413</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.08859562476821667</v>
+        <v>1.5784206152250544</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.8106715781523215</v>
+        <v>-0.5509390817553697</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.41153431462663126</v>
+        <v>-0.9390528145633983</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.5961225670161694</v>
+        <v>0.9950551377618494</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3173943408781497</v>
+        <v>-0.2710632825686423</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13209973982101375</v>
+        <v>0.390437498880217</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6083800042870646</v>
+        <v>-0.5289333419953026</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.532888473954484</v>
+        <v>-0.6591758051798291</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.6366505303322352</v>
+        <v>1.911297805822983</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>3.0250828838912804</v>
+        <v>0.5187152866991394</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1.8394912345390275</v>
+        <v>1.93417129835276</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3893696358419211</v>
+        <v>1.7599150701604127</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-2.07366340807825</v>
+        <v>1.3570248047909157</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.16873464082244927</v>
+        <v>-0.8050458413319012</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.39088036577751856</v>
+        <v>0.5920807540454309</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.11614032475318699</v>
+        <v>1.6761662219590092</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.1379719361182614</v>
+        <v>-0.07162806743009563</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.29123280384806827</v>
+        <v>0.25933475699899067</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.607759840050862</v>
+        <v>1.4777657856302207</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.9804487515306253</v>
+        <v>-0.5787645505923023</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.9716554265944907</v>
+        <v>0.15365295964925488</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.022056757953228107</v>
+        <v>1.1945216487370296</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30141328961164354</v>
+        <v>0.6046120548091859</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3982495841595662</v>
+        <v>0.5009740350973063</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6817648354640545</v>
+        <v>-0.35081561181427756</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.551008955346233</v>
+        <v>0.4983482385196579</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8546453121045703</v>
+        <v>2.0257849816068116</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.43514869162831094</v>
+        <v>0.8872774423626335</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.13783145169955602</v>
+        <v>-0.7180374224848827</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11516942032921224</v>
+        <v>1.158603075012875</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1.5116092040077185</v>
+        <v>0.46142691194115193</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.19358130559770403</v>
+        <v>1.0963355673586133</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.9842529716172032</v>
+        <v>0.8656707869885985</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.20304942861303013</v>
+        <v>2.049395588195725</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.11599486821791542</v>
+        <v>-1.2193862709976824</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2678450039718024</v>
+        <v>-1.5491762252463652</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.7864404610927795</v>
+        <v>0.11785731901751116</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0010364769188830826</v>
+        <v>-0.442931583525244</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.472370646333783</v>
+        <v>-0.48924855051930993</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1.5653489779160503</v>
+        <v>-0.44253360154845156</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0787823258374334</v>
+        <v>1.3372681327353828</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.7612780782689648</v>
+        <v>-0.5779392841710458</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.0468262825382573</v>
+        <v>-1.4531708101642893</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.143218020092781</v>
+        <v>0.02795383892524448</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1277480555367915</v>
+        <v>0.9998117238207261</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3055215855935833</v>
+        <v>-0.5709012949406961</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3715122491544328</v>
+        <v>-1.1850103342697274</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.7979004564702378</v>
+        <v>0.5188880504744796</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.8172308879867938</v>
+        <v>-0.60736139726049</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1.5315502799837257</v>
+        <v>0.7135514488472117</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.238899194553492</v>
+        <v>0.6067580326408604</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1.2704516363911087</v>
+        <v>-0.29009666119813604</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.6312987329048614</v>
+        <v>1.1489996239985953</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1.5006469976834547</v>
+        <v>-1.5972175265121953</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.040527673964774566</v>
+        <v>1.866121392618396</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1.4812951294099135</v>
+        <v>0.05067215488529969</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.32966904897465726</v>
+        <v>0.38609273311609993</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2.1655579429376726</v>
+        <v>0.18899473663147218</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.397964318783086</v>
+        <v>-1.9014830584039766</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.4018644806549416</v>
+        <v>-1.0640940557460512</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.26721079048609725</v>
+        <v>-1.128745304968031</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.029552479057021755</v>
+        <v>-0.6881351931073797</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.5034060674140629</v>
+        <v>-1.9405260402490567</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.34630356476784185</v>
+        <v>0.9500168467472178</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.1808113956080477</v>
+        <v>0.8331960275402048</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9296394125784441</v>
+        <v>1.2443143584371061</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9921368331452137</v>
+        <v>-0.29308288253738857</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.8257124423058948</v>
+        <v>-0.7536431699183377</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.025433312058425077</v>
+        <v>-2.1222253050791045</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.16667307741880433</v>
+        <v>-0.6254948417288156</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1848676990045248</v>
+        <v>-0.4839915155933649</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.24274629729436886</v>
+        <v>0.35975306960022513</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1.031955718685882</v>
+        <v>-0.7329515073648339</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.43612812655171973</v>
+        <v>-1.3347723956689819</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.17282710771396315</v>
+        <v>0.8007496013394874</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.2076869721641823</v>
+        <v>0.8820824976986013</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.46216553339932015</v>
+        <v>0.7685763626822202</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.528716142944092</v>
+        <v>-0.5863447030943951</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>1.587251794535343</v>
+        <v>-1.437211656111784</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.9082796733044083</v>
+        <v>-1.16819172505572</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1.1671941006118933</v>
+        <v>0.5485760142553197</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.2813794936625358</v>
+        <v>-1.0674683637114593</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.653466902284165</v>
+        <v>-0.2481289030306801</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.059609547082929606</v>
+        <v>0.07405904503769725</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.0931987976895808</v>
+        <v>-1.2518283440965494</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.7012801105881574</v>
+        <v>-0.9920388076625539</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.3576298030079524</v>
+        <v>-0.08785271622806377</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6660169562265749</v>
+        <v>-1.327307667597972</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.5597842982330896</v>
+        <v>-0.6926977160366615</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1.3791962710296672</v>
+        <v>-0.8476802148096694</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.21990437579919128</v>
+        <v>-0.057275207922012204</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>1.7368419712898566</v>
+        <v>-1.6335677300521438</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1671927712183934</v>
+        <v>-1.3641333960436866</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>1.6513191936003744</v>
+        <v>-0.039935188638878426</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.0017708785496457</v>
+        <v>-1.489151701433039</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7804249779559831</v>
+        <v>1.0981048940456861</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.7575531194050762</v>
+        <v>0.2910425862917437</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9136271814294401</v>
+        <v>1.3158089850635315</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1.5318585785787584</v>
+        <v>-1.8967652396855563</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.2293857667779051</v>
+        <v>-0.10498490698161171</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.6851678321935302</v>
+        <v>-0.10201674507426774</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3589915323295079</v>
+        <v>-1.0155982977704594</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.21801598372161918</v>
+        <v>-1.6955477399273255</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.8673126066002554</v>
+        <v>1.1320680023190985</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.286743505061481</v>
+        <v>-0.24054517078123266</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.16290031774829974</v>
+        <v>-0.2697182099922463</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.1421893615136252</v>
+        <v>-0.7175870510996119</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.7420765636060436</v>
+        <v>1.61269524792081</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.08741915087542897</v>
+        <v>-1.5413101952505721</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.12555599885408605</v>
+        <v>-0.5388183014431926</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5033314538511163</v>
+        <v>-1.161150122603198</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.6061685319399628</v>
+        <v>-0.11652332980924204</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.5149778670489622</v>
+        <v>0.15237832890414982</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>1.4010966533789275</v>
+        <v>1.717829072939827</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>1.2670850504608948</v>
+        <v>2.625294329816513</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>1.100459931935534</v>
+        <v>0.8028086181466435</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.655784763100706</v>
+        <v>-0.8444705762679775</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.7276613584070557</v>
+        <v>0.29935207937009695</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.5503840205079846</v>
+        <v>-0.4530283317842659</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>1.3477031935139239</v>
+        <v>-1.0508012758833891</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.4175275157056575</v>
+        <v>0.5868620816660709</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5581599495617701</v>
+        <v>0.9151638163762759</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.36746890332280996</v>
+        <v>0.761823991646331</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.8247209691888224</v>
+        <v>0.22361109520025213</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.04216790934927815</v>
+        <v>-7.771075801149022E-4</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.7109611253272039</v>
+        <v>2.0310378937559035</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.2847734112156305</v>
+        <v>0.8652890663032193</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.08674615416998287</v>
+        <v>-0.7372920750904014</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.7101338963276804</v>
+        <v>-0.029883261980930373</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.2205406422228149</v>
+        <v>-0.5988414682308604</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.05698912860127087</v>
+        <v>0.47316748352695925</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>1.7135532548253112</v>
+        <v>0.6129514463508643</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8575496159771206</v>
+        <v>0.3666580400123739</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.21039278222792632</v>
+        <v>0.21187283726314088</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>1.2244009575261436</v>
+        <v>0.24113894680973708</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.4704144281497963</v>
+        <v>0.453842916024288</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1.4800925488914853</v>
+        <v>-1.5819752015488127</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8738692888072578</v>
+        <v>0.5575855627224359</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.5342828787319358</v>
+        <v>0.5187339762325168</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.18917585457733366</v>
+        <v>-0.7348750100354482</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.010580430075282702</v>
+        <v>-0.5380765210291758</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.72053392252673</v>
+        <v>-1.774014142345309</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.5342494498318847</v>
+        <v>0.7852971143147459</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>1.3638297324487534</v>
+        <v>-1.0211602533210618</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.853603962573325</v>
+        <v>-1.9604447523432704</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>1.6081396531812318</v>
+        <v>-1.7323906582732909</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>-2.1158288467546496</v>
+        <v>1.4523422702775277</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.7303681320693046</v>
+        <v>1.0464519770796334</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.0272591241976343</v>
+        <v>0.6784656631796178</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.44310716837352127</v>
+        <v>-0.1280418432274289</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.6407526130392927</v>
+        <v>-0.5157461621213312</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.13050831467160393</v>
+        <v>-0.40691617398433677</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.08997475021031644</v>
+        <v>-1.1857815699268621</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2778759841901962</v>
+        <v>-0.7400734655568819</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.022567154512962612</v>
+        <v>0.19088065274696456</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.10822990519875825</v>
+        <v>-1.4183168701550979</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.8309806754843075</v>
+        <v>0.2591619023224402</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.36800666152895584</v>
+        <v>0.877851611699507</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8829721810117362</v>
+        <v>0.4523697066438075</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.693074742038501</v>
+        <v>-1.5199756058436438</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.9508304758324134</v>
+        <v>-0.2012500058922533</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.7457766615554913</v>
+        <v>0.3077202794412642</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.8751329074756465</v>
+        <v>1.1710374798882657</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>1.4954480108758914</v>
+        <v>0.24906524159182844</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.5454995046361963</v>
+        <v>-1.6931122613149714</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.5848145673486933</v>
+        <v>-1.7776595373610424</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.5257241349802362</v>
+        <v>1.0498655806672395</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.5008672696087669</v>
+        <v>0.0035410821209337358</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.5323233903461806</v>
+        <v>-2.5634487192217046</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.8564547553790514</v>
+        <v>0.15462441520258152</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.09032754988582484</v>
+        <v>-0.5330606164179658</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.988246920090231</v>
+        <v>-1.3704481164018605</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1.1752289276613543</v>
+        <v>0.07339710703519393</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.1135329559348901</v>
+        <v>1.653962411722763</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.5852702247782623</v>
+        <v>-0.5501015761710684</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-2.029418556241806</v>
+        <v>0.14393295349947732</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>1.6012092048451514</v>
+        <v>-0.738893375338782</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.45671832778933036</v>
+        <v>0.4361347654965102</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.0840951185522456</v>
+        <v>-0.6309201319526488</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.362800136424704</v>
+        <v>-0.3367349338795611</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9435791772471189</v>
+        <v>0.07952785067489533</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.14768070940947248</v>
+        <v>0.38938786527070873</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5903724565332324</v>
+        <v>-0.3427670880416127</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>1.2015423214057752</v>
+        <v>-0.12512123691379062</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6240952833791543</v>
+        <v>-0.7621341573807243</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>0.7679011618061631</v>
+        <v>-0.7939305232765768</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>1.14423224485459</v>
+        <v>-0.3637257185174721</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>1.3494025860976449</v>
+        <v>-0.12867110410446542</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.5416734771264978</v>
+        <v>-0.017640640388875858</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.44299375572592975</v>
+        <v>0.24085678261242388</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.9251569929615218</v>
+        <v>-1.5808008372480846</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.22941562792252812</v>
+        <v>-2.4886979307174313</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.3223539903906499</v>
+        <v>-0.5052206660706957</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.8780180948128644</v>
+        <v>1.3417817581512574</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>0.33153615382701396</v>
+        <v>1.913328970009217</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>1.3979879688178056</v>
+        <v>1.5792528574245968</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>1.2762167133654645</v>
+        <v>0.9043200673710756</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5567013668951293</v>
+        <v>-2.9032247535671014</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>0.18827599714433696</v>
+        <v>1.2195113692933521</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.9875382861984032</v>
+        <v>-0.46385491247400995</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.23430170679631365</v>
+        <v>0.6901590875708831</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>0.11819331126563298</v>
+        <v>0.5457587247719289</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.5127660742389293</v>
+        <v>-0.2866340855194508</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>0.9387617118480397</v>
+        <v>-0.8075402740594124</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>0.16850554659174413</v>
+        <v>-0.4169242528632555</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.03434441533174356</v>
+        <v>0.5541873671803164</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.610199266424492</v>
+        <v>1.742913497226409</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>0.3179729110893604</v>
+        <v>-1.4870436133200189</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>1.7591179092309985</v>
+        <v>-0.5967453836642302</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.17099585189400215</v>
+        <v>1.69008039309623</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.42904436107318195</v>
+        <v>0.3986167028042318</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>1.6881896735508926</v>
+        <v>-0.19124475926473852</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.1019488060849898</v>
+        <v>0.1806463499929669</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.9883419867981358</v>
+        <v>-0.702486897584055</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.9375407048905866</v>
+        <v>0.8527830456178168</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>0.6964303395739829</v>
+        <v>2.0622589528659145</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>-1.6633670819276587</v>
+        <v>-0.8498298327528832</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.9606982538494557</v>
+        <v>1.375590758023446</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.6353422238599868</v>
+        <v>0.747947120004143</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.42428676940172677</v>
+        <v>0.15155545018165012</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>0.19973400724336907</v>
+        <v>0.8247268546636105</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-2.0186940488873115</v>
+        <v>-1.335176768062997</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.9463935381673877</v>
+        <v>0.31891372686594754</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>0.9856400657855067</v>
+        <v>2.349454245644754</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.32553536961518403</v>
+        <v>-0.6339407880840359</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.9018110939549644</v>
+        <v>-0.21178781559234464</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.3884218490709488</v>
+        <v>0.7899966688666848</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.7819329210685948</v>
+        <v>0.6602772424955197</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.4448546062590121</v>
+        <v>0.13414616889949732</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8838052228640538</v>
+        <v>0.40100385853180376</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4272187090435858</v>
+        <v>-0.24716098885103055</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>0.2067783433439155</v>
+        <v>-0.42555989013634704</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.148667064474944</v>
+        <v>0.034328025726800646</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>0.9325150838123231</v>
+        <v>-0.48687734665705973</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.1478289758830516</v>
+        <v>-0.4911149597437648</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.1174299383119541</v>
+        <v>-1.1732135474486134</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>0.42776360313679385</v>
+        <v>0.23632321063112646</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.2820362251298517</v>
+        <v>-0.4384606518716051</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.0694805360973828</v>
+        <v>-0.8203858063573616</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>1.2270529801306664</v>
+        <v>-0.20112086530558343</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.3294447263352558</v>
+        <v>-1.1001723124554212</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-1.5982324445676008</v>
+        <v>0.706534757282258</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>1.963918647462526</v>
+        <v>1.4576186070103752</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.37976414321926</v>
+        <v>1.482488159889159</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>1.7222558692484118</v>
+        <v>1.1675768591779154</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>0.39829488352798725</v>
+        <v>-1.545615346967054</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.8448661637879643</v>
+        <v>1.5691491155106083</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.8355704121633416</v>
+        <v>-0.040643926989559404</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>0.689723198938029</v>
+        <v>-1.2678222398664656</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>1.5346442297964178</v>
+        <v>0.5271102930274054</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>-1.0089811674812423</v>
+        <v>1.2023662209117687</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.19170418925437846</v>
+        <v>1.074858671235953</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.6089290878873861</v>
+        <v>0.19330225568079096</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.8838911729736684</v>
+        <v>-0.5619024397497868</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>0.5731067266440466</v>
+        <v>0.4470534576734233</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.16627761158277218</v>
+        <v>1.1825059882882325</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.35697581855530686</v>
+        <v>0.7817027091515594</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.0733069693699573</v>
+        <v>-0.9523658760059398</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>1.970397322806908</v>
+        <v>-2.0615113657820356</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.6119725981480293</v>
+        <v>-1.0501082775927386</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.4012834888014507</v>
+        <v>1.590267650108285</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.4787039587916949</v>
+        <v>-0.9673439999634635</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.042874780392806</v>
+        <v>1.4963562983941887</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>0.9284280769225244</v>
+        <v>-0.4653040701703328</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.29039595055179307</v>
+        <v>1.5007373616746305</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.257193754157362</v>
+        <v>0.8719805550153821</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1.138529881867266</v>
+        <v>-1.1183158886200273</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>1.83199523984294</v>
+        <v>2.0959026191236623</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.30901677787060194</v>
+        <v>-0.5906649984327673</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>0.7091921777468129</v>
+        <v>1.8925463582256004</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>0.5325146674073493</v>
+        <v>0.7243349769822555</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.15662897166121945</v>
+        <v>-0.42445818095906873</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.20282652928038672</v>
+        <v>-0.9625664092142402</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.9587658999747456</v>
+        <v>-0.0606638551764037</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>1.1225414881557298</v>
+        <v>-0.6273388917223759</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.2067735269145269</v>
+        <v>-0.4392443812786566</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>1.4609888483889935</v>
+        <v>-1.515727194324193</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>1.2142766505630531</v>
+        <v>-0.48073710636041717</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.8306151934921373</v>
+        <v>-0.7347859530729539</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.4619385085497222</v>
+        <v>-0.1176766388094464</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>1.1941704231769827</v>
+        <v>0.9382675450178604</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-2.617100156483074</v>
+        <v>0.5755290642921659</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.17133838413332655</v>
+        <v>0.357601188325144</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.2930907169139458</v>
+        <v>2.676882827988386</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>1.1459275298144604</v>
+        <v>1.735580207230876</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>0.14174947506943816</v>
+        <v>2.0854692394302057</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.9814088296186267</v>
+        <v>-1.452701148585177</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.47382763225266766</v>
+        <v>-1.6074319796105383</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>0.9387295039832676</v>
+        <v>-1.3336149111299533</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.1089536657893364</v>
+        <v>0.14547263054193316</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.6634040540076007</v>
+        <v>0.7602234151060336</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>0.15739498550012224</v>
+        <v>-0.8702318323843089</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.7658607418316614</v>
+        <v>0.49797207123984805</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.23603808644779267</v>
+        <v>-0.1739470792121998</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>1.6757812291607175</v>
+        <v>-0.4323154448083558</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>0.49477792477525845</v>
+        <v>-0.18378847865828804</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>0.4887095769760009</v>
+        <v>1.572532393137321</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>0.757916690092089</v>
+        <v>-0.11510009968164865</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>0.21499369457318937</v>
+        <v>1.4169916619485294</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>0.04741452269776783</v>
+        <v>0.519059671544016</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>0.23842845599888196</v>
+        <v>-1.6705965733204555</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.3803410208174343</v>
+        <v>0.2082011109722074</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>1.3423635291198799</v>
+        <v>-0.05141624659528182</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.2637026951773344</v>
+        <v>-0.8230814607138536</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>0.7675241339740777</v>
+        <v>-0.14058020729013207</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.05275156940684146</v>
+        <v>0.6510085536552924</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>1.3105833170844274</v>
+        <v>0.04954751163887592</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.7587905919970843</v>
+        <v>-0.5531963963815263</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.015124642135515237</v>
+        <v>0.26600174550886957</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>0.7471327112865397</v>
+        <v>1.621927125547535</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>1.0549496318337328</v>
+        <v>1.2254999539724254</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>0.9526984647955877</v>
+        <v>0.6679258074365699</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>0.9906051017765345</v>
+        <v>1.8206657765900567</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.2245976147983186</v>
+        <v>-0.8747144167185561</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>0.16260093980889953</v>
+        <v>-0.41656666668139564</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-1.7585115365726305</v>
+        <v>-0.2415636397892784</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>0.5184370261482858</v>
+        <v>1.0115129443974562</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>1.4322536258930794</v>
+        <v>0.11916359480232916</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.3902797598321512</v>
+        <v>-0.6509311415340808</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>0.016537944028806435</v>
+        <v>1.4158510652617953</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>0.4264810234398404</v>
+        <v>-1.7189044670729527</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.31789511725106134</v>
+        <v>0.4803941435433279</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.3301938720381446</v>
+        <v>-1.8855820503682865</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>-1.1644572228862113</v>
+        <v>0.31497195771622855</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-1.2553396875852596</v>
+        <v>-0.3690185176038519</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>0.486338073296085</v>
+        <v>1.5012553856885478</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>0.32162871275362526</v>
+        <v>-1.5755857744492194</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>0.03584845871240609</v>
+        <v>-1.3752418363720307</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>-2.2383344625707036</v>
+        <v>-1.7325074850292375</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>0.7707217656534384</v>
+        <v>2.9747099062009026</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.9418535828064248</v>
+        <v>0.6771933840210574</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.9133008247409857</v>
+        <v>-0.22608925596996485</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.6198037568520257</v>
+        <v>0.19424082167228612</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>-1.2029029314791126</v>
+        <v>2.024404714831178</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>0.14842005391392202</v>
+        <v>0.8020459920946146</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.33169318308417706</v>
+        <v>-0.7466730748283045</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.13215012024700643</v>
+        <v>1.3036530258733805</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.7539841977067444</v>
+        <v>-0.36405723287911484</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.6066268312031661</v>
+        <v>0.7818502922043322</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.11825265092065412</v>
+        <v>-0.7218863722813985</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.120885734691207</v>
+        <v>-0.2654806549162422</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.24981550776591882</v>
+        <v>0.19100866387804952</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.843367996430231</v>
+        <v>-0.70843685461416</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.4739255041606063</v>
+        <v>0.214669971831923</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.3656676445243658</v>
+        <v>-1.2268460208993053</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>-1.1314832523716063</v>
+        <v>0.5231891244127254</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>0.5382150362422399</v>
+        <v>-0.1937468382888943</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>0.717951875442232</v>
+        <v>-0.15765768720671486</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>0.009930627670273447</v>
+        <v>-0.9736392224623966</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.1734090853053893</v>
+        <v>1.6842836332527673</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.5896826725102262</v>
+        <v>-0.6808875593862543</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3158812904898595</v>
+        <v>-2.151538895711587</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.3476856673118316</v>
+        <v>-0.27030389608474287</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.37686078659442346</v>
+        <v>-1.3249235715663077</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>1.5082323686020958</v>
+        <v>-0.23008910465715526</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>0.6751162355118617</v>
+        <v>-0.3078416138008455</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.9885247524775862</v>
+        <v>0.7787166138511521</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.2555397941908881</v>
+        <v>0.5552245332517943</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>0.2923981248438047</v>
+        <v>1.3847745389685233</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>1.051752671888169</v>
+        <v>-0.5888931001040801</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.9508921373389475</v>
+        <v>-0.806927038995519</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.0012604957790044793</v>
+        <v>-0.007707420692091466</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.32290786350775774</v>
+        <v>0.2317737338196855</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.7021766009709378</v>
+        <v>-0.2784540524950783</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>-1.053000733881911</v>
+        <v>0.4290189742544952</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>0.990946886407824</v>
+        <v>-0.6312366464904828</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.5537242499517788</v>
+        <v>0.5308557771309447</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>0.13076990910772965</v>
+        <v>-0.3909919977764486</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>0.8816790292811226</v>
+        <v>-0.46363483454058896</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.742815757153737</v>
+        <v>0.05631059385446566</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-1.2421588128088692</v>
+        <v>-0.7492076471317181</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.8078311441487909</v>
+        <v>-0.06335355263165796</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>-1.6105699349491207</v>
+        <v>-2.081942734494522</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>0.2952488796680224</v>
+        <v>-1.422247714793596</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.7669890764195052</v>
+        <v>-2.0780682315506387</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>0.5131099350439962</v>
+        <v>-0.6126579662349969</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.5925579456201386</v>
+        <v>-1.0550002642719774</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>1.8075167308876574</v>
+        <v>0.5518392297839142</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.41049960500125865</v>
+        <v>-1.0945842811008257</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>1.0909535508045198</v>
+        <v>0.01948747464122165</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.8104184114616924</v>
+        <v>-1.0642898560954024</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.7995488275333114</v>
+        <v>0.31879210318571016</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.5240409880936362</v>
+        <v>-1.2260100155304423</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.18510585240580685</v>
+        <v>-1.5465297507951223</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>0.8173745986921098</v>
+        <v>-0.2588567465045174</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>0.168021776444923</v>
+        <v>-1.3753738189365396</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>1.8618914737049579</v>
+        <v>0.623010823876621</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>0.14866312193961456</v>
+        <v>-1.0398023348466952</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>1.194120630063877</v>
+        <v>1.0622614249328162</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9594781565570372</v>
+        <v>1.1075038020829302</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.03106383542340493</v>
+        <v>0.03274285412994564</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>0.9834222127430623</v>
+        <v>0.9059029181862062</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.6234631867728129</v>
+        <v>1.1766379696191167</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>1.2654612866485924</v>
+        <v>0.2505901229496172</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.6273137063804681</v>
+        <v>1.489013830397946</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>0.7215118384212607</v>
+        <v>0.6624169285592187</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>0.16644198250447384</v>
+        <v>0.738515877466227</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>-1.63244276213138</v>
+        <v>-0.8175013521251739</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>0.7326076113603781</v>
+        <v>0.1990392192220072</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>1.1201521231990372</v>
+        <v>1.5384806563771096</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>0.8901945096751726</v>
+        <v>-0.09724500308390165</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>0.3533292989936529</v>
+        <v>0.2794211547880047</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>1.0810075312390848</v>
+        <v>0.6619105161361605</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>-1.3451823126409606</v>
+        <v>-0.6920098072610205</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>2.050452135714507</v>
+        <v>1.1288122253540203</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>-2.2536906094965716</v>
+        <v>0.14146527681291812</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.00609085002233925</v>
+        <v>-0.8660084585823684</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>1.9539413256102272</v>
+        <v>1.0456225997796973</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.7581589446983957</v>
+        <v>-1.063276941169276</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>0.7828378884044993</v>
+        <v>0.11540339808744399</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.36577766137220513</v>
+        <v>-0.611677009241279</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.29004031087492504</v>
+        <v>-0.10371280250979772</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>2.2056868303422656</v>
+        <v>-0.4304647233425692</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>-1.8533167287287085</v>
+        <v>0.2873584577598259</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.26830383007806363</v>
+        <v>-1.7351061828291003</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>1.1124466372268078</v>
+        <v>2.0215723685108666</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>0.5553900196299651</v>
+        <v>0.5919268075138452</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>-1.1802914155571071</v>
+        <v>-0.04310559555605707</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>-1.0265691045047112</v>
+        <v>0.6899297437711535</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-1.6365439705470275</v>
+        <v>0.12292278080978557</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>0.4944681785876184</v>
+        <v>0.35249249185743703</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>0.09949235677211175</v>
+        <v>0.5753821178370103</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>0.8990695335031467</v>
+        <v>-0.7384752757884467</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.19946697307379377</v>
+        <v>0.5266701516013548</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.6694705060540664</v>
+        <v>1.1989440366462407</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.23579765181750292</v>
+        <v>-0.5359580344196234</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.775018090099684</v>
+        <v>-0.5282601471824405</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.49646116299039234</v>
+        <v>0.38643032801659266</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.17996242004171012</v>
+        <v>-0.31371940130890025</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>-2.0127670133024713</v>
+        <v>-0.5374172953984339</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>1.0599055081454514</v>
+        <v>0.2750377866282933</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.5176361899179948</v>
+        <v>0.07193256004328126</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.6581907303669057</v>
+        <v>-0.28321404700910824</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.45291118166208566</v>
+        <v>-0.11202313667797394</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>1.696977007514862</v>
+        <v>0.3847835344472836</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>1.6462143429896043</v>
+        <v>-0.5112486869401717</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>0.7157050795782781</v>
+        <v>-0.03859769303538117</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.20880116171509908</v>
+        <v>0.6408843285182733</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.3463659996438155</v>
+        <v>0.11684671539035181</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>0.340410784741362</v>
+        <v>1.4269718547890187</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>1.101206572423009</v>
+        <v>-0.12475077481322243</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>1.3645735620284887</v>
+        <v>-1.0482724605540128</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>-3.4250088674048658</v>
+        <v>1.8146679539661323</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.8574906083923028</v>
+        <v>-0.5376067702542158</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>0.05515244510893151</v>
+        <v>1.1550867142177597</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-1.141141201066452</v>
+        <v>0.20421412177978107</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>-1.4580230417476672</v>
+        <v>-1.1878606633473565</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.04592067481186379</v>
+        <v>0.059239260770914494</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.7832332238910725</v>
+        <v>-0.7407015964359801</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.759298259931641</v>
+        <v>-0.7339474247077431</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>0.3703559752161206</v>
+        <v>0.001727808556077235</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>0.35459428169897095</v>
+        <v>-1.9187428582924009</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>-1.806628284916088</v>
+        <v>0.48169564627873074</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>0.9472187763318536</v>
+        <v>-0.38005366120589024</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>-1.406886594842366</v>
+        <v>-0.05447242548203807</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>0.5735720764663036</v>
+        <v>0.3287352390743291</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>1.4581869915005135</v>
+        <v>0.5694479664140394</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.06569319808081253</v>
+        <v>0.10068357392216813</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.5816548051336548</v>
+        <v>2.203540770424944</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-1.6023081951083684</v>
+        <v>-0.767866071586357</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.5752313642914575</v>
+        <v>0.8817033837748015</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>1.1463374737310645</v>
+        <v>0.5749866606041143</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>0.597800945620125</v>
+        <v>-0.5638180408348548</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>1.2075256273903878</v>
+        <v>-0.3072653588961193</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.153734899088294</v>
+        <v>-1.5117543557764725</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.7182227836229865</v>
+        <v>-1.189873896307582</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>0.09138452341645258</v>
+        <v>0.3929864090985624</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>1.8783709352087388</v>
+        <v>0.40815640416295745</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-1.6067965071409482</v>
+        <v>-1.2093174149010026</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.5117841463674102</v>
+        <v>-0.25458449729410826</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>1.7005450209989366</v>
+        <v>-0.7622892794215953</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.6500253612622008</v>
+        <v>2.3268304807891718</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>-1.1880169265845193</v>
+        <v>0.8404396333936667</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.3442807573306486</v>
+        <v>-0.11748319345926748</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>-1.2988146542107495</v>
+        <v>-0.4930741179752351</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>0.4712640476830086</v>
+        <v>2.13905119267304</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>0.6590662723028776</v>
+        <v>-0.8659224022206634</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-1.2165158429927472</v>
+        <v>-0.08952163666936987</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.5981553325421949</v>
+        <v>-1.1686341715970643</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>1.7911468159408475</v>
+        <v>0.4459017727737936</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.5024208313976728</v>
+        <v>-0.5480385898901179</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.21883178254233301</v>
+        <v>0.7242629306198158</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>0.9157740497908089</v>
+        <v>-1.2651598071807866</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.3585607922181404</v>
+        <v>0.7938029970874935</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.2863508854222513</v>
+        <v>0.25649454527475585</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.011183972912013245</v>
+        <v>0.31981353006618596</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>1.20604459096187</v>
+        <v>0.2790296046836913</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.15880216525058125</v>
+        <v>1.378331726715044</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.46437994147352984</v>
+        <v>-0.3092639017243949</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>0.5172456411021237</v>
+        <v>-0.6847016276065746</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>2.0806734829774785</v>
+        <v>-0.20990929985380977</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.24514603177336114</v>
+        <v>-0.017748251583079216</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>0.4613158114226718</v>
+        <v>-0.5616856965409616</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>0.5893734391770784</v>
+        <v>-0.8941868274857894</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.5923105809673986</v>
+        <v>-1.3185902766165747</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.4597081870911315</v>
+        <v>0.18862554931773318</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>-1.0109924123644165</v>
+        <v>-0.6258796488635839</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.268559829187112</v>
+        <v>0.35648732059418625</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.5310885954197717</v>
+        <v>-0.751647305673094</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.6017836019847322</v>
+        <v>-2.3954089172831656</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.16801754866012109</v>
+        <v>0.5845847460564029</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>-1.101188818384189</v>
+        <v>0.5249857436721891</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>0.923599280436425</v>
+        <v>-0.4964513204384452</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9965904500258108</v>
+        <v>-0.7511220298659633</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>2.429892143100235</v>
+        <v>0.7606451685170494</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.8083292244750628</v>
+        <v>-1.550289058119115</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.4173020223169208</v>
+        <v>-0.4611009530120471</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>1.9062911425436735</v>
+        <v>-0.16495757499569494</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>0.3246963230900927</v>
+        <v>-0.6363100233644335</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>0.2582511621046328</v>
+        <v>0.3053516363894047</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>1.0909237425358322</v>
+        <v>0.8804096848146803</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.23006802401563606</v>
+        <v>0.7585927897825895</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>0.6180670553266644</v>
+        <v>-0.20224630510238348</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>1.8674215246366612</v>
+        <v>-1.00598335970281</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>1.1627341143235124</v>
+        <v>-1.721710875741363</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>3.330084904995686</v>
+        <v>-0.6911643275392263</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>-1.1482494416579958</v>
+        <v>-0.6915826472578129</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>0.6090938366325797</v>
+        <v>-1.8210219818483666</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.42831453247272616</v>
+        <v>1.8368242312461518</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.29865563519990146</v>
+        <v>-0.9644870999197294</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.002153691582815</v>
+        <v>-0.49781373228372083</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>1.8037794467716537</v>
+        <v>0.43252058934888227</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.43531511277997686</v>
+        <v>-1.6024466326974718</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>0.8149736452002266</v>
+        <v>-0.9532536854092823</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.5342471622845103</v>
+        <v>-0.1609862377700292</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>-1.6659692894594065</v>
+        <v>1.813604739454989</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.8406035103949455</v>
+        <v>-2.460526208206587</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>0.1328680669445467</v>
+        <v>-0.6513470059366413</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>0.5503616057342589</v>
+        <v>0.4271757872630315</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.26995826470938855</v>
+        <v>0.21708994056195152</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>0.9112705483591841</v>
+        <v>-0.22337467167110883</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>-1.3128612966717836</v>
+        <v>0.6993770869631885</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.1708140291200145</v>
+        <v>0.2018476961161675</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.5065097596067191</v>
+        <v>1.309318483209738</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>0.79434514661804</v>
+        <v>-1.0057492956646514</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>0.839500293028667</v>
+        <v>1.1142061862096058</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.2693678503834208</v>
+        <v>1.2021882305728973</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>0.4083445687107848</v>
+        <v>0.7698504656323357</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.3178996116835601</v>
+        <v>-0.8952405402552642</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>-0.2176462432519713</v>
+        <v>-1.6290315276416107</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>0.3409609490979359</v>
+        <v>-0.1090554946363561</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>-1.3043772827937163</v>
+        <v>0.4232567630589869</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.2878932527363571</v>
+        <v>-0.677119746684596</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>0.053022084109739194</v>
+        <v>1.6864378549769767</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.7180781760567762</v>
+        <v>0.06392699319605787</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>2.2953150976235195</v>
+        <v>0.25224805364518893</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>0.5037965738028433</v>
+        <v>0.1249800254062892</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.3383019988112451</v>
+        <v>0.38104006721975225</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.24355848629730617</v>
+        <v>-1.329234558544976</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>-2.7645511845780244</v>
+        <v>-0.16520389865158056</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>0.6853478920003948</v>
+        <v>-1.0484384355059027</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.07957344130457873</v>
+        <v>2.0162176182476097</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.6647047703229363</v>
+        <v>0.67930157333415</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.1614257879177744</v>
+        <v>0.6353574335988624</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.5347252337980598</v>
+        <v>0.05343784307973919</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.3580123099112916</v>
+        <v>-0.9031172316299977</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>1.5519850070858747</v>
+        <v>-0.9054106120505349</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>2.4381450601664603</v>
+        <v>0.043874758819690336</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>-1.1139076110290207</v>
+        <v>0.6902376443938709</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.5198823582080909</v>
+        <v>0.7305193049042183</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.1079314742728728</v>
+        <v>-0.6478348853949986</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.4903413536941728</v>
+        <v>0.8078772327347109</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>1.1342913356739635</v>
+        <v>0.6136692373430471</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.9203085669738197</v>
+        <v>0.28264136911414417</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.6132925811275237</v>
+        <v>-0.050551949047502466</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>-0.766761625739839</v>
+        <v>0.48557505155501796</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.2561471204514973</v>
+        <v>1.2811373068571819</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.2591121915147753</v>
+        <v>0.7871795140404558</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>0.5190998368795066</v>
+        <v>-0.8843381935849862</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>0.36823020062649786</v>
+        <v>-0.5378055253196369</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>0.6522906835336529</v>
+        <v>1.4310092596078603</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>0.9226247640937552</v>
+        <v>0.16658929053669985</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>0.11640214627753867</v>
+        <v>0.16727236900288991</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>-1.9944216969832456</v>
+        <v>1.302333096539805</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.19251277461352945</v>
+        <v>1.6765186575764899</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.2631942986963599</v>
+        <v>0.4176904009722541</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>-1.6360802775532235</v>
+        <v>1.0208132340257423</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.0010236938978766003</v>
+        <v>0.586381590994681</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>0.4111023497578676</v>
+        <v>0.0549063791091957</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>0.30486668117971044</v>
+        <v>1.5490060453238137</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>0.8785234080920789</v>
+        <v>-0.4044810908468143</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>0.15106162587506933</v>
+        <v>1.8176144080316863</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>1.7463529532661102</v>
+        <v>0.25666992464358285</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>0.606100114297995</v>
+        <v>-0.42482703874055916</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.6467152995309726</v>
+        <v>0.817993382457065</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>-1.3003121360545997</v>
+        <v>0.4207728584125612</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>-0.5028249802492493</v>
+        <v>1.6249434096452315</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>0.45765428804437275</v>
+        <v>-1.2334615983408779</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>0.29113840656867396</v>
+        <v>-0.4914853409410038</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>0.24418746758608081</v>
+        <v>-0.7987657359535433</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>0.36392032601547464</v>
+        <v>-1.1268117768853152</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>0.42099952933145995</v>
+        <v>-0.510344272116108</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>-1.860641737890176</v>
+        <v>-2.1182116782696263</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>0.3018020515677196</v>
+        <v>-0.6674250528467298</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>0.8433936988747862</v>
+        <v>1.723694257122138</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>0.7600638249295832</v>
+        <v>0.8469177730028534</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>0.6568591819622884</v>
+        <v>0.7279044477401789</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>0.7625228051167459</v>
+        <v>-1.3984584531980981</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.3280169266502639</v>
+        <v>-0.08918525151350734</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.9539955237277015</v>
+        <v>0.431541816289692</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.557910006715746</v>
+        <v>-2.2646317589697222</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>1.7837539813673946</v>
+        <v>0.376851457634205</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>1.1900861447558917</v>
+        <v>-1.8573605820150996</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-1.9532974252628135</v>
+        <v>-0.9612851031705687</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.5673944467098502</v>
+        <v>-1.0179557495784155</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>0.7547106259665836</v>
+        <v>0.3067601478528485</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>1.4604717594575891</v>
+        <v>-1.691885292853108</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.6709208037877328</v>
+        <v>0.6433535809933917</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.04013253173320157</v>
+        <v>0.3828904926304337</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>-1.361328348766467</v>
+        <v>0.3090472546162137</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.7722841995049798</v>
+        <v>0.6815880015397612</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>-1.1682676511808594</v>
+        <v>0.7364286524744361</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-1.7542922251344035</v>
+        <v>-0.1554621199006572</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.4415748626110731</v>
+        <v>1.7494916772511908</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>0.6750501632007319</v>
+        <v>-0.5422100994759912</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.016199840166673213</v>
+        <v>2.4459149807001093</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.35224317294727514</v>
+        <v>-0.9594328543741968</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>0.5759744970154786</v>
+        <v>0.8183570914703004</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>1.145240286359108</v>
+        <v>-0.2612406824178157</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>-1.1239463713628495</v>
+        <v>-0.2602382524740488</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.11929523642091697</v>
+        <v>-1.5548055188744196</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.19637024099261158</v>
+        <v>-1.7729773502826576</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>2.1292216489065696</v>
+        <v>1.1989088171847886</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.059713633459500925</v>
+        <v>0.9412084056881752</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>0.28328717262842096</v>
+        <v>-0.14418749171091197</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>-2.1902394453001532</v>
+        <v>-0.005301258831228306</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>0.3966812183890432</v>
+        <v>-0.7060092993511283</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.7459828432648049</v>
+        <v>0.029476896841037097</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-2.0286502326748193</v>
+        <v>-0.9210101696250584</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>1.2533719094869271</v>
+        <v>-0.08918308895214021</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>-1.0517540879605645</v>
+        <v>-1.9924370530866824</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>0.8130448656764622</v>
+        <v>-1.2322309375562157</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>1.3554551947968088</v>
+        <v>0.5831202567648811</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>1.1131321036611306</v>
+        <v>0.39587909061575655</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.8891211539067627</v>
+        <v>-0.30922055480468025</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>0.21822999717348415</v>
+        <v>-0.3601914006005979</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>0.4548528079102437</v>
+        <v>-0.7956408916195095</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.9032568646405914</v>
+        <v>-0.5320048054618275</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.3797932664068203</v>
+        <v>0.3915716259662246</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.7872253267071316</v>
+        <v>1.2382766411159334</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.6725347308137934</v>
+        <v>-0.13852506827634442</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>2.6540019069605574</v>
+        <v>-0.43035077345514994</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1320708822862079</v>
+        <v>0.6635664624929283</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.3843992950554619</v>
+        <v>-0.640606977004789</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.10198798903071354</v>
+        <v>0.04726494253156173</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>0.150255427253406</v>
+        <v>-0.8971456151583131</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>-1.5875279432186387</v>
+        <v>0.17499743161832046</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>0.24851275733778372</v>
+        <v>0.6791416421533455</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.44097222984464485</v>
+        <v>0.0705859004203658</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>1.6222744316819468</v>
+        <v>-0.13349521324363745</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>1.1606834251077822</v>
+        <v>0.7997279962518012</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.3836640740321703</v>
+        <v>0.6124181405865932</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>0.901500558607269</v>
+        <v>0.14357650034095573</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.5583487974817896</v>
+        <v>-0.5864113310144453</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-1.4993251301028419</v>
+        <v>-1.0444914869088893</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.3315152539217161</v>
+        <v>-2.2730283090227665</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.19355902299997516</v>
+        <v>1.1239928252630058</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.6489541366047238</v>
+        <v>0.9321507786625781</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>1.553755588576341</v>
+        <v>-0.9240106922601838</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>0.5651522867105496</v>
+        <v>0.00835235923619337</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.3066356869942092</v>
+        <v>-1.3492510289050306</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-1.3126840474669375</v>
+        <v>-0.9441095254661241</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>1.6760965670906394</v>
+        <v>-0.8142785294276843</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.34734258447910515</v>
+        <v>-0.5777697501356639</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.18249146957229265</v>
+        <v>-0.11148525480524843</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>-0.10315224112182994</v>
+        <v>1.1092351341321722</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>1.6281254945970425</v>
+        <v>-2.2481606719004072</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>1.436027353948654</v>
+        <v>0.9148817220935124</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.9194515863739264</v>
+        <v>-0.2780180186537795</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>0.9799079922025454</v>
+        <v>0.07805257546391438</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>1.9279991470551776</v>
+        <v>1.7248929496033045</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.7125593076146474</v>
+        <v>-1.3340634934902564</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.6183723147587207</v>
+        <v>0.38447879912033406</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>2.6036250457961576</v>
+        <v>-0.4290247678937619</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>0.5099245995737632</v>
+        <v>-1.442298657818178</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.5484694749091765</v>
+        <v>0.20755960987751043</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>2.2442705506125664</v>
+        <v>0.7208113260928827</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>-2.1300072713708817</v>
+        <v>1.4502581662317326</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.8545270314835545</v>
+        <v>-0.36314003505815806</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.004616811911230147</v>
+        <v>-1.316757890500754</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>0.47922490399683687</v>
+        <v>-0.1861893519294072</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.4694976428241032</v>
+        <v>1.1724871302314726</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>-1.5054311276461152</v>
+        <v>-0.43002119427433816</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>-1.7742169971492663</v>
+        <v>0.28212915977794073</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>1.075987973777049</v>
+        <v>0.5696878887835631</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>-1.9387502986505343</v>
+        <v>-0.3121916640425811</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.6595304329986946</v>
+        <v>-0.5445351341302939</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.5335244704806741</v>
+        <v>0.2431168493016998</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.9105104782090421</v>
+        <v>-0.31026430663646715</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.9631310882897902</v>
+        <v>0.7128166913961052</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>-1.3997174476010037</v>
+        <v>1.8360895763306517</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.01293197298231718</v>
+        <v>0.754510253969228</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.3344352257353072</v>
+        <v>0.32264956509284326</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>1.8773212386559202</v>
+        <v>0.5337492227011846</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.07364918335867099</v>
+        <v>-2.201565261487987</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.3699015309613444</v>
+        <v>-0.657934110810589</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.7350701511681181</v>
+        <v>1.3254739088416183</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>0.45900033258198303</v>
+        <v>0.4892141994291313</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>-1.7234754948988535</v>
+        <v>0.9720964054097433</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.06493792611702022</v>
+        <v>-0.6275497643132257</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.7608821282723746</v>
+        <v>1.2540639756941607</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>0.5079958973708336</v>
+        <v>-0.6021376628565223</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>0.9234366919717253</v>
+        <v>-1.0062072837730607</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>0.1044240764645771</v>
+        <v>-0.26074240945039795</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>1.5856215959578144</v>
+        <v>-0.9546264667548048</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.4022735514722334</v>
+        <v>1.6876996660880772</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.8728589679966564</v>
+        <v>-0.770372302633099</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>0.31846652114737106</v>
+        <v>-0.9417341957203673</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1.3141494996549086</v>
+        <v>-2.0312325618728626</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>0.4209219316247245</v>
+        <v>-0.8312362093271319</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>0.797656079919323</v>
+        <v>0.5879237059611939</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>-1.0946083424398805</v>
+        <v>-0.44870472344211715</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>0.2782638246588209</v>
+        <v>-0.5535902030297664</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.9732781751414421</v>
+        <v>-1.3807589971047198</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>0.4587399673774198</v>
+        <v>-2.0101408084639796</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.7443865724266447</v>
+        <v>-1.8813711622052924</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.1817046672272441</v>
+        <v>-1.0556115343916792</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.7663951005289343</v>
+        <v>0.6350234764642951</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.8997736816322216</v>
+        <v>0.6490123293765514</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>0.6720924795984956</v>
+        <v>-0.1121970875493753</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.7479808425763453</v>
+        <v>1.1793255095102653</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.6747820276587904</v>
+        <v>-1.4086817430841858</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.4873604734312264</v>
+        <v>0.9051208957802104</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>-1.7533221341111016</v>
+        <v>0.7372221234783192</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.2744150105287423</v>
+        <v>-1.3673375208233394</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>1.4686758294570423</v>
+        <v>0.39767826774585696</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.10321747509593232</v>
+        <v>0.27744400375943934</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>-0.4489091123590108</v>
+        <v>-1.7538455028111137</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>2.1695305414942325</v>
+        <v>0.588302154636956</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.023607263150213317</v>
+        <v>-0.5224085806465353</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>0.47310400607159014</v>
+        <v>-0.14226211664530705</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>0.26911537142651354</v>
+        <v>1.4757561958516674</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.5511603787629776</v>
+        <v>0.7363393176171056</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.14854850223211868</v>
+        <v>-0.24550242637047442</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>0.25378104110302496</v>
+        <v>-0.7116349821383866</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.14659289264741887</v>
+        <v>-1.099250070843871</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.1620241914965719</v>
+        <v>-0.27922754260614796</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>0.6983438824943506</v>
+        <v>-0.2074075487754108</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.43123347502411424</v>
+        <v>-0.6935854470382362</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>-1.5767219653864673</v>
+        <v>1.2087738221648945</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.7941806673410258</v>
+        <v>1.1628479791309136</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.3425380071426806</v>
+        <v>0.013008164541076197</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>-1.3871811673787076</v>
+        <v>-0.03609824075453063</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>1.0074962201624011</v>
+        <v>0.6246607245612668</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>-1.4381789177162503</v>
+        <v>0.8445164147761369</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.07508108645475327</v>
+        <v>0.7666520379116878</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>1.1078516170151858</v>
+        <v>2.4580751542669543</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>-0.005596956956719063</v>
+        <v>1.8520241587586914</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>1.4324945903500164</v>
+        <v>0.5826538285277173</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>-1.4024763123839672</v>
+        <v>0.03468944944922578</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>-0.8187717851281356</v>
+        <v>0.6192670285220179</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>3.1821163685099196</v>
+        <v>-0.2535239487074796</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8117176657333823</v>
+        <v>0.43611638050745716</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.14795198923875294</v>
+        <v>-0.8288324425175825</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>1.5439083159742657</v>
+        <v>-1.2831741990962415</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>-1.2003177630463482</v>
+        <v>0.13515048408445757</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.20578929058810744</v>
+        <v>0.5418644081575327</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>1.3789860131543938</v>
+        <v>-0.1392684863911001</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.9398992482000884</v>
+        <v>1.5154729402542546</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>0.13212938004465943</v>
+        <v>0.4825664056345842</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-2.6554938064899236</v>
+        <v>1.2115882752220988</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.5607789207907925</v>
+        <v>1.845555169765277</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>-0.11595229518618962</v>
+        <v>1.5019419161427123</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.6222460221904064</v>
+        <v>-0.8064807054728013</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.3577187135789346</v>
+        <v>1.4716708886859868</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1392402802957578</v>
+        <v>0.9526399534735528</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>1.796950437200526</v>
+        <v>-1.9404591834667417</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>0.012793858382081701</v>
+        <v>-1.2515097109200404</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>0.7969610362075378</v>
+        <v>0.11399004503114121</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.37164857312431865</v>
+        <v>-0.20767095272242647</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>1.2970286731347829</v>
+        <v>-1.220480302916153</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>0.04419243859947464</v>
+        <v>-0.38037563146704867</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.5396253819124192</v>
+        <v>-0.5005364551456031</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>1.029536283121813</v>
+        <v>0.6391307235496644</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-1.4914063510064046</v>
+        <v>-0.2897773525857223</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>0.4418828352497795</v>
+        <v>-0.4364886164630497</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-1.7273117525997195</v>
+        <v>-0.706977881709036</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>0.31622733191569213</v>
+        <v>-0.14014887238562398</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.23285584618252123</v>
+        <v>0.020656888793570787</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>-1.1748562164796725</v>
+        <v>-0.38908632953587025</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>-1.335455242331512</v>
+        <v>0.04283786626676996</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>-0.0071533812219374444</v>
+        <v>-1.2814815462251279</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>1.0802904125491861</v>
+        <v>-1.0124427379986514</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>-0.8796234706265864</v>
+        <v>0.45838572650905063</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>0.9974726726507891</v>
+        <v>0.1918149686644248</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>0.3411474186208329</v>
+        <v>-0.6261028199656118</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.22811864531920792</v>
+        <v>0.5511637600685998</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-1.6608330355970709</v>
+        <v>0.6867213288863271</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>-0.3551797563516898</v>
+        <v>0.6906823107437935</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>0.44579463969021527</v>
+        <v>-0.03690065925539643</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>0.7335675704243063</v>
+        <v>1.4829468878072882</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>-1.116561824341559</v>
+        <v>0.7188197076024724</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>-0.32661646957542806</v>
+        <v>0.42753380025949866</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>0.08054193932038471</v>
+        <v>0.7235326189946577</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>-1.2752453420209107</v>
+        <v>1.0100538187999233</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>-0.29902627771253093</v>
+        <v>0.6308152465011612</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>-0.11345338462405248</v>
+        <v>0.6372745341015075</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>-0.43759689808491875</v>
+        <v>0.9075610116224185</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>2.703025148609016</v>
+        <v>0.29371564758727486</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>-0.7898305404651548</v>
+        <v>0.7143102885558011</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>-1.2953163766878455</v>
+        <v>-0.9359353944407954</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>0.931377175782119</v>
+        <v>0.7426010070467387</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>0.15043288363676552</v>
+        <v>-0.9057536404536229</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>-0.05852390569848031</v>
+        <v>-0.14798434043902653</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.08505160650634706</v>
+        <v>0.8765224342614923</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>0.1742845742728605</v>
+        <v>-0.9718819484204885</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>1.6027333158302735</v>
+        <v>-0.8934322473352042</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>0.46806865116564256</v>
+        <v>2.3802997628107603</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>1.2571582812126056</v>
+        <v>1.023171567023361</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.3329963589985462</v>
+        <v>-0.07545905233700506</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.536680165182716</v>
+        <v>0.9621906272244432</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>0.8063181528604745</v>
+        <v>-0.4522362759421472</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>-0.6461849657922576</v>
+        <v>0.1579253833244548</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>0.5610460929900714</v>
+        <v>-1.143253363033445</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>-1.0174930416001866</v>
+        <v>-0.19111908680342374</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>1.4266111640929529</v>
+        <v>1.021122078741945</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>0.021451802608485702</v>
+        <v>-0.2735920087259887</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.9980173999441891</v>
+        <v>-0.02803327981565808</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.3120696886049956</v>
+        <v>-1.0406511176083626</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>0.9506956220632933</v>
+        <v>-0.34563927955600604</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>0.16054954406831956</v>
+        <v>-0.6366435444197236</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.5717740608282309</v>
+        <v>-0.31929207997010084</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>-0.3194075826020919</v>
+        <v>-1.4251436425461748</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.9721778416980154</v>
+        <v>-0.22627640107809222</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.05741613738960179</v>
+        <v>0.5277837458315233</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>0.06782256771062235</v>
+        <v>-0.8692563028550108</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-2.087494238148564</v>
+        <v>1.3308210143273562</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>0.4932456694836161</v>
+        <v>0.4956978479789296</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>-0.630426802046531</v>
+        <v>-0.5340634537561791</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>0.3579731500444982</v>
+        <v>0.25637797279237445</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>0.5831238020319663</v>
+        <v>-0.5219176373285833</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>0.553924410172298</v>
+        <v>-0.7090200442059567</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>-0.33727366211922943</v>
+        <v>2.316939371787659</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.7900646099706287</v>
+        <v>1.1665037338258928</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>-0.44287803498187667</v>
+        <v>0.6251246106490437</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.8758443843293765</v>
+        <v>-1.5349531850266587</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>0.3515163529740586</v>
+        <v>-1.4089998388172227</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>-1.410423718468058</v>
+        <v>-0.9771323174119144</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>-0.263678981684615</v>
+        <v>1.809156888988855</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>0.4143434771365556</v>
+        <v>1.6795873443343183</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>0.28444353497685276</v>
+        <v>-0.24708661881064897</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.2993342300948317</v>
+        <v>0.16410256411997157</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.0152001668401243</v>
+        <v>-0.9198952484861543</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.9033236067240382</v>
+        <v>-0.02048837405815372</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>0.10357421420507361</v>
+        <v>-1.6833781725321082</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>-0.37571409262085737</v>
+        <v>-1.7922228967028493</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>0.5903921627350556</v>
+        <v>-1.358759443676136</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.44708808703737185</v>
+        <v>0.49605755744091157</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>0.6534994546087542</v>
+        <v>-1.2487977108174102</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>-0.6967073475471516</v>
+        <v>-0.8449882198340998</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>1.2954833576051203</v>
+        <v>1.6037064255274736</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-1.2663880022495173</v>
+        <v>-2.077864137725866</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.43527240455617716</v>
+        <v>0.13521204233476775</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>-0.42865230608261773</v>
+        <v>0.2971916488556971</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>0.13340869108421058</v>
+        <v>-1.3560280340378146</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>2.244673870263212</v>
+        <v>-0.26947431047256776</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>-0.7303644240440814</v>
+        <v>-0.5450687059555265</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>-0.2697527020089381</v>
+        <v>0.5889595278262912</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.3110875066355379</v>
+        <v>-1.0848897945986382</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>-1.3169135297478753</v>
+        <v>1.383790582799396</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>1.140281590645936</v>
+        <v>-0.66665820749239</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>1.0682048099337706</v>
+        <v>1.2942350113999963</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>2.1867234002028715</v>
+        <v>1.474649520355469</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>-0.9692000469589621</v>
+        <v>2.5972136318944434</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>1.5704742453366707</v>
+        <v>1.6437729468421824</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>-2.048216563114551</v>
+        <v>0.9398525406310475</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>1.1284048244782348</v>
+        <v>-0.589544341456667</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>0.027694626524855253</v>
+        <v>-0.2676665160325086</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>-0.31737161017703597</v>
+        <v>0.533008481232416</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>-0.8244561824005981</v>
+        <v>0.4592697404583548</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.061349456766652266</v>
+        <v>-0.47010604505777437</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>0.7463288625470336</v>
+        <v>-1.0374054715206833</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>0.7993716334427498</v>
+        <v>-0.29353586783783603</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>0.6558512895492242</v>
+        <v>1.3756728383155543</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.2005946310601182</v>
+        <v>-0.37981646851995415</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1.4931949359981591</v>
+        <v>1.2338090264378767</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>-0.5088106581384624</v>
+        <v>0.28982975990336046</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.5317082078204926</v>
+        <v>-0.8116636082316954</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>-0.3197539999918652</v>
+        <v>-0.34527508091927867</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>-0.8909775490144427</v>
+        <v>0.3158369062825739</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.9395922590501933</v>
+        <v>0.40560956487748306</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>1.3995871805537787</v>
+        <v>-0.23831270931129833</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>-2.2407180864675156</v>
+        <v>1.5296041031470495</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>-0.2646616561112656</v>
+        <v>1.8070956547806312</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>-0.44380806185025673</v>
+        <v>-1.4392123993402206</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>-0.4259575177426277</v>
+        <v>-0.26339732070709426</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>0.47064725970302795</v>
+        <v>-1.2448382448429576</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>0.2005456768009298</v>
+        <v>-0.8619351401724171</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>-0.2767769280315663</v>
+        <v>-0.17829299163077683</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.8490972709862958</v>
+        <v>-0.5807289589555893</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>-0.6477406755270709</v>
+        <v>1.4292581580164403</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>0.716793539724903</v>
+        <v>0.5550615633807123</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>0.8554287017330113</v>
+        <v>0.3472647951479757</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>-1.3300181477534727</v>
+        <v>0.619426737711327</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>-0.9488852519794426</v>
+        <v>0.3655257339053803</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>1.652066085117741</v>
+        <v>-0.04068549932377773</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>0.4483605406384823</v>
+        <v>-1.1747576298054</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>2.3343099931447764</v>
+        <v>-0.660227011033371</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>-0.3535794746625102</v>
+        <v>1.3176961734170594</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>-0.24152850124827638</v>
+        <v>-0.9440844040741803</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-0.5575031364386128</v>
+        <v>-0.800268701819047</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>0.4367279657531856</v>
+        <v>0.5694534339093226</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>-0.8189758018727942</v>
+        <v>0.683285597615673</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>-1.3427113295772746</v>
+        <v>1.1612394289931238</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.4956577140470808</v>
+        <v>-0.2313584486532187</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-1.1089842274226718</v>
+        <v>0.9541049001032109</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>0.030023659899309624</v>
+        <v>-1.2786866323986117</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>-0.6912573312225618</v>
+        <v>1.037815603820172</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.15751389764107857</v>
+        <v>-1.169081739071747</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.3296092723778627</v>
+        <v>-0.7890533494403792</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>-0.3368076241561896</v>
+        <v>-0.10428768900325303</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>-0.9145192513337216</v>
+        <v>1.0086721052116336</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>0.247150043948218</v>
+        <v>-0.4569110322574081</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>-1.5367981319498316</v>
+        <v>0.633602494762916</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-0.7409136265090202</v>
+        <v>1.8206317249183774</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>0.43322471579462085</v>
+        <v>-0.4287970379201709</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>-0.01559038197562193</v>
+        <v>0.6725450039146643</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>-0.1316640513537673</v>
+        <v>0.8755683122258103</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>1.2303568211298308</v>
+        <v>0.8391546931911391</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.38879902439366903</v>
+        <v>-1.5116160667489627</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>0.23420669491182095</v>
+        <v>1.4881369326540963</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.4235670004091628</v>
+        <v>-1.6034457481490825</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>1.0450745538625166</v>
+        <v>0.3018171546537419</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>-0.4964605396530655</v>
+        <v>-0.024806273317331602</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>-1.005194995364145</v>
+        <v>-0.15222903663534115</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>2.1234806626148535</v>
+        <v>0.5513197892223612</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>-0.571060183116277</v>
+        <v>-0.916304395884966</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>-0.9182992803283677</v>
+        <v>0.5600524689174665</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>-0.6133536700904343</v>
+        <v>-1.2165191032915321</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>-0.24332794372536662</v>
+        <v>-0.6038396983519526</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>1.5091284642813783</v>
+        <v>0.2941786516918295</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-1.9589501244152447</v>
+        <v>-0.37760521198813535</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>-1.7159349426433084</v>
+        <v>1.2690484210832669</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>0.15377926540664946</v>
+        <v>2.3992788501088262</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>-0.32673175219955114</v>
+        <v>-1.2112190810446681</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>-0.7421261459534214</v>
+        <v>1.0564457317575537</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>-0.19531350016539187</v>
+        <v>0.787890366403623</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>-1.7936903587880706</v>
+        <v>0.02550115134680163</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>-0.669594854309791</v>
+        <v>0.6894186824677104</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.1226703794322382</v>
+        <v>-0.003721078717164904</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>-0.33986319333948284</v>
+        <v>-0.5140705663168533</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>-0.9176520279620051</v>
+        <v>1.73007972048507</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>0.9670337606728757</v>
+        <v>0.8106800338213472</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>2.5781040151994303</v>
+        <v>1.5022571720972693</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>-0.2174806550171455</v>
+        <v>1.5151171426835914</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>-1.5195159392878437</v>
+        <v>0.5457136628355185</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.39367322483956496</v>
+        <v>0.07569409570884945</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>-0.6011671093954323</v>
+        <v>-1.2150630825642736</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>1.0104689522581123</v>
+        <v>-1.4624172033074534</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>-1.2219661108439228</v>
+        <v>-1.324955751200246</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>-0.2931129523389012</v>
+        <v>-0.7086164617799503</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>-0.12538848805788044</v>
+        <v>-1.9741897821497885</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-0.10027043356585233</v>
+        <v>1.800246628422836</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>1.0649008092344008</v>
+        <v>-0.590070044502435</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>0.5207278293237869</v>
+        <v>0.5902121935233515</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>-3.098222088984694</v>
+        <v>0.44414868880477104</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>0.6482596960520265</v>
+        <v>-0.30710382579880224</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>-0.3553049093569458</v>
+        <v>-0.4325794568606446</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>-1.6795787346239779</v>
+        <v>0.6787623472762357</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>0.3292419811002295</v>
+        <v>-0.03629997212914796</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>-1.2520176881192884</v>
+        <v>-0.59638189195524</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>-0.9563962721420276</v>
+        <v>-0.18654955463202025</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>-0.42710481847604537</v>
+        <v>-0.8751332979015085</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>-1.1407619268662599</v>
+        <v>1.2851601784479625</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.3114042224283748</v>
+        <v>0.3017897144518254</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>0.01927377013955798</v>
+        <v>1.149147691974839</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.2655705629599402</v>
+        <v>0.1806864333023274</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-0.5889526152335668</v>
+        <v>0.4015731624748252</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>-0.26406381901488807</v>
+        <v>0.015030297511583917</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>0.44514587440619136</v>
+        <v>0.6148530829458063</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>0.5775781572683862</v>
+        <v>2.1772302235438272</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.004477482239952253</v>
+        <v>0.7279886379801108</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>-0.5761384957676441</v>
+        <v>0.42918911061740656</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>-1.5770331260701083</v>
+        <v>0.03166849117386982</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>-0.9082802196514079</v>
+        <v>-0.4261721420630811</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>-0.3439035996547943</v>
+        <v>-0.27370242607824563</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>0.6303236868995319</v>
+        <v>-0.43266057496675403</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>1.0949962911986084</v>
+        <v>-0.2522935644521584</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>0.6680367234421665</v>
+        <v>1.09799808096657</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.37914241227815193</v>
+        <v>0.47958969130922685</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7487344232644447</v>
+        <v>-1.677506238765099</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.4463868902273262</v>
+        <v>-1.2157755013987233</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06745263462196122</v>
+        <v>1.073157747967273</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.001970183251081687</v>
+        <v>-0.5025354305739373</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5135191023693386</v>
+        <v>1.6726558323443559</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.1780206395197867</v>
+        <v>-0.8103515086285298</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4277507838788065</v>
+        <v>0.4864953330232393</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.3724491483419152</v>
+        <v>0.45168489888467855</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.45432851970453464</v>
+        <v>-1.612162493763776</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4130592161849039</v>
+        <v>0.14678562210152749</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.04686716559924471</v>
+        <v>-0.025019717889711333</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.7226920833500486</v>
+        <v>0.6602513270429198</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.012756045471737514</v>
+        <v>-0.8360927314334606</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5546599099096398</v>
+        <v>0.005919619772887132</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.08812885120054659</v>
+        <v>-0.5196339231739215</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.23219446013001602</v>
+        <v>0.8398947551750203</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.6640920262327226</v>
+        <v>-0.2858079610075604</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.44622010164964343</v>
+        <v>0.2603182614208745</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.373364550234627</v>
+        <v>-0.6713507945396981</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05643547377066413</v>
+        <v>1.666744308074997</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.5784206152250544</v>
+        <v>2.08144594163275</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.5509390817553697</v>
+        <v>0.6559847507423902</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9390528145633983</v>
+        <v>2.3652344246662818</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9950551377618494</v>
+        <v>-0.3958989083459604</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2710632825686423</v>
+        <v>0.12545106956178445</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.390437498880217</v>
+        <v>-0.35547249179303914</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.5289333419953026</v>
+        <v>0.18715799312637052</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6591758051798291</v>
+        <v>-0.6945798646290854</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1.911297805822983</v>
+        <v>0.19053313065301605</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5187152866991394</v>
+        <v>-1.553301109275383</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1.93417129835276</v>
+        <v>0.5364904108105838</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.7599150701604127</v>
+        <v>0.9535160884799371</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1.3570248047909157</v>
+        <v>1.2437102510068192</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8050458413319012</v>
+        <v>-0.17666345304022427</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5920807540454309</v>
+        <v>1.8878394908784484</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1.6761662219590092</v>
+        <v>1.5041670145863335</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.07162806743009563</v>
+        <v>7.757733962238432E-4</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.25933475699899067</v>
+        <v>-0.4851484662130172</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1.4777657856302207</v>
+        <v>0.36730746600125175</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.5787645505923023</v>
+        <v>-0.7321083727331084</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15365295964925488</v>
+        <v>-0.507516414202572</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1.1945216487370296</v>
+        <v>-0.2847468906550574</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6046120548091859</v>
+        <v>0.15532229850495352</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5009740350973063</v>
+        <v>-1.8297269326848178</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.35081561181427756</v>
+        <v>1.434775264516639</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4983482385196579</v>
+        <v>-0.18615405236171603</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>2.0257849816068116</v>
+        <v>0.040687378260181546</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8872774423626335</v>
+        <v>-0.12267143472374642</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.7180374224848827</v>
+        <v>-1.075351649264869</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1.158603075012875</v>
+        <v>0.11481430378626563</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.46142691194115193</v>
+        <v>1.1392874588204733</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1.0963355673586133</v>
+        <v>-0.6893832105577168</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8656707869885985</v>
+        <v>1.1830483379124184</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>2.049395588195725</v>
+        <v>1.5594321804831837</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.2193862709976824</v>
+        <v>0.0822014101252734</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.5491762252463652</v>
+        <v>0.8303617124073311</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.11785731901751116</v>
+        <v>0.3585996327706122</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.442931583525244</v>
+        <v>-0.8363901677519859</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.48924855051930993</v>
+        <v>-1.8567545715905882</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.44253360154845156</v>
+        <v>-1.2119308970927687</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1.3372681327353828</v>
+        <v>-2.1472344240457124</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.5779392841710458</v>
+        <v>-0.25600320189294473</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.4531708101642893</v>
+        <v>-1.2344180961682771</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02795383892524448</v>
+        <v>-1.43422290710878</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9998117238207261</v>
+        <v>1.7870005560439362</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.5709012949406961</v>
+        <v>-0.7426308360866328</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.1850103342697274</v>
+        <v>1.4151759050650685</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5188880504744796</v>
+        <v>-0.6693731911652108</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.60736139726049</v>
+        <v>0.3366598921412608</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7135514488472117</v>
+        <v>-0.37420890593696604</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6067580326408604</v>
+        <v>-0.4981155763254498</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.29009666119813604</v>
+        <v>-0.4918938205630129</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1.1489996239985953</v>
+        <v>1.1202529572704454</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.5972175265121953</v>
+        <v>1.0901724703662987</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1.866121392618396</v>
+        <v>-0.4632374226146496</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.05067215488529969</v>
+        <v>-0.19351652850472056</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.38609273311609993</v>
+        <v>1.0940706200856969</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18899473663147218</v>
+        <v>0.728658850192686</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.9014830584039766</v>
+        <v>0.07793693580248046</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.0640940557460512</v>
+        <v>-0.18455181073611673</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.128745304968031</v>
+        <v>0.1271133236934185</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6881351931073797</v>
+        <v>-0.17777679087309847</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.9405260402490567</v>
+        <v>-1.0443037560773496</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9500168467472178</v>
+        <v>-1.362777740045416</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8331960275402048</v>
+        <v>0.5433831971704289</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>1.2443143584371061</v>
+        <v>-0.5130540052876622</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.29308288253738857</v>
+        <v>0.3151405734548996</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.7536431699183377</v>
+        <v>-0.7428372573360464</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.1222253050791045</v>
+        <v>0.27869851747653296</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.6254948417288156</v>
+        <v>0.29096462309515153</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.4839915155933649</v>
+        <v>2.1924002535284495</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35975306960022513</v>
+        <v>0.24081862399911086</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.7329515073648339</v>
+        <v>0.7877336302305279</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.3347723956689819</v>
+        <v>0.3540775419893532</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8007496013394874</v>
+        <v>-0.22135403980348062</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8820824976986013</v>
+        <v>0.36155648982093475</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7685763626822202</v>
+        <v>-0.4115125221697288</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.5863447030943951</v>
+        <v>0.1448238413290343</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.437211656111784</v>
+        <v>1.4444937729546092</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.16819172505572</v>
+        <v>0.8913328230204812</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5485760142553197</v>
+        <v>1.6178567768173437</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.0674683637114593</v>
+        <v>0.18515445085889276</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.2481289030306801</v>
+        <v>-0.5952179894842219</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.07405904503769725</v>
+        <v>-0.47287697479398977</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.2518283440965494</v>
+        <v>1.081520621899716</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.9920388076625539</v>
+        <v>0.47001346326162147</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.08785271622806377</v>
+        <v>0.13608458356877173</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.327307667597972</v>
+        <v>-1.014513539571884</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.6926977160366615</v>
+        <v>-0.2852399306875615</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.8476802148096694</v>
+        <v>-0.3266310525002394</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.057275207922012204</v>
+        <v>1.1649505207542117</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.6335677300521438</v>
+        <v>-1.7584156227849004</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.3641333960436866</v>
+        <v>-0.10006956246887619</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.039935188638878426</v>
+        <v>0.5331098022078111</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.489151701433039</v>
+        <v>0.5238293134810795</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0981048940456861</v>
+        <v>0.6037408030928186</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2910425862917437</v>
+        <v>0.254060814322909</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1.3158089850635315</v>
+        <v>-1.1084521537161152</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.8967652396855563</v>
+        <v>-0.49571688493609317</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.10498490698161171</v>
+        <v>-0.3716945073411375</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.10201674507426774</v>
+        <v>-0.07785998097471486</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.0155982977704594</v>
+        <v>0.48971988256030413</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.6955477399273255</v>
+        <v>-0.8021170305141989</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1.1320680023190985</v>
+        <v>0.3657858945696991</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.24054517078123266</v>
+        <v>1.6343054569018578</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.2697182099922463</v>
+        <v>-0.47371192048627053</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.7175870510996119</v>
+        <v>0.16273983824494354</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>1.61269524792081</v>
+        <v>-0.2816468235187529</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.5413101952505721</v>
+        <v>0.5479962921121144</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.5388183014431926</v>
+        <v>1.6878000073252444</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.161150122603198</v>
+        <v>-0.42009689077299095</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.11652332980924204</v>
+        <v>0.1962198417728051</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.15237832890414982</v>
+        <v>-1.3044557990108148</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>1.717829072939827</v>
+        <v>0.1356542754501973</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>2.625294329816513</v>
+        <v>-0.31500386500888017</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8028086181466435</v>
+        <v>-0.4937280360354127</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.8444705762679775</v>
+        <v>0.2141654828634649</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.29935207937009695</v>
+        <v>-0.2970246503019074</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.4530283317842659</v>
+        <v>-1.022005882112641</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.0508012758833891</v>
+        <v>0.15918478638349706</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5868620816660709</v>
+        <v>-0.16955080581724583</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9151638163762759</v>
+        <v>-0.9965775812401961</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.761823991646331</v>
+        <v>0.9949195286700844</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.22361109520025213</v>
+        <v>-1.4658046601255768</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>-7.771075801149022E-4</v>
+        <v>-0.22876059518618222</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2.0310378937559035</v>
+        <v>0.788798085791543</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8652890663032193</v>
+        <v>0.442479375870937</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.7372920750904014</v>
+        <v>0.8785577756945263</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.029883261980930373</v>
+        <v>0.06999544275720246</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.5988414682308604</v>
+        <v>0.9636528745518478</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.47316748352695925</v>
+        <v>0.4525810835754796</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6129514463508643</v>
+        <v>0.4863255705899523</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3666580400123739</v>
+        <v>-0.22204650550796098</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.21187283726314088</v>
+        <v>-1.3717655762357446</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.24113894680973708</v>
+        <v>-0.5891628604827395</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.453842916024288</v>
+        <v>-0.7482641449504361</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.5819752015488127</v>
+        <v>1.1110834074392164</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5575855627224359</v>
+        <v>-1.6929908917376972</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5187339762325168</v>
+        <v>-0.13774796962015926</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7348750100354482</v>
+        <v>-1.410218125196453</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5380765210291758</v>
+        <v>0.031845952624581446</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.774014142345309</v>
+        <v>-0.08184714518449866</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.7852971143147459</v>
+        <v>0.19554827175286107</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.0211602533210618</v>
+        <v>-1.0019414845103174</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.9604447523432704</v>
+        <v>1.8469851557524992</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.7323906582732909</v>
+        <v>2.663512756162195</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>1.4523422702775277</v>
+        <v>-0.2120093480518002</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>1.0464519770796334</v>
+        <v>-0.1548406251428384</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6784656631796178</v>
+        <v>0.09700460377339447</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1280418432274289</v>
+        <v>-1.8110394758079211</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.5157461621213312</v>
+        <v>0.0046035118453829705</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.40691617398433677</v>
+        <v>-0.09273388307134972</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.1857815699268621</v>
+        <v>-0.9183487699272249</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.7400734655568819</v>
+        <v>0.462881943508456</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.19088065274696456</v>
+        <v>-0.5874431881720538</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.4183168701550979</v>
+        <v>0.7052713125956949</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2591619023224402</v>
+        <v>0.9040199684707455</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.877851611699507</v>
+        <v>-1.3254313794215342</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4523697066438075</v>
+        <v>0.005878671204407896</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.5199756058436438</v>
+        <v>-0.3357274311375064</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.2012500058922533</v>
+        <v>1.9464769727075406</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3077202794412642</v>
+        <v>-0.04101867635154507</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>1.1710374798882657</v>
+        <v>0.5983692956093491</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.24906524159182844</v>
+        <v>2.144958590159048</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.6931122613149714</v>
+        <v>0.5571809641750963</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.7776595373610424</v>
+        <v>-0.1626510500482081</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>1.0498655806672395</v>
+        <v>0.8363667550647768</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0035410821209337358</v>
+        <v>0.0073695342286157</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>-2.5634487192217046</v>
+        <v>0.317924858693499</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.15462441520258152</v>
+        <v>-0.7681859386245776</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.5330606164179658</v>
+        <v>0.6791148757008142</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.3704481164018605</v>
+        <v>-0.10345551308472138</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.07339710703519393</v>
+        <v>0.8476160567450355</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>1.653962411722763</v>
+        <v>-1.1796789678922437</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.5501015761710684</v>
+        <v>-1.3521073358735376</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.14393295349947732</v>
+        <v>-1.2165634967217904</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.738893375338782</v>
+        <v>0.4901982601794549</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4361347654965102</v>
+        <v>0.9078555789228886</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.6309201319526488</v>
+        <v>0.8852473308463011</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.3367349338795611</v>
+        <v>-0.4497351147986805</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>0.07952785067489533</v>
+        <v>-0.43846086054249295</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.38938786527070873</v>
+        <v>0.9711755184549838</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.3427670880416127</v>
+        <v>-0.9665240691063736</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.12512123691379062</v>
+        <v>0.4961301211069341</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.7621341573807243</v>
+        <v>0.8794127449755544</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.7939305232765768</v>
+        <v>1.0884935516108392</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.3637257185174721</v>
+        <v>0.5268452562018757</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.12867110410446542</v>
+        <v>0.7785742008895077</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.017640640388875858</v>
+        <v>-1.0772967165276728</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>0.24085678261242388</v>
+        <v>0.1482367967832212</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.5808008372480846</v>
+        <v>0.2293211511637572</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-2.4886979307174313</v>
+        <v>-0.11225287313744786</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.5052206660706957</v>
+        <v>-0.6052906053789592</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>1.3417817581512574</v>
+        <v>-0.17825653571475075</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>1.913328970009217</v>
+        <v>1.1038058102251163</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>1.5792528574245968</v>
+        <v>0.023059811610145652</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.9043200673710756</v>
+        <v>-0.20041870453614988</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>-2.9032247535671014</v>
+        <v>-0.22143873497134847</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>1.2195113692933521</v>
+        <v>0.29855971036807183</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.46385491247400995</v>
+        <v>0.7538074454401738</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>0.6901590875708831</v>
+        <v>-0.020724988757446147</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5457587247719289</v>
+        <v>-1.3037306125777697</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.2866340855194508</v>
+        <v>-0.9752558802848538</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.8075402740594124</v>
+        <v>-0.14115241139956414</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4169242528632555</v>
+        <v>0.7355872532733793</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>0.5541873671803164</v>
+        <v>-1.2945615971440514</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>1.742913497226409</v>
+        <v>-0.24265119990259532</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.4870436133200189</v>
+        <v>0.6014473594263499</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.5967453836642302</v>
+        <v>-0.5152043806770878</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>1.69008039309623</v>
+        <v>-0.33600968950105614</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3986167028042318</v>
+        <v>0.3750902037576867</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.19124475926473852</v>
+        <v>1.793904117836366</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>0.1806463499929669</v>
+        <v>-0.41729228280049535</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.702486897584055</v>
+        <v>-0.4638151620046327</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8527830456178168</v>
+        <v>0.8633689353509061</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>2.0622589528659145</v>
+        <v>0.3414312979121353</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.8498298327528832</v>
+        <v>1.0470793567233503</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>1.375590758023446</v>
+        <v>-0.9427394710203256</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>0.747947120004143</v>
+        <v>1.8247851372689365</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>0.15155545018165012</v>
+        <v>-0.5980161169783611</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8247268546636105</v>
+        <v>-0.32029733983711145</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.335176768062997</v>
+        <v>1.2962268250353777</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>0.31891372686594754</v>
+        <v>0.3256627731943064</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>2.349454245644754</v>
+        <v>-0.550860499476258</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.6339407880840359</v>
+        <v>-0.7453449650425915</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.21178781559234464</v>
+        <v>1.0778682406511548</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>0.7899966688666848</v>
+        <v>-0.39064068975493843</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>0.6602772424955197</v>
+        <v>0.6274563737631953</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>0.13414616889949732</v>
+        <v>-1.2416154957090306</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>0.40100385853180376</v>
+        <v>0.9611890619042012</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.24716098885103055</v>
+        <v>-0.1743458538749454</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.42555989013634704</v>
+        <v>-0.10906894407087524</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.034328025726800646</v>
+        <v>-1.1878151973303925</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.48687734665705973</v>
+        <v>0.02217099615532586</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.4911149597437648</v>
+        <v>0.3817824520219708</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.1732135474486134</v>
+        <v>0.4817976985360079</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>0.23632321063112646</v>
+        <v>0.2996162710400527</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.4384606518716051</v>
+        <v>0.622197771483211</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.8203858063573616</v>
+        <v>0.5676664795728568</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.20112086530558343</v>
+        <v>-1.3816245923372756</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.1001723124554212</v>
+        <v>-0.27866396922393755</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>0.706534757282258</v>
+        <v>-0.5161032700831294</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>1.4576186070103752</v>
+        <v>-0.055147787790747554</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>1.482488159889159</v>
+        <v>0.39670634191650306</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>1.1675768591779154</v>
+        <v>-1.5502066518643394</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.545615346967054</v>
+        <v>-0.8644496768106221</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>1.5691491155106083</v>
+        <v>2.040118326005401</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.040643926989559404</v>
+        <v>2.073981397529465</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.2678222398664656</v>
+        <v>1.7657608800946931</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.5271102930274054</v>
+        <v>0.8483341763518564</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>1.2023662209117687</v>
+        <v>-0.07109363647998365</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>1.074858671235953</v>
+        <v>2.0464816563812542</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.19330225568079096</v>
+        <v>0.5406628342539109</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.5619024397497868</v>
+        <v>1.156537444437954</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>0.4470534576734233</v>
+        <v>-0.9518983939923585</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>1.1825059882882325</v>
+        <v>0.1983178619443472</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7817027091515594</v>
+        <v>0.29513742995552966</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.9523658760059398</v>
+        <v>-0.9568195790682527</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>-2.0615113657820356</v>
+        <v>0.4022040183241793</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.0501082775927386</v>
+        <v>0.26651015492803065</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>1.590267650108285</v>
+        <v>-0.0403955673964545</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.9673439999634635</v>
+        <v>-0.9784295294575954</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>1.4963562983941887</v>
+        <v>0.3572392923825955</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.4653040701703328</v>
+        <v>-1.0004680787427334</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>1.5007373616746305</v>
+        <v>1.2341219957702054</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>0.8719805550153821</v>
+        <v>1.7967668018455458</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>-1.1183158886200273</v>
+        <v>1.970747104215175</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2.0959026191236623</v>
+        <v>-0.06998847941226835</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.5906649984327673</v>
+        <v>0.6857569698824527</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>1.8925463582256004</v>
+        <v>0.8007344433122241</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>0.7243349769822555</v>
+        <v>0.3607786021796968</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.42445818095906873</v>
+        <v>0.9904261032173738</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.9625664092142402</v>
+        <v>1.809903894887808</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.0606638551764037</v>
+        <v>0.13187652150583665</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.6273388917223759</v>
+        <v>-0.3519917855745296</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.4392443812786566</v>
+        <v>0.6561372621058656</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.515727194324193</v>
+        <v>-0.8826391340436448</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.48073710636041717</v>
+        <v>-0.23211473426659274</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.7347859530729539</v>
+        <v>-0.8151089295301622</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.1176766388094464</v>
+        <v>0.8505703890140187</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>0.9382675450178604</v>
+        <v>0.7416956617719925</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>0.5755290642921659</v>
+        <v>-0.79667895757641</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.357601188325144</v>
+        <v>0.9923414623715667</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>2.676882827988386</v>
+        <v>0.7004119037163096</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>1.735580207230876</v>
+        <v>-1.5246137092842655</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>2.0854692394302057</v>
+        <v>0.8503191539986233</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>-1.452701148585177</v>
+        <v>-0.6245851477070866</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.6074319796105383</v>
+        <v>-0.6452928349698062</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>-1.3336149111299533</v>
+        <v>0.27040716172025836</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>0.14547263054193316</v>
+        <v>-0.47280239398542345</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>0.7602234151060336</v>
+        <v>1.342134030841786</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.8702318323843089</v>
+        <v>1.4027806055016456</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>0.49797207123984805</v>
+        <v>-0.5492849725623383</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.1739470792121998</v>
+        <v>-0.03988883458054257</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.4323154448083558</v>
+        <v>-1.9856508178867804</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.18378847865828804</v>
+        <v>-0.5085120604475557</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>1.572532393137321</v>
+        <v>-0.492063051263527</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.11510009968164865</v>
+        <v>0.09706695233995612</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>1.4169916619485294</v>
+        <v>0.3704471318422147</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>0.519059671544016</v>
+        <v>-0.08561837075549196</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>-1.6705965733204555</v>
+        <v>0.4479222731613469</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>0.2082011109722074</v>
+        <v>-0.6477454547774886</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.05141624659528182</v>
+        <v>0.7272925823307961</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.8230814607138536</v>
+        <v>-0.4752360912508963</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.14058020729013207</v>
+        <v>-2.2388787948021984</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.6510085536552924</v>
+        <v>-0.9030079996735291</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>0.04954751163887592</v>
+        <v>2.3940078350673324</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.5531963963815263</v>
+        <v>0.18919469266613734</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.26600174550886957</v>
+        <v>-1.4663065383405935</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>1.621927125547535</v>
+        <v>0.44246017222797185</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>1.2254999539724254</v>
+        <v>0.07202772080536957</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>0.6679258074365699</v>
+        <v>1.0229621756438796</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>1.8206657765900567</v>
+        <v>0.27349171155922974</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.8747144167185561</v>
+        <v>-1.4067153352838286</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.41656666668139564</v>
+        <v>0.10914486698894493</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.2415636397892784</v>
+        <v>-0.8435156101361512</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1.0115129443974562</v>
+        <v>1.206408577882925</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.11916359480232916</v>
+        <v>-1.0920620898306734</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.6509311415340808</v>
+        <v>-0.0818566691772159</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>1.4158510652617953</v>
+        <v>-3.4674154972048523</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>-1.7189044670729527</v>
+        <v>-0.9075039650361449</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>0.4803941435433279</v>
+        <v>-1.2147804816164507</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.8855820503682865</v>
+        <v>-0.06651830122373907</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>0.31497195771622855</v>
+        <v>-1.1690170760716492</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.3690185176038519</v>
+        <v>-0.35593069597378796</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>1.5012553856885478</v>
+        <v>0.002599239630679966</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.5755857744492194</v>
+        <v>-0.6965848703790783</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.3752418363720307</v>
+        <v>0.6658079004413714</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.7325074850292375</v>
+        <v>1.6358702018563387</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>2.9747099062009026</v>
+        <v>1.0927370398362974</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.6771933840210574</v>
+        <v>0.6171813586961842</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.22608925596996485</v>
+        <v>1.2254752585366815</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>0.19424082167228612</v>
+        <v>1.3058625731882205</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>2.024404714831178</v>
+        <v>-0.5629170882262394</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>0.8020459920946146</v>
+        <v>0.25507297782196037</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.7466730748283045</v>
+        <v>0.9894827768439929</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>1.3036530258733805</v>
+        <v>-0.34157363879735686</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.36405723287911484</v>
+        <v>0.5484822738924829</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>0.7818502922043322</v>
+        <v>-0.1613318738511109</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.7218863722813985</v>
+        <v>-0.24454653116444547</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.2654806549162422</v>
+        <v>-0.60432573023932</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>0.19100866387804952</v>
+        <v>0.8688478717919765</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.70843685461416</v>
+        <v>0.3767235431657692</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.214669971831923</v>
+        <v>-0.35276965996931964</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.2268460208993053</v>
+        <v>0.8968117830822787</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>0.5231891244127254</v>
+        <v>0.6713736444763965</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.1937468382888943</v>
+        <v>-0.8464303739968828</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.15765768720671486</v>
+        <v>1.0685630093757517</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.9736392224623966</v>
+        <v>0.15548939115846025</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>1.6842836332527673</v>
+        <v>-0.8137891127150884</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.6808875593862543</v>
+        <v>-0.7122167245894119</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-2.151538895711587</v>
+        <v>-0.5151589755445324</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.27030389608474287</v>
+        <v>-0.6281643009718477</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>-1.3249235715663077</v>
+        <v>1.9259761427365567</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.23008910465715526</v>
+        <v>1.6232779863114672</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.3078416138008455</v>
+        <v>0.7831050943664047</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>0.7787166138511521</v>
+        <v>0.8352019002059612</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>0.5552245332517943</v>
+        <v>-0.1277914251519026</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>1.3847745389685233</v>
+        <v>0.22441178554537541</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.5888931001040801</v>
+        <v>-0.45808089528392965</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.806927038995519</v>
+        <v>0.025315746545913474</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.007707420692091466</v>
+        <v>1.8333944122220132</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.2317737338196855</v>
+        <v>-0.1672915592865523</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.2784540524950783</v>
+        <v>-0.048109515203386424</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>0.4290189742544952</v>
+        <v>-1.9971881804362608</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.6312366464904828</v>
+        <v>-0.35468335421011166</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>0.5308557771309447</v>
+        <v>1.6020711294905154</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.3909919977764486</v>
+        <v>0.5262114187549367</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.46363483454058896</v>
+        <v>0.1412786401266991</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>0.05631059385446566</v>
+        <v>-0.8301739495773021</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7492076471317181</v>
+        <v>-0.5377316145927766</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.06335355263165796</v>
+        <v>-0.8548427800083521</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>-2.081942734494522</v>
+        <v>-0.3440540723899263</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>-1.422247714793596</v>
+        <v>1.8299933512011537</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>-2.0780682315506387</v>
+        <v>0.15398397054470545</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.6126579662349969</v>
+        <v>0.14579609282804842</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>-1.0550002642719774</v>
+        <v>0.37047183322035127</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5518392297839142</v>
+        <v>-0.725738503223725</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>-1.0945842811008257</v>
+        <v>-0.03672533023583517</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>0.01948747464122165</v>
+        <v>-1.9913760777477572</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>-1.0642898560954024</v>
+        <v>-1.5659442581029586</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>0.31879210318571016</v>
+        <v>-0.12236185802679173</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>-1.2260100155304423</v>
+        <v>0.5972916144984118</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.5465297507951223</v>
+        <v>0.07091100256586265</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.2588567465045174</v>
+        <v>-0.8923836962129422</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>-1.3753738189365396</v>
+        <v>-1.012815314753007</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.623010823876621</v>
+        <v>0.1578664447596318</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.0398023348466952</v>
+        <v>-1.1807995351523648</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>1.0622614249328162</v>
+        <v>0.3535061453604237</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>1.1075038020829302</v>
+        <v>0.9729376660594767</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>0.03274285412994564</v>
+        <v>0.9541662747593285</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>0.9059029181862062</v>
+        <v>1.2373793215668822</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>1.1766379696191167</v>
+        <v>-1.430660380140866</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.2505901229496172</v>
+        <v>0.45330548533406123</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>1.489013830397946</v>
+        <v>0.7579512704244875</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>0.6624169285592187</v>
+        <v>-1.3240262472082618</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>0.738515877466227</v>
+        <v>0.08919781173610934</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.8175013521251739</v>
+        <v>-1.3060487629508368</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>0.1990392192220072</v>
+        <v>2.858233766410151</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>1.5384806563771096</v>
+        <v>-0.29691443819548535</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.09724500308390165</v>
+        <v>-0.5871944144504824</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>0.2794211547880047</v>
+        <v>0.45605979862572826</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>0.6619105161361605</v>
+        <v>1.2763365347908147</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.6920098072610205</v>
+        <v>0.9344715207041631</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>1.1288122253540203</v>
+        <v>-2.1534396190516696</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.14146527681291812</v>
+        <v>0.7830308890043772</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.8660084585823684</v>
+        <v>-1.1205179870455029</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>1.0456225997796973</v>
+        <v>0.32175101106857346</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>-1.063276941169276</v>
+        <v>-0.25988779670151296</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>0.11540339808744399</v>
+        <v>-0.6168922866351647</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.611677009241279</v>
+        <v>-1.2605571650516323</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.10371280250979772</v>
+        <v>-1.4777150424299945</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.4304647233425692</v>
+        <v>0.22037283653635487</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>0.2873584577598259</v>
+        <v>-0.21471353782920594</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>-1.7351061828291003</v>
+        <v>-0.07111144262616277</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>2.0215723685108666</v>
+        <v>1.5854580650175065</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>0.5919268075138452</v>
+        <v>-0.6366718791490998</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.04310559555605707</v>
+        <v>-1.1672164411069779</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.6899297437711535</v>
+        <v>0.16203091817784418</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>0.12292278080978557</v>
+        <v>-1.4026157931785903</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>0.35249249185743703</v>
+        <v>-0.14868411164235706</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>0.5753821178370103</v>
+        <v>0.25405256141408</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.7384752757884467</v>
+        <v>0.3642499388555851</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>0.5266701516013548</v>
+        <v>1.1436843490156092</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>1.1989440366462407</v>
+        <v>0.23504601274768921</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.5359580344196234</v>
+        <v>0.9588081835293768</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.5282601471824405</v>
+        <v>1.407068961360569</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>0.38643032801659266</v>
+        <v>0.3184028320590422</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.31371940130890025</v>
+        <v>-0.3712532487052284</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.5374172953984339</v>
+        <v>0.03362342653915771</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>0.2750377866282933</v>
+        <v>-0.889433217395982</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>0.07193256004328126</v>
+        <v>0.5167630651969322</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.28321404700910824</v>
+        <v>-0.31306854744916995</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.11202313667797394</v>
+        <v>0.10343408319410471</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>0.3847835344472836</v>
+        <v>-0.48401379723087784</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.5112486869401717</v>
+        <v>0.6618121893793737</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.03859769303538117</v>
+        <v>1.0497533181160947</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>0.6408843285182733</v>
+        <v>-0.7301047422175314</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>0.11684671539035181</v>
+        <v>1.5871524014186043</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>1.4269718547890187</v>
+        <v>-1.7126367554345947</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.12475077481322243</v>
+        <v>1.257624747127928</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>-1.0482724605540128</v>
+        <v>0.6342098791307921</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>1.8146679539661323</v>
+        <v>0.4172155919081559</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.5376067702542158</v>
+        <v>0.007863333262168412</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>1.1550867142177597</v>
+        <v>1.022547925502188</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>0.20421412177978107</v>
+        <v>-0.37315710406079633</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>-1.1878606633473565</v>
+        <v>-0.1622950515287332</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.059239260770914494</v>
+        <v>0.9593611430298038</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.7407015964359801</v>
+        <v>1.01148452604364</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.7339474247077431</v>
+        <v>-1.4391083000443188</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>0.001727808556077235</v>
+        <v>-1.0539185397583317</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>-1.9187428582924009</v>
+        <v>-0.9617269444457509</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>0.48169564627873074</v>
+        <v>-2.0857407408786446</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.38005366120589024</v>
+        <v>1.3498615648587224</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.05447242548203807</v>
+        <v>0.5533913671468347</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>0.3287352390743291</v>
+        <v>-0.10350392233714356</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>0.5694479664140394</v>
+        <v>-0.45572395544889616</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>0.10068357392216813</v>
+        <v>0.41819801950717633</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>2.203540770424944</v>
+        <v>0.561940260208337</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.767866071586357</v>
+        <v>-0.32445732412524914</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>0.8817033837748015</v>
+        <v>-1.5833031282547438</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>0.5749866606041143</v>
+        <v>0.5837887544278866</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.5638180408348548</v>
+        <v>-0.23344163406210738</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.3072653588961193</v>
+        <v>-0.6884241173047866</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.5117543557764725</v>
+        <v>3.2714258633558755</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>-1.189873896307582</v>
+        <v>0.4203602982985889</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>0.3929864090985624</v>
+        <v>0.39932607831787537</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.40815640416295745</v>
+        <v>-1.17213848905375</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-1.2093174149010026</v>
+        <v>1.2579536513887113</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.25458449729410826</v>
+        <v>0.545348466255428</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.7622892794215953</v>
+        <v>0.16672222812505072</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>2.3268304807891718</v>
+        <v>0.4247168249765568</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.8404396333936667</v>
+        <v>0.9442534208440958</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.11748319345926748</v>
+        <v>-1.6336882804705297</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.4930741179752351</v>
+        <v>0.3500014803132851</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>2.13905119267304</v>
+        <v>-0.8718442253964239</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.8659224022206634</v>
+        <v>-1.4722141297422406</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.08952163666936987</v>
+        <v>0.7665262869243525</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.1686341715970643</v>
+        <v>0.2067752363047197</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>0.4459017727737936</v>
+        <v>1.7177829418495163</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.5480385898901179</v>
+        <v>0.8440755163869897</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>0.7242629306198158</v>
+        <v>-1.3759647210183303</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>-1.2651598071807866</v>
+        <v>1.1143189805357663</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>0.7938029970874935</v>
+        <v>-0.22666506718991006</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.25649454527475585</v>
+        <v>0.7063250185141742</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>0.31981353006618596</v>
+        <v>-1.4304519186324671</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.2790296046836913</v>
+        <v>0.34405278408698947</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>1.378331726715044</v>
+        <v>-0.06728173375141824</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.3092639017243949</v>
+        <v>-0.6487085106065571</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.6847016276065746</v>
+        <v>-1.4468747197054548</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.20990929985380977</v>
+        <v>0.2386349054916729</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.017748251583079216</v>
+        <v>-0.617652908590426</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.5616856965409616</v>
+        <v>-0.049357051336201344</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.8941868274857894</v>
+        <v>0.7825037873477747</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-1.3185902766165747</v>
+        <v>-0.27319171270595954</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.18862554931773318</v>
+        <v>0.014956058575340145</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.6258796488635839</v>
+        <v>2.5341528355978173</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.35648732059418625</v>
+        <v>0.12030887546743244</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.751647305673094</v>
+        <v>0.23756494633870687</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>-2.3954089172831656</v>
+        <v>1.9451830415991542</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.5845847460564029</v>
+        <v>-2.292236927343711</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>0.5249857436721891</v>
+        <v>0.947101614024637</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.4964513204384452</v>
+        <v>-0.06141456375490547</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.7511220298659633</v>
+        <v>0.7854096204615373</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>0.7606451685170494</v>
+        <v>0.26829271866046506</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>-1.550289058119115</v>
+        <v>-0.6133544591180767</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.4611009530120471</v>
+        <v>0.16671020645873807</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.16495757499569494</v>
+        <v>-0.05007851951056312</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.6363100233644335</v>
+        <v>-1.0663679833611552</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>0.3053516363894047</v>
+        <v>0.6695142437270584</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>0.8804096848146803</v>
+        <v>0.8580638662058447</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>0.7585927897825895</v>
+        <v>1.7991236054377393</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.20224630510238348</v>
+        <v>-0.22539684123074358</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.00598335970281</v>
+        <v>-0.36050140202265535</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>-1.721710875741363</v>
+        <v>1.990827199778013</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.6911643275392263</v>
+        <v>0.7724265258416324</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.6915826472578129</v>
+        <v>-0.6662460569156864</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>-1.8210219818483666</v>
+        <v>0.5529229625177811</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1.8368242312461518</v>
+        <v>0.5220156583981956</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.9644870999197294</v>
+        <v>-1.074267696519857</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.49781373228372083</v>
+        <v>-0.06475915298243297</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>0.43252058934888227</v>
+        <v>0.2969662670737909</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>-1.6024466326974718</v>
+        <v>-0.7373690534098263</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.9532536854092823</v>
+        <v>0.38860641459613415</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.1609862377700292</v>
+        <v>-0.8068114281628116</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>1.813604739454989</v>
+        <v>1.3365978876366946</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>-2.460526208206587</v>
+        <v>0.48205114111303593</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.6513470059366413</v>
+        <v>2.2820422622586505</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>0.4271757872630315</v>
+        <v>-1.627687925944802</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>0.21708994056195152</v>
+        <v>1.1376735149196135</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.22337467167110883</v>
+        <v>-1.3835537594988114</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>0.6993770869631885</v>
+        <v>1.1212492625044421</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>0.2018476961161675</v>
+        <v>0.07771438967784387</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>1.309318483209738</v>
+        <v>-0.9825766136999649</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>-1.0057492956646514</v>
+        <v>0.058567702795818515</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>1.1142061862096058</v>
+        <v>0.7236641635492922</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>1.2021882305728973</v>
+        <v>-1.3155711078013022</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>0.7698504656323357</v>
+        <v>-1.828430821845168</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.8952405402552642</v>
+        <v>-0.5713477952146355</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.6290315276416107</v>
+        <v>0.2889077556979362</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.1090554946363561</v>
+        <v>-0.3209173137949401</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>0.4232567630589869</v>
+        <v>1.7398414074177955</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.677119746684596</v>
+        <v>0.6216358325844171</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>1.6864378549769767</v>
+        <v>0.7656970837791428</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>0.06392699319605787</v>
+        <v>-0.8182907517928855</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>0.25224805364518893</v>
+        <v>1.685076410927685</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>0.1249800254062892</v>
+        <v>-0.7213991769176271</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>0.38104006721975225</v>
+        <v>0.1206680687855554</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>-1.329234558544976</v>
+        <v>0.2148310234436426</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.16520389865158056</v>
+        <v>0.18553472662519904</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.0484384355059027</v>
+        <v>-0.5174613516260264</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>2.0162176182476097</v>
+        <v>0.02165582267808253</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>0.67930157333415</v>
+        <v>-0.8285206884993613</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>0.6353574335988624</v>
+        <v>-1.2110268714485288</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>0.05343784307973919</v>
+        <v>1.7041084689305217</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.9031172316299977</v>
+        <v>0.4706703813838167</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.9054106120505349</v>
+        <v>0.48744084152954875</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>0.043874758819690336</v>
+        <v>1.1197357476348815</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.6902376443938709</v>
+        <v>-0.31256050305135985</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>0.7305193049042183</v>
+        <v>1.5071202503102143</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.6478348853949986</v>
+        <v>0.2447611397210676</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.8078772327347109</v>
+        <v>-1.50492528268487</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>0.6136692373430471</v>
+        <v>-0.25334465480445545</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.28264136911414417</v>
+        <v>1.0117759658512486</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.050551949047502466</v>
+        <v>-1.4166158342517154</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.48557505155501796</v>
+        <v>1.71939349375874</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>1.2811373068571819</v>
+        <v>0.00771686103018732</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.7871795140404558</v>
+        <v>1.4240251401145074</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.8843381935849862</v>
+        <v>-0.8914483404448351</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.5378055253196369</v>
+        <v>0.7538988874925464</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>1.4310092596078603</v>
+        <v>0.5830637432495246</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>0.16658929053669985</v>
+        <v>-1.7463268351552326</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>0.16727236900288991</v>
+        <v>-0.3264523057797468</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>1.302333096539805</v>
+        <v>-1.0928860142638692</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>1.6765186575764899</v>
+        <v>-0.5654036942528613</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.4176904009722541</v>
+        <v>-0.8864242290432134</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>1.0208132340257423</v>
+        <v>1.7420925083944274</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>0.586381590994681</v>
+        <v>-0.40217994649108024</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>0.0549063791091957</v>
+        <v>-0.04117848278648233</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>1.5490060453238137</v>
+        <v>2.2842218999828936</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.4044810908468143</v>
+        <v>-0.48705675265533255</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>1.8176144080316863</v>
+        <v>-1.5135673874722366</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>0.25666992464358285</v>
+        <v>-2.938590685201648</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.42482703874055916</v>
+        <v>-0.2477201854420019</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>0.817993382457065</v>
+        <v>0.1208686335628505</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>0.4207728584125612</v>
+        <v>-0.641568330091607</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>1.6249434096452315</v>
+        <v>-1.1682687253787944</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>-1.2334615983408779</v>
+        <v>-1.0328609425056612</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.4914853409410038</v>
+        <v>0.15885539429967618</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.7987657359535433</v>
+        <v>-0.8572610399089023</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>-1.1268117768853152</v>
+        <v>0.24208642852449203</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.510344272116108</v>
+        <v>-0.17163460462201272</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>-2.1182116782696263</v>
+        <v>-1.995844952655935</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.6674250528467298</v>
+        <v>0.8980445852014057</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>1.723694257122138</v>
+        <v>-0.9452532960717633</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>0.8469177730028534</v>
+        <v>-1.0706719246337248</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>0.7279044477401789</v>
+        <v>-1.1813549812648614</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>-1.3984584531980981</v>
+        <v>0.7954235947169483</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.08918525151350734</v>
+        <v>0.38884432170560745</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>0.431541816289692</v>
+        <v>-0.22403351300574667</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>-2.2646317589697222</v>
+        <v>1.2690811441068492</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>0.376851457634205</v>
+        <v>-1.001677440866448</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>-1.8573605820150996</v>
+        <v>-1.4725573106226084</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-0.9612851031705687</v>
+        <v>0.5388551643404841</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>-1.0179557495784155</v>
+        <v>-0.9179294933560699</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>0.3067601478528485</v>
+        <v>1.700262291706979</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-1.691885292853108</v>
+        <v>-1.0841681359515856</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>0.6433535809933917</v>
+        <v>1.2515549374089938</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>0.3828904926304337</v>
+        <v>0.2537362376819317</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.3090472546162137</v>
+        <v>0.9059905486873173</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>0.6815880015397612</v>
+        <v>-0.11127403844603145</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>0.7364286524744361</v>
+        <v>0.8018331958587297</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.1554621199006572</v>
+        <v>-0.47410885839694783</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>1.7494916772511908</v>
+        <v>-1.0059038311336912</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.5422100994759912</v>
+        <v>-1.8570412087988355</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>2.4459149807001093</v>
+        <v>0.22731809515785897</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.9594328543741968</v>
+        <v>0.27751548296107614</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>0.8183570914703004</v>
+        <v>0.6039662992836853</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.2612406824178157</v>
+        <v>-0.5402280686080194</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.2602382524740488</v>
+        <v>-0.4144091022838171</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>-1.5548055188744196</v>
+        <v>0.78384442262072</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>-1.7729773502826576</v>
+        <v>0.1293199700976537</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>1.1989088171847886</v>
+        <v>-0.5944933831429602</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.9412084056881752</v>
+        <v>0.16335460134075835</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.14418749171091197</v>
+        <v>0.2456647594806541</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.005301258831228306</v>
+        <v>0.2589376884281073</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.7060092993511283</v>
+        <v>0.08882631116780175</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.029476896841037097</v>
+        <v>-0.41641630381046807</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.9210101696250584</v>
+        <v>-1.297410991579866</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>-0.08918308895214021</v>
+        <v>1.2018932069563617</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>-1.9924370530866824</v>
+        <v>0.7277846768501004</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>-1.2322309375562157</v>
+        <v>-0.36044058272095997</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>0.5831202567648811</v>
+        <v>-0.32292538228543827</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>0.39587909061575655</v>
+        <v>-1.346390131703976</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.30922055480468025</v>
+        <v>0.14844188873850553</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.3601914006005979</v>
+        <v>-1.2936722594953458</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>-0.7956408916195095</v>
+        <v>-1.4930396374957375</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.5320048054618275</v>
+        <v>-0.17720761970166776</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3915716259662246</v>
+        <v>-0.008923202688538957</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>1.2382766411159334</v>
+        <v>-0.8664061353342288</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.13852506827634442</v>
+        <v>-1.184371243178808</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.43035077345514994</v>
+        <v>-1.274882244306933</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>0.6635664624929283</v>
+        <v>-1.1182780442469238</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.640606977004789</v>
+        <v>0.591111388046522</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>0.04726494253156173</v>
+        <v>0.34299038828342276</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.8971456151583131</v>
+        <v>-1.6639811456787468</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>0.17499743161832046</v>
+        <v>-1.466995867522317</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>0.6791416421533455</v>
+        <v>-1.6662695557544334</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.0705859004203658</v>
+        <v>0.24431132629177807</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.13349521324363745</v>
+        <v>2.7339262522444607</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.7997279962518012</v>
+        <v>0.30682108381155165</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>0.6124181405865932</v>
+        <v>0.35322505190487474</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>0.14357650034095573</v>
+        <v>-1.189687052161309</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.5864113310144453</v>
+        <v>0.43009899330304435</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-1.0444914869088893</v>
+        <v>-0.670309945451815</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>-2.2730283090227665</v>
+        <v>0.7719421422853106</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>1.1239928252630058</v>
+        <v>0.7434112678543152</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>0.9321507786625781</v>
+        <v>-1.028354266685061</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.9240106922601838</v>
+        <v>0.7346513650259913</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>0.00835235923619337</v>
+        <v>1.07626680168484</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>-1.3492510289050306</v>
+        <v>-0.9208851097640145</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.9441095254661241</v>
+        <v>1.5166409922982842</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.8142785294276843</v>
+        <v>0.2684932947452074</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.5777697501356639</v>
+        <v>-2.089280915849311</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.11148525480524843</v>
+        <v>-2.5494826828916417</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>1.1092351341321722</v>
+        <v>0.9219453894604677</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>-2.2481606719004072</v>
+        <v>0.22370093560185939</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>0.9148817220935124</v>
+        <v>-0.11711436438864238</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.2780180186537795</v>
+        <v>0.4310365706138861</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>0.07805257546391438</v>
+        <v>-2.1518337599853776</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>1.7248929496033045</v>
+        <v>-1.2232445112821135</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-1.3340634934902564</v>
+        <v>-2.1920266468822116</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>0.38447879912033406</v>
+        <v>0.05700196253381985</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.4290247678937619</v>
+        <v>-0.3528683412596329</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>-1.442298657818178</v>
+        <v>2.182121053113173</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.20755960987751043</v>
+        <v>0.046690221146151435</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7208113260928827</v>
+        <v>0.4849970110299107</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>1.4502581662317326</v>
+        <v>0.8682047281017643</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>-0.36314003505815806</v>
+        <v>0.3434354208423034</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>-1.316757890500754</v>
+        <v>-0.9082076665514192</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.1861893519294072</v>
+        <v>-1.1190811386014774</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>1.1724871302314726</v>
+        <v>-1.4435595086992232</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.43002119427433816</v>
+        <v>-0.6917490717202616</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>0.28212915977794073</v>
+        <v>-2.2757051386449576</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>0.5696878887835631</v>
+        <v>0.1019950291255225</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>-0.3121916640425811</v>
+        <v>-1.6846804798960555</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.5445351341302939</v>
+        <v>1.0034032934540005</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.2431168493016998</v>
+        <v>1.371484040811902</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.31026430663646715</v>
+        <v>1.1662083824531413</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>0.7128166913961052</v>
+        <v>1.5136102827542326</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>1.8360895763306517</v>
+        <v>-0.10595082178785371</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>0.754510253969228</v>
+        <v>-0.3015627707852986</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.32264956509284326</v>
+        <v>-0.43683897814921274</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>0.5337492227011846</v>
+        <v>0.2773589296844776</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-2.201565261487987</v>
+        <v>1.0839943253189004</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.657934110810589</v>
+        <v>-0.12781551500984867</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>1.3254739088416183</v>
+        <v>1.0940340423227246</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>0.4892141994291313</v>
+        <v>-0.2708387114663446</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>0.9720964054097433</v>
+        <v>-0.8055445641449215</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.6275497643132257</v>
+        <v>-1.1834979932004865</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>1.2540639756941607</v>
+        <v>-0.4665941918909956</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.6021376628565223</v>
+        <v>-2.478134797133386</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>-1.0062072837730607</v>
+        <v>0.1747640304338605</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.26074240945039795</v>
+        <v>-0.16315507915838498</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.9546264667548048</v>
+        <v>-0.8432743355456513</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>1.6876996660880772</v>
+        <v>0.556057763567621</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.770372302633099</v>
+        <v>0.6853631414048221</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.9417341957203673</v>
+        <v>0.7250666162024724</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>-2.0312325618728626</v>
+        <v>1.6569716368377208</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>-0.8312362093271319</v>
+        <v>-1.1155192262645814</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>0.5879237059611939</v>
+        <v>-1.81187313737723</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.44870472344211715</v>
+        <v>-0.9175940646213838</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>-0.5535902030297664</v>
+        <v>0.3318341894330209</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-1.3807589971047198</v>
+        <v>-0.590690095978019</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>-2.0101408084639796</v>
+        <v>0.7022048759120915</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-1.8813711622052924</v>
+        <v>-2.012917838929648</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-1.0556115343916792</v>
+        <v>-2.5272656115161003</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.6350234764642951</v>
+        <v>0.881220401203868</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>0.6490123293765514</v>
+        <v>-0.7638556498993595</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.1121970875493753</v>
+        <v>-0.8506627032172225</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>1.1793255095102653</v>
+        <v>-1.7488435551069064</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>-1.4086817430841858</v>
+        <v>0.21775382919126807</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>0.9051208957802104</v>
+        <v>-0.2121885216049572</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.7372221234783192</v>
+        <v>0.3802188985735444</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>-1.3673375208233394</v>
+        <v>0.9188325523924975</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>0.39767826774585696</v>
+        <v>0.1557561057837753</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>0.27744400375943934</v>
+        <v>1.1239288559097882</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>-1.7538455028111137</v>
+        <v>0.8099878493604729</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>0.588302154636956</v>
+        <v>1.7637787378199934</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.5224085806465353</v>
+        <v>-0.17139903757100414</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.14226211664530705</v>
+        <v>1.8428921120489052</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>1.4757561958516674</v>
+        <v>-0.2692812958526537</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>0.7363393176171056</v>
+        <v>1.4691788962328065</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-0.24550242637047442</v>
+        <v>-1.0031680229103004</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.7116349821383866</v>
+        <v>-0.5165109211883002</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-1.099250070843871</v>
+        <v>-0.28356679541759217</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.27922754260614796</v>
+        <v>-2.567927218007627</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.2074075487754108</v>
+        <v>0.5982093189357245</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>-0.6935854470382362</v>
+        <v>0.4009634743925121</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1.2087738221648945</v>
+        <v>-0.8434211461214643</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>1.1628479791309136</v>
+        <v>1.6215492217028493</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>0.013008164541076197</v>
+        <v>0.29676894449900953</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.03609824075453063</v>
+        <v>1.2948943533274786</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>0.6246607245612668</v>
+        <v>2.1313153615538183</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>0.8445164147761369</v>
+        <v>-1.0215614870361827</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>0.7666520379116878</v>
+        <v>1.0801147582032693</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>2.4580751542669543</v>
+        <v>0.8281347656915435</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>1.8520241587586914</v>
+        <v>0.2814729162466176</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>0.5826538285277173</v>
+        <v>-1.1293539484245203</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>0.03468944944922578</v>
+        <v>0.9876574520474936</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.6192670285220179</v>
+        <v>0.938713232578086</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>-0.2535239487074796</v>
+        <v>0.46192172680625965</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>0.43611638050745716</v>
+        <v>-1.3639500561653464</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.8288324425175825</v>
+        <v>0.334566654143918</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>-1.2831741990962415</v>
+        <v>-0.8340336852185549</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>0.13515048408445757</v>
+        <v>1.3382608042323165</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.5418644081575327</v>
+        <v>-0.5537828824609309</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.1392684863911001</v>
+        <v>-0.20354727929561892</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>1.5154729402542546</v>
+        <v>0.1464829539444247</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>0.4825664056345842</v>
+        <v>-0.051767765778147366</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>1.2115882752220988</v>
+        <v>-0.2262560047402481</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>1.845555169765277</v>
+        <v>-0.6034483249763768</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>1.5019419161427123</v>
+        <v>0.6111511773993001</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.8064807054728013</v>
+        <v>-0.13251260062247722</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>1.4716708886859868</v>
+        <v>0.1110970988046241</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>0.9526399534735528</v>
+        <v>-1.1135720645070648</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>-1.9404591834667417</v>
+        <v>0.6261272749333332</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>-1.2515097109200404</v>
+        <v>-0.8111894475843702</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>0.11399004503114121</v>
+        <v>-0.8021097123261093</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.20767095272242647</v>
+        <v>-0.1130226567514466</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>-1.220480302916153</v>
+        <v>-1.3398029507640499</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>-0.38037563146704867</v>
+        <v>0.2785966259436708</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.5005364551456031</v>
+        <v>-2.006423482883171</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>0.6391307235496644</v>
+        <v>-0.5095735176831573</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.2897773525857223</v>
+        <v>-0.9586903627898273</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.4364886164630497</v>
+        <v>-1.5537142537170265</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.706977881709036</v>
+        <v>-0.5524994364980885</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>-0.14014887238562398</v>
+        <v>-1.389497241798212</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.020656888793570787</v>
+        <v>0.9255000812157651</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.38908632953587025</v>
+        <v>1.8054416704488034</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>0.04283786626676996</v>
+        <v>-0.5398330674220778</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>-1.2814815462251279</v>
+        <v>-1.1207569766385175</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>-1.0124427379986514</v>
+        <v>1.501475737622891</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>0.45838572650905063</v>
+        <v>0.9900192966425946</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>0.1918149686644248</v>
+        <v>-0.15615997663620765</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>-0.6261028199656118</v>
+        <v>-0.3801373226865614</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>0.5511637600685998</v>
+        <v>-0.21488484892140405</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>0.6867213288863271</v>
+        <v>-0.2960337872401184</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.6906823107437935</v>
+        <v>1.4106633079876236</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>-0.03690065925539643</v>
+        <v>0.5634195198423411</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>1.4829468878072882</v>
+        <v>-0.2826028541948113</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.7188197076024724</v>
+        <v>0.16159612745333568</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.42753380025949866</v>
+        <v>-1.3769168849438984</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>0.7235326189946577</v>
+        <v>-0.6965633740396134</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>1.0100538187999233</v>
+        <v>0.11931580373879429</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>0.6308152465011612</v>
+        <v>0.473000975330007</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.6372745341015075</v>
+        <v>-0.33059115769987596</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.9075610116224185</v>
+        <v>0.35016309433597226</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.29371564758727486</v>
+        <v>-0.007905546859939506</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>0.7143102885558011</v>
+        <v>-0.6355070858081621</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.9359353944407954</v>
+        <v>0.947179321651065</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>0.7426010070467387</v>
+        <v>-0.62700928405306</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.9057536404536229</v>
+        <v>0.7389866477263692</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>-0.14798434043902653</v>
+        <v>0.3874351211190174</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.8765224342614923</v>
+        <v>0.4509736574443274</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.9718819484204885</v>
+        <v>-0.8130797510975502</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.8934322473352042</v>
+        <v>0.09378300878546134</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>2.3802997628107603</v>
+        <v>-0.14615180334083033</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>1.023171567023361</v>
+        <v>-0.3359428209010242</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.07545905233700506</v>
+        <v>0.571237422564206</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>0.9621906272244432</v>
+        <v>-0.9182108514889111</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.4522362759421472</v>
+        <v>-0.44948151314242096</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>0.1579253833244548</v>
+        <v>-1.5660959926122635</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>-1.143253363033445</v>
+        <v>1.4838939012805406</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>-0.19111908680342374</v>
+        <v>0.8389079670326364</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>1.021122078741945</v>
+        <v>-0.5936102568099985</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>-0.2735920087259887</v>
+        <v>-0.7251653241836509</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.02803327981565808</v>
+        <v>0.5407934527832293</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>-1.0406511176083626</v>
+        <v>-0.4347997242627499</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>-0.34563927955600604</v>
+        <v>0.1035961264217932</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>-0.6366435444197236</v>
+        <v>-1.3504780469971</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>-0.31929207997010084</v>
+        <v>0.5381630705416018</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>-1.4251436425461748</v>
+        <v>-1.2147959249473828</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.22627640107809222</v>
+        <v>1.2712033477883853</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>0.5277837458315233</v>
+        <v>-0.10923721579578419</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>-0.8692563028550108</v>
+        <v>-0.006360462475964048</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>1.3308210143273562</v>
+        <v>-1.1924543322631114</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>0.4956978479789296</v>
+        <v>1.1959956373441503</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>-0.5340634537561791</v>
+        <v>1.3190275173942834</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>0.25637797279237445</v>
+        <v>0.7675372078579922</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>-0.5219176373285833</v>
+        <v>-0.6406982314584122</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>-0.7090200442059567</v>
+        <v>-0.48239604988534523</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>2.316939371787659</v>
+        <v>1.0841923945704588</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>1.1665037338258928</v>
+        <v>0.29785448463449343</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>0.6251246106490437</v>
+        <v>-0.6233679570575658</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-1.5349531850266587</v>
+        <v>-0.16560071785297895</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>-1.4089998388172227</v>
+        <v>-1.042724295309517</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>-0.9771323174119144</v>
+        <v>0.4813705386250146</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>1.809156888988855</v>
+        <v>-0.5915409177181653</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>1.6795873443343183</v>
+        <v>0.09195941551109547</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>-0.24708661881064897</v>
+        <v>-1.8315325719854123</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>0.16410256411997157</v>
+        <v>0.5715495248934469</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.9198952484861543</v>
+        <v>-0.5607013341534928</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.02048837405815372</v>
+        <v>0.9526475582042069</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>-1.6833781725321082</v>
+        <v>0.2914566470270803</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.7922228967028493</v>
+        <v>0.6391709792287891</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>-1.358759443676136</v>
+        <v>0.8344827418499877</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>0.49605755744091157</v>
+        <v>-0.5196683769780412</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.2487977108174102</v>
+        <v>-1.0843174229948849</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>-0.8449882198340998</v>
+        <v>0.7701029059131093</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>1.6037064255274736</v>
+        <v>-0.7391504845897694</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-2.077864137725866</v>
+        <v>-1.1452886109470917</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.13521204233476775</v>
+        <v>0.763199151625202</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.2971916488556971</v>
+        <v>0.4976912451733612</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>-1.3560280340378146</v>
+        <v>-0.9505674402018428</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>-0.26947431047256776</v>
+        <v>0.7369599799674201</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>-0.5450687059555265</v>
+        <v>0.29298729146764396</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>0.5889595278262912</v>
+        <v>-1.916700000566495</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>-1.0848897945986382</v>
+        <v>0.2969987795579126</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>1.383790582799396</v>
+        <v>-0.0977947283671787</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.66665820749239</v>
+        <v>0.24034392682898495</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>1.2942350113999963</v>
+        <v>1.5902010545373106</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>1.474649520355469</v>
+        <v>-0.8694398945196041</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>2.5972136318944434</v>
+        <v>0.5878337792703682</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>1.6437729468421824</v>
+        <v>-0.3091862954677184</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>0.9398525406310475</v>
+        <v>-0.7762495811121342</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>-0.589544341456667</v>
+        <v>-0.7182518799065477</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-0.2676665160325086</v>
+        <v>-0.2359495986711249</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>0.533008481232416</v>
+        <v>-1.63894730859742</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>0.4592697404583548</v>
+        <v>0.1436175086274126</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.47010604505777437</v>
+        <v>0.011425234572167663</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>-1.0374054715206833</v>
+        <v>-1.6165651996839394</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.29353586783783603</v>
+        <v>-0.19154769350933096</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>1.3756728383155543</v>
+        <v>-0.7655954550018927</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.37981646851995415</v>
+        <v>0.255364652719777</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1.2338090264378767</v>
+        <v>-0.06841484486067344</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>0.28982975990336046</v>
+        <v>-1.2139591280089705</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.8116636082316954</v>
+        <v>-0.09450373534905074</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>-0.34527508091927867</v>
+        <v>0.9816579814035674</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>0.3158369062825739</v>
+        <v>0.06912494541552307</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.40560956487748306</v>
+        <v>0.320922120821409</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>-0.23831270931129833</v>
+        <v>0.583045152302182</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>1.5296041031470495</v>
+        <v>0.2823303511344665</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>1.8070956547806312</v>
+        <v>-0.4844169610484687</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>-1.4392123993402206</v>
+        <v>-0.774687731478919</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>-0.26339732070709426</v>
+        <v>-0.18553945189533638</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>-1.2448382448429576</v>
+        <v>-2.140606218561183</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-0.8619351401724171</v>
+        <v>-0.40918373002895414</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>-0.17829299163077683</v>
+        <v>0.020394968429752476</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.5807289589555893</v>
+        <v>-1.1621663784221183</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>1.4292581580164403</v>
+        <v>-0.31996042691595133</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>0.5550615633807123</v>
+        <v>-0.4637038103136277</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>0.3472647951479757</v>
+        <v>-0.3493921814769944</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>0.619426737711327</v>
+        <v>0.4454317595399661</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>0.3655257339053803</v>
+        <v>-0.4725926715435719</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-0.04068549932377773</v>
+        <v>-1.2668576481950224</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>-1.1747576298054</v>
+        <v>1.5982278455250167</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>-0.660227011033371</v>
+        <v>0.9130291289302287</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>1.3176961734170594</v>
+        <v>-0.23169295865358835</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>-0.9440844040741803</v>
+        <v>0.3800664407957191</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-0.800268701819047</v>
+        <v>-0.4697391838668469</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>0.5694534339093226</v>
+        <v>0.3333690539393295</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>0.683285597615673</v>
+        <v>-0.5280426511526733</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>1.1612394289931238</v>
+        <v>0.7003183934468643</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>-0.2313584486532187</v>
+        <v>0.9588787652886848</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>0.9541049001032109</v>
+        <v>-0.05447018532463354</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>-1.2786866323986117</v>
+        <v>0.04359011054084403</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>1.037815603820172</v>
+        <v>-1.3126996709509757</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>-1.169081739071747</v>
+        <v>0.23831177987815794</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.7890533494403792</v>
+        <v>0.35813861128540275</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>-0.10428768900325303</v>
+        <v>1.3909505912851137</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>1.0086721052116336</v>
+        <v>-0.1708184929032001</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>-0.4569110322574081</v>
+        <v>-0.09464817596304365</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.633602494762916</v>
+        <v>-0.8384820774178692</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>1.8206317249183774</v>
+        <v>0.8974514999817382</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>-0.4287970379201709</v>
+        <v>0.6985721300067853</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>0.6725450039146643</v>
+        <v>-0.805676302261896</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>0.8755683122258103</v>
+        <v>1.9226089056496498</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.8391546931911391</v>
+        <v>0.9981919536567454</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>-1.5116160667489627</v>
+        <v>0.48897874275460207</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>1.4881369326540963</v>
+        <v>1.36873859231238</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>-1.6034457481490825</v>
+        <v>-1.3054359353668463</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>0.3018171546537419</v>
+        <v>2.2483606113497188</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>-0.024806273317331602</v>
+        <v>0.9381159561711935</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>-0.15222903663534115</v>
+        <v>0.30424992566913245</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.5513197892223612</v>
+        <v>-0.6659951875669926</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>-0.916304395884966</v>
+        <v>0.9613536968705565</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>0.5600524689174665</v>
+        <v>0.7525736738074942</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>-1.2165191032915321</v>
+        <v>-0.43150357187050725</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>-0.6038396983519526</v>
+        <v>0.24133101765396217</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>0.2941786516918295</v>
+        <v>-0.8516349699217064</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-0.37760521198813535</v>
+        <v>-0.08994203854405503</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>1.2690484210832669</v>
+        <v>0.20619720150834386</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>2.3992788501088262</v>
+        <v>0.22617065857728796</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>-1.2112190810446681</v>
+        <v>-0.447763061854521</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>1.0564457317575537</v>
+        <v>-1.2206441210727614</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>0.787890366403623</v>
+        <v>-0.17906828886482823</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.02550115134680163</v>
+        <v>0.4870520333425605</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.6894186824677104</v>
+        <v>0.116060443611003</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.003721078717164904</v>
+        <v>0.45376768055265326</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>-0.5140705663168533</v>
+        <v>-1.3242649995132831</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>1.73007972048507</v>
+        <v>-0.5831083027005338</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>0.8106800338213472</v>
+        <v>1.2274366012184441</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>1.5022571720972693</v>
+        <v>-1.8065105718042973</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>1.5151171426835914</v>
+        <v>2.315950612648332</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>0.5457136628355185</v>
+        <v>-0.028030082690986724</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.07569409570884945</v>
+        <v>-1.6383747540726545</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>-1.2150630825642736</v>
+        <v>0.023910231883209287</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>-1.4624172033074534</v>
+        <v>1.0716540839800113</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>-1.324955751200246</v>
+        <v>-0.5119186112300617</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>-0.7086164617799503</v>
+        <v>0.21053448418739631</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>-1.9741897821497885</v>
+        <v>3.1434149092039507</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>1.800246628422836</v>
+        <v>-0.9801186317064847</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>-0.590070044502435</v>
+        <v>-0.0945680792356759</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>0.5902121935233515</v>
+        <v>-0.17395437790508092</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>0.44414868880477104</v>
+        <v>0.3728208495855215</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>-0.30710382579880224</v>
+        <v>-0.4931972900529216</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>-0.4325794568606446</v>
+        <v>1.3835856143055636</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>0.6787623472762357</v>
+        <v>-0.5341714308352996</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>-0.03629997212914796</v>
+        <v>1.7644394601134352</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>-0.59638189195524</v>
+        <v>1.4262133359987987</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>-0.18654955463202025</v>
+        <v>0.17886429304998996</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>-0.8751332979015085</v>
+        <v>-1.7165054804566477</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>1.2851601784479625</v>
+        <v>2.219225777975738</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.3017897144518254</v>
+        <v>0.11207576871244873</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>1.149147691974839</v>
+        <v>0.7260544423859312</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.1806864333023274</v>
+        <v>-0.04878520292577228</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>0.4015731624748252</v>
+        <v>-1.949053754367132</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>0.015030297511583917</v>
+        <v>-1.4221109420057159</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>0.6148530829458063</v>
+        <v>0.39698258412693954</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>2.1772302235438272</v>
+        <v>0.215484211336426</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.7279886379801108</v>
+        <v>-0.4202917983998693</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>0.42918911061740656</v>
+        <v>-0.5739275056565266</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>0.03166849117386982</v>
+        <v>0.34041410535932576</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>-0.4261721420630811</v>
+        <v>-2.788793973246938</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>-0.27370242607824563</v>
+        <v>0.12640728889901148</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>-0.43266057496675403</v>
+        <v>-0.7094149024478824</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>-0.2522935644521584</v>
+        <v>0.9887391373429726</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.09799808096657</v>
+        <v>1.0355013057433353</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.47958969130922685</v>
+        <v>-0.5229855786534837</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.677506238765099</v>
+        <v>0.4968699454392684</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.2157755013987233</v>
+        <v>-1.179537260049492</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.073157747967273</v>
+        <v>1.1102725570751129</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5025354305739373</v>
+        <v>0.6544388614050234</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.6726558323443559</v>
+        <v>0.6652829461911703</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8103515086285298</v>
+        <v>-1.2580134328547394</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4864953330232393</v>
+        <v>0.08974689594773914</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.45168489888467855</v>
+        <v>-0.01345040621088309</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.612162493763776</v>
+        <v>0.6561668982944713</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.14678562210152749</v>
+        <v>-0.05058138466320336</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.025019717889711333</v>
+        <v>-0.40805650835899926</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6602513270429198</v>
+        <v>0.03097323149858507</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.8360927314334606</v>
+        <v>-1.070516861642465</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.005919619772887132</v>
+        <v>0.19168504673700992</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.5196339231739215</v>
+        <v>0.7421206360195691</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8398947551750203</v>
+        <v>0.41661955598346373</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2858079610075604</v>
+        <v>-0.9079970311709399</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2603182614208745</v>
+        <v>0.7551500265215526</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6713507945396981</v>
+        <v>0.06758562740719344</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.666744308074997</v>
+        <v>0.2831488850675847</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2.08144594163275</v>
+        <v>1.8987545024009564</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6559847507423902</v>
+        <v>-1.5624367792754374</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2.3652344246662818</v>
+        <v>0.3789279538059882</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.3958989083459604</v>
+        <v>0.04591443313640471</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.12545106956178445</v>
+        <v>1.5554332796997965</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.35547249179303914</v>
+        <v>0.5959660486469497</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.18715799312637052</v>
+        <v>1.6176313865959533</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.6945798646290854</v>
+        <v>-0.1651706372524592</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.19053313065301605</v>
+        <v>0.553905040822177</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.553301109275383</v>
+        <v>2.0875854354206878</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5364904108105838</v>
+        <v>0.7728102214346888</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9535160884799371</v>
+        <v>-1.261758623239493</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1.2437102510068192</v>
+        <v>0.5356693037706027</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.17666345304022427</v>
+        <v>-1.181468134029964</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1.8878394908784484</v>
+        <v>-0.7549954129196846</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1.5041670145863335</v>
+        <v>1.2794775522575819</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>7.757733962238432E-4</v>
+        <v>-0.8878382954512692</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.4851484662130172</v>
+        <v>0.947330864503546</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.36730746600125175</v>
+        <v>0.5012810775990485</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.7321083727331084</v>
+        <v>-1.5797448797733968</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.507516414202572</v>
+        <v>1.9419027514916094</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2847468906550574</v>
+        <v>-0.5931982733538995</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.15532229850495352</v>
+        <v>-0.4978569156511347</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.8297269326848178</v>
+        <v>1.3012980033668728</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1.434775264516639</v>
+        <v>-1.48726389895623</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.18615405236171603</v>
+        <v>-1.4272888970137776</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.040687378260181546</v>
+        <v>-0.06881228204660947</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.12267143472374642</v>
+        <v>-1.5619394728806755</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.075351649264869</v>
+        <v>-1.3297926905138466</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11481430378626563</v>
+        <v>-1.9269816011615868</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1.1392874588204733</v>
+        <v>1.7417984201827132</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.6893832105577168</v>
+        <v>-0.32468995505538856</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1.1830483379124184</v>
+        <v>-0.3436633027398594</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1.5594321804831837</v>
+        <v>0.281697134075733</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0822014101252734</v>
+        <v>0.20582847226224557</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8303617124073311</v>
+        <v>-0.7039687319248646</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3585996327706122</v>
+        <v>0.009825353056582166</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8363901677519859</v>
+        <v>0.22557131473205846</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.8567545715905882</v>
+        <v>-0.18909675801467268</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.2119308970927687</v>
+        <v>1.467123641009308</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.1472344240457124</v>
+        <v>-0.49132124868268096</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.25600320189294473</v>
+        <v>-1.754289261750097</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.2344180961682771</v>
+        <v>-0.583482965539239</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.43422290710878</v>
+        <v>-0.1735197586980769</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1.7870005560439362</v>
+        <v>1.4067712644438841</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7426308360866328</v>
+        <v>1.5438130666536234</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1.4151759050650685</v>
+        <v>-0.6149882244591904</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6693731911652108</v>
+        <v>0.43202692035625884</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3366598921412608</v>
+        <v>0.23031679613703707</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.37420890593696604</v>
+        <v>-1.5578861679612979</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.4981155763254498</v>
+        <v>-1.1967796676461928</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.4918938205630129</v>
+        <v>-2.3461626769698802</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1.1202529572704454</v>
+        <v>-1.3422231403117808</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1.0901724703662987</v>
+        <v>1.005865905208916</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.4632374226146496</v>
+        <v>0.22905489149286837</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.19351652850472056</v>
+        <v>0.3021893727710058</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1.0940706200856969</v>
+        <v>1.3886743069262169</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.728658850192686</v>
+        <v>0.37847282504568663</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.07793693580248046</v>
+        <v>0.5548166294462161</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.18455181073611673</v>
+        <v>0.23389528601043225</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1271133236934185</v>
+        <v>-0.9899429013708632</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.17777679087309847</v>
+        <v>0.3553249747845904</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.0443037560773496</v>
+        <v>0.05321446557334804</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.362777740045416</v>
+        <v>-0.12173805176177381</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5433831971704289</v>
+        <v>-1.518196958373322</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5130540052876622</v>
+        <v>-1.230286511807536</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3151405734548996</v>
+        <v>-0.87373090264895</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.7428372573360464</v>
+        <v>-0.8791420815707178</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27869851747653296</v>
+        <v>-0.43446043774794424</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.29096462309515153</v>
+        <v>-0.2564044864561411</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>2.1924002535284495</v>
+        <v>-0.5303256225273656</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24081862399911086</v>
+        <v>0.42809888210150976</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7877336302305279</v>
+        <v>-0.8523539827006309</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3540775419893532</v>
+        <v>1.034619670939573</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.22135403980348062</v>
+        <v>-0.3130963910813555</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.36155648982093475</v>
+        <v>2.122795852630572</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.4115125221697288</v>
+        <v>-0.7558826438976274</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1448238413290343</v>
+        <v>-0.13942046239143632</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>1.4444937729546092</v>
+        <v>-0.5439162015835317</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8913328230204812</v>
+        <v>0.33489514507675255</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1.6178567768173437</v>
+        <v>1.1879156813794</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.18515445085889276</v>
+        <v>-1.4535874846300203</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.5952179894842219</v>
+        <v>1.643523659755309</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.47287697479398977</v>
+        <v>-1.3738899793904493</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1.081520621899716</v>
+        <v>0.45469322599995887</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.47001346326162147</v>
+        <v>-0.9964326493964296</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13608458356877173</v>
+        <v>-0.7357773113877085</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.014513539571884</v>
+        <v>0.6126838354189863</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2852399306875615</v>
+        <v>-0.4287096707454756</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3266310525002394</v>
+        <v>1.6560917280664318</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1649505207542117</v>
+        <v>-1.4887861113441658</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.7584156227849004</v>
+        <v>-0.4231247541976768</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.10006956246887619</v>
+        <v>-0.21891535784893543</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5331098022078111</v>
+        <v>-0.650908084421316</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5238293134810795</v>
+        <v>0.6377692260308564</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6037408030928186</v>
+        <v>0.7618443851234871</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.254060814322909</v>
+        <v>0.4198439754575126</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.1084521537161152</v>
+        <v>0.3266141004116005</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.49571688493609317</v>
+        <v>-0.3157069036257173</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.3716945073411375</v>
+        <v>-0.029043629105447395</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.07785998097471486</v>
+        <v>-1.2343138322479081</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.48971988256030413</v>
+        <v>0.5876990557562235</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8021170305141989</v>
+        <v>-0.5266231029699819</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3657858945696991</v>
+        <v>-0.9923718342644694</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>1.6343054569018578</v>
+        <v>-0.8116410094157759</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.47371192048627053</v>
+        <v>-1.9572563440256325</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.16273983824494354</v>
+        <v>-0.7897933694972286</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.2816468235187529</v>
+        <v>0.9305903872406005</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5479962921121144</v>
+        <v>-1.109488450995144</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>1.6878000073252444</v>
+        <v>-0.6685203242452589</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.42009689077299095</v>
+        <v>0.9804704259335002</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1962198417728051</v>
+        <v>0.9259684968817892</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.3044557990108148</v>
+        <v>-0.8703292271127893</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1356542754501973</v>
+        <v>-0.27807802391106545</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.31500386500888017</v>
+        <v>-1.4129690958027867</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.4937280360354127</v>
+        <v>0.19502988594401777</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2141654828634649</v>
+        <v>0.7340858263465777</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2970246503019074</v>
+        <v>-1.6373929475943427</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.022005882112641</v>
+        <v>-0.04495141954751644</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.15918478638349706</v>
+        <v>1.6068044750346828</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.16955080581724583</v>
+        <v>-1.2736525008381379</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.9965775812401961</v>
+        <v>0.5000703212020041</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9949195286700844</v>
+        <v>0.8391246529478235</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.4658046601255768</v>
+        <v>1.0142927486916187</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.22876059518618222</v>
+        <v>-1.479680677761593</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.788798085791543</v>
+        <v>-0.8337539152714956</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.442479375870937</v>
+        <v>0.8095959226616902</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8785577756945263</v>
+        <v>-0.3320480392973076</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.06999544275720246</v>
+        <v>0.15175987296794916</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9636528745518478</v>
+        <v>-1.5091231310543756</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4525810835754796</v>
+        <v>-0.8850769872036235</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4863255705899523</v>
+        <v>0.373137712560364</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.22204650550796098</v>
+        <v>-0.2348297672554906</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.3717655762357446</v>
+        <v>1.501863889402204</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.5891628604827395</v>
+        <v>0.8513823034999406</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.7482641449504361</v>
+        <v>-0.38094809990908585</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1.1110834074392164</v>
+        <v>0.8162215302737341</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.6929908917376972</v>
+        <v>2.173256457588494</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.13774796962015926</v>
+        <v>-0.0397222613642426</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.410218125196453</v>
+        <v>-1.461720244289526</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.031845952624581446</v>
+        <v>0.8637323535016992</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.08184714518449866</v>
+        <v>0.43502428135921056</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.19554827175286107</v>
+        <v>0.5636095445592325</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.0019414845103174</v>
+        <v>-1.0771688047515393</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>1.8469851557524992</v>
+        <v>-1.9680700275512468</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>2.663512756162195</v>
+        <v>-0.9149143333102334</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.2120093480518002</v>
+        <v>-0.8957105640960766</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1548406251428384</v>
+        <v>0.4036494516057617</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.09700460377339447</v>
+        <v>-0.7180808864649063</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.8110394758079211</v>
+        <v>0.1324339164645663</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0046035118453829705</v>
+        <v>-0.15473660306370146</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.09273388307134972</v>
+        <v>1.6684495055387771</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.9183487699272249</v>
+        <v>-1.9378107084724878</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.462881943508456</v>
+        <v>1.5911651574457906</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.5874431881720538</v>
+        <v>1.268387162867988</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7052713125956949</v>
+        <v>-0.18186173015578572</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.9040199684707455</v>
+        <v>1.6084959343185445</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.3254313794215342</v>
+        <v>-0.5204716873556635</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.005878671204407896</v>
+        <v>-0.060338628681215964</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.3357274311375064</v>
+        <v>0.007825520752009109</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>1.9464769727075406</v>
+        <v>-1.6732054741205553</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.04101867635154507</v>
+        <v>1.6515756659996248</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5983692956093491</v>
+        <v>1.8344799906850524</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>2.144958590159048</v>
+        <v>-0.09272945066499591</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5571809641750963</v>
+        <v>1.2230525492527538</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.1626510500482081</v>
+        <v>1.0531717451880145</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8363667550647768</v>
+        <v>-0.35663821495187537</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0073695342286157</v>
+        <v>0.07483158639301084</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.317924858693499</v>
+        <v>-0.1644816692344502</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.7681859386245776</v>
+        <v>-0.6982678850827722</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6791148757008142</v>
+        <v>0.29729588931664114</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.10345551308472138</v>
+        <v>0.32693085746193107</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8476160567450355</v>
+        <v>-0.39966948806288083</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.1796789678922437</v>
+        <v>-0.5672452263628939</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.3521073358735376</v>
+        <v>-0.11818168692135202</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.2165634967217904</v>
+        <v>-1.5907130983693882</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4901982601794549</v>
+        <v>-0.42934292705925076</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9078555789228886</v>
+        <v>2.293188131732581</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8852473308463011</v>
+        <v>0.7590494787058516</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.4497351147986805</v>
+        <v>0.2593002365051004</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.43846086054249295</v>
+        <v>-0.025110166343903603</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9711755184549838</v>
+        <v>1.8101562431635492</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.9665240691063736</v>
+        <v>0.8297192161466034</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4961301211069341</v>
+        <v>-0.22353545144591763</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8794127449755544</v>
+        <v>0.19437636846334666</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>1.0884935516108392</v>
+        <v>0.1725282525389924</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5268452562018757</v>
+        <v>1.9425079247768338</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>0.7785742008895077</v>
+        <v>0.030717408710387948</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.0772967165276728</v>
+        <v>-1.541355177825369</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1482367967832212</v>
+        <v>0.07224464255953843</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.2293211511637572</v>
+        <v>-1.0410760230052376</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.11225287313744786</v>
+        <v>-1.1101912162553185</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.6052906053789592</v>
+        <v>-0.760876470887598</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.17825653571475075</v>
+        <v>-0.9229004190605786</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>1.1038058102251163</v>
+        <v>-0.8864025159933671</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>0.023059811610145652</v>
+        <v>0.16762093974440084</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.20041870453614988</v>
+        <v>0.16851308089029512</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.22143873497134847</v>
+        <v>-0.040988399571804474</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>0.29855971036807183</v>
+        <v>1.3198296382985264</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>0.7538074454401738</v>
+        <v>-0.7415055803229408</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.020724988757446147</v>
+        <v>1.1212701495701076</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.3037306125777697</v>
+        <v>0.9552948313272265</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.9752558802848538</v>
+        <v>2.5886220104130775</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.14115241139956414</v>
+        <v>0.22266887561463142</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>0.7355872532733793</v>
+        <v>-0.8167258279189826</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.2945615971440514</v>
+        <v>-2.722046255307183</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.24265119990259532</v>
+        <v>-1.5057406681089407</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>0.6014473594263499</v>
+        <v>-2.0508521718983</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.5152043806770878</v>
+        <v>-1.5605901248487164</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.33600968950105614</v>
+        <v>-0.6654463104253442</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3750902037576867</v>
+        <v>-1.513738624553736</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>1.793904117836366</v>
+        <v>-0.025360227946351798</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.41729228280049535</v>
+        <v>-0.41921621049602137</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.4638151620046327</v>
+        <v>-1.154191794857466</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8633689353509061</v>
+        <v>-1.4716299927911387</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3414312979121353</v>
+        <v>-0.5340579282177268</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>1.0470793567233503</v>
+        <v>0.17630313880390905</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.9427394710203256</v>
+        <v>1.9494983003235749</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>1.8247851372689365</v>
+        <v>1.4371474844116554</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.5980161169783611</v>
+        <v>-1.812386431835617</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.32029733983711145</v>
+        <v>-0.5992834821821406</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>1.2962268250353777</v>
+        <v>0.8433993857750484</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3256627731943064</v>
+        <v>-2.837857342599857</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.550860499476258</v>
+        <v>1.374967817080961</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.7453449650425915</v>
+        <v>0.5015133810159941</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>1.0778682406511548</v>
+        <v>0.2178299961746825</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.39064068975493843</v>
+        <v>1.050214751992288</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>0.6274563737631953</v>
+        <v>-0.8581039201995901</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.2416154957090306</v>
+        <v>-0.756962311589127</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>0.9611890619042012</v>
+        <v>-1.5390475808530144</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.1743458538749454</v>
+        <v>-0.3284164444668981</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.10906894407087524</v>
+        <v>-1.3004208874986725</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.1878151973303925</v>
+        <v>0.6389996715242254</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>0.02217099615532586</v>
+        <v>-1.8993298231581028</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3817824520219708</v>
+        <v>-0.5359448991902775</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4817976985360079</v>
+        <v>-1.0788790752553856</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2996162710400527</v>
+        <v>-0.6545772409941853</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.622197771483211</v>
+        <v>0.7806562591983589</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.5676664795728568</v>
+        <v>0.9884222664521884</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-1.3816245923372756</v>
+        <v>-1.1869151518431018</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.27866396922393755</v>
+        <v>1.3029178304274152</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.5161032700831294</v>
+        <v>-1.1293682099281803</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.055147787790747554</v>
+        <v>-2.1737942411247784</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>0.39670634191650306</v>
+        <v>-0.4543060426811446</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.5502066518643394</v>
+        <v>0.6400121971786201</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.8644496768106221</v>
+        <v>0.3070795169505955</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>2.040118326005401</v>
+        <v>0.8897170407274356</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>2.073981397529465</v>
+        <v>-0.3772341733046535</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>1.7657608800946931</v>
+        <v>-0.8136785200494782</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.8483341763518564</v>
+        <v>-1.5932323796314962</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.07109363647998365</v>
+        <v>-0.08020892145153555</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>2.0464816563812542</v>
+        <v>0.34072042905412536</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5406628342539109</v>
+        <v>0.4323641842526994</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>1.156537444437954</v>
+        <v>2.4346385157688304</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.9518983939923585</v>
+        <v>-0.29297546346820613</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1983178619443472</v>
+        <v>-0.6906713481745504</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.29513742995552966</v>
+        <v>0.9541417050980663</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.9568195790682527</v>
+        <v>-0.3339386074603848</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>0.4022040183241793</v>
+        <v>-0.30367667900425943</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.26651015492803065</v>
+        <v>0.07733198468822595</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.0403955673964545</v>
+        <v>-1.5040958932268598</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.9784295294575954</v>
+        <v>1.8590611835541644</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>0.3572392923825955</v>
+        <v>-0.39149318377154263</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.0004680787427334</v>
+        <v>0.6100973887796907</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>1.2341219957702054</v>
+        <v>0.04426064603359539</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>1.7967668018455458</v>
+        <v>-0.14122158223803755</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>1.970747104215175</v>
+        <v>-2.3137215364391257</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.06998847941226835</v>
+        <v>-0.6652655892589657</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>0.6857569698824527</v>
+        <v>-1.8606798973787406</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>0.8007344433122241</v>
+        <v>0.005646145220081718</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3607786021796968</v>
+        <v>-0.9975219832748806</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.9904261032173738</v>
+        <v>0.18707890467820798</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>1.809903894887808</v>
+        <v>1.0158221158038903</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>0.13187652150583665</v>
+        <v>-0.005836740829318502</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.3519917855745296</v>
+        <v>-0.262333814583387</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>0.6561372621058656</v>
+        <v>-0.692605333224241</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.8826391340436448</v>
+        <v>-0.5409759407625793</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.23211473426659274</v>
+        <v>-0.11854332394969316</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.8151089295301622</v>
+        <v>-1.291610827023786</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>0.8505703890140187</v>
+        <v>-0.18546411652642045</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>0.7416956617719925</v>
+        <v>-1.8957604601692843</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.79667895757641</v>
+        <v>-2.4460021846139686</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.9923414623715667</v>
+        <v>2.8091355541711525</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>0.7004119037163096</v>
+        <v>-1.4835851607606778</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-1.5246137092842655</v>
+        <v>1.249047106226119</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>0.8503191539986233</v>
+        <v>-0.10239448303297076</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.6245851477070866</v>
+        <v>0.4859152848906991</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.6452928349698062</v>
+        <v>3.157346246450917</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>0.27040716172025836</v>
+        <v>0.15645208619036155</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.47280239398542345</v>
+        <v>-0.8517270128411959</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>1.342134030841786</v>
+        <v>-0.27853358462519306</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>1.4027806055016456</v>
+        <v>-0.3471338523521173</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.5492849725623383</v>
+        <v>-1.3750644507633554</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.03988883458054257</v>
+        <v>-0.5822582614662524</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>-1.9856508178867804</v>
+        <v>1.256482644827581</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.5085120604475557</v>
+        <v>0.29209333684248123</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.492063051263527</v>
+        <v>-1.4347103274173723</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>0.09706695233995612</v>
+        <v>-0.31604752255636454</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>0.3704471318422147</v>
+        <v>1.187362563331827</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.08561837075549196</v>
+        <v>1.180544903543849</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4479222731613469</v>
+        <v>-0.8043023939553287</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.6477454547774886</v>
+        <v>0.6505808090581828</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>0.7272925823307961</v>
+        <v>-0.7096710371537426</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.4752360912508963</v>
+        <v>0.03365663348178629</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>-2.2388787948021984</v>
+        <v>-0.0019156101611115762</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.9030079996735291</v>
+        <v>0.7906613734857251</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>2.3940078350673324</v>
+        <v>-0.1693832650285905</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>0.18919469266613734</v>
+        <v>-0.8973088570386465</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>-1.4663065383405935</v>
+        <v>0.5919899089407966</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>0.44246017222797185</v>
+        <v>-0.38821869006298265</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>0.07202772080536957</v>
+        <v>-1.098005175433823</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>1.0229621756438796</v>
+        <v>-0.06246606680071383</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>0.27349171155922974</v>
+        <v>-1.3044431749753964</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.4067153352838286</v>
+        <v>-1.4836434235697706</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>0.10914486698894493</v>
+        <v>-0.9181218537707921</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.8435156101361512</v>
+        <v>0.510736410753003</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1.206408577882925</v>
+        <v>0.8768823808281875</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>-1.0920620898306734</v>
+        <v>2.1349999235952244</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.0818566691772159</v>
+        <v>0.07721050992812252</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>-3.4674154972048523</v>
+        <v>0.3032163315701244</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.9075039650361449</v>
+        <v>1.314436992374134</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>-1.2147804816164507</v>
+        <v>-0.3458364707759936</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.06651830122373907</v>
+        <v>-1.0726671644657444</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>-1.1690170760716492</v>
+        <v>-0.9615058398666849</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.35593069597378796</v>
+        <v>1.0470825088818867</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>0.002599239630679966</v>
+        <v>-0.6580626892648886</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.6965848703790783</v>
+        <v>-0.28202553442079886</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>0.6658079004413714</v>
+        <v>0.12324829081831065</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>1.6358702018563387</v>
+        <v>0.8582342080025172</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>1.0927370398362974</v>
+        <v>-0.40142579767519604</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.6171813586961842</v>
+        <v>0.034367932121983524</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>1.2254752585366815</v>
+        <v>-2.4242893380099884</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>1.3058625731882205</v>
+        <v>0.41505527024892425</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5629170882262394</v>
+        <v>-1.3233766027798568</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>0.25507297782196037</v>
+        <v>-2.1251530007992914</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9894827768439929</v>
+        <v>0.3990366496363446</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.34157363879735686</v>
+        <v>0.6757128989334168</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.5484822738924829</v>
+        <v>0.2656264891867223</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.1613318738511109</v>
+        <v>-1.4118418182783417</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.24454653116444547</v>
+        <v>-0.630372429940935</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.60432573023932</v>
+        <v>1.3699765265329682</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>0.8688478717919765</v>
+        <v>-0.9041202307793065</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>0.3767235431657692</v>
+        <v>-0.3043785100978934</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.35276965996931964</v>
+        <v>0.3276662647206265</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>0.8968117830822787</v>
+        <v>1.3103630422579653</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>0.6713736444763965</v>
+        <v>-1.3231365531304764</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.8464303739968828</v>
+        <v>0.16082867518215038</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>1.0685630093757517</v>
+        <v>-2.973865356493607</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>0.15548939115846025</v>
+        <v>0.6504284313600665</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.8137891127150884</v>
+        <v>1.0254528098878573</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.7122167245894119</v>
+        <v>-1.4592501064952583</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.5151589755445324</v>
+        <v>-0.42567375903485266</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.6281643009718477</v>
+        <v>-1.1363345683078114</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>1.9259761427365567</v>
+        <v>0.7493903431066268</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>1.6232779863114672</v>
+        <v>-0.11786337468036033</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>0.7831050943664047</v>
+        <v>-0.34074068974037236</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>0.8352019002059612</v>
+        <v>0.4492281996974038</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.1277914251519026</v>
+        <v>-0.7079047066891975</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>0.22441178554537541</v>
+        <v>0.4150852797152989</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.45808089528392965</v>
+        <v>-0.7273316117290664</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>0.025315746545913474</v>
+        <v>-0.4141701179390022</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>1.8333944122220132</v>
+        <v>0.6922406271641594</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.1672915592865523</v>
+        <v>0.9656349062211422</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.048109515203386424</v>
+        <v>-2.045108761988302</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>-1.9971881804362608</v>
+        <v>0.7583546227369939</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.35468335421011166</v>
+        <v>1.3247700426790212</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1.6020711294905154</v>
+        <v>1.7257748321618656</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>0.5262114187549367</v>
+        <v>0.47048441588819223</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>0.1412786401266991</v>
+        <v>-0.18825207131720129</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.8301739495773021</v>
+        <v>-0.1888230894342294</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.5377316145927766</v>
+        <v>-0.8593776209867743</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.8548427800083521</v>
+        <v>0.4902126889812332</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.3440540723899263</v>
+        <v>1.671868205802937</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>1.8299933512011537</v>
+        <v>-0.8797487456723883</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.15398397054470545</v>
+        <v>1.450852397729869</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>0.14579609282804842</v>
+        <v>1.4793587686091731</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>0.37047183322035127</v>
+        <v>1.1415443519704955</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.725738503223725</v>
+        <v>-0.8871949883103244</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.03672533023583517</v>
+        <v>-1.2420814506397808</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.9913760777477572</v>
+        <v>0.08011823815942744</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>-1.5659442581029586</v>
+        <v>-0.9495864429822473</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.12236185802679173</v>
+        <v>-0.7382195956357841</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>0.5972916144984118</v>
+        <v>-1.697297572651957</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>0.07091100256586265</v>
+        <v>0.3010999299122435</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.8923836962129422</v>
+        <v>-1.869310569657404</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>-1.012815314753007</v>
+        <v>0.8034577697768654</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.1578664447596318</v>
+        <v>-2.052438647745892</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.1807995351523648</v>
+        <v>0.12033701384135125</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>0.3535061453604237</v>
+        <v>-1.0295263258192404</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9729376660594767</v>
+        <v>-0.6964516453802517</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>0.9541662747593285</v>
+        <v>0.7420985062710236</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>1.2373793215668822</v>
+        <v>1.6065330685499577</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>-1.430660380140866</v>
+        <v>0.4014563931273919</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.45330548533406123</v>
+        <v>0.7948542997538244</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.7579512704244875</v>
+        <v>0.0032645290055463927</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>-1.3240262472082618</v>
+        <v>-0.6143824063487372</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>0.08919781173610934</v>
+        <v>0.0626539141656477</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>-1.3060487629508368</v>
+        <v>-0.6453032909784208</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>2.858233766410151</v>
+        <v>-0.09328241071366794</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.29691443819548535</v>
+        <v>-1.348974993016905</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.5871944144504824</v>
+        <v>-1.8175174300812609</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>0.45605979862572826</v>
+        <v>-0.5799548390089921</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>1.2763365347908147</v>
+        <v>1.3825242299655445</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>0.9344715207041631</v>
+        <v>0.307290062714356</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-2.1534396190516696</v>
+        <v>-0.6515618534764829</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>0.7830308890043772</v>
+        <v>-1.026633328021343</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>-1.1205179870455029</v>
+        <v>0.1226884223122456</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>0.32175101106857346</v>
+        <v>-0.5386653891575403</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.25988779670151296</v>
+        <v>-0.35568391474470257</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.6168922866351647</v>
+        <v>-1.2319378395317646</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.2605571650516323</v>
+        <v>0.2585893735085304</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-1.4777150424299945</v>
+        <v>-0.7821767369002586</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>0.22037283653635487</v>
+        <v>0.6655148365698318</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.21471353782920594</v>
+        <v>-1.4761230962196004</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.07111144262616277</v>
+        <v>-0.3707628245240442</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>1.5854580650175065</v>
+        <v>-0.21270545410061956</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.6366718791490998</v>
+        <v>-1.3051704475482437</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>-1.1672164411069779</v>
+        <v>-0.2793383251006041</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.16203091817784418</v>
+        <v>1.6083136725276002</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-1.4026157931785903</v>
+        <v>-1.2318441752105087</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.14868411164235706</v>
+        <v>0.6295794172555004</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>0.25405256141408</v>
+        <v>1.3207135366116038</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>0.3642499388555851</v>
+        <v>1.6355064709121552</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>1.1436843490156092</v>
+        <v>-1.025512409605452</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>0.23504601274768921</v>
+        <v>-0.7298254993645962</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>0.9588081835293768</v>
+        <v>-0.33541148913934243</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>1.407068961360569</v>
+        <v>0.4863992189154681</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>0.3184028320590422</v>
+        <v>1.5791988747099492</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.3712532487052284</v>
+        <v>0.588407853499627</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.03362342653915771</v>
+        <v>0.45211245366382175</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>-0.889433217395982</v>
+        <v>-1.4671121979175277</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>0.5167630651969322</v>
+        <v>-1.9986304539330206</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.31306854744916995</v>
+        <v>-0.04844816510269592</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>0.10343408319410471</v>
+        <v>-0.8742468252053615</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.48401379723087784</v>
+        <v>-0.3067403468476234</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>0.6618121893793737</v>
+        <v>0.7057592558887541</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>1.0497533181160947</v>
+        <v>0.32582794994067504</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.7301047422175314</v>
+        <v>-1.0214747309380858</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>1.5871524014186043</v>
+        <v>-0.7118836185643331</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>-1.7126367554345947</v>
+        <v>2.7634118635733937</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>1.257624747127928</v>
+        <v>0.3061670008125146</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>0.6342098791307921</v>
+        <v>1.6527754556424317</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>0.4172155919081559</v>
+        <v>0.33630894256705973</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>0.007863333262168412</v>
+        <v>0.03765535615092634</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>1.022547925502188</v>
+        <v>-0.21586176376715283</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.37315710406079633</v>
+        <v>-0.5698043479906562</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.1622950515287332</v>
+        <v>1.0689363760666053</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.9593611430298038</v>
+        <v>0.8563235619339434</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>1.01148452604364</v>
+        <v>1.1622389452229995</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>-1.4391083000443188</v>
+        <v>0.29146141193247127</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>-1.0539185397583317</v>
+        <v>1.3713258945826328</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.9617269444457509</v>
+        <v>-1.0269262095085205</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>-2.0857407408786446</v>
+        <v>-0.47842864293227255</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>1.3498615648587224</v>
+        <v>2.8596300774576595</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>0.5533913671468347</v>
+        <v>-1.3975270884703288</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.10350392233714356</v>
+        <v>0.46574324237872833</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.45572395544889616</v>
+        <v>-0.8272951939056362</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>0.41819801950717633</v>
+        <v>0.6513428964737719</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>0.561940260208337</v>
+        <v>0.6142771964787179</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.32445732412524914</v>
+        <v>-0.8401513866219833</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.5833031282547438</v>
+        <v>-0.4690150056142648</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>0.5837887544278866</v>
+        <v>-1.1269429443208394</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.23344163406210738</v>
+        <v>-0.33450369271071045</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.6884241173047866</v>
+        <v>0.6574900329604553</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>3.2714258633558755</v>
+        <v>-0.07053368121856987</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.4203602982985889</v>
+        <v>0.5908796316893815</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>0.39932607831787537</v>
+        <v>1.436330612102771</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>-1.17213848905375</v>
+        <v>0.32682088550019295</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>1.2579536513887113</v>
+        <v>-0.6275246990418857</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>0.545348466255428</v>
+        <v>0.4996525866287385</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>0.16672222812505072</v>
+        <v>1.0260536907338045</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>0.4247168249765568</v>
+        <v>-1.256404196309411</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.9442534208440958</v>
+        <v>2.050352512063856</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>-1.6336882804705297</v>
+        <v>0.7396922026816121</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>0.3500014803132851</v>
+        <v>-0.3453842709086923</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.8718442253964239</v>
+        <v>1.3303484000726937</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>-1.4722141297422406</v>
+        <v>-0.710628112943043</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>0.7665262869243525</v>
+        <v>-0.11786368863878188</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>0.2067752363047197</v>
+        <v>0.39993598862889523</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>1.7177829418495163</v>
+        <v>-1.3147074510967927</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>0.8440755163869897</v>
+        <v>-0.5471696922849132</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>-1.3759647210183303</v>
+        <v>-0.2865392980066199</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>1.1143189805357663</v>
+        <v>-1.3367038606083887</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.22666506718991006</v>
+        <v>-2.7063676908610694</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.7063250185141742</v>
+        <v>0.7843622125666391</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.4304519186324671</v>
+        <v>-1.2003818863694449</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.34405278408698947</v>
+        <v>-0.5838424932094921</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.06728173375141824</v>
+        <v>0.04754173715429416</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.6487085106065571</v>
+        <v>0.25487355444276977</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>-1.4468747197054548</v>
+        <v>1.4990974095517136</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>0.2386349054916729</v>
+        <v>0.7797624694228685</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.617652908590426</v>
+        <v>0.2471627387924711</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>-0.049357051336201344</v>
+        <v>0.5400145264660743</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>0.7825037873477747</v>
+        <v>-0.052897947746359184</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.27319171270595954</v>
+        <v>2.3300116708518503</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.014956058575340145</v>
+        <v>-1.4022620873821308</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>2.5341528355978173</v>
+        <v>0.6406651466341552</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.12030887546743244</v>
+        <v>0.3560973980308057</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>0.23756494633870687</v>
+        <v>-0.05008560475775483</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>1.9451830415991542</v>
+        <v>-0.146996364620212</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>-2.292236927343711</v>
+        <v>-0.9229492987927199</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>0.947101614024637</v>
+        <v>1.9373311501931985</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.06141456375490547</v>
+        <v>1.039349256823469</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>0.7854096204615373</v>
+        <v>1.2113670820897713</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>0.26829271866046506</v>
+        <v>-0.35899708889565995</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.6133544591180767</v>
+        <v>-1.0520109038181236</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>0.16671020645873807</v>
+        <v>2.4643197801041614</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.05007851951056312</v>
+        <v>0.25174046006002837</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>-1.0663679833611552</v>
+        <v>0.5486041069410803</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>0.6695142437270584</v>
+        <v>-1.4135862880002756</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>0.8580638662058447</v>
+        <v>-0.9487635876205259</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>1.7991236054377393</v>
+        <v>-0.42619836102120257</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.22539684123074358</v>
+        <v>0.9718413714647568</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.36050140202265535</v>
+        <v>-0.7515219512886311</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>1.990827199778013</v>
+        <v>0.9018547957011482</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>0.7724265258416324</v>
+        <v>2.2168457704667808</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.6662460569156864</v>
+        <v>0.6251040785911839</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>0.5529229625177811</v>
+        <v>-0.024936571792639653</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.5220156583981956</v>
+        <v>0.47572948436622314</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-1.074267696519857</v>
+        <v>-1.0685437074052357</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.06475915298243297</v>
+        <v>-1.1093656665344425</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>0.2969662670737909</v>
+        <v>-0.018535549298256196</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.7373690534098263</v>
+        <v>0.6782151364617407</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>0.38860641459613415</v>
+        <v>0.6211654978214378</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.8068114281628116</v>
+        <v>0.719018504346758</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>1.3365978876366946</v>
+        <v>-0.2139747431601797</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>0.48205114111303593</v>
+        <v>-0.9823907701126426</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>2.2820422622586505</v>
+        <v>-0.5027979069468811</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>-1.627687925944802</v>
+        <v>-0.6018160945196761</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>1.1376735149196135</v>
+        <v>-0.2105984952383746</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-1.3835537594988114</v>
+        <v>1.1375744303154958</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>1.1212492625044421</v>
+        <v>0.6117301181147804</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>0.07771438967784387</v>
+        <v>-0.30709121015901</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.9825766136999649</v>
+        <v>-0.34967210225145545</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>0.058567702795818515</v>
+        <v>0.8109103597489026</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>0.7236641635492922</v>
+        <v>-0.7287600897921284</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>-1.3155711078013022</v>
+        <v>0.4336293918683804</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-1.828430821845168</v>
+        <v>-0.005284503480171226</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.5713477952146355</v>
+        <v>1.551454705212893</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>0.2889077556979362</v>
+        <v>1.2725646094255967</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.3209173137949401</v>
+        <v>0.18837359191972056</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>1.7398414074177955</v>
+        <v>0.25504874133351707</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.6216358325844171</v>
+        <v>-1.0806502947885506</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>0.7656970837791428</v>
+        <v>0.8099514722552529</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.8182907517928855</v>
+        <v>1.341721884500068</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>1.685076410927685</v>
+        <v>1.6079202960812917</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.7213991769176271</v>
+        <v>-0.6852657200336538</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>0.1206680687855554</v>
+        <v>-1.6673068398474165</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>0.2148310234436426</v>
+        <v>-1.4481669625399933</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>0.18553472662519904</v>
+        <v>-0.5831263095438711</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.5174613516260264</v>
+        <v>1.367763492344057</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.02165582267808253</v>
+        <v>0.5437704851770175</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.8285206884993613</v>
+        <v>-0.5753513649632641</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>-1.2110268714485288</v>
+        <v>1.1106834461329063</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>1.7041084689305217</v>
+        <v>1.0798167456217966</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>0.4706703813838167</v>
+        <v>-0.8090864778942142</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>0.48744084152954875</v>
+        <v>1.1615053442798513</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>1.1197357476348815</v>
+        <v>-0.2015026588921561</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.31256050305135985</v>
+        <v>0.6872670933333358</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>1.5071202503102143</v>
+        <v>1.6175909836493103</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>0.2447611397210676</v>
+        <v>-0.6235673133366603</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>-1.50492528268487</v>
+        <v>0.9288667303880755</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.25334465480445545</v>
+        <v>-0.7454997080756309</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>1.0117759658512486</v>
+        <v>0.7776738928086211</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.4166158342517154</v>
+        <v>-0.9114909002675007</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>1.71939349375874</v>
+        <v>0.8772442551264752</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>0.00771686103018732</v>
+        <v>0.722812508024737</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>1.4240251401145074</v>
+        <v>0.38440451516688146</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.8914483404448351</v>
+        <v>0.2514255398244978</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>0.7538988874925464</v>
+        <v>-0.18719517663535948</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>0.5830637432495246</v>
+        <v>-0.6697365264636835</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>-1.7463268351552326</v>
+        <v>1.0424255301008822</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.3264523057797468</v>
+        <v>-0.5039589083560208</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>-1.0928860142638692</v>
+        <v>0.299416215767115</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.5654036942528613</v>
+        <v>-0.17769800280434223</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.8864242290432134</v>
+        <v>0.20396506835566086</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>1.7420925083944274</v>
+        <v>-0.9288866738378649</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.40217994649108024</v>
+        <v>0.8426888192983709</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.04117848278648233</v>
+        <v>-0.9282932973652314</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>2.2842218999828936</v>
+        <v>-0.8383402510499365</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.48705675265533255</v>
+        <v>-0.42602216717960617</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>-1.5135673874722366</v>
+        <v>1.616401835967641</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>-2.938590685201648</v>
+        <v>0.7183015318652609</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.2477201854420019</v>
+        <v>-0.4633701419864314</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>0.1208686335628505</v>
+        <v>0.19580669512467172</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.641568330091607</v>
+        <v>-1.0195864885890016</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>-1.1682687253787944</v>
+        <v>0.7048442365927005</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>-1.0328609425056612</v>
+        <v>1.0136690963040222</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>0.15885539429967618</v>
+        <v>1.0403543227519707</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.8572610399089023</v>
+        <v>1.5102091287101895</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>0.24208642852449203</v>
+        <v>-1.121224796691058</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.17163460462201272</v>
+        <v>0.06432219947711436</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>-1.995844952655935</v>
+        <v>0.08890451532533866</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>0.8980445852014057</v>
+        <v>0.8225109630880059</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.9452532960717633</v>
+        <v>0.8226224613081864</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>-1.0706719246337248</v>
+        <v>-0.9354093477549109</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>-1.1813549812648614</v>
+        <v>-0.04636799961356405</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>0.7954235947169483</v>
+        <v>2.2976360533961313</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>0.38884432170560745</v>
+        <v>-0.3612956370579625</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.22403351300574667</v>
+        <v>-0.11094654667457864</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>1.2690811441068492</v>
+        <v>-0.23679765990564192</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>-1.001677440866448</v>
+        <v>-0.0973916809135417</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>-1.4725573106226084</v>
+        <v>1.5127758623736172</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>0.5388551643404841</v>
+        <v>-1.1175795457104019</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.9179294933560699</v>
+        <v>0.284910234213383</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1.700262291706979</v>
+        <v>0.7323868750143955</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-1.0841681359515856</v>
+        <v>-1.2001227864317652</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>1.2515549374089938</v>
+        <v>0.6276209572254792</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>0.2537362376819317</v>
+        <v>-0.727087389521111</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.9059905486873173</v>
+        <v>0.028402001008775688</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.11127403844603145</v>
+        <v>1.1107076927839084</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>0.8018331958587297</v>
+        <v>0.5242881693122198</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.47410885839694783</v>
+        <v>-0.33332116792420136</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>-1.0059038311336912</v>
+        <v>0.09429715730235459</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.8570412087988355</v>
+        <v>-0.05328811130435022</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>0.22731809515785897</v>
+        <v>-0.17495795794221028</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.27751548296107614</v>
+        <v>0.1210519717449522</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>0.6039662992836853</v>
+        <v>1.151980018196448</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.5402280686080194</v>
+        <v>0.8593227724848614</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.4144091022838171</v>
+        <v>-0.012887480623092603</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>0.78384442262072</v>
+        <v>-1.1203964127995227</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>0.1293199700976537</v>
+        <v>0.8550290086625075</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.5944933831429602</v>
+        <v>-0.6759008918733727</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>0.16335460134075835</v>
+        <v>-1.8138392642158176</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>0.2456647594806541</v>
+        <v>-0.7341841238545042</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>0.2589376884281073</v>
+        <v>-1.2408368551470712</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>0.08882631116780175</v>
+        <v>-0.18193441195750765</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.41641630381046807</v>
+        <v>0.6307877629249512</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-1.297410991579866</v>
+        <v>0.9561279323235551</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>1.2018932069563617</v>
+        <v>-2.0141703388691625</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>0.7277846768501004</v>
+        <v>0.242986171565619</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.36044058272095997</v>
+        <v>-0.21439785861258967</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>-0.32292538228543827</v>
+        <v>0.8212025994898374</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>-1.346390131703976</v>
+        <v>1.074540840251379</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>0.14844188873850553</v>
+        <v>0.3596244841354305</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-1.2936722594953458</v>
+        <v>-0.29409431761879684</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>-1.4930396374957375</v>
+        <v>-1.4022463553591213</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.17720761970166776</v>
+        <v>-1.1539403032195523</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.008923202688538957</v>
+        <v>-1.6210848365039052</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.8664061353342288</v>
+        <v>-0.8545608471761287</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-1.184371243178808</v>
+        <v>-0.31604439139836704</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>-1.274882244306933</v>
+        <v>-0.16571979620876257</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>-1.1182780442469238</v>
+        <v>0.4689970296749116</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>0.591111388046522</v>
+        <v>-0.49892813710011247</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>0.34299038828342276</v>
+        <v>0.007149557386524959</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>-1.6639811456787468</v>
+        <v>-0.08222327490313669</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>-1.466995867522317</v>
+        <v>-0.7682616685861583</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>-1.6662695557544334</v>
+        <v>-0.7463263679390475</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.24431132629177807</v>
+        <v>0.9528865129091048</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>2.7339262522444607</v>
+        <v>2.001120248594843</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.30682108381155165</v>
+        <v>0.7589314656492127</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>0.35322505190487474</v>
+        <v>-0.657585341050989</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>-1.189687052161309</v>
+        <v>0.010606675131210582</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>0.43009899330304435</v>
+        <v>1.1773590131308853</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.670309945451815</v>
+        <v>-0.7630361951750338</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>0.7719421422853106</v>
+        <v>-0.5583567133664903</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.7434112678543152</v>
+        <v>-0.8960249012575218</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-1.028354266685061</v>
+        <v>-1.0396318558183437</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>0.7346513650259913</v>
+        <v>0.20725629867930873</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1.07626680168484</v>
+        <v>0.2579179899841206</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.9208851097640145</v>
+        <v>-0.2785301095237149</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>1.5166409922982842</v>
+        <v>1.0348046566029443</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>0.2684932947452074</v>
+        <v>0.8819094192914732</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-2.089280915849311</v>
+        <v>0.7037884198940593</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>-2.5494826828916417</v>
+        <v>0.9686586363879971</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>0.9219453894604677</v>
+        <v>0.528409792849557</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>0.22370093560185939</v>
+        <v>-0.6257830984607924</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>-0.11711436438864238</v>
+        <v>0.6698406051165745</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>0.4310365706138861</v>
+        <v>-0.6944498526674354</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>-2.1518337599853776</v>
+        <v>1.549459769193838</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>-1.2232445112821135</v>
+        <v>-0.8009028213605771</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-2.1920266468822116</v>
+        <v>-1.3722652679917384</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>0.05700196253381985</v>
+        <v>1.1161737515845243</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.3528683412596329</v>
+        <v>-1.841621877959693</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>2.182121053113173</v>
+        <v>2.1251187946257177</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.046690221146151435</v>
+        <v>-0.10463482501872289</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>0.4849970110299107</v>
+        <v>-0.05280887133709533</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>0.8682047281017643</v>
+        <v>-0.7088929141173111</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.3434354208423034</v>
+        <v>0.1342912766488304</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.9082076665514192</v>
+        <v>0.7930696991808309</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>-1.1190811386014774</v>
+        <v>-0.14908563989453952</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>-1.4435595086992232</v>
+        <v>-0.9775644911887633</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.6917490717202616</v>
+        <v>1.0250147420617226</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>-2.2757051386449576</v>
+        <v>0.3142118307753181</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>0.1019950291255225</v>
+        <v>-1.2692874745751415</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>-1.6846804798960555</v>
+        <v>-0.15844571200880025</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>1.0034032934540005</v>
+        <v>-0.31367364137780507</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>1.371484040811902</v>
+        <v>0.4013024190149275</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>1.1662083824531413</v>
+        <v>3.2084104440782686</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>1.5136102827542326</v>
+        <v>0.5305230886996248</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.10595082178785371</v>
+        <v>-0.7947519891247793</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.3015627707852986</v>
+        <v>-0.43748830201183203</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.43683897814921274</v>
+        <v>-0.5310241463570334</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>0.2773589296844776</v>
+        <v>-0.880699777493777</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>1.0839943253189004</v>
+        <v>-0.7054491285448504</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.12781551500984867</v>
+        <v>-0.9196168970666061</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>1.0940340423227246</v>
+        <v>-0.07594233978180943</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.2708387114663446</v>
+        <v>-0.6074712021783164</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.8055445641449215</v>
+        <v>0.549785650528066</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-1.1834979932004865</v>
+        <v>-0.414524029243344</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.4665941918909956</v>
+        <v>-0.4105229449484034</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>-2.478134797133386</v>
+        <v>-0.4415584667830745</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>0.1747640304338605</v>
+        <v>0.549065340608277</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.16315507915838498</v>
+        <v>-1.5151357839430846</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.8432743355456513</v>
+        <v>-1.3388436044566214</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.556057763567621</v>
+        <v>0.5795688344754394</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>0.6853631414048221</v>
+        <v>2.078188092134576</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>0.7250666162024724</v>
+        <v>-0.6171681896958305</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>1.6569716368377208</v>
+        <v>0.5900044650372174</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>-1.1155192262645814</v>
+        <v>0.65395076944243</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>-1.81187313737723</v>
+        <v>-0.8348959093863338</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.9175940646213838</v>
+        <v>0.8689859582506088</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>0.3318341894330209</v>
+        <v>2.6696609798799384</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.590690095978019</v>
+        <v>-1.5535351396694403</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>0.7022048759120915</v>
+        <v>1.0625776261021618</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-2.012917838929648</v>
+        <v>-0.22770578343552944</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-2.5272656115161003</v>
+        <v>-0.011062252280706394</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>0.881220401203868</v>
+        <v>-1.0343185368670096</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.7638556498993595</v>
+        <v>0.1851879967623254</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.8506627032172225</v>
+        <v>0.7523022889640367</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>-1.7488435551069064</v>
+        <v>-0.9501173819513403</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>0.21775382919126807</v>
+        <v>-0.49411187773242865</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.2121885216049572</v>
+        <v>0.8654885559377921</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.3802188985735444</v>
+        <v>0.3685629313688813</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>0.9188325523924975</v>
+        <v>-1.3741398824655917</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>0.1557561057837753</v>
+        <v>-2.0858815718927204</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>1.1239288559097882</v>
+        <v>-0.4376611360478492</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>0.8099878493604729</v>
+        <v>-2.0246508525958378</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>1.7637787378199934</v>
+        <v>-0.018278090223610717</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.17139903757100414</v>
+        <v>-1.304961831532629</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>1.8428921120489052</v>
+        <v>-0.7324459936639601</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.2692812958526537</v>
+        <v>0.7017107190648978</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>1.4691788962328065</v>
+        <v>0.6925524848174613</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.0031680229103004</v>
+        <v>0.6451317102012251</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.5165109211883002</v>
+        <v>-1.1538077373356006</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.28356679541759217</v>
+        <v>0.40865983736434564</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>-2.567927218007627</v>
+        <v>2.9968575412490828</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>0.5982093189357245</v>
+        <v>-0.3615587209288106</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.4009634743925121</v>
+        <v>-1.5474133646214836</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.8434211461214643</v>
+        <v>1.2109308718033411</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>1.6215492217028493</v>
+        <v>0.06592563690506414</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>0.29676894449900953</v>
+        <v>-0.36625992114747097</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>1.2948943533274786</v>
+        <v>-2.3187154933743153</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>2.1313153615538183</v>
+        <v>-0.5894076963717519</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>-1.0215614870361827</v>
+        <v>0.9144002919347617</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>1.0801147582032693</v>
+        <v>0.17372868857362683</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>0.8281347656915435</v>
+        <v>0.1871455232838683</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>0.2814729162466176</v>
+        <v>-0.3808940172616192</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>-1.1293539484245203</v>
+        <v>0.030547815651365242</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>0.9876574520474936</v>
+        <v>-1.1262148792460973</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.938713232578086</v>
+        <v>0.039220501260977744</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>0.46192172680625965</v>
+        <v>-0.10481716122867417</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>-1.3639500561653464</v>
+        <v>-0.5281008716095411</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>0.334566654143918</v>
+        <v>-0.5484195598805426</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>-0.8340336852185549</v>
+        <v>-0.20553969302956743</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>1.3382608042323165</v>
+        <v>0.3058770891721207</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.5537828824609309</v>
+        <v>0.6212240964017832</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.20354727929561892</v>
+        <v>0.9624613280114351</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.1464829539444247</v>
+        <v>0.30595449165101346</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.051767765778147366</v>
+        <v>-1.801516007150467</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.2262560047402481</v>
+        <v>0.001250395101151103</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.6034483249763768</v>
+        <v>0.24752694309499496</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.6111511773993001</v>
+        <v>0.1280739630513951</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.13251260062247722</v>
+        <v>-0.06727080276586056</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>0.1110970988046241</v>
+        <v>0.649007034434429</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>-1.1135720645070648</v>
+        <v>0.7211921164699966</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>0.6261272749333332</v>
+        <v>-0.8332904728472575</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.8111894475843702</v>
+        <v>0.6211929574476851</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.8021097123261093</v>
+        <v>1.7453228835226657</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.1130226567514466</v>
+        <v>0.08937025821080183</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>-1.3398029507640499</v>
+        <v>1.4724437040316096</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>0.2785966259436708</v>
+        <v>0.6331821524351086</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>-2.006423482883171</v>
+        <v>-1.317749129089126</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>-0.5095735176831573</v>
+        <v>-0.2048981975181174</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.9586903627898273</v>
+        <v>0.2220957646219847</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-1.5537142537170265</v>
+        <v>-0.4031589087563834</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.5524994364980885</v>
+        <v>-0.4684943447705347</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>-1.389497241798212</v>
+        <v>-1.3186486974323133</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.9255000812157651</v>
+        <v>0.9595125494303951</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>1.8054416704488034</v>
+        <v>0.07679307945283019</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.5398330674220778</v>
+        <v>0.3281016584690036</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>-1.1207569766385175</v>
+        <v>0.012619208604416258</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>1.501475737622891</v>
+        <v>0.16922017371375137</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>0.9900192966425946</v>
+        <v>0.14872478342242285</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>-0.15615997663620765</v>
+        <v>-0.803138895190395</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>-0.3801373226865614</v>
+        <v>-0.37530897039831057</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.21488484892140405</v>
+        <v>-0.08556015882246272</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-0.2960337872401184</v>
+        <v>1.0656173764796277</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>1.4106633079876236</v>
+        <v>0.6685759189385344</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>0.5634195198423411</v>
+        <v>-0.16499845434585522</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>-0.2826028541948113</v>
+        <v>0.6214651221730989</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.16159612745333568</v>
+        <v>0.7641593662127696</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>-1.3769168849438984</v>
+        <v>0.4968936933105769</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>-0.6965633740396134</v>
+        <v>-1.2421311218143056</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>0.11931580373879429</v>
+        <v>-0.1686621615298529</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>0.473000975330007</v>
+        <v>0.0934670697960035</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>-0.33059115769987596</v>
+        <v>0.8965951952154099</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.35016309433597226</v>
+        <v>0.7113899205865858</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>-0.007905546859939506</v>
+        <v>0.5919640109704962</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>-0.6355070858081621</v>
+        <v>0.780532827525004</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>0.947179321651065</v>
+        <v>0.4125163055846274</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>-0.62700928405306</v>
+        <v>-0.5725516384996662</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>0.7389866477263692</v>
+        <v>-1.6190010510376327</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>0.3874351211190174</v>
+        <v>-0.24294813557669023</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.4509736574443274</v>
+        <v>-0.06871693791420781</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.8130797510975502</v>
+        <v>0.17134836648354632</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>0.09378300878546134</v>
+        <v>0.33773975618366475</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.14615180334083033</v>
+        <v>0.8114341746706514</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.3359428209010242</v>
+        <v>1.5103711618373086</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>0.571237422564206</v>
+        <v>-1.1386597392082198</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.9182108514889111</v>
+        <v>0.8415944114620666</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.44948151314242096</v>
+        <v>-1.9996640783430264</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>-1.5660959926122635</v>
+        <v>-2.1011784528716233</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1.4838939012805406</v>
+        <v>1.7132099445121585</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>0.8389079670326364</v>
+        <v>-0.41856612474498145</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.5936102568099985</v>
+        <v>0.44702592786767875</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>-0.7251653241836509</v>
+        <v>-1.0141842547731312</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>0.5407934527832293</v>
+        <v>-1.1006819257425025</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.4347997242627499</v>
+        <v>0.47505375781673814</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>0.1035961264217932</v>
+        <v>1.851734732430585</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>-1.3504780469971</v>
+        <v>0.8048190833435005</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.5381630705416018</v>
+        <v>-0.5210412330567844</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>-1.2147959249473828</v>
+        <v>-1.2443781299141872</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>1.2712033477883853</v>
+        <v>2.0995967182537543</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.10923721579578419</v>
+        <v>-0.38146265413350006</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>-0.006360462475964048</v>
+        <v>-0.7875085163507788</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-1.1924543322631114</v>
+        <v>-0.4344152901018325</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>1.1959956373441503</v>
+        <v>-0.038462728280585286</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>1.3190275173942834</v>
+        <v>0.49126217975574443</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7675372078579922</v>
+        <v>0.3412405494001415</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>-0.6406982314584122</v>
+        <v>-0.3306835955418428</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>-0.48239604988534523</v>
+        <v>0.040707846704712364</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>1.0841923945704588</v>
+        <v>-0.3193224771333621</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.29785448463449343</v>
+        <v>2.2020986913425977</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>-0.6233679570575658</v>
+        <v>0.2334364487447669</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.16560071785297895</v>
+        <v>-1.3146349272902913</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>-1.042724295309517</v>
+        <v>-0.09387394900442975</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>0.4813705386250146</v>
+        <v>0.7622677450320244</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>-0.5915409177181653</v>
+        <v>1.0935884026834763</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>0.09195941551109547</v>
+        <v>-1.0919999868586228</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>-1.8315325719854123</v>
+        <v>0.6752632216793527</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>0.5715495248934469</v>
+        <v>-1.95099694941469</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.5607013341534928</v>
+        <v>-0.784346421952171</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>0.9526475582042069</v>
+        <v>-0.7922479142704894</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>0.2914566470270803</v>
+        <v>-0.053426443637181194</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.6391709792287891</v>
+        <v>2.0886465438232302</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>0.8344827418499877</v>
+        <v>-1.0570397185257936</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.5196683769780412</v>
+        <v>1.4075373994405551</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.0843174229948849</v>
+        <v>-0.5221078886636581</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>0.7701029059131093</v>
+        <v>0.761537779285804</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>-0.7391504845897694</v>
+        <v>1.2791347056462716</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-1.1452886109470917</v>
+        <v>-0.5247541677903731</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.763199151625202</v>
+        <v>0.6873078324977228</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.4976912451733612</v>
+        <v>-1.123078456574849</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>-0.9505674402018428</v>
+        <v>0.4295793215065845</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.7369599799674201</v>
+        <v>-0.47442963407148386</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>0.29298729146764396</v>
+        <v>0.7651659417394392</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>-1.916700000566495</v>
+        <v>0.7794666152803</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.2969987795579126</v>
+        <v>-0.6620241848220076</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>-0.0977947283671787</v>
+        <v>0.020833102199485264</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>0.24034392682898495</v>
+        <v>-0.8404218710389472</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>1.5902010545373106</v>
+        <v>0.2271015213236466</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>-0.8694398945196041</v>
+        <v>-0.9547744744577883</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>0.5878337792703682</v>
+        <v>1.5899658051941372</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>-0.3091862954677184</v>
+        <v>0.23011050241531836</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.7762495811121342</v>
+        <v>1.8170806220536972</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>-0.7182518799065477</v>
+        <v>-1.7679734488982195</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-0.2359495986711249</v>
+        <v>0.012212379973282051</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>-1.63894730859742</v>
+        <v>0.9997152428954682</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>0.1436175086274126</v>
+        <v>-0.31159438397862793</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>0.011425234572167663</v>
+        <v>0.7650534682813316</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>-1.6165651996839394</v>
+        <v>-0.7805964224578075</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.19154769350933096</v>
+        <v>2.8878439850430837</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.7655954550018927</v>
+        <v>0.18584907823085203</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>0.255364652719777</v>
+        <v>0.8321628454916354</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>-0.06841484486067344</v>
+        <v>1.0933393238901368</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>-1.2139591280089705</v>
+        <v>0.5272421069136208</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.09450373534905074</v>
+        <v>0.5673055989202191</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>0.9816579814035674</v>
+        <v>-0.15851563177225256</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>0.06912494541552307</v>
+        <v>0.3086794794918653</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.320922120821409</v>
+        <v>1.1335451578360431</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>0.583045152302182</v>
+        <v>-0.6005799448422153</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>0.2823303511344665</v>
+        <v>0.295858387419734</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>-0.4844169610484687</v>
+        <v>2.499544775678002</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>-0.774687731478919</v>
+        <v>-0.5734308636359466</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>-0.18553945189533638</v>
+        <v>1.1351101379216288</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>-2.140606218561183</v>
+        <v>-0.368510139950418</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-0.40918373002895414</v>
+        <v>-1.7625163935511885</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.020394968429752476</v>
+        <v>-1.6877172697054703</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>-1.1621663784221183</v>
+        <v>0.017750178491985208</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>-0.31996042691595133</v>
+        <v>-1.2666982229008268</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.4637038103136277</v>
+        <v>-0.4282821577078685</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>-0.3493921814769944</v>
+        <v>1.3978602562414746</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>0.4454317595399661</v>
+        <v>3.1717946729114463</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>-0.4725926715435719</v>
+        <v>0.30573765719487755</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-1.2668576481950224</v>
+        <v>-2.119032654303831</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>1.5982278455250167</v>
+        <v>-1.1353361278611724</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>0.9130291289302287</v>
+        <v>1.3614535260034377</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>-0.23169295865358835</v>
+        <v>0.25158651133573107</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>0.3800664407957191</v>
+        <v>0.13267731477375877</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-0.4697391838668469</v>
+        <v>-1.045162124328484</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>0.3333690539393295</v>
+        <v>-0.539447734630923</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>-0.5280426511526733</v>
+        <v>-0.14243099054653593</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>0.7003183934468643</v>
+        <v>0.9223104583723162</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.9588787652886848</v>
+        <v>0.3629599310224462</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-0.05447018532463354</v>
+        <v>-1.2871288837426171</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>0.04359011054084403</v>
+        <v>-0.06150091886902603</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>-1.3126996709509757</v>
+        <v>-1.13794828824785</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>0.23831177987815794</v>
+        <v>1.761845083223801</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>0.35813861128540275</v>
+        <v>-0.9922961728829547</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>1.3909505912851137</v>
+        <v>0.4877970157652684</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>-0.1708184929032001</v>
+        <v>-0.9518460016224055</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>-0.09464817596304365</v>
+        <v>0.7040494557363424</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>-0.8384820774178692</v>
+        <v>-0.21467068460920333</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>0.8974514999817382</v>
+        <v>-0.1307486798881627</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>0.6985721300067853</v>
+        <v>-0.25706831549272935</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>-0.805676302261896</v>
+        <v>-1.370572445669443</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>1.9226089056496498</v>
+        <v>1.4769056302421921</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.9981919536567454</v>
+        <v>1.0688502757546232</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.48897874275460207</v>
+        <v>0.3121918723824506</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>1.36873859231238</v>
+        <v>-0.3878467113111773</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>-1.3054359353668463</v>
+        <v>0.7170680722333715</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>2.2483606113497188</v>
+        <v>-1.5557812883926148</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.9381159561711935</v>
+        <v>1.941288037953637</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>0.30424992566913245</v>
+        <v>1.2441704836536676</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>-0.6659951875669926</v>
+        <v>-0.8248765642791953</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.9613536968705565</v>
+        <v>1.0375921872187284</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>0.7525736738074942</v>
+        <v>-0.17281408860535197</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>-0.43150357187050725</v>
+        <v>1.122938417363178</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>0.24133101765396217</v>
+        <v>-0.39958667173154094</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-0.8516349699217064</v>
+        <v>-1.0044815454252662</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-0.08994203854405503</v>
+        <v>-1.2875133042547202</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>0.20619720150834386</v>
+        <v>-0.8236970963145556</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>0.22617065857728796</v>
+        <v>0.19478978286592255</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>-0.447763061854521</v>
+        <v>0.0012022609944955178</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>-1.2206441210727614</v>
+        <v>0.7415543800429992</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>-0.17906828886482823</v>
+        <v>-0.4114586038773811</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.4870520333425605</v>
+        <v>0.5602974168735567</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.116060443611003</v>
+        <v>0.4549671382745221</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>0.45376768055265326</v>
+        <v>-0.4728339481049404</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>-1.3242649995132831</v>
+        <v>0.9209842247767098</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>-0.5831083027005338</v>
+        <v>-0.841173044046058</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>1.2274366012184441</v>
+        <v>-0.10168345051620699</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>-1.8065105718042973</v>
+        <v>-0.8103020569105351</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>2.315950612648332</v>
+        <v>-0.6078767173922195</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>-0.028030082690986724</v>
+        <v>-0.41341816339376924</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>-1.6383747540726545</v>
+        <v>0.6832468206348016</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.023910231883209287</v>
+        <v>1.0737180569302975</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>1.0716540839800113</v>
+        <v>1.1684801412937753</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>-0.5119186112300617</v>
+        <v>2.009485782248271</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>0.21053448418739631</v>
+        <v>-2.416858601615043</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>3.1434149092039507</v>
+        <v>-0.34904910382733306</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-0.9801186317064847</v>
+        <v>-0.9162122668048036</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>-0.0945680792356759</v>
+        <v>0.122931787566388</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>-0.17395437790508092</v>
+        <v>0.5627694827431033</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>0.3728208495855215</v>
+        <v>0.46925724168110944</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>-0.4931972900529216</v>
+        <v>-0.6588166386767063</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>1.3835856143055636</v>
+        <v>-0.605618747934958</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>-0.5341714308352996</v>
+        <v>0.41948945690917555</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>1.7644394601134352</v>
+        <v>0.5133766903770718</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>1.4262133359987987</v>
+        <v>-0.9149031593542087</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>0.17886429304998996</v>
+        <v>-2.261680594772701</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>-1.7165054804566477</v>
+        <v>1.3153335772158798</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>2.219225777975738</v>
+        <v>0.22604113013614952</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.11207576871244873</v>
+        <v>1.6137764868696134</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>0.7260544423859312</v>
+        <v>-0.08502270171554745</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>-0.04878520292577228</v>
+        <v>0.4155231108615756</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-1.949053754367132</v>
+        <v>-0.6574506372223694</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>-1.4221109420057159</v>
+        <v>-0.006071462947491247</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>0.39698258412693954</v>
+        <v>0.030183222941952748</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>0.215484211336426</v>
+        <v>0.7707321399682807</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>-0.4202917983998693</v>
+        <v>0.06632355022980949</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>-0.5739275056565266</v>
+        <v>0.2110650061172854</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>0.34041410535932576</v>
+        <v>-0.12605354035460684</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>-2.788793973246938</v>
+        <v>0.8444393523091835</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.12640728889901148</v>
+        <v>-0.6588580613973267</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>-0.7094149024478824</v>
+        <v>1.1061332103065746</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>0.9887391373429726</v>
+        <v>-1.6540306888763303</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.0355013057433353</v>
+        <v>0.2917215390689257</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>-0.5229855786534837</v>
+        <v>1.9621097144714965</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa0/Tarefa_3.1.xlsx
+++ b/Tarefa0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4968699454392684</v>
+        <v>-0.3974474957902395</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.179537260049492</v>
+        <v>-0.6252338063878112</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.1102725570751129</v>
+        <v>0.5746374652706414</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6544388614050234</v>
+        <v>0.8894097636416469</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6652829461911703</v>
+        <v>-0.841712889407412</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.2580134328547394</v>
+        <v>-0.30102699459178617</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08974689594773914</v>
+        <v>-0.5272119545666278</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.01345040621088309</v>
+        <v>0.33338269751754857</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6561668982944713</v>
+        <v>-0.21033942389313062</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.05058138466320336</v>
+        <v>-0.6749026228355232</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.40805650835899926</v>
+        <v>-1.2811038725146338</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03097323149858507</v>
+        <v>-0.6287569589351849</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.070516861642465</v>
+        <v>0.3290644225083461</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.19168504673700992</v>
+        <v>0.5614236968849904</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7421206360195691</v>
+        <v>1.3759685963936645</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.41661955598346373</v>
+        <v>-1.6335443538440508</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9079970311709399</v>
+        <v>-1.117295318633545</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7551500265215526</v>
+        <v>0.34047775395486735</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06758562740719344</v>
+        <v>-1.4468418617577539</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2831488850675847</v>
+        <v>0.1471730859191929</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.8987545024009564</v>
+        <v>0.3737144063198909</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.5624367792754374</v>
+        <v>0.4848910847446701</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3789279538059882</v>
+        <v>1.6679365754281692</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04591443313640471</v>
+        <v>-1.4267510442661522</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.5554332796997965</v>
+        <v>2.341813668076061</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5959660486469497</v>
+        <v>-0.6857067739980497</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1.6176313865959533</v>
+        <v>2.0220571582299294</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1651706372524592</v>
+        <v>-0.9564147443525151</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.553905040822177</v>
+        <v>0.35294651797752086</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>2.0875854354206878</v>
+        <v>-0.3455926694267261</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7728102214346888</v>
+        <v>-0.3926487710608024</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.261758623239493</v>
+        <v>0.10360228817216872</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5356693037706027</v>
+        <v>0.4946633232770486</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.181468134029964</v>
+        <v>0.7897277302841034</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.7549954129196846</v>
+        <v>-0.5393525255182852</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1.2794775522575819</v>
+        <v>-1.45930161831287</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8878382954512692</v>
+        <v>0.28410936931857933</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.947330864503546</v>
+        <v>-0.4704902702315426</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5012810775990485</v>
+        <v>0.3417987555625509</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.5797448797733968</v>
+        <v>0.18100510956654023</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1.9419027514916094</v>
+        <v>-0.8454471281818704</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.5931982733538995</v>
+        <v>-0.17101431715238335</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.4978569156511347</v>
+        <v>0.6338246564859601</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1.3012980033668728</v>
+        <v>0.11604468903738413</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.48726389895623</v>
+        <v>-0.49739927021390595</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.4272888970137776</v>
+        <v>-1.323051965737853</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.06881228204660947</v>
+        <v>0.7247772758085799</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.5619394728806755</v>
+        <v>-0.1775417922766658</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.3297926905138466</v>
+        <v>-0.48574601635576437</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.9269816011615868</v>
+        <v>-0.6261124752706468</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1.7417984201827132</v>
+        <v>1.7057627098791135</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.32468995505538856</v>
+        <v>1.7533844696942307</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.3436633027398594</v>
+        <v>-1.164345745608571</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.281697134075733</v>
+        <v>-1.2304649880667708</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.20582847226224557</v>
+        <v>-0.7599913858872068</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.7039687319248646</v>
+        <v>0.8359779305627189</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.009825353056582166</v>
+        <v>1.733204354773878</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.22557131473205846</v>
+        <v>-1.3977790158763692</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.18909675801467268</v>
+        <v>1.3845230907101769</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1.467123641009308</v>
+        <v>-0.7170380133534842</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.49132124868268096</v>
+        <v>-0.7192864465071677</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.754289261750097</v>
+        <v>-0.7244515591770435</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.583482965539239</v>
+        <v>-0.523060781791601</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1735197586980769</v>
+        <v>-0.8487492687703999</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1.4067712644438841</v>
+        <v>-0.22063421349680745</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1.5438130666536234</v>
+        <v>-1.20418225081352</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.6149882244591904</v>
+        <v>0.46995876699161687</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.43202692035625884</v>
+        <v>1.0463496293661037</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.23031679613703707</v>
+        <v>-0.41379834260240284</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.5578861679612979</v>
+        <v>0.0421103117842878</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.1967796676461928</v>
+        <v>-1.3821993237003467</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.3461626769698802</v>
+        <v>1.040769433227121</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.3422231403117808</v>
+        <v>1.5459163927787885</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1.005865905208916</v>
+        <v>-0.6742174018416354</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.22905489149286837</v>
+        <v>0.34573732152918085</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3021893727710058</v>
+        <v>-0.39469769680820227</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1.3886743069262169</v>
+        <v>-0.08115838706541723</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.37847282504568663</v>
+        <v>0.7220130773333419</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5548166294462161</v>
+        <v>1.85798988111382</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.23389528601043225</v>
+        <v>-1.5950376251396086</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9899429013708632</v>
+        <v>0.33288583310214376</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3553249747845904</v>
+        <v>2.7045225252854084</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05321446557334804</v>
+        <v>0.2946303581384609</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.12173805176177381</v>
+        <v>0.3401710041775685</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.518196958373322</v>
+        <v>-0.541745283293857</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.230286511807536</v>
+        <v>1.0610923532938767</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.87373090264895</v>
+        <v>0.10906759995650668</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8791420815707178</v>
+        <v>0.9971111374688647</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.43446043774794424</v>
+        <v>-2.58512277722378</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.2564044864561411</v>
+        <v>1.400818941680862</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.5303256225273656</v>
+        <v>-0.8301369255605937</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.42809888210150976</v>
+        <v>-0.19779180546717298</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.8523539827006309</v>
+        <v>1.561469105367947</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1.034619670939573</v>
+        <v>-2.6330311650471407</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.3130963910813555</v>
+        <v>1.8818224953410583</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>2.122795852630572</v>
+        <v>0.9171685756350041</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.7558826438976274</v>
+        <v>-0.16033442523507038</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.13942046239143632</v>
+        <v>1.8653553657067496</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.5439162015835317</v>
+        <v>0.07129652072529868</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.33489514507675255</v>
+        <v>0.35019745756462983</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1.1879156813794</v>
+        <v>-0.07207458863127149</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.4535874846300203</v>
+        <v>-1.6286856678870927</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1.643523659755309</v>
+        <v>0.3080122665928454</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.3738899793904493</v>
+        <v>-0.6920099669407943</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.45469322599995887</v>
+        <v>0.07280353207035205</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.9964326493964296</v>
+        <v>-1.8021168902560025</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.7357773113877085</v>
+        <v>-1.7953941807403648</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6126838354189863</v>
+        <v>0.3310930567224087</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.4287096707454756</v>
+        <v>1.3116891705109213</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1.6560917280664318</v>
+        <v>-1.3911433149037828</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.4887861113441658</v>
+        <v>0.2492259150523715</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.4231247541976768</v>
+        <v>-1.637407396137578</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.21891535784893543</v>
+        <v>0.947618062955125</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.650908084421316</v>
+        <v>-0.13607814792760153</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6377692260308564</v>
+        <v>0.027373894842774693</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7618443851234871</v>
+        <v>-1.6316496151656412</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4198439754575126</v>
+        <v>0.7536462554839353</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3266141004116005</v>
+        <v>-0.627474318578848</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.3157069036257173</v>
+        <v>-0.32477467341155036</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.029043629105447395</v>
+        <v>0.26798442026467656</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.2343138322479081</v>
+        <v>-1.65725728925639</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5876990557562235</v>
+        <v>0.8021848794080794</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.5266231029699819</v>
+        <v>0.3899034976567527</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.9923718342644694</v>
+        <v>1.3805667253634732</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.8116410094157759</v>
+        <v>-0.8746778622347972</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.9572563440256325</v>
+        <v>-1.4711506179134406</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.7897933694972286</v>
+        <v>0.64522603101826</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9305903872406005</v>
+        <v>0.5191853318283061</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.109488450995144</v>
+        <v>0.40575327047490584</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.6685203242452589</v>
+        <v>-2.7080160610086312</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9804704259335002</v>
+        <v>0.3024197762361997</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9259684968817892</v>
+        <v>-1.8451918906608558</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.8703292271127893</v>
+        <v>0.3844223935911095</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.27807802391106545</v>
+        <v>-0.4554170049580501</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.4129690958027867</v>
+        <v>0.7460443678904011</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.19502988594401777</v>
+        <v>1.0732262649545818</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7340858263465777</v>
+        <v>-0.957996830898726</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.6373929475943427</v>
+        <v>-1.6508834575903555</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.04495141954751644</v>
+        <v>-0.3573996975195327</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>1.6068044750346828</v>
+        <v>-0.5307162333896133</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.2736525008381379</v>
+        <v>2.071670641685958</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5000703212020041</v>
+        <v>-1.221905741664258</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8391246529478235</v>
+        <v>-0.4239889573832002</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1.0142927486916187</v>
+        <v>-1.0107491380983928</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.479680677761593</v>
+        <v>-0.9210091621389015</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.8337539152714956</v>
+        <v>-0.08913506016016721</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8095959226616902</v>
+        <v>-0.29869298969596686</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.3320480392973076</v>
+        <v>-0.23888213677658962</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.15175987296794916</v>
+        <v>1.0127791995486144</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.5091231310543756</v>
+        <v>-0.6862558328148938</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.8850769872036235</v>
+        <v>-1.22546651057959</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.373137712560364</v>
+        <v>-0.30049073540349713</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.2348297672554906</v>
+        <v>-0.8074030032463639</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>1.501863889402204</v>
+        <v>0.6997960074444342</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8513823034999406</v>
+        <v>0.026029882979609665</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.38094809990908585</v>
+        <v>-1.6481720422583181</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8162215302737341</v>
+        <v>-0.0690777664953376</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>2.173256457588494</v>
+        <v>0.6480900825897096</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.0397222613642426</v>
+        <v>1.0379049366602573</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.461720244289526</v>
+        <v>-1.7053714908640203</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.8637323535016992</v>
+        <v>-2.0813713018129865</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.43502428135921056</v>
+        <v>1.1306721894913232</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5636095445592325</v>
+        <v>-0.7691321426096247</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.0771688047515393</v>
+        <v>0.9822059938212537</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.9680700275512468</v>
+        <v>1.4690527124237456</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.9149143333102334</v>
+        <v>-0.992775418583645</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.8957105640960766</v>
+        <v>1.0285288853327164</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4036494516057617</v>
+        <v>-1.859784598422811</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.7180808864649063</v>
+        <v>-0.1642301981018122</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1324339164645663</v>
+        <v>-0.5682747373644319</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.15473660306370146</v>
+        <v>-1.11159163622964</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>1.6684495055387771</v>
+        <v>1.9662177639906506</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.9378107084724878</v>
+        <v>0.6157375053055133</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>1.5911651574457906</v>
+        <v>0.11913223808250584</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>1.268387162867988</v>
+        <v>0.914126853947969</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.18186173015578572</v>
+        <v>1.119179087198534</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>1.6084959343185445</v>
+        <v>-1.589454223796455</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.5204716873556635</v>
+        <v>0.36766805021671567</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.060338628681215964</v>
+        <v>0.3597902874510873</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.007825520752009109</v>
+        <v>-0.3586695710171106</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.6732054741205553</v>
+        <v>0.20992046215262775</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>1.6515756659996248</v>
+        <v>1.1207918721176924</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>1.8344799906850524</v>
+        <v>0.07784688599179414</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.09272945066499591</v>
+        <v>-2.0405689911324703</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>1.2230525492527538</v>
+        <v>-0.5977291349668757</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>1.0531717451880145</v>
+        <v>-1.1599974582539572</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.35663821495187537</v>
+        <v>0.5607959398651591</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.07483158639301084</v>
+        <v>-2.12157733046029</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.1644816692344502</v>
+        <v>0.15432321872650315</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.6982678850827722</v>
+        <v>-0.5311509048623632</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.29729588931664114</v>
+        <v>1.3804534451774801</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.32693085746193107</v>
+        <v>-0.48644729652829855</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.39966948806288083</v>
+        <v>0.11317788505891567</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.5672452263628939</v>
+        <v>-0.1769961305241837</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.11818168692135202</v>
+        <v>-0.7564192415303499</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.5907130983693882</v>
+        <v>-2.5553147912550127</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.42934292705925076</v>
+        <v>0.037895079513221144</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>2.293188131732581</v>
+        <v>-0.10169380788314543</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.7590494787058516</v>
+        <v>-0.11924523103522483</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.2593002365051004</v>
+        <v>-1.185112143408822</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.025110166343903603</v>
+        <v>-0.5056783922485117</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>1.8101562431635492</v>
+        <v>0.22048704339601496</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8297192161466034</v>
+        <v>-1.6257958048270078</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.22353545144591763</v>
+        <v>0.3287661528946712</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.19437636846334666</v>
+        <v>-1.8703413040710224</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1725282525389924</v>
+        <v>0.7222009771566377</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>1.9425079247768338</v>
+        <v>-1.2231468472897853</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>0.030717408710387948</v>
+        <v>0.6109299561188727</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.541355177825369</v>
+        <v>0.568958513360791</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>0.07224464255953843</v>
+        <v>-0.5705641326146342</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.0410760230052376</v>
+        <v>0.43931927056066933</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.1101912162553185</v>
+        <v>-1.3823033020905462</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.760876470887598</v>
+        <v>0.40919903458753204</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.9229004190605786</v>
+        <v>-0.8644315564721534</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.8864025159933671</v>
+        <v>0.27059170096297214</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>0.16762093974440084</v>
+        <v>0.4042227814870482</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.16851308089029512</v>
+        <v>0.28468744763838677</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.040988399571804474</v>
+        <v>-0.3405464357256084</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>1.3198296382985264</v>
+        <v>0.9606541832460908</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.7415055803229408</v>
+        <v>-1.094426299818362</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>1.1212701495701076</v>
+        <v>1.547202941541241</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9552948313272265</v>
+        <v>-0.3893485314279379</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>2.5886220104130775</v>
+        <v>0.036986768587547035</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>0.22266887561463142</v>
+        <v>-1.485967808748941</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.8167258279189826</v>
+        <v>-0.566952018078217</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-2.722046255307183</v>
+        <v>-1.6988318312304127</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.5057406681089407</v>
+        <v>0.4260101636873309</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>-2.0508521718983</v>
+        <v>-0.5648583555986822</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.5605901248487164</v>
+        <v>2.2909064339340044</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.6654463104253442</v>
+        <v>-0.03988819928349664</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.513738624553736</v>
+        <v>-1.0648416034526145</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.025360227946351798</v>
+        <v>-0.20178139796077457</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.41921621049602137</v>
+        <v>1.0405867864701825</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.154191794857466</v>
+        <v>0.8630507020921223</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.4716299927911387</v>
+        <v>-0.6762033534801916</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.5340579282177268</v>
+        <v>0.42459526816380544</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>0.17630313880390905</v>
+        <v>1.2219937753169523</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>1.9494983003235749</v>
+        <v>2.139166174304791</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>1.4371474844116554</v>
+        <v>0.7025968330199402</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>-1.812386431835617</v>
+        <v>0.7952508792231242</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.5992834821821406</v>
+        <v>0.7935241475479134</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8433993857750484</v>
+        <v>1.3294728222433096</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>-2.837857342599857</v>
+        <v>1.2052143403099367</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>1.374967817080961</v>
+        <v>0.299586211257976</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>0.5015133810159941</v>
+        <v>1.5150048829019955</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>0.2178299961746825</v>
+        <v>-0.6510751988621486</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>1.050214751992288</v>
+        <v>0.5838222967800498</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.8581039201995901</v>
+        <v>0.8957983889989327</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.756962311589127</v>
+        <v>0.564927829149402</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.5390475808530144</v>
+        <v>0.6697023697863231</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.3284164444668981</v>
+        <v>1.0245098193690867</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.3004208874986725</v>
+        <v>0.5384644938431473</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.6389996715242254</v>
+        <v>0.23367862973077266</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.8993298231581028</v>
+        <v>1.185682980217054</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.5359448991902775</v>
+        <v>1.0028462720441726</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.0788790752553856</v>
+        <v>0.6391997860650136</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.6545772409941853</v>
+        <v>-1.115924176358926</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>0.7806562591983589</v>
+        <v>1.523705829367513</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.9884222664521884</v>
+        <v>-0.27237001811339584</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-1.1869151518431018</v>
+        <v>1.896393888901911</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>1.3029178304274152</v>
+        <v>0.5631771035969876</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-1.1293682099281803</v>
+        <v>-0.3751067024500383</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>-2.1737942411247784</v>
+        <v>-0.3261865633347879</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.4543060426811446</v>
+        <v>0.5044126868397916</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6400121971786201</v>
+        <v>-0.5773405047768349</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3070795169505955</v>
+        <v>0.01111346891832523</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8897170407274356</v>
+        <v>-0.34258431300317294</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.3772341733046535</v>
+        <v>-0.1960078853912539</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.8136785200494782</v>
+        <v>-1.0765743972787454</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>-1.5932323796314962</v>
+        <v>2.1094869942147025</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.08020892145153555</v>
+        <v>1.5116338582033548</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>0.34072042905412536</v>
+        <v>0.3803209867176032</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4323641842526994</v>
+        <v>2.538273403298025</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>2.4346385157688304</v>
+        <v>0.25766012742696515</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.29297546346820613</v>
+        <v>0.8493035509213565</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.6906713481745504</v>
+        <v>1.2557160981449147</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.9541417050980663</v>
+        <v>1.6230354372733629</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.3339386074603848</v>
+        <v>-0.4318983032919949</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.30367667900425943</v>
+        <v>1.0423733247688423</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.07733198468822595</v>
+        <v>0.8739757771628177</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.5040958932268598</v>
+        <v>-2.800223606925317</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>1.8590611835541644</v>
+        <v>-0.3892339819612185</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.39149318377154263</v>
+        <v>-0.005713540588163339</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>0.6100973887796907</v>
+        <v>3.1938002221071735</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>0.04426064603359539</v>
+        <v>0.23049348477069995</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.14122158223803755</v>
+        <v>-0.28155624500292725</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>-2.3137215364391257</v>
+        <v>-1.4054797468836284</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.6652655892589657</v>
+        <v>-0.3104592585579955</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.8606798973787406</v>
+        <v>-1.0492673961469212</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>0.005646145220081718</v>
+        <v>0.17321971725212834</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.9975219832748806</v>
+        <v>0.782590948132231</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.18707890467820798</v>
+        <v>1.0283139859422556</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>1.0158221158038903</v>
+        <v>0.7840131016205639</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.005836740829318502</v>
+        <v>1.3348802281627148</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.262333814583387</v>
+        <v>-0.9089083160804129</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.692605333224241</v>
+        <v>-0.353325169654703</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.5409759407625793</v>
+        <v>-0.2658029468426789</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.11854332394969316</v>
+        <v>0.3902752550587829</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.291610827023786</v>
+        <v>-0.09445933226830121</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.18546411652642045</v>
+        <v>1.4033805957748444</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>-1.8957604601692843</v>
+        <v>-1.6930350784793637</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-2.4460021846139686</v>
+        <v>0.07090671964877389</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>2.8091355541711525</v>
+        <v>0.35443152613039947</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.4835851607606778</v>
+        <v>0.20135409736703982</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>1.249047106226119</v>
+        <v>-1.4474085512960986</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.10239448303297076</v>
+        <v>1.2759923790091703</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>0.4859152848906991</v>
+        <v>-0.7841971247146882</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>3.157346246450917</v>
+        <v>-1.3500621767673617</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>0.15645208619036155</v>
+        <v>-2.032794634871111</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.8517270128411959</v>
+        <v>0.4090121317523213</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.27853358462519306</v>
+        <v>0.2752021095009479</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.3471338523521173</v>
+        <v>0.4860278112784592</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.3750644507633554</v>
+        <v>-1.952418760334344</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.5822582614662524</v>
+        <v>1.3871144455901534</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>1.256482644827581</v>
+        <v>1.1229184319878698</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>0.29209333684248123</v>
+        <v>2.6879717959530414</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>-1.4347103274173723</v>
+        <v>0.19168590048115836</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.31604752255636454</v>
+        <v>0.044015277037624</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>1.187362563331827</v>
+        <v>-0.26706662464369224</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>1.180544903543849</v>
+        <v>-1.7655161848559473</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.8043023939553287</v>
+        <v>0.2681535518488758</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>0.6505808090581828</v>
+        <v>-0.2848580641268271</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.7096710371537426</v>
+        <v>1.4999658641000087</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.03365663348178629</v>
+        <v>-0.4158354637459986</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.0019156101611115762</v>
+        <v>-0.16186561767158075</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.7906613734857251</v>
+        <v>0.4530603682132857</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1693832650285905</v>
+        <v>-0.908501561147026</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.8973088570386465</v>
+        <v>-0.8780525031223091</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>0.5919899089407966</v>
+        <v>0.04153390739678979</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.38821869006298265</v>
+        <v>0.02684965080644056</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>-1.098005175433823</v>
+        <v>0.014884004500380264</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.06246606680071383</v>
+        <v>0.5172296455909743</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.3044431749753964</v>
+        <v>-0.8077828554350981</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.4836434235697706</v>
+        <v>0.24814739599571392</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.9181218537707921</v>
+        <v>-0.5310563224204203</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>0.510736410753003</v>
+        <v>0.36638339949091153</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>0.8768823808281875</v>
+        <v>1.3976224741682606</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>2.1349999235952244</v>
+        <v>-1.3821305627454006</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>0.07721050992812252</v>
+        <v>-0.33041872502700803</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3032163315701244</v>
+        <v>0.09091730789182842</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>1.314436992374134</v>
+        <v>-0.7873279275974637</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.3458364707759936</v>
+        <v>-0.5736759027470761</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.0726671644657444</v>
+        <v>1.5276022804690215</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.9615058398666849</v>
+        <v>-0.5489513950808405</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>1.0470825088818867</v>
+        <v>1.3485676419586625</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.6580626892648886</v>
+        <v>0.9921500444173114</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.28202553442079886</v>
+        <v>1.1222502844573554</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>0.12324829081831065</v>
+        <v>-3.377604513177862</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.8582342080025172</v>
+        <v>0.43475177482591826</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.40142579767519604</v>
+        <v>0.18780557370047207</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.034367932121983524</v>
+        <v>-1.1817721268128285</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>-2.4242893380099884</v>
+        <v>-1.4274058544557864</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>0.41505527024892425</v>
+        <v>-0.4584429661124836</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>-1.3233766027798568</v>
+        <v>-0.5519874663993655</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>-2.1251530007992914</v>
+        <v>0.8268901409567508</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>0.3990366496363446</v>
+        <v>0.7142487767271093</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>0.6757128989334168</v>
+        <v>0.010332347442182834</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.2656264891867223</v>
+        <v>0.07554896766570811</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>-1.4118418182783417</v>
+        <v>-0.45990307237062034</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.630372429940935</v>
+        <v>0.1500297602125621</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>1.3699765265329682</v>
+        <v>-1.5034265953763666</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.9041202307793065</v>
+        <v>-1.9641597897071101</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.3043785100978934</v>
+        <v>-0.6133158875851278</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3276662647206265</v>
+        <v>1.6135830731743115</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>1.3103630422579653</v>
+        <v>-0.05206537315208221</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>-1.3231365531304764</v>
+        <v>-0.47228113090069146</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>0.16082867518215038</v>
+        <v>-1.627543864065326</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>-2.973865356493607</v>
+        <v>-1.0687595306456832</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>0.6504284313600665</v>
+        <v>0.4767320667081183</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>1.0254528098878573</v>
+        <v>0.20241889386217987</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.4592501064952583</v>
+        <v>1.1034596298123136</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.42567375903485266</v>
+        <v>-0.12391838580503094</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>-1.1363345683078114</v>
+        <v>1.2956486185223792</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.7493903431066268</v>
+        <v>0.5815737322158514</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.11786337468036033</v>
+        <v>-1.1827616268041856</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.34074068974037236</v>
+        <v>0.11073648270339749</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>0.4492281996974038</v>
+        <v>1.2215835318789536</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.7079047066891975</v>
+        <v>0.21926324642371747</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>0.4150852797152989</v>
+        <v>1.1848363231952235</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.7273316117290664</v>
+        <v>0.49013755607356213</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.4141701179390022</v>
+        <v>1.4780408300547592</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>0.6922406271641594</v>
+        <v>-1.0578172876575869</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.9656349062211422</v>
+        <v>-1.3680650312654672</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>-2.045108761988302</v>
+        <v>-0.5754220137787344</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>0.7583546227369939</v>
+        <v>1.8383662476101743</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>1.3247700426790212</v>
+        <v>0.3863990758206353</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1.7257748321618656</v>
+        <v>-1.7183680232142877</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>0.47048441588819223</v>
+        <v>0.05699632236921454</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.18825207131720129</v>
+        <v>1.6655701335574538</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.1888230894342294</v>
+        <v>1.3095675771219786</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.8593776209867743</v>
+        <v>-0.13071473266636985</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.4902126889812332</v>
+        <v>0.7063528087892508</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>1.671868205802937</v>
+        <v>-1.7389329604266284</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.8797487456723883</v>
+        <v>0.832862477364419</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>1.450852397729869</v>
+        <v>-2.2468354492918516</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>1.4793587686091731</v>
+        <v>0.5277469175956835</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>1.1415443519704955</v>
+        <v>1.6573299256048395</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.8871949883103244</v>
+        <v>-1.2091977848012123</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>-1.2420814506397808</v>
+        <v>-1.8113070705351164</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>0.08011823815942744</v>
+        <v>-1.2236744677470792</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.9495864429822473</v>
+        <v>-0.8976591825795498</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.7382195956357841</v>
+        <v>1.0878982650031164</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>-1.697297572651957</v>
+        <v>0.008232214223695819</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>0.3010999299122435</v>
+        <v>0.938019966992479</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>-1.869310569657404</v>
+        <v>1.2435315585327438</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>0.8034577697768654</v>
+        <v>0.7743112545302764</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>-2.052438647745892</v>
+        <v>-0.9714931318551427</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>0.12033701384135125</v>
+        <v>-1.1855721916139863</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>-1.0295263258192404</v>
+        <v>-1.8201010689239174</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.6964516453802517</v>
+        <v>-2.121369965787584</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>0.7420985062710236</v>
+        <v>0.040706256814070876</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>1.6065330685499577</v>
+        <v>-1.1995318364046699</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4014563931273919</v>
+        <v>-0.6808428747859738</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.7948542997538244</v>
+        <v>-0.3378703925318465</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.0032645290055463927</v>
+        <v>-0.012663589725488995</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.6143824063487372</v>
+        <v>-0.7538634183275388</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>0.0626539141656477</v>
+        <v>1.1952442218076704</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.6453032909784208</v>
+        <v>-0.07816921648640711</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.09328241071366794</v>
+        <v>0.5381404748461538</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.348974993016905</v>
+        <v>-0.6837207412410233</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>-1.8175174300812609</v>
+        <v>0.0037927103801358437</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.5799548390089921</v>
+        <v>0.8703459473105969</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>1.3825242299655445</v>
+        <v>0.8393010329197123</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>0.307290062714356</v>
+        <v>-0.04256818249617864</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.6515618534764829</v>
+        <v>-1.1166437333820003</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>-1.026633328021343</v>
+        <v>-0.5934384326728893</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>0.1226884223122456</v>
+        <v>0.2700851136067055</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.5386653891575403</v>
+        <v>-2.263866607818296</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.35568391474470257</v>
+        <v>-2.6697489125925276</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>-1.2319378395317646</v>
+        <v>0.9415492389336514</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>0.2585893735085304</v>
+        <v>-0.38589222171645077</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.7821767369002586</v>
+        <v>0.02728910161530166</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>0.6655148365698318</v>
+        <v>-0.8593074145118789</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>-1.4761230962196004</v>
+        <v>-0.18620557579675975</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.3707628245240442</v>
+        <v>0.5942496575270536</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.21270545410061956</v>
+        <v>0.3131101701333738</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>-1.3051704475482437</v>
+        <v>-0.9397985541076334</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.2793383251006041</v>
+        <v>-0.17946684796638906</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>1.6083136725276002</v>
+        <v>-0.1472773720137311</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-1.2318441752105087</v>
+        <v>0.5124668822921651</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>0.6295794172555004</v>
+        <v>-0.43230727297452565</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>1.3207135366116038</v>
+        <v>-0.5760557173444166</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>1.6355064709121552</v>
+        <v>-0.5456125519783377</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.025512409605452</v>
+        <v>-0.0774548576686941</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.7298254993645962</v>
+        <v>0.07878249337186827</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.33541148913934243</v>
+        <v>-0.6603717279217769</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.4863992189154681</v>
+        <v>-0.042192463674719204</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>1.5791988747099492</v>
+        <v>-0.41606730959160887</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.588407853499627</v>
+        <v>-1.3288586920956453</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>0.45211245366382175</v>
+        <v>0.24408994464144412</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>-1.4671121979175277</v>
+        <v>-0.2652625253678577</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>-1.9986304539330206</v>
+        <v>0.12298755809285006</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.04844816510269592</v>
+        <v>1.1738144821014622</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.8742468252053615</v>
+        <v>-0.8634548047917942</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.3067403468476234</v>
+        <v>-1.086822773409502</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7057592558887541</v>
+        <v>-0.6562825331137657</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>0.32582794994067504</v>
+        <v>-1.3469568360186228</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.0214747309380858</v>
+        <v>1.0808014537293102</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.7118836185643331</v>
+        <v>0.19877337598390504</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>2.7634118635733937</v>
+        <v>-1.3664944257456686</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>0.3061670008125146</v>
+        <v>-0.731716562703652</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>1.6527754556424317</v>
+        <v>-0.6526239504089766</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>0.33630894256705973</v>
+        <v>-1.7497066636936622</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>0.03765535615092634</v>
+        <v>-1.0914525978429803</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.21586176376715283</v>
+        <v>0.3645939369320794</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.5698043479906562</v>
+        <v>-1.3329234315892975</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>1.0689363760666053</v>
+        <v>0.5829701219745076</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.8563235619339434</v>
+        <v>-0.5662750762725365</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>1.1622389452229995</v>
+        <v>1.668160343799568</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>0.29146141193247127</v>
+        <v>-1.0502473650677278</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>1.3713258945826328</v>
+        <v>-0.793126756063371</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>-1.0269262095085205</v>
+        <v>-0.057052517264344633</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.47842864293227255</v>
+        <v>0.026958750579405905</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>2.8596300774576595</v>
+        <v>2.5732168409785166</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>-1.3975270884703288</v>
+        <v>1.2010519952354868</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>0.46574324237872833</v>
+        <v>0.28053339103702307</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.8272951939056362</v>
+        <v>-0.42388212266501546</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6513428964737719</v>
+        <v>0.14751738496240008</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>0.6142771964787179</v>
+        <v>-0.6591659417442833</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.8401513866219833</v>
+        <v>1.0415250520727748</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.4690150056142648</v>
+        <v>-0.421037881001605</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>-1.1269429443208394</v>
+        <v>2.5509294232596926</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.33450369271071045</v>
+        <v>0.1801907574393441</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>0.6574900329604553</v>
+        <v>0.6724209162180743</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.07053368121856987</v>
+        <v>0.11055156374673077</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.5908796316893815</v>
+        <v>0.5187230814081574</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>1.436330612102771</v>
+        <v>-0.21830825467593334</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>0.32682088550019295</v>
+        <v>0.46978413180638884</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.6275246990418857</v>
+        <v>1.277826426874208</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>0.4996525866287385</v>
+        <v>0.21210956216721835</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>1.0260536907338045</v>
+        <v>0.9299036998675689</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>-1.256404196309411</v>
+        <v>0.2690635375513949</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>2.050352512063856</v>
+        <v>1.0072677089324713</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>0.7396922026816121</v>
+        <v>1.643552933802485</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.3453842709086923</v>
+        <v>0.9234880605374369</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>1.3303484000726937</v>
+        <v>-0.9699907864306102</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.710628112943043</v>
+        <v>-0.7864558478532755</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.11786368863878188</v>
+        <v>-0.46445917064983977</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>0.39993598862889523</v>
+        <v>-0.06985555876991614</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>-1.3147074510967927</v>
+        <v>-1.505271164763976</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.5471696922849132</v>
+        <v>-1.5467290274318493</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.2865392980066199</v>
+        <v>-1.237838982641271</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>-1.3367038606083887</v>
+        <v>2.928378988358796</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-2.7063676908610694</v>
+        <v>-0.4735906847537852</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.7843622125666391</v>
+        <v>1.7218450512489352</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.2003818863694449</v>
+        <v>-1.227562872028719</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.5838424932094921</v>
+        <v>0.27604562792490417</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.04754173715429416</v>
+        <v>0.11384628377509412</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.25487355444276977</v>
+        <v>-0.9108018096556223</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>1.4990974095517136</v>
+        <v>1.0532329458262282</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>0.7797624694228685</v>
+        <v>1.4284341625283088</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>0.2471627387924711</v>
+        <v>-1.1891776210263305</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>0.5400145264660743</v>
+        <v>1.6196774812127888</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.052897947746359184</v>
+        <v>1.0591191865620198</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>2.3300116708518503</v>
+        <v>0.638706982879284</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>-1.4022620873821308</v>
+        <v>0.8495931432950817</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>0.6406651466341552</v>
+        <v>0.41692574130231214</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.3560973980308057</v>
+        <v>0.05155939628248474</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.05008560475775483</v>
+        <v>1.134660622439971</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.146996364620212</v>
+        <v>0.23204470856644363</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.9229492987927199</v>
+        <v>-0.19347461401612276</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>1.9373311501931985</v>
+        <v>-2.089725386101166</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>1.039349256823469</v>
+        <v>-0.1811335455409616</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>1.2113670820897713</v>
+        <v>0.3344588973996638</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.35899708889565995</v>
+        <v>-0.05600911067885375</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>-1.0520109038181236</v>
+        <v>0.6801066505968619</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>2.4643197801041614</v>
+        <v>0.456429637080869</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>0.25174046006002837</v>
+        <v>0.10844856100925845</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5486041069410803</v>
+        <v>-0.21971001944240662</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>-1.4135862880002756</v>
+        <v>0.9530041494753564</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.9487635876205259</v>
+        <v>-0.551646772431838</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.42619836102120257</v>
+        <v>-1.7898703787226697</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>0.9718413714647568</v>
+        <v>-1.431170234191233</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.7515219512886311</v>
+        <v>2.239164216517956</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>0.9018547957011482</v>
+        <v>-0.059145077818083806</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>2.2168457704667808</v>
+        <v>2.2508948469228702</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>0.6251040785911839</v>
+        <v>-0.5425015780775999</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.024936571792639653</v>
+        <v>-0.0479716954438711</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.47572948436622314</v>
+        <v>0.7300469639042302</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-1.0685437074052357</v>
+        <v>-1.9618294285397178</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.1093656665344425</v>
+        <v>0.11399210406693139</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.018535549298256196</v>
+        <v>-0.7631623145597848</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.6782151364617407</v>
+        <v>-0.30205564505874066</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>0.6211654978214378</v>
+        <v>-0.5940682152271822</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>0.719018504346758</v>
+        <v>0.3540698620344548</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.2139747431601797</v>
+        <v>-0.048328492983978705</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.9823907701126426</v>
+        <v>0.2618545252315973</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.5027979069468811</v>
+        <v>1.4584373400271997</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.6018160945196761</v>
+        <v>-0.9180867698128095</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.2105984952383746</v>
+        <v>-0.42325972632216097</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>1.1375744303154958</v>
+        <v>-1.2960278004301418</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>0.6117301181147804</v>
+        <v>-1.5160194293155678</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.30709121015901</v>
+        <v>-1.6909720423938104</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.34967210225145545</v>
+        <v>1.5884088050686402</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>0.8109103597489026</v>
+        <v>0.36058255567261005</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.7287600897921284</v>
+        <v>0.23123478779012122</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>0.4336293918683804</v>
+        <v>1.2625777037494796</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.005284503480171226</v>
+        <v>-0.6031832403431645</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>1.551454705212893</v>
+        <v>0.9052350368757884</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>1.2725646094255967</v>
+        <v>0.44060601824606005</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>0.18837359191972056</v>
+        <v>1.763472562198016</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>0.25504874133351707</v>
+        <v>0.27984519053469037</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>-1.0806502947885506</v>
+        <v>-0.5477237953720049</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>0.8099514722552529</v>
+        <v>-0.9943620430017314</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>1.341721884500068</v>
+        <v>-0.40483622640195416</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>1.6079202960812917</v>
+        <v>0.019199864207268817</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.6852657200336538</v>
+        <v>-0.7370622988036009</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>-1.6673068398474165</v>
+        <v>1.846616237766149</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>-1.4481669625399933</v>
+        <v>0.6837212994662002</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.5831263095438711</v>
+        <v>0.5393642890270204</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>1.367763492344057</v>
+        <v>1.1459969917552115</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.5437704851770175</v>
+        <v>-2.55513464559375</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.5753513649632641</v>
+        <v>-0.886409122747589</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>1.1106834461329063</v>
+        <v>-2.000773171202507</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>1.0798167456217966</v>
+        <v>-3.386862823036546</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.8090864778942142</v>
+        <v>-1.2066522136200546</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>1.1615053442798513</v>
+        <v>0.7380344192155536</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.2015026588921561</v>
+        <v>0.4862015113820152</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.6872670933333358</v>
+        <v>-1.258020711908099</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>1.6175909836493103</v>
+        <v>-0.47835661403991303</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.6235673133366603</v>
+        <v>0.5810907341235502</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.9288667303880755</v>
+        <v>0.6768708076161635</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.7454997080756309</v>
+        <v>-1.459756593520547</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.7776738928086211</v>
+        <v>-1.5326914840624133</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.9114909002675007</v>
+        <v>0.48749390342810633</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.8772442551264752</v>
+        <v>-0.21498782715217227</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>0.722812508024737</v>
+        <v>-0.2176635140420052</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.38440451516688146</v>
+        <v>0.13519402277520487</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>0.2514255398244978</v>
+        <v>-0.1387654696984306</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.18719517663535948</v>
+        <v>-1.06313322558889</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.6697365264636835</v>
+        <v>-1.4636558644311872</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>1.0424255301008822</v>
+        <v>-0.13208206438013073</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.5039589083560208</v>
+        <v>-0.6425042755940045</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>0.299416215767115</v>
+        <v>-0.2458212561884532</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>-0.17769800280434223</v>
+        <v>-1.7839202522346291</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.20396506835566086</v>
+        <v>0.6718670754351216</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.9288866738378649</v>
+        <v>-0.7408856871802965</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>0.8426888192983709</v>
+        <v>-0.0532947727718301</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.9282932973652314</v>
+        <v>-0.10769812018451978</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.8383402510499365</v>
+        <v>0.8816077945534329</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-0.42602216717960617</v>
+        <v>0.6517057262545839</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>1.616401835967641</v>
+        <v>-0.813115552651928</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>0.7183015318652609</v>
+        <v>-0.0218625382249772</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>-0.4633701419864314</v>
+        <v>-1.901343191541419</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>0.19580669512467172</v>
+        <v>-1.0410382778834295</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>-1.0195864885890016</v>
+        <v>1.3793997187254512</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>0.7048442365927005</v>
+        <v>0.5017246388699613</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>1.0136690963040222</v>
+        <v>-1.1177518308700631</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>1.0403543227519707</v>
+        <v>-0.38176421530251237</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1.5102091287101895</v>
+        <v>-0.7326636338210589</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>-1.121224796691058</v>
+        <v>1.4705901253586966</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>0.06432219947711436</v>
+        <v>0.15200719586905814</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>0.08890451532533866</v>
+        <v>0.4277667369787357</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>0.8225109630880059</v>
+        <v>-0.27170190701434144</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>0.8226224613081864</v>
+        <v>-0.09564842144399992</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>-0.9354093477549109</v>
+        <v>0.37650181926678666</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.04636799961356405</v>
+        <v>-0.2362851979973306</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>2.2976360533961313</v>
+        <v>-0.5876852573957637</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.3612956370579625</v>
+        <v>1.6034324213977993</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.11094654667457864</v>
+        <v>1.458085279854621</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.23679765990564192</v>
+        <v>-1.4945209647596347</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>-0.0973916809135417</v>
+        <v>-1.9138454037352124</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>1.5127758623736172</v>
+        <v>-1.6449583549943203</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-1.1175795457104019</v>
+        <v>0.9398448719063093</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>0.284910234213383</v>
+        <v>-0.5244933130815115</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>0.7323868750143955</v>
+        <v>0.0961772715084596</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-1.2001227864317652</v>
+        <v>-1.1887722107998857</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>0.6276209572254792</v>
+        <v>-0.5509094789821974</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.727087389521111</v>
+        <v>-1.0820682347409147</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.028402001008775688</v>
+        <v>0.20300577399450856</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>1.1107076927839084</v>
+        <v>0.1355978400837358</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>0.5242881693122198</v>
+        <v>-1.2084130059005198</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.33332116792420136</v>
+        <v>1.2621843990805215</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>0.09429715730235459</v>
+        <v>0.9750769022512225</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.05328811130435022</v>
+        <v>-0.07713641423599485</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.17495795794221028</v>
+        <v>-1.1211976855095942</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.1210519717449522</v>
+        <v>-0.948963690124304</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>1.151980018196448</v>
+        <v>-0.5714038141739484</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>0.8593227724848614</v>
+        <v>-0.3423915749157225</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.012887480623092603</v>
+        <v>-0.09734534930583842</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>-1.1203964127995227</v>
+        <v>-1.2762107695948834</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>0.8550290086625075</v>
+        <v>-0.9840010228884297</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.6759008918733727</v>
+        <v>0.01888150199174237</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>-1.8138392642158176</v>
+        <v>-0.05954026776031591</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.7341841238545042</v>
+        <v>-0.015933414857100838</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>-1.2408368551470712</v>
+        <v>1.224064186141739</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.18193441195750765</v>
+        <v>0.21559256416791708</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6307877629249512</v>
+        <v>0.750022222327825</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>0.9561279323235551</v>
+        <v>1.0519741778351017</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>-2.0141703388691625</v>
+        <v>0.8652172635505102</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>0.242986171565619</v>
+        <v>0.17387328181802864</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.21439785861258967</v>
+        <v>-0.3074866393618381</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>0.8212025994898374</v>
+        <v>-0.5681832896271749</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>1.074540840251379</v>
+        <v>-2.5267480433523293</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>0.3596244841354305</v>
+        <v>-0.5185934945182125</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.29409431761879684</v>
+        <v>0.5706629171985951</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>-1.4022463553591213</v>
+        <v>-0.38960942256993053</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.1539403032195523</v>
+        <v>1.9236040140630337</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>-1.6210848365039052</v>
+        <v>2.3308156267170346</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.8545608471761287</v>
+        <v>-1.2550978963244335</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.31604439139836704</v>
+        <v>1.60736030249635</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.16571979620876257</v>
+        <v>-0.841877517492229</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>0.4689970296749116</v>
+        <v>1.6438774918136698</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.49892813710011247</v>
+        <v>-0.13538562345756075</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>0.007149557386524959</v>
+        <v>-0.4773394664344241</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.08222327490313669</v>
+        <v>-0.17656903407240715</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.7682616685861583</v>
+        <v>0.37195511665845604</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.7463263679390475</v>
+        <v>-0.8930059316302073</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.9528865129091048</v>
+        <v>1.7828815558949966</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>2.001120248594843</v>
+        <v>-1.0568896320217402</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.7589314656492127</v>
+        <v>0.38223935403262616</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.657585341050989</v>
+        <v>-0.2103659517447668</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>0.010606675131210582</v>
+        <v>-0.15203263341597167</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>1.1773590131308853</v>
+        <v>-0.8861770364286754</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.7630361951750338</v>
+        <v>-1.1351593399044642</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.5583567133664903</v>
+        <v>0.8755751597479344</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>-0.8960249012575218</v>
+        <v>1.3119970485643637</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-1.0396318558183437</v>
+        <v>-1.3809037050000628</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>0.20725629867930873</v>
+        <v>0.09442046156133645</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2579179899841206</v>
+        <v>0.61102572644553</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.2785301095237149</v>
+        <v>0.3268484562514086</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>1.0348046566029443</v>
+        <v>0.9436526163953963</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>0.8819094192914732</v>
+        <v>-0.16282874074250747</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>0.7037884198940593</v>
+        <v>-0.5731154817820346</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.9686586363879971</v>
+        <v>-1.812686880759908</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>0.528409792849557</v>
+        <v>-0.24452546406796485</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.6257830984607924</v>
+        <v>-0.03466932460376786</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>0.6698406051165745</v>
+        <v>0.3056305520950138</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.6944498526674354</v>
+        <v>0.7026119949657078</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>1.549459769193838</v>
+        <v>2.331624281795256</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.8009028213605771</v>
+        <v>0.6103966942669272</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-1.3722652679917384</v>
+        <v>-1.427673786455172</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>1.1161737515845243</v>
+        <v>-0.7833984443688756</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>-1.841621877959693</v>
+        <v>-0.2096439779283229</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>2.1251187946257177</v>
+        <v>-0.006438115584186613</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.10463482501872289</v>
+        <v>0.9123422090132794</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.05280887133709533</v>
+        <v>2.0573306593045064</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.7088929141173111</v>
+        <v>0.3528844546479737</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.1342912766488304</v>
+        <v>-0.5021869948933664</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>0.7930696991808309</v>
+        <v>0.38050217822764104</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.14908563989453952</v>
+        <v>0.007466992780356613</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.9775644911887633</v>
+        <v>1.2738789088278692</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>1.0250147420617226</v>
+        <v>0.3739388509660895</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>0.3142118307753181</v>
+        <v>1.2433970674715824</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>-1.2692874745751415</v>
+        <v>-0.24585942917917286</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>-0.15844571200880025</v>
+        <v>-0.32567699297498615</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.31367364137780507</v>
+        <v>0.394680645802006</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.4013024190149275</v>
+        <v>-0.44292552147851455</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>3.2084104440782686</v>
+        <v>-0.45547212502322254</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>0.5305230886996248</v>
+        <v>-0.8635577098905787</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.7947519891247793</v>
+        <v>0.4088924886791412</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.43748830201183203</v>
+        <v>0.34814241907829185</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.5310241463570334</v>
+        <v>-1.1310699739367733</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.880699777493777</v>
+        <v>0.8235021146046517</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-0.7054491285448504</v>
+        <v>-0.9666720841461659</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.9196168970666061</v>
+        <v>-0.033188577069719595</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.07594233978180943</v>
+        <v>-1.706673893011291</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.6074712021783164</v>
+        <v>-0.6893744569380345</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>0.549785650528066</v>
+        <v>0.830783901426524</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.414524029243344</v>
+        <v>0.24564047453254945</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>-0.4105229449484034</v>
+        <v>0.45731266890745514</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.4415584667830745</v>
+        <v>-0.016778564938142587</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>0.549065340608277</v>
+        <v>-0.21622830210004262</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>-1.5151357839430846</v>
+        <v>1.1510775193967266</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-1.3388436044566214</v>
+        <v>-0.6819645213005421</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.5795688344754394</v>
+        <v>1.7075288055440772</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>2.078188092134576</v>
+        <v>2.0175445286172193</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.6171681896958305</v>
+        <v>0.5521570988400675</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>0.5900044650372174</v>
+        <v>0.4528842125023012</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>0.65395076944243</v>
+        <v>0.9377759517431559</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>-0.8348959093863338</v>
+        <v>0.7462281458349778</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>0.8689859582506088</v>
+        <v>-0.6822550005974083</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>2.6696609798799384</v>
+        <v>-0.3880504275705938</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-1.5535351396694403</v>
+        <v>0.2023296839843183</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>1.0625776261021618</v>
+        <v>-1.2147050432815187</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.22770578343552944</v>
+        <v>-0.3073740510172748</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.011062252280706394</v>
+        <v>-0.03644996131022174</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>-1.0343185368670096</v>
+        <v>-1.0098782265491437</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>0.1851879967623254</v>
+        <v>-6.085428913505127E-4</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>0.7523022889640367</v>
+        <v>-0.9588110117406505</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.9501173819513403</v>
+        <v>1.7942089817415052</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.49411187773242865</v>
+        <v>-0.34385717965216955</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>0.8654885559377921</v>
+        <v>1.7024585645042765</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.3685629313688813</v>
+        <v>1.2604973224554707</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>-1.3741398824655917</v>
+        <v>1.785301885762628</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>-2.0858815718927204</v>
+        <v>1.5356523290100568</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.4376611360478492</v>
+        <v>0.6151138757895909</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>-2.0246508525958378</v>
+        <v>0.05582419470063749</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>-0.018278090223610717</v>
+        <v>-1.4746010967813046</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>-1.304961831532629</v>
+        <v>-0.18307230533434937</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.7324459936639601</v>
+        <v>-0.8136225654234833</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>0.7017107190648978</v>
+        <v>0.5990622741959436</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>0.6925524848174613</v>
+        <v>1.7900351184125254</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>0.6451317102012251</v>
+        <v>1.265966352370967</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>-1.1538077373356006</v>
+        <v>0.38760661227872456</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>0.40865983736434564</v>
+        <v>1.4111682356105308</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>2.9968575412490828</v>
+        <v>0.30180529177622273</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>-0.3615587209288106</v>
+        <v>-1.4427581766168778</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>-1.5474133646214836</v>
+        <v>2.006935379673143</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1.2109308718033411</v>
+        <v>1.3089692433741964</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>0.06592563690506414</v>
+        <v>-0.2342933079314923</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.36625992114747097</v>
+        <v>1.4766563515031021</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>-2.3187154933743153</v>
+        <v>-1.084805674156545</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.5894076963717519</v>
+        <v>0.26911246206336803</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>0.9144002919347617</v>
+        <v>0.49059527628231214</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>0.17372868857362683</v>
+        <v>-0.3576446878008745</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>0.1871455232838683</v>
+        <v>-1.049020334689746</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>-0.3808940172616192</v>
+        <v>0.15819650837515103</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>0.030547815651365242</v>
+        <v>0.9806943241533658</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>-1.1262148792460973</v>
+        <v>-1.0044864251782366</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.039220501260977744</v>
+        <v>0.5564880634980792</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>-0.10481716122867417</v>
+        <v>-0.10270098805729805</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>-0.5281008716095411</v>
+        <v>0.7339027999614084</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.5484195598805426</v>
+        <v>0.36291760304289994</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>-0.20553969302956743</v>
+        <v>-0.7497895487396724</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>0.3058770891721207</v>
+        <v>-1.9052671393165175</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.6212240964017832</v>
+        <v>-0.06423028140282708</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>0.9624613280114351</v>
+        <v>-1.9841389350991951</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>0.30595449165101346</v>
+        <v>-0.7221839645185527</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>-1.801516007150467</v>
+        <v>-0.21240232198948553</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>0.001250395101151103</v>
+        <v>1.2965880932660212</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.24752694309499496</v>
+        <v>-0.7748858292566522</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.1280739630513951</v>
+        <v>-0.4328329555909506</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.06727080276586056</v>
+        <v>-0.45124940438477384</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>0.649007034434429</v>
+        <v>-1.5783877018618488</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>0.7211921164699966</v>
+        <v>-0.5112405443559553</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>-0.8332904728472575</v>
+        <v>-0.8617647576188647</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>0.6211929574476851</v>
+        <v>1.8346108342640084</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>1.7453228835226657</v>
+        <v>-0.6940831978754914</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>0.08937025821080183</v>
+        <v>1.3095363557460737</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>1.4724437040316096</v>
+        <v>-0.28480665971157715</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>0.6331821524351086</v>
+        <v>0.5261380347037524</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>-1.317749129089126</v>
+        <v>-0.5669876738367094</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>-0.2048981975181174</v>
+        <v>0.15057000095161135</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>0.2220957646219847</v>
+        <v>-0.7279785744119589</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.4031589087563834</v>
+        <v>0.5294490470512937</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.4684943447705347</v>
+        <v>-0.10248659533773319</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>-1.3186486974323133</v>
+        <v>-0.579581647822575</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>0.9595125494303951</v>
+        <v>1.1783454023620148</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>0.07679307945283019</v>
+        <v>0.7683305983619378</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>0.3281016584690036</v>
+        <v>0.3800288382238964</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>0.012619208604416258</v>
+        <v>0.9341624508687956</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>0.16922017371375137</v>
+        <v>-1.893735822554065</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>0.14872478342242285</v>
+        <v>-0.041867350827033446</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>-0.803138895190395</v>
+        <v>-0.3795325908057256</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>-0.37530897039831057</v>
+        <v>0.7161202479504987</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.08556015882246272</v>
+        <v>2.0275108732790876</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>1.0656173764796277</v>
+        <v>-0.0399998035727244</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.6685759189385344</v>
+        <v>-0.25406259827104094</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>-0.16499845434585522</v>
+        <v>-0.5320422020151898</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>0.6214651221730989</v>
+        <v>0.5518905275215992</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>0.7641593662127696</v>
+        <v>-0.19773615580467566</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.4968936933105769</v>
+        <v>0.2334694823171211</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>-1.2421311218143056</v>
+        <v>0.9421799725586942</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>-0.1686621615298529</v>
+        <v>-1.9086003641343123</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>0.0934670697960035</v>
+        <v>0.11697359368534269</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.8965951952154099</v>
+        <v>-0.029738903545805186</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.7113899205865858</v>
+        <v>-0.4246749159583684</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.5919640109704962</v>
+        <v>-0.9864758736741072</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>0.780532827525004</v>
+        <v>-0.6855091648796826</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>0.4125163055846274</v>
+        <v>-0.5525855642227239</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>-0.5725516384996662</v>
+        <v>-1.83597470208863</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>-1.6190010510376327</v>
+        <v>0.6898063677195316</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>-0.24294813557669023</v>
+        <v>0.6258326549141554</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>-0.06871693791420781</v>
+        <v>0.5203319165507578</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>0.17134836648354632</v>
+        <v>-0.5026568497754801</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>0.33773975618366475</v>
+        <v>1.018246241543408</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>0.8114341746706514</v>
+        <v>0.7544349510580924</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>1.5103711618373086</v>
+        <v>0.09281871614696377</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>-1.1386597392082198</v>
+        <v>-2.17028441830059</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>0.8415944114620666</v>
+        <v>-0.5489984293989922</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-1.9996640783430264</v>
+        <v>1.5524696766676045</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>-2.1011784528716233</v>
+        <v>0.4715479129300026</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1.7132099445121585</v>
+        <v>-0.3323885580483224</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>-0.41856612474498145</v>
+        <v>1.5323788661785422</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>0.44702592786767875</v>
+        <v>-0.7311623727547408</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>-1.0141842547731312</v>
+        <v>-2.3074108217673612</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-1.1006819257425025</v>
+        <v>2.831183509503652</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>0.47505375781673814</v>
+        <v>-1.9700964054569603</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>1.851734732430585</v>
+        <v>-0.47525276373415</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>0.8048190833435005</v>
+        <v>-1.07101783351273</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>-0.5210412330567844</v>
+        <v>0.06956014232339355</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>-1.2443781299141872</v>
+        <v>-0.39931994777952956</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>2.0995967182537543</v>
+        <v>1.7657826682287523</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.38146265413350006</v>
+        <v>0.30817662791213535</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>-0.7875085163507788</v>
+        <v>-1.0799956310113454</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.4344152901018325</v>
+        <v>0.0990260153585617</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>-0.038462728280585286</v>
+        <v>-1.002207182501845</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>0.49126217975574443</v>
+        <v>-0.01417924133227587</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>0.3412405494001415</v>
+        <v>0.5610417452515034</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>-0.3306835955418428</v>
+        <v>1.0765369422415945</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>0.040707846704712364</v>
+        <v>-0.6107963411482478</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>-0.3193224771333621</v>
+        <v>-0.08660361066587552</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>2.2020986913425977</v>
+        <v>-0.8132092441112809</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>0.2334364487447669</v>
+        <v>-0.7420853889810022</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-1.3146349272902913</v>
+        <v>1.939907822977124</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>-0.09387394900442975</v>
+        <v>-1.877742693722699</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>0.7622677450320244</v>
+        <v>-0.5084036569521597</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>1.0935884026834763</v>
+        <v>-0.8130617379198002</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>-1.0919999868586228</v>
+        <v>-0.338730046541817</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>0.6752632216793527</v>
+        <v>0.32029287178579874</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>-1.95099694941469</v>
+        <v>-0.5643295316484428</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.784346421952171</v>
+        <v>0.34642717420601554</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.7922479142704894</v>
+        <v>-0.7813178360343805</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>-0.053426443637181194</v>
+        <v>-1.4104329924925867</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>2.0886465438232302</v>
+        <v>0.25278519140093547</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>-1.0570397185257936</v>
+        <v>-0.886031558304961</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>1.4075373994405551</v>
+        <v>0.9560883041435023</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-0.5221078886636581</v>
+        <v>0.7090707940959684</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>0.761537779285804</v>
+        <v>-1.216846843276031</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>1.2791347056462716</v>
+        <v>-0.14285820305825267</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.5247541677903731</v>
+        <v>-1.988387666115599</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6873078324977228</v>
+        <v>-0.18376544503011424</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>-1.123078456574849</v>
+        <v>-0.14911101180945624</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>0.4295793215065845</v>
+        <v>-1.4448742311432776</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>-0.47442963407148386</v>
+        <v>-0.5430218474605639</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>0.7651659417394392</v>
+        <v>0.79714063360001</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>0.7794666152803</v>
+        <v>-1.173047219653626</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.6620241848220076</v>
+        <v>1.0530820793545428</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>0.020833102199485264</v>
+        <v>-0.12414803937818326</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.8404218710389472</v>
+        <v>-1.0642004184946536</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>0.2271015213236466</v>
+        <v>-0.22325388408695407</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>-0.9547744744577883</v>
+        <v>-0.46580178496280933</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>1.5899658051941372</v>
+        <v>0.015415926620600671</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>0.23011050241531836</v>
+        <v>-0.06595099372125598</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>1.8170806220536972</v>
+        <v>-0.8632098568741013</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>-1.7679734488982195</v>
+        <v>-0.12597688495766193</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>0.012212379973282051</v>
+        <v>0.18368101309516668</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>0.9997152428954682</v>
+        <v>0.020192137514077963</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>-0.31159438397862793</v>
+        <v>1.1537149742107555</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>0.7650534682813316</v>
+        <v>-1.7990374198141978</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>-0.7805964224578075</v>
+        <v>0.1659843700665876</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>2.8878439850430837</v>
+        <v>-0.5224114524572617</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>0.18584907823085203</v>
+        <v>-0.5544340047550503</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>0.8321628454916354</v>
+        <v>-1.130213562744802</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1.0933393238901368</v>
+        <v>-1.6075772732687006</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>0.5272421069136208</v>
+        <v>-0.2768615737265058</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>0.5673055989202191</v>
+        <v>1.3184277289589967</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>-0.15851563177225256</v>
+        <v>-0.6855584600829517</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>0.3086794794918653</v>
+        <v>-0.22080520530227746</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>1.1335451578360431</v>
+        <v>1.733275407348712</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>-0.6005799448422153</v>
+        <v>1.3881049979883662</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>0.295858387419734</v>
+        <v>-0.4110506190420871</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>2.499544775678002</v>
+        <v>1.618806236429366</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>-0.5734308636359466</v>
+        <v>-0.4409770247815836</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>1.1351101379216288</v>
+        <v>0.732883132199253</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>-0.368510139950418</v>
+        <v>0.6305898195396507</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-1.7625163935511885</v>
+        <v>-0.3921602944697234</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>-1.6877172697054703</v>
+        <v>0.7632321175168125</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>0.017750178491985208</v>
+        <v>0.16990129716129693</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>-1.2666982229008268</v>
+        <v>-1.1454229847604254</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.4282821577078685</v>
+        <v>0.7048892799954809</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>1.3978602562414746</v>
+        <v>-0.1648450982543495</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>3.1717946729114463</v>
+        <v>0.9883525999944995</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>0.30573765719487755</v>
+        <v>-2.1894472821625377</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-2.119032654303831</v>
+        <v>-0.13961239109802245</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>-1.1353361278611724</v>
+        <v>-0.3520788759164664</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>1.3614535260034377</v>
+        <v>-0.21375303876485527</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>0.25158651133573107</v>
+        <v>0.610712376313912</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>0.13267731477375877</v>
+        <v>0.16006758638338012</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-1.045162124328484</v>
+        <v>0.7323304139908647</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>-0.539447734630923</v>
+        <v>0.3757036883867906</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>-0.14243099054653593</v>
+        <v>0.29238979175308416</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>0.9223104583723162</v>
+        <v>-0.2528864886432835</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.3629599310224462</v>
+        <v>-1.349782120969418</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-1.2871288837426171</v>
+        <v>0.2645610756321447</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>-0.06150091886902603</v>
+        <v>-1.1394658821444308</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>-1.13794828824785</v>
+        <v>0.7110429155092305</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>1.761845083223801</v>
+        <v>-1.0605307815848255</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.9922961728829547</v>
+        <v>0.3190322664454843</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>0.4877970157652684</v>
+        <v>-0.06270805227659672</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>-0.9518460016224055</v>
+        <v>-0.9739696097800398</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>0.7040494557363424</v>
+        <v>0.6085771229496787</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>-0.21467068460920333</v>
+        <v>0.4206128792298298</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-0.1307486798881627</v>
+        <v>-0.030844280518542377</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>-0.25706831549272935</v>
+        <v>-0.9865832417484443</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>-1.370572445669443</v>
+        <v>-0.32864166007514484</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>1.4769056302421921</v>
+        <v>-0.6873172974129813</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>1.0688502757546232</v>
+        <v>1.9596549659903142</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.3121918723824506</v>
+        <v>-0.9006386768523917</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>-0.3878467113111773</v>
+        <v>-0.017528208246392396</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.7170680722333715</v>
+        <v>0.7101628395650168</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>-1.5557812883926148</v>
+        <v>0.6509505605125936</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>1.941288037953637</v>
+        <v>-0.8739123990463293</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>1.2441704836536676</v>
+        <v>-0.7381006311386851</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>-0.8248765642791953</v>
+        <v>-0.6185471474851051</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>1.0375921872187284</v>
+        <v>-0.5467092667603431</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>-0.17281408860535197</v>
+        <v>-0.9378206278612748</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>1.122938417363178</v>
+        <v>-0.17725317947931318</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>-0.39958667173154094</v>
+        <v>0.9461497239481379</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-1.0044815454252662</v>
+        <v>-0.6191982837022557</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-1.2875133042547202</v>
+        <v>-1.9467730015516687</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>-0.8236970963145556</v>
+        <v>-1.6161498870327404</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>0.19478978286592255</v>
+        <v>-1.2315789652490368</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>0.0012022609944955178</v>
+        <v>0.4091156072385538</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>0.7415543800429992</v>
+        <v>-0.316636437447241</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>-0.4114586038773811</v>
+        <v>0.7139425299668284</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.5602974168735567</v>
+        <v>0.13788716354690364</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.4549671382745221</v>
+        <v>-1.1685793371058457</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.4728339481049404</v>
+        <v>0.8236556535231199</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>0.9209842247767098</v>
+        <v>1.6236771838592372</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>-0.841173044046058</v>
+        <v>-0.2713116874702267</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>-0.10168345051620699</v>
+        <v>0.9692908974654714</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>-0.8103020569105351</v>
+        <v>-0.38683530897648455</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>-0.6078767173922195</v>
+        <v>2.2209947811815445</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>-0.41341816339376924</v>
+        <v>-0.8623602643973138</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.6832468206348016</v>
+        <v>1.0404288018983978</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>1.0737180569302975</v>
+        <v>2.026756193667661</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>1.1684801412937753</v>
+        <v>-1.414603173856944</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>2.009485782248271</v>
+        <v>-0.8869525719765969</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>-2.416858601615043</v>
+        <v>-0.5475414745270272</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>-0.34904910382733306</v>
+        <v>-2.0568925635544955</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-0.9162122668048036</v>
+        <v>-0.8459757089958613</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>0.122931787566388</v>
+        <v>-0.31046752726191823</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>0.5627694827431033</v>
+        <v>-1.0076759707549243</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>0.46925724168110944</v>
+        <v>-0.8611101558997956</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>-0.6588166386767063</v>
+        <v>0.9254557689138351</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>-0.605618747934958</v>
+        <v>0.27067932062295025</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>0.41948945690917555</v>
+        <v>-0.10763539559399664</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>0.5133766903770718</v>
+        <v>0.6520759430359863</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>-0.9149031593542087</v>
+        <v>0.26925694375608494</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>-2.261680594772701</v>
+        <v>1.1442845877150818</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>1.3153335772158798</v>
+        <v>0.2104543690155879</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>0.22604113013614952</v>
+        <v>0.26219292827376567</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>1.6137764868696134</v>
+        <v>1.4824918326784773</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>-0.08502270171554745</v>
+        <v>-0.06854114333677902</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.4155231108615756</v>
+        <v>-0.2848393977506468</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-0.6574506372223694</v>
+        <v>-1.2043529580586467</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>-0.006071462947491247</v>
+        <v>0.8350419116666549</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>0.030183222941952748</v>
+        <v>-1.6047969091920185</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>0.7707321399682807</v>
+        <v>-1.559843522367192</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.06632355022980949</v>
+        <v>0.2968651840867107</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>0.2110650061172854</v>
+        <v>-0.1160476597804988</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>-0.12605354035460684</v>
+        <v>-1.3715625675986571</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>0.8444393523091835</v>
+        <v>0.3614807636624904</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>-0.6588580613973267</v>
+        <v>2.224965555461753</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>1.1061332103065746</v>
+        <v>0.02190540139325348</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>-1.6540306888763303</v>
+        <v>0.8736477068070121</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>0.2917215390689257</v>
+        <v>-0.37225242103646544</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>1.9621097144714965</v>
+        <v>-0.7805813853752901</v>
       </c>
     </row>
   </sheetData>
